--- a/Excel/2.1 Esign - Full API Services.xlsx
+++ b/Excel/2.1 Esign - Full API Services.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\ATeSign\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="7065" windowWidth="18525" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="API Registrasi" r:id="rId1" sheetId="17"/>
-    <sheet name="API Check Registrasi" r:id="rId2" sheetId="18"/>
+    <sheet name="API Registrasi" sheetId="17" r:id="rId1"/>
+    <sheet name="API Check Registrasi" sheetId="18" r:id="rId2"/>
+    <sheet name="API Check Stamping Status" sheetId="19" r:id="rId3"/>
+    <sheet name="API Request Stamping" sheetId="20" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="135">
   <si>
     <t>Status</t>
   </si>
@@ -290,19 +292,181 @@
   </si>
   <si>
     <t>Format email harus username@domain.tld</t>
+  </si>
+  <si>
+    <t>refNumber</t>
+  </si>
+  <si>
+    <t>use Correct Tenant Code</t>
+  </si>
+  <si>
+    <t>Wrong tenant Code</t>
+  </si>
+  <si>
+    <t>Tenant Code tidak ada</t>
+  </si>
+  <si>
+    <t>ref num belum di ttd</t>
+  </si>
+  <si>
+    <t>ref num sudah di ttd sebagian</t>
+  </si>
+  <si>
+    <t>ref num sudah di tdd</t>
+  </si>
+  <si>
+    <t>ref num sudah di tdd dan stamping</t>
+  </si>
+  <si>
+    <t>slado stamp tidak cukup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref num sudah dalam proses stamping </t>
+  </si>
+  <si>
+    <t>ref num exist tapi milik tenant lain</t>
+  </si>
+  <si>
+    <t>ref num tidak exist</t>
+  </si>
+  <si>
+    <t>"refnumtidakexist001"</t>
+  </si>
+  <si>
+    <t>"013130211100003"</t>
+  </si>
+  <si>
+    <t>"7777"</t>
+  </si>
+  <si>
+    <t>ref num sudah dalam proses stamping proses materai = 51</t>
+  </si>
+  <si>
+    <t>"01312911110009_1"</t>
+  </si>
+  <si>
+    <t>"0000003"</t>
+  </si>
+  <si>
+    <t>"873"</t>
+  </si>
+  <si>
+    <t>"9090"</t>
+  </si>
+  <si>
+    <t>Ref num 1 document</t>
+  </si>
+  <si>
+    <t>"91003202215062000_1"</t>
+  </si>
+  <si>
+    <t>"20230126103000"</t>
+  </si>
+  <si>
+    <t>ref num dengan proses materai = 53</t>
+  </si>
+  <si>
+    <t>"124214214412"</t>
+  </si>
+  <si>
+    <t>"124124124124"</t>
+  </si>
+  <si>
+    <t>ref num dengan proses materai = 51 2 document 1 UPL_CON dan 1 NOT_STR</t>
+  </si>
+  <si>
+    <t>"WS-MOCK-VIDA-0001"</t>
+  </si>
+  <si>
+    <t>ref num dengan proses materai = 51 2 document 1 UPL_CON dan 1 STM_SDT</t>
+  </si>
+  <si>
+    <t>"1016120220410045"</t>
+  </si>
+  <si>
+    <t>ref num dengan proses materai = 51 2 dokumen error stamping</t>
+  </si>
+  <si>
+    <t>"WS-ANDY-VIDA-0033"</t>
+  </si>
+  <si>
+    <t>ref num dengan proses materai = 51 2 document 1 NOT_STR dan 1 UPL_OSS</t>
+  </si>
+  <si>
+    <t>"20230130100700"</t>
+  </si>
+  <si>
+    <t>ref num dengan proses materai = 51 2 document 1 UPL_DOC dan 1 NOT_STR</t>
+  </si>
+  <si>
+    <t>"019120211100101A"</t>
+  </si>
+  <si>
+    <t>"WS-MOCK-VIDA-0005"</t>
+  </si>
+  <si>
+    <t>ref num dengan proses materai = 51 2 document 1 NOT_STR dan 1 GEN_SDT</t>
+  </si>
+  <si>
+    <t>ref num dengan proses materai = 51 1 Document UPL_DOC</t>
+  </si>
+  <si>
+    <t>Tenant code tidak ditemukan</t>
+  </si>
+  <si>
+    <t>Kontrak 013130211100003 tidak ditemukan di tenant WOMF</t>
+  </si>
+  <si>
+    <t>Kontrak refnumtidakexist001 tidak ditemukan di tenant WOMF</t>
+  </si>
+  <si>
+    <t>"1020120220603533"</t>
+  </si>
+  <si>
+    <t>Ref num 2 document belom proses stamping</t>
+  </si>
+  <si>
+    <t>"667_6"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,51 +591,64 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="5" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" quotePrefix="1" xfId="1"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="10" numFmtId="0" quotePrefix="1" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="5" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -488,10 +665,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -655,21 +832,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -686,7 +863,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -740,8 +917,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -749,7 +926,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="18" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="18" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -798,7 +975,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row customHeight="1" ht="50.25" r="3" spans="1:18">
+    <row r="3" spans="1:18" ht="50.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -867,7 +1044,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:18">
+    <row r="6" spans="1:18" ht="14.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -887,7 +1064,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:18">
+    <row r="7" spans="1:18" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1360,25 +1537,25 @@
       <c r="R26" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="3" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="22" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="22" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -1487,7 +1664,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row customHeight="1" ht="50.25" r="3" spans="1:22">
+    <row r="3" spans="1:22" ht="50.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1546,59 +1723,59 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <f ref="B4:O4" si="0" t="shared">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
+        <f t="shared" ref="B4:O4" si="0">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f ref="F4" si="1" t="shared">COUNTIFS($A9:$A12,"*$*",F9:F12,"")</f>
+        <f t="shared" ref="F4" si="1">COUNTIFS($A9:$A12,"*$*",F9:F12,"")</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="2"/>
@@ -1633,7 +1810,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:22">
+    <row r="6" spans="1:22" ht="14.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1657,7 +1834,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:22">
+    <row r="7" spans="1:22" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2005,21 +2182,1372 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14:O14" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:O14">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId1" ref="L9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId2" ref="J9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId3" ref="K9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId4" ref="O9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId5" ref="H9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId6" ref="B9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId7" ref="C9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId8" ref="I9"/>
+    <hyperlink ref="L9" r:id="rId1" display="USER@AD-INS.COM"/>
+    <hyperlink ref="J9" r:id="rId2" display="USER@AD-INS.COM"/>
+    <hyperlink ref="K9" r:id="rId3" display="USER@AD-INS.COM"/>
+    <hyperlink ref="O9" r:id="rId4" display="USER@AD-INS.COM"/>
+    <hyperlink ref="H9" r:id="rId5" display="USER@AD-INS.COM"/>
+    <hyperlink ref="B9" r:id="rId6" display="USER@AD-INS.COM"/>
+    <hyperlink ref="C9" r:id="rId7" display="USER@AD-INS.COM"/>
+    <hyperlink ref="I9" r:id="rId8" display="USER@AD-INS.COM"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="23" width="22" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" s="27" customFormat="1" ht="60">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" ht="78.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:N4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:P4" si="1">COUNTIFS($A9:$A11,"*$*",O9:O11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" ref="Q4:R4" si="2">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" ref="S4" si="3">COUNTIFS($A9:$A11,"*$*",S9:S11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="5"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:S15 B13:S13">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="22" width="22" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" ht="50.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:L4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" ht="14.25" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" ht="14.25" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:O13 B15:O15">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="L9" r:id="rId1" display="USER@AD-INS.COM"/>
+    <hyperlink ref="J9" r:id="rId2" display="USER@AD-INS.COM"/>
+    <hyperlink ref="K9" r:id="rId3" display="USER@AD-INS.COM"/>
+    <hyperlink ref="H9" r:id="rId4" display="USER@AD-INS.COM"/>
+    <hyperlink ref="B9" r:id="rId5" display="USER@AD-INS.COM"/>
+    <hyperlink ref="C9" r:id="rId6" display="USER@AD-INS.COM"/>
+    <hyperlink ref="I9" r:id="rId7" display="USER@AD-INS.COM"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Excel/2.1 Esign - Full API Services.xlsx
+++ b/Excel/2.1 Esign - Full API Services.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="API Registrasi" sheetId="17" r:id="rId1"/>
     <sheet name="API Check Registrasi" sheetId="18" r:id="rId2"/>
     <sheet name="API Check Stamping Status" sheetId="19" r:id="rId3"/>
-    <sheet name="API Request Stamping" sheetId="20" r:id="rId4"/>
+    <sheet name="API Check Signing Status" sheetId="21" r:id="rId4"/>
+    <sheet name="API Request Stamping" sheetId="20" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="149">
   <si>
     <t>Status</t>
   </si>
@@ -427,18 +428,67 @@
   </si>
   <si>
     <t>"667_6"</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 not str dan 1 lagi proses upl doc</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 not str dan 1 lagi proses gen sdt</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 not str dan 1 lagi proses stm sdt</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 not str dan 1 lagi proses upl oss</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 not str dan 1 lagi proses upl con</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 not str dan 1 lagi proses sdt fin</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 sdt fin dan 1 lagi proses upl doc</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 sdt fin dan 1 lagi proses gent sdt</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 sdt fin dan 1 lagi proses stm sdt</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 sdt fin dan 1 lagi proses upl oss</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 sdt fin dan 1 lagi proses upl con</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 stm sdt dan 1 lagi proses sdt fin</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 stm sdt dan 1 lagi proses gen sdt</t>
+  </si>
+  <si>
+    <t>""</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -592,51 +642,55 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2203,10 +2257,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2216,100 +2270,158 @@
     <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="23" width="22" customWidth="1" collapsed="1"/>
+    <col min="24" max="32" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" s="27" customFormat="1" ht="60">
+      <c r="T1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" s="27" customFormat="1" ht="60">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" ht="78.75" customHeight="1">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+    </row>
+    <row r="3" spans="1:37" ht="78.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2367,12 +2479,52 @@
       <c r="S3" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="T3" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2445,15 +2597,63 @@
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" ref="S4" si="3">COUNTIFS($A9:$A11,"*$*",S9:S11,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23">
+        <f t="shared" ref="S4:AF4" si="3">COUNTIFS($A9:$A11,"*$*",S9:S11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2477,8 +2677,17 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" ht="14.25" customHeight="1">
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="1:37" ht="14.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2502,8 +2711,17 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" ht="14.25" customHeight="1">
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:37" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2527,8 +2745,17 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:37">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2551,11 +2778,20 @@
       <c r="R8" s="3"/>
       <c r="S8" s="4"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2613,12 +2849,47 @@
       <c r="S9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="T9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF9" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -2644,8 +2915,17 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="1" t="s">
         <v>90</v>
       </c>
@@ -2703,12 +2983,47 @@
       <c r="S11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="5"/>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="T11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="U11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="V11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="W11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="X11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF11" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
       <c r="A12" s="15" t="s">
         <v>69</v>
       </c>
@@ -2729,13 +3044,22 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+    </row>
+    <row r="13" spans="1:37">
       <c r="A13" s="11" t="s">
         <v>70</v>
       </c>
@@ -2793,12 +3117,47 @@
       <c r="S13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="T13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF13" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
       <c r="A14" s="11" t="s">
         <v>71</v>
       </c>
@@ -2826,8 +3185,17 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+    </row>
+    <row r="15" spans="1:37">
       <c r="A15" s="24" t="s">
         <v>91</v>
       </c>
@@ -2885,12 +3253,47 @@
       <c r="S15" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="T15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF15" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
       <c r="A16" s="24" t="s">
         <v>92</v>
       </c>
@@ -2916,10 +3319,19 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:S15 B13:S13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:AF13 B15:AF15">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2929,6 +3341,1091 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:AF2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="23" width="22" customWidth="1" collapsed="1"/>
+    <col min="24" max="32" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" s="27" customFormat="1" ht="60">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+    </row>
+    <row r="3" spans="1:37" ht="78.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:AF4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="1:37" ht="14.25" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:37" ht="14.25" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF9" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="U11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="V11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="W11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="X11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF11" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF13" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF15" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:AF13 B15:AF15">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V16"/>
   <sheetViews>

--- a/Excel/2.1 Esign - Full API Services.xlsx
+++ b/Excel/2.1 Esign - Full API Services.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\ATeSign\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065" firstSheet="2" activeTab="3"/>
+    <workbookView activeTab="3" firstSheet="2" windowHeight="7065" windowWidth="18525" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="API Registrasi" sheetId="17" r:id="rId1"/>
-    <sheet name="API Check Registrasi" sheetId="18" r:id="rId2"/>
-    <sheet name="API Check Stamping Status" sheetId="19" r:id="rId3"/>
-    <sheet name="API Check Signing Status" sheetId="21" r:id="rId4"/>
-    <sheet name="API Request Stamping" sheetId="20" r:id="rId5"/>
+    <sheet name="API Registrasi" r:id="rId1" sheetId="17"/>
+    <sheet name="API Check Registrasi" r:id="rId2" sheetId="18"/>
+    <sheet name="API Check Stamping Status" r:id="rId3" sheetId="19"/>
+    <sheet name="API Check Signing Status" r:id="rId4" sheetId="21"/>
+    <sheet name="API Request Stamping" r:id="rId5" sheetId="20"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="163">
   <si>
     <t>Status</t>
   </si>
@@ -470,18 +470,68 @@
   </si>
   <si>
     <t>""</t>
+  </si>
+  <si>
+    <t>Request dengan API key salah</t>
+  </si>
+  <si>
+    <t>Request dengan tenant code tidak ada</t>
+  </si>
+  <si>
+    <t>Request dengan ref number exist tapi milik tenant lain</t>
+  </si>
+  <si>
+    <t>Request dengan ref number tidak exist</t>
+  </si>
+  <si>
+    <t>Request dengan ref number belum di ttd</t>
+  </si>
+  <si>
+    <t>Request dengan ref number sudah partial di ttd</t>
+  </si>
+  <si>
+    <t>Request dengan ref number sudah di ttd</t>
+  </si>
+  <si>
+    <t>Request dengan ref number sudah di ttd dan stamping</t>
+  </si>
+  <si>
+    <t>Request dengan ref number dengan 3 signer</t>
+  </si>
+  <si>
+    <t>Request dengan ref number dengan 2 signer</t>
+  </si>
+  <si>
+    <t>Request dengan 1 ref number 1 document</t>
+  </si>
+  <si>
+    <t>Request dengan 1 ref number 2 document</t>
+  </si>
+  <si>
+    <t>Request dengan data yang ada gagal tanda tangan</t>
+  </si>
+  <si>
+    <t>Unexecutedd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <numFmts count="0"/>
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -588,6 +638,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -603,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -639,70 +695,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="36">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="11" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="16" numFmtId="0" quotePrefix="1" xfId="1"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="16" numFmtId="0" quotePrefix="1" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="11" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -719,10 +795,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -886,21 +962,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -917,7 +993,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -971,8 +1047,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -980,7 +1056,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="18" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1029,7 +1105,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="50.25" customHeight="1">
+    <row customHeight="1" ht="50.25" r="3" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1098,7 +1174,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="6" spans="1:18">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1118,7 +1194,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="7" spans="1:18">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1591,13 +1667,13 @@
       <c r="R26" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:O2"/>
@@ -1605,11 +1681,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="22" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="3" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="22" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -1718,7 +1794,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="50.25" customHeight="1">
+    <row customHeight="1" ht="50.25" r="3" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1777,59 +1853,59 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:O4" si="0">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
+        <f ref="B4:O4" si="0" t="shared">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4" si="1">COUNTIFS($A9:$A12,"*$*",F9:F12,"")</f>
+        <f ref="F4" si="1" t="shared">COUNTIFS($A9:$A12,"*$*",F9:F12,"")</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="P4" s="2"/>
@@ -1864,7 +1940,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="6" spans="1:22">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1888,7 +1964,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="7" spans="1:22">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2236,28 +2312,28 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:O14">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14:O14" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L9" r:id="rId1" display="USER@AD-INS.COM"/>
-    <hyperlink ref="J9" r:id="rId2" display="USER@AD-INS.COM"/>
-    <hyperlink ref="K9" r:id="rId3" display="USER@AD-INS.COM"/>
-    <hyperlink ref="O9" r:id="rId4" display="USER@AD-INS.COM"/>
-    <hyperlink ref="H9" r:id="rId5" display="USER@AD-INS.COM"/>
-    <hyperlink ref="B9" r:id="rId6" display="USER@AD-INS.COM"/>
-    <hyperlink ref="C9" r:id="rId7" display="USER@AD-INS.COM"/>
-    <hyperlink ref="I9" r:id="rId8" display="USER@AD-INS.COM"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId1" ref="L9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId2" ref="J9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId3" ref="K9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId4" ref="O9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId5" ref="H9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId6" ref="B9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId7" ref="C9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId8" ref="I9"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="T1" sqref="T1:AF2"/>
@@ -2265,12 +2341,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="23" width="22" customWidth="1" collapsed="1"/>
-    <col min="24" max="32" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="5" max="23" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="24" max="32" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -2371,7 +2447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="27" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="2" s="27" spans="1:37">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2421,7 +2497,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:37" ht="78.75" customHeight="1">
+    <row customHeight="1" ht="78.75" r="3" spans="1:37">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2529,127 +2605,127 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:N4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f ref="B4:N4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" ref="O4:P4" si="1">COUNTIFS($A9:$A11,"*$*",O9:O11,"")</f>
+        <f ref="O4:P4" si="1" t="shared">COUNTIFS($A9:$A11,"*$*",O9:O11,"")</f>
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" ref="Q4:R4" si="2">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
+        <f ref="Q4:R4" si="2" t="shared">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" ref="S4:AF4" si="3">COUNTIFS($A9:$A11,"*$*",S9:S11,"")</f>
+        <f ref="S4:AF4" si="3" t="shared">COUNTIFS($A9:$A11,"*$*",S9:S11,"")</f>
         <v>0</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AB4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AC4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AD4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AE4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AF4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -2687,7 +2763,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
-    <row r="6" spans="1:37" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="6" spans="1:37">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2721,7 +2797,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
-    <row r="7" spans="1:37" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="7" spans="1:37">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3331,146 +3407,101 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:AF13 B15:AF15">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:AF13 B15:AF15" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:AF2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="23" width="22" customWidth="1" collapsed="1"/>
-    <col min="24" max="32" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="5" max="16" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" s="27" customFormat="1" ht="60">
+    </row>
+    <row customFormat="1" r="2" s="27" spans="1:17">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>130</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -3478,267 +3509,154 @@
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-    </row>
-    <row r="3" spans="1:37" ht="78.75" customHeight="1">
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="78.75" r="3" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>133</v>
+        <v>157</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>158</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-    </row>
-    <row r="4" spans="1:37">
+        <v>161</v>
+      </c>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:AF4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f ref="B4:P4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
+        <f ref="Q4" si="1" t="shared">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3756,23 +3674,8 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-    </row>
-    <row r="6" spans="1:37" ht="14.25" customHeight="1">
+    </row>
+    <row customHeight="1" ht="14.25" r="6" spans="1:17">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3790,23 +3693,8 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-    </row>
-    <row r="7" spans="1:37" ht="14.25" customHeight="1">
+    </row>
+    <row customHeight="1" ht="14.25" r="7" spans="1:17">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3824,23 +3712,8 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="1:37">
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -3860,23 +3733,8 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-    </row>
-    <row r="9" spans="1:37">
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3928,53 +3786,8 @@
       <c r="Q9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="R9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="W9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF9" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37">
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -3994,23 +3807,8 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-    </row>
-    <row r="11" spans="1:37">
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>90</v>
       </c>
@@ -4026,7 +3824,7 @@
       <c r="E11" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="34" t="s">
         <v>104</v>
       </c>
       <c r="G11" s="28" t="s">
@@ -4059,56 +3857,11 @@
       <c r="P11" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="Q11" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="R11" s="24" t="s">
+      <c r="Q11" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T11" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="U11" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="V11" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="W11" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="X11" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y11" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z11" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA11" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB11" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC11" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD11" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE11" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF11" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37">
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="15" t="s">
         <v>69</v>
       </c>
@@ -4128,23 +3881,8 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-    </row>
-    <row r="13" spans="1:37">
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="11" t="s">
         <v>70</v>
       </c>
@@ -4196,53 +3934,8 @@
       <c r="Q13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="R13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="V13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="W13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF13" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37">
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="11" t="s">
         <v>71</v>
       </c>
@@ -4264,23 +3957,8 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-    </row>
-    <row r="15" spans="1:37">
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="24" t="s">
         <v>91</v>
       </c>
@@ -4332,53 +4010,8 @@
       <c r="Q15" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="R15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="W15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF15" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37">
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="24" t="s">
         <v>92</v>
       </c>
@@ -4398,36 +4031,87 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
+    </row>
+    <row ht="15.75" r="36" spans="2:2" thickBot="1"/>
+    <row ht="15.75" r="37" spans="2:2" thickBot="1">
+      <c r="B37" s="33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row ht="15.75" r="38" spans="2:2" thickBot="1">
+      <c r="B38" s="33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row ht="15.75" r="39" spans="2:2" thickBot="1">
+      <c r="B39" s="33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row ht="15.75" r="40" spans="2:2" thickBot="1">
+      <c r="B40" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row ht="15.75" r="41" spans="2:2" thickBot="1">
+      <c r="B41" s="33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row ht="15.75" r="42" spans="2:2" thickBot="1">
+      <c r="B42" s="33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row ht="15.75" r="43" spans="2:2" thickBot="1">
+      <c r="B43" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row ht="15.75" r="44" spans="2:2" thickBot="1">
+      <c r="B44" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row ht="15.75" r="45" spans="2:2" thickBot="1">
+      <c r="B45" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row ht="15.75" r="46" spans="2:2" thickBot="1">
+      <c r="B46" s="33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="15.75" r="47" spans="2:2" thickBot="1">
+      <c r="B47" s="33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="15.75" r="48" spans="2:2" thickBot="1">
+      <c r="B48" s="33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row ht="15.75" r="49" spans="2:2" thickBot="1">
+      <c r="B49" s="33" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:AF13 B15:AF15">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:Q13 B15:Q15" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -4435,11 +4119,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="22" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="3" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="22" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -4530,7 +4214,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="50.25" customHeight="1">
+    <row customHeight="1" ht="50.25" r="3" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -4583,47 +4267,47 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:L4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f ref="B4:L4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="2"/>
@@ -4661,7 +4345,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="6" spans="1:22">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4685,7 +4369,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="7" spans="1:22">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5031,20 +4715,20 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:O13 B15:O15">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:O13 B15:O15" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L9" r:id="rId1" display="USER@AD-INS.COM"/>
-    <hyperlink ref="J9" r:id="rId2" display="USER@AD-INS.COM"/>
-    <hyperlink ref="K9" r:id="rId3" display="USER@AD-INS.COM"/>
-    <hyperlink ref="H9" r:id="rId4" display="USER@AD-INS.COM"/>
-    <hyperlink ref="B9" r:id="rId5" display="USER@AD-INS.COM"/>
-    <hyperlink ref="C9" r:id="rId6" display="USER@AD-INS.COM"/>
-    <hyperlink ref="I9" r:id="rId7" display="USER@AD-INS.COM"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId1" ref="L9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId2" ref="J9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId3" ref="K9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId4" ref="H9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId5" ref="B9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId6" ref="C9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId7" ref="I9"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Excel/2.1 Esign - Full API Services.xlsx
+++ b/Excel/2.1 Esign - Full API Services.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\ATeSign\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="2" windowHeight="7065" windowWidth="18525" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065"/>
   </bookViews>
   <sheets>
-    <sheet name="API Registrasi" r:id="rId1" sheetId="17"/>
-    <sheet name="API Check Registrasi" r:id="rId2" sheetId="18"/>
-    <sheet name="API Check Stamping Status" r:id="rId3" sheetId="19"/>
-    <sheet name="API Check Signing Status" r:id="rId4" sheetId="21"/>
-    <sheet name="API Request Stamping" r:id="rId5" sheetId="20"/>
+    <sheet name="API Registrasi" sheetId="17" r:id="rId1"/>
+    <sheet name="API Check Registrasi" sheetId="18" r:id="rId2"/>
+    <sheet name="API Check Stamping Status" sheetId="19" r:id="rId3"/>
+    <sheet name="API Check Signing Status" sheetId="21" r:id="rId4"/>
+    <sheet name="API Request Stamping" sheetId="20" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="284">
   <si>
     <t>Status</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Objective</t>
   </si>
   <si>
-    <t>Geenrate Link Success</t>
-  </si>
-  <si>
     <t>Is Mandatory Complete</t>
   </si>
   <si>
@@ -61,27 +58,15 @@
     <t>nama</t>
   </si>
   <si>
-    <t>"Hendra W"</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
-    <t>"wowada@gmail.com"</t>
-  </si>
-  <si>
     <t>tmpLahir</t>
   </si>
   <si>
-    <t>"BOGOR"</t>
-  </si>
-  <si>
     <t>tglLahir</t>
   </si>
   <si>
-    <t>"2003-02-02"</t>
-  </si>
-  <si>
     <t>jenisKelamin</t>
   </si>
   <si>
@@ -91,51 +76,27 @@
     <t>tlp</t>
   </si>
   <si>
-    <t>"08558491208504"</t>
-  </si>
-  <si>
     <t>idKtp</t>
   </si>
   <si>
-    <t>"6598989987654321"</t>
-  </si>
-  <si>
     <t>alamat</t>
   </si>
   <si>
-    <t>"JL. SAWO NO.10 BANTAR KEMANG"</t>
-  </si>
-  <si>
     <t>kecamatan</t>
   </si>
   <si>
-    <t>"Bogor Selatan"</t>
-  </si>
-  <si>
     <t>kelurahan</t>
   </si>
   <si>
-    <t>"Baranangsiang"</t>
-  </si>
-  <si>
     <t>kota</t>
   </si>
   <si>
-    <t>"Bogor"</t>
-  </si>
-  <si>
     <t>provinsi</t>
   </si>
   <si>
-    <t>"Jawa Barat"</t>
-  </si>
-  <si>
     <t>kodePos</t>
   </si>
   <si>
-    <t>"16143"</t>
-  </si>
-  <si>
     <t>selfPhoto</t>
   </si>
   <si>
@@ -512,19 +473,511 @@
   </si>
   <si>
     <t>Unexecutedd</t>
+  </si>
+  <si>
+    <t>Register dengan API key salah</t>
+  </si>
+  <si>
+    <t>Register dengan tanpa email tapi email service off</t>
+  </si>
+  <si>
+    <t>Register dengan tanpa email dan email service on</t>
+  </si>
+  <si>
+    <t>Register dengan tenant code tidak ditemukan</t>
+  </si>
+  <si>
+    <t>Register dengan NIK dibawah 16 digit</t>
+  </si>
+  <si>
+    <t>Register dengan NIK tidak angka semua</t>
+  </si>
+  <si>
+    <t>Register dengan format tanggal lahir tidak sesuai</t>
+  </si>
+  <si>
+    <t>Register dengan password kurang dari 8 karakter</t>
+  </si>
+  <si>
+    <t>Register dengan password &gt;= 8 karakter tapi tidak kompleks</t>
+  </si>
+  <si>
+    <t>Register dengan jenis kelamin diluar aturan (M/F)</t>
+  </si>
+  <si>
+    <t>Register dengan data NIK, Phone, dan Email sudah terdaftar sama persis dengan di eSignHub</t>
+  </si>
+  <si>
+    <t>Register dengan data NIK dan Phone sudah terdaftar sama persis dengan di eSignHub</t>
+  </si>
+  <si>
+    <t>Register dengan dukcapil salah (misal , nama salah/tgl lahir salah)</t>
+  </si>
+  <si>
+    <t>Register dengan liveness salah</t>
+  </si>
+  <si>
+    <t>Register dengan face compare salah</t>
+  </si>
+  <si>
+    <t>Register dengan data NIK, Phone, dan Email sudah terdaftar sama persis dengan di eSignHub tapi buat vendor lain (bukan vendor utama tenant)</t>
+  </si>
+  <si>
+    <t>NIK sudah terdaftar tetapi phone dan email berbeda</t>
+  </si>
+  <si>
+    <t>NIK sudah terdaftar tetapi email berbeda (phone sama)</t>
+  </si>
+  <si>
+    <t>NIK sudah terdaftar tetapi phone berbeda (email sama)</t>
+  </si>
+  <si>
+    <t>Phone sudah terdaftar tetapi NIK dan email berbeda</t>
+  </si>
+  <si>
+    <t>Phone sudah terdaftar tetapi NIK berbeda (email sama)</t>
+  </si>
+  <si>
+    <t>Phone sudah terdaftar tetapi email berbeda (NIK sama)</t>
+  </si>
+  <si>
+    <t>Email sudah terdaftar tetapi NIK dan Phone berbeda</t>
+  </si>
+  <si>
+    <t>Email sudah terdaftar tetapi NIK berbeda (phone sama)</t>
+  </si>
+  <si>
+    <t>Email sudah terdaftar tetapi phone berbeda (NIK sama)</t>
+  </si>
+  <si>
+    <t>NIK sudah digunakan dan data phone dan email sama</t>
+  </si>
+  <si>
+    <t>"Albert"</t>
+  </si>
+  <si>
+    <t>"Albert@gmail.COM"</t>
+  </si>
+  <si>
+    <t>"JAKARTA"</t>
+  </si>
+  <si>
+    <t>"2000-02-02"</t>
+  </si>
+  <si>
+    <t>"081122334400"</t>
+  </si>
+  <si>
+    <t>"2301501556622000"</t>
+  </si>
+  <si>
+    <t>"JL KEMANG NO 001"</t>
+  </si>
+  <si>
+    <t>"KEBON JERUK"</t>
+  </si>
+  <si>
+    <t>"JAKARTA BARAT"</t>
+  </si>
+  <si>
+    <t>"DKI JAKARTA"</t>
+  </si>
+  <si>
+    <t>"11530"</t>
+  </si>
+  <si>
+    <t>"idPhoto"</t>
+  </si>
+  <si>
+    <t>"P@ssw0rd"</t>
+  </si>
+  <si>
+    <t>"23015015"</t>
+  </si>
+  <si>
+    <t>"2301501556ABCDE"</t>
+  </si>
+  <si>
+    <t>"02/02/2000"</t>
+  </si>
+  <si>
+    <t>"P@ss"</t>
+  </si>
+  <si>
+    <t>"passwordd"</t>
+  </si>
+  <si>
+    <t>"T"</t>
+  </si>
+  <si>
+    <t>"userCIIH"</t>
+  </si>
+  <si>
+    <t>"081233444406"</t>
+  </si>
+  <si>
+    <t>"Palembang"</t>
+  </si>
+  <si>
+    <t>"1980-01-01"</t>
+  </si>
+  <si>
+    <t>"userCIIH@AD-INS.COM"</t>
+  </si>
+  <si>
+    <t>"3511000101802887"</t>
+  </si>
+  <si>
+    <t>"KEBON"</t>
+  </si>
+  <si>
+    <t>"Jeruk"</t>
+  </si>
+  <si>
+    <t>"JL KEMANG"</t>
+  </si>
+  <si>
+    <t>"Jakarta"</t>
+  </si>
+  <si>
+    <t>"12862"</t>
+  </si>
+  <si>
+    <t>"userCIIH@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"userCIBA@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"FENDYTIO@ADINS.COM"</t>
+  </si>
+  <si>
+    <t>"2738293846273849"</t>
+  </si>
+  <si>
+    <t>"081220380088"</t>
+  </si>
+  <si>
+    <t>"FEN"</t>
+  </si>
+  <si>
+    <t>"2000-02-20"</t>
+  </si>
+  <si>
+    <t>"userCIIHA@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"081233444488"</t>
+  </si>
+  <si>
+    <t>"081233444477"</t>
+  </si>
+  <si>
+    <t>"3511000101808888"</t>
+  </si>
+  <si>
+    <t>"777"</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (NIK)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (alamat)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (Nama)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (tempat lahir)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (tgl lahir)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (jenis kelamin)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (no telpon)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (kecamatan)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (Kelurahan)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (Kota)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (Provinsi)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (kodepos)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (selfphoto)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (idphoto)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (password)</t>
+  </si>
+  <si>
+    <t>"QzpcVXNlcnNcZmVuZHkudGlvXERvd25sb2Fkc1xNT0RFTCBTS1JJUFNJLmpwZw=="</t>
+  </si>
+  <si>
+    <t>pasFoto.Jpg</t>
+  </si>
+  <si>
+    <t>"Test nama"</t>
+  </si>
+  <si>
+    <t>"test123@gmail.com"</t>
+  </si>
+  <si>
+    <t>"tempat lahir"</t>
+  </si>
+  <si>
+    <t>"2023-03-28"</t>
+  </si>
+  <si>
+    <t>"0812345678"</t>
+  </si>
+  <si>
+    <t>"1234567890123456"</t>
+  </si>
+  <si>
+    <t>base64 invalid self photo</t>
+  </si>
+  <si>
+    <t>enter Correct base64 SelfPhoto</t>
+  </si>
+  <si>
+    <t>"userCIBA"</t>
+  </si>
+  <si>
+    <t>"3511000101802810"</t>
+  </si>
+  <si>
+    <t>"081199330000"</t>
+  </si>
+  <si>
+    <t>"081199330011"</t>
+  </si>
+  <si>
+    <t>"3511000101802811"</t>
+  </si>
+  <si>
+    <t>"userCIBB"</t>
+  </si>
+  <si>
+    <t>"userCIBB@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>SelfPhoto.JPEG</t>
+  </si>
+  <si>
+    <t>"USERCIBG"</t>
+  </si>
+  <si>
+    <t>"USERCIBG@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"3511000101802816"</t>
+  </si>
+  <si>
+    <t>"081933555499"</t>
+  </si>
+  <si>
+    <t>tglLahir harus menggunakan format tanggal yyyy-MM-dd</t>
+  </si>
+  <si>
+    <t>Kode akses harus memiliki minimal 8 karakter</t>
+  </si>
+  <si>
+    <t>Kode akses baru harus mengandung huruf kapital, huruf kecil, angka, dan karakter spesial.</t>
+  </si>
+  <si>
+    <t>Kode jenis kelamin tidak valid</t>
+  </si>
+  <si>
+    <t>Anda sudah pernah terdaftar di eSignHub</t>
+  </si>
+  <si>
+    <t>NIK sudah digunakan oleh email yang berbeda dari data yang dikirim</t>
+  </si>
+  <si>
+    <t>nama harus diisi</t>
+  </si>
+  <si>
+    <t>tmpLahir harus diisi</t>
+  </si>
+  <si>
+    <t>tglLahir harus diisi</t>
+  </si>
+  <si>
+    <t>jenisKelamin harus diisi</t>
+  </si>
+  <si>
+    <t>tlp harus diisi</t>
+  </si>
+  <si>
+    <t>idKtp harus diisi</t>
+  </si>
+  <si>
+    <t>alamat harus diisi</t>
+  </si>
+  <si>
+    <t>kecamatan harus diisi</t>
+  </si>
+  <si>
+    <t>kelurahan harus diisi</t>
+  </si>
+  <si>
+    <t>kota harus diisi</t>
+  </si>
+  <si>
+    <t>provinsi harus diisi</t>
+  </si>
+  <si>
+    <t>kodePos harus diisi</t>
+  </si>
+  <si>
+    <t>selfPhoto harus diisi</t>
+  </si>
+  <si>
+    <t>idPhoto harus diisi</t>
+  </si>
+  <si>
+    <t>password harus diisi</t>
+  </si>
+  <si>
+    <t>Invalid image base64 String (selfiePhoto)</t>
+  </si>
+  <si>
+    <t>Verification failed (NIK is invalid or not registered in local authoritative source)</t>
+  </si>
+  <si>
+    <t>Verifikasi Liveness gagal. Harap mengambil Foto Selfie langsung. Pastikan wajah anda terlihat jelas tidak tertutup oleh aksesoris.</t>
+  </si>
+  <si>
+    <t>NIK sudah digunakan oleh no telp dan email yang berbeda dari data yang dikirim</t>
+  </si>
+  <si>
+    <t>No Telp sudah digunakan oleh NIK dan email yang berbeda dari data yang dikirim</t>
+  </si>
+  <si>
+    <t>Email sudah digunakan oleh NIK dan no telp yang berbeda dari data yang dikirim</t>
+  </si>
+  <si>
+    <t>No Telp sudah digunakan oleh NIK yang berbeda dari data yang dikirim</t>
+  </si>
+  <si>
+    <t>NIK sudah digunakan oleh no telp yang berbeda dari data yang dikirim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="18">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -645,7 +1098,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,6 +1108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,73 +1171,93 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="54">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="11" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="16" numFmtId="0" quotePrefix="1" xfId="1"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="15" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="16" numFmtId="0" quotePrefix="1" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="11" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -795,10 +1274,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -962,21 +1441,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -993,7 +1472,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1047,134 +1526,665 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3:AR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="18" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="31" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="28" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="40" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="43" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="46.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="1" t="s">
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" s="27" customFormat="1">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L2" t="s">
+        <v>260</v>
+      </c>
+      <c r="M2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O2" t="s">
+        <v>263</v>
+      </c>
+      <c r="P2" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>265</v>
+      </c>
+      <c r="R2" t="s">
+        <v>266</v>
+      </c>
+      <c r="S2" t="s">
+        <v>267</v>
+      </c>
+      <c r="T2" t="s">
+        <v>268</v>
+      </c>
+      <c r="U2" t="s">
+        <v>269</v>
+      </c>
+      <c r="V2" t="s">
+        <v>270</v>
+      </c>
+      <c r="W2" t="s">
+        <v>271</v>
+      </c>
+      <c r="X2" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row customHeight="1" ht="50.25" r="3" spans="1:18">
+      <c r="AF2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" ht="50.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="U3" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="V3" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="W3" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="X3" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y3" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z3" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA3" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB3" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" s="2">
-        <f>COUNTIFS($A9:$A23,"*$*",B9:B23,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18">
+        <f t="shared" ref="B4:AO4" si="0">COUNTIFS($A9:$A23,"*$*",B9:B23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4" si="1">COUNTIFS($A9:$A23,"*$*",F9:F23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ref="P4:R4" si="2">COUNTIFS($A9:$A23,"*$*",P9:P23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" ref="U4" si="3">COUNTIFS($A9:$A23,"*$*",U9:U23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <f t="shared" ref="V4:W4" si="4">COUNTIFS($A9:$A23,"*$*",V9:V23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <f t="shared" ref="AA4:AB4" si="5">COUNTIFS($A9:$A23,"*$*",AA9:AA23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:18">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+    </row>
+    <row r="6" spans="1:44" ht="14.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1193,8 +2203,34 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:18">
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+    </row>
+    <row r="7" spans="1:44" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1213,56 +2249,218 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+    </row>
+    <row r="8" spans="1:44">
       <c r="A8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+    </row>
+    <row r="9" spans="1:44">
       <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1281,411 +2479,2719 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+    </row>
+    <row r="11" spans="1:44">
       <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="S11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="T11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="U11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="V11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="W11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="X11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB11" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC11" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD11" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK11" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL11" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM11" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN11" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO11" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP11" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="AQ11" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR11" s="52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="S12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="T12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="U12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="V12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="W12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="X12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB12" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC12" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD12" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG12" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI12" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ12" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK12" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL12" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM12" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN12" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO12" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AP12" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ12" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR12" s="53" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="1" t="s">
+      <c r="B13" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC13" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP13" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="AQ13" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="AR13" s="36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="O14" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="R14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="S14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="T14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="U14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="V14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="W14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="X14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB14" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC14" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD14" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO14" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP14" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ14" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR14" s="52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="U15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="V15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="W15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="X15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR15" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="1" t="s">
+      <c r="B16" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q16" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="R16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="S16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="T16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="U16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="V16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="W16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="X16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB16" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC16" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD16" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH16" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK16" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL16" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM16" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN16" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO16" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="AP16" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ16" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR16" s="52" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B17" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="R17" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="S17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="T17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="U17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="V17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="W17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="X17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA17" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB17" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC17" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD17" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI17" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ17" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK17" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL17" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM17" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN17" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO17" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="AP17" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ17" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR17" s="52" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44">
+      <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="1" t="s">
+      <c r="B18" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="S18" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC18" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP18" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ18" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR18" s="36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="T19" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP19" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ19" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44">
+      <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="1" t="s">
+      <c r="B20" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="U20" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP20" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ20" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B21" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="V21" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP21" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ21" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR21" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="1" t="s">
+      <c r="B22" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="W22" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP22" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="AQ22" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR22" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44">
+      <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B23" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="X23" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AP23" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ23" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR23" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44">
+      <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="8" t="s">
+      <c r="B24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="L24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="N24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="O24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="P24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="R24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="S24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="T24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="U24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="V24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="W24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="X24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y24" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB24" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC24" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR24" s="51" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44">
+      <c r="A25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="O25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="P25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="R25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="S25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="T25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="U25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="V25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="W25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="X25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z25" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ25" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR25" s="36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44">
+      <c r="A26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+      <c r="B26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="M26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="N26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="O26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="R26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="S26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="T26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="U26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="V26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="W26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="X26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA26" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AP26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ26" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR26" s="37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44">
+      <c r="A27" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+      <c r="AN27" s="15"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="15"/>
+      <c r="AR27" s="15"/>
+    </row>
+    <row r="28" spans="1:44">
+      <c r="A28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR28" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44">
+      <c r="A29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+    </row>
+    <row r="30" spans="1:44">
+      <c r="A30" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR30" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44">
+      <c r="A31" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+    </row>
+    <row r="32" spans="1:44">
+      <c r="A32" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB32" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR32" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:AR30 B32:AR32 B28:AR28">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:O2"/>
+      <selection activeCell="A13" sqref="A13:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="3" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="22" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="22" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -1693,13 +5199,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1714,25 +5220,25 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="M1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="O1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="1"/>
@@ -1746,13 +5252,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -1767,25 +5273,25 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1794,51 +5300,51 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row customHeight="1" ht="50.25" r="3" spans="1:22">
+    <row r="3" spans="1:22" ht="50.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>77</v>
-      </c>
       <c r="I3" s="12" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="2"/>
@@ -1850,62 +5356,62 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f ref="B4:O4" si="0" t="shared">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
+        <f t="shared" ref="B4:O4" si="0">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f ref="F4" si="1" t="shared">COUNTIFS($A9:$A12,"*$*",F9:F12,"")</f>
+        <f t="shared" ref="F4" si="1">COUNTIFS($A9:$A12,"*$*",F9:F12,"")</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="2"/>
@@ -1940,7 +5446,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:22">
+    <row r="6" spans="1:22" ht="14.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1964,7 +5470,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:22">
+    <row r="7" spans="1:22" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1990,7 +5496,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2016,49 +5522,49 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="1"/>
@@ -2070,7 +5576,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2096,49 +5602,49 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="E11" s="11" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="N11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="O11" s="11" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="1"/>
@@ -2150,49 +5656,49 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="G12" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>75</v>
-      </c>
       <c r="H12" s="22" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="1"/>
@@ -2204,7 +5710,7 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="15" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -2230,49 +5736,49 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2284,7 +5790,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="11" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2294,7 +5800,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="11" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2312,28 +5818,28 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14:O14" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:O14">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId1" ref="L9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId2" ref="J9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId3" ref="K9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId4" ref="O9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId5" ref="H9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId6" ref="B9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId7" ref="C9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId8" ref="I9"/>
+    <hyperlink ref="L9" r:id="rId1" display="USER@AD-INS.COM"/>
+    <hyperlink ref="J9" r:id="rId2" display="USER@AD-INS.COM"/>
+    <hyperlink ref="K9" r:id="rId3" display="USER@AD-INS.COM"/>
+    <hyperlink ref="O9" r:id="rId4" display="USER@AD-INS.COM"/>
+    <hyperlink ref="H9" r:id="rId5" display="USER@AD-INS.COM"/>
+    <hyperlink ref="B9" r:id="rId6" display="USER@AD-INS.COM"/>
+    <hyperlink ref="C9" r:id="rId7" display="USER@AD-INS.COM"/>
+    <hyperlink ref="I9" r:id="rId8" display="USER@AD-INS.COM"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="T1" sqref="T1:AF2"/>
@@ -2341,12 +5847,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="5" max="23" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="24" max="32" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="23" width="22" customWidth="1" collapsed="1"/>
+    <col min="24" max="32" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -2354,16 +5860,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -2408,60 +5914,60 @@
         <v>1</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="60" r="2" s="27" spans="1:37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" s="27" customFormat="1" ht="60">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -2497,102 +6003,102 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row customHeight="1" ht="78.75" r="3" spans="1:37">
+    <row r="3" spans="1:37" ht="78.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="K3" s="29" t="s">
+      <c r="M3" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L3" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="AF3" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="AG3" s="31"/>
       <c r="AH3" s="2"/>
@@ -2602,130 +6108,130 @@
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f ref="B4:N4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f t="shared" ref="B4:N4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f ref="O4:P4" si="1" t="shared">COUNTIFS($A9:$A11,"*$*",O9:O11,"")</f>
+        <f t="shared" ref="O4:P4" si="1">COUNTIFS($A9:$A11,"*$*",O9:O11,"")</f>
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f ref="Q4:R4" si="2" t="shared">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
+        <f t="shared" ref="Q4:R4" si="2">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <f ref="S4:AF4" si="3" t="shared">COUNTIFS($A9:$A11,"*$*",S9:S11,"")</f>
+        <f t="shared" ref="S4:AF4" si="3">COUNTIFS($A9:$A11,"*$*",S9:S11,"")</f>
         <v>0</v>
       </c>
       <c r="T4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2763,7 +6269,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:37">
+    <row r="6" spans="1:37" ht="14.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2797,7 +6303,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:37">
+    <row r="7" spans="1:37" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2833,7 +6339,7 @@
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2869,105 +6375,105 @@
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AB9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AC9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AE9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AF9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3003,105 +6509,105 @@
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>103</v>
-      </c>
       <c r="E11" s="24" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F11" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" s="24" t="s">
+      <c r="P11" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="R11" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="M11" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="O11" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="P11" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q11" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="R11" s="24" t="s">
-        <v>125</v>
-      </c>
       <c r="S11" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="T11" s="32" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="U11" s="32" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="V11" s="32" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="W11" s="32" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="X11" s="32" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="Y11" s="32" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="Z11" s="32" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="AA11" s="32" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="AB11" s="32" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="AC11" s="32" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="AD11" s="32" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="AE11" s="32" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="AF11" s="32" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="15" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -3137,108 +6643,108 @@
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Z13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AA13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AB13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AC13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AD13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AE13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AF13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="11" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3273,105 +6779,105 @@
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="24" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Z15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AA15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AB15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AC15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AE15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AF15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="24" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3407,31 +6913,31 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:AF13 B15:AF15" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:AF13 B15:AF15">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="5" max="16" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16" width="22" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -3439,66 +6945,66 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="27" spans="1:17">
+    <row r="2" spans="1:17" s="27" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -3540,48 +7046,48 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="78.75" r="3" spans="1:17">
+    <row r="3" spans="1:17" ht="78.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
@@ -3589,70 +7095,70 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f ref="B4:P4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f t="shared" ref="B4:P4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f ref="Q4" si="1" t="shared">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
+        <f t="shared" ref="Q4" si="1">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3675,7 +7181,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:17">
+    <row r="6" spans="1:17" ht="14.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3694,7 +7200,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:17">
+    <row r="7" spans="1:17" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3715,7 +7221,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3736,60 +7242,60 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3810,60 +7316,60 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>103</v>
-      </c>
       <c r="E11" s="24" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F11" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" s="24" t="s">
+      <c r="P11" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="35" t="s">
         <v>112</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="O11" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="P11" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q11" s="35" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="15" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -3884,63 +7390,63 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="11" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3960,60 +7466,60 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="24" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="24" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4032,86 +7538,86 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row ht="15.75" r="36" spans="2:2" thickBot="1"/>
-    <row ht="15.75" r="37" spans="2:2" thickBot="1">
+    <row r="36" spans="2:2" ht="15.75" thickBot="1"/>
+    <row r="37" spans="2:2" ht="15.75" thickBot="1">
       <c r="B37" s="33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row ht="15.75" r="38" spans="2:2" thickBot="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="15.75" thickBot="1">
       <c r="B38" s="33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row ht="15.75" r="39" spans="2:2" thickBot="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="15.75" thickBot="1">
       <c r="B39" s="33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row ht="15.75" r="40" spans="2:2" thickBot="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="15.75" thickBot="1">
       <c r="B40" s="33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row ht="15.75" r="41" spans="2:2" thickBot="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="15.75" thickBot="1">
       <c r="B41" s="33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row ht="15.75" r="42" spans="2:2" thickBot="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="15.75" thickBot="1">
       <c r="B42" s="33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row ht="15.75" r="43" spans="2:2" thickBot="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="15.75" thickBot="1">
       <c r="B43" s="33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row ht="15.75" r="44" spans="2:2" thickBot="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="15.75" thickBot="1">
       <c r="B44" s="33" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row ht="15.75" r="45" spans="2:2" thickBot="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="15.75" thickBot="1">
       <c r="B45" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row ht="15.75" r="46" spans="2:2" thickBot="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="15.75" thickBot="1">
       <c r="B46" s="33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row ht="15.75" r="47" spans="2:2" thickBot="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="15.75" thickBot="1">
       <c r="B47" s="33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="15.75" r="48" spans="2:2" thickBot="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="15.75" thickBot="1">
       <c r="B48" s="33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row ht="15.75" r="49" spans="2:2" thickBot="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="15.75" thickBot="1">
       <c r="B49" s="33" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:Q13 B15:Q15" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:Q13 B15:Q15">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -4119,11 +7625,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="3" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="22" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="22" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -4131,37 +7637,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="1"/>
@@ -4214,42 +7720,42 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row customHeight="1" ht="50.25" r="3" spans="1:22">
+    <row r="3" spans="1:22" ht="50.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
@@ -4264,50 +7770,50 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f ref="B4:L4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f t="shared" ref="B4:L4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="2"/>
@@ -4345,7 +7851,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:22">
+    <row r="6" spans="1:22" ht="14.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4369,7 +7875,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:22">
+    <row r="7" spans="1:22" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4395,7 +7901,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4421,40 +7927,40 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -4469,7 +7975,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -4495,32 +8001,32 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="11"/>
       <c r="D11" s="24" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="24" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="24" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -4535,7 +8041,7 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="15" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -4561,40 +8067,40 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -4609,10 +8115,10 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="11" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4621,7 +8127,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="11" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -4639,40 +8145,40 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="24" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -4687,7 +8193,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="24" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4697,7 +8203,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="11" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -4715,20 +8221,20 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:O13 B15:O15" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:O13 B15:O15">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId1" ref="L9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId2" ref="J9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId3" ref="K9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId4" ref="H9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId5" ref="B9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId6" ref="C9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId7" ref="I9"/>
+    <hyperlink ref="L9" r:id="rId1" display="USER@AD-INS.COM"/>
+    <hyperlink ref="J9" r:id="rId2" display="USER@AD-INS.COM"/>
+    <hyperlink ref="K9" r:id="rId3" display="USER@AD-INS.COM"/>
+    <hyperlink ref="H9" r:id="rId4" display="USER@AD-INS.COM"/>
+    <hyperlink ref="B9" r:id="rId5" display="USER@AD-INS.COM"/>
+    <hyperlink ref="C9" r:id="rId6" display="USER@AD-INS.COM"/>
+    <hyperlink ref="I9" r:id="rId7" display="USER@AD-INS.COM"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Excel/2.1 Esign - Full API Services.xlsx
+++ b/Excel/2.1 Esign - Full API Services.xlsx
@@ -727,9 +727,6 @@
     <t>"QzpcVXNlcnNcZmVuZHkudGlvXERvd25sb2Fkc1xNT0RFTCBTS1JJUFNJLmpwZw=="</t>
   </si>
   <si>
-    <t>pasFoto.Jpg</t>
-  </si>
-  <si>
     <t>"Test nama"</t>
   </si>
   <si>
@@ -775,9 +772,6 @@
     <t>"userCIBB@GMAIL.COM"</t>
   </si>
   <si>
-    <t>SelfPhoto.JPEG</t>
-  </si>
-  <si>
     <t>"USERCIBG"</t>
   </si>
   <si>
@@ -875,6 +869,12 @@
   </si>
   <si>
     <t>NIK sudah digunakan oleh no telp yang berbeda dari data yang dikirim</t>
+  </si>
+  <si>
+    <t>\Image\SelfPhoto.JPEG</t>
+  </si>
+  <si>
+    <t>\Image\pasFoto.Jpg</t>
   </si>
 </sst>
 </file>
@@ -1241,14 +1241,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1529,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3:AR3"/>
+    <sheetView tabSelected="1" topLeftCell="V10" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1716,109 +1716,109 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" t="s">
         <v>255</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>256</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>257</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>258</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>259</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>260</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>261</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>262</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>263</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>264</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>265</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>266</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>267</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>268</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>269</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>270</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>271</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>272</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>273</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>274</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>275</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>276</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>278</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AF2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL2" t="s">
         <v>279</v>
       </c>
-      <c r="AG2" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>279</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AM2" t="s">
         <v>280</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>260</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>281</v>
       </c>
-      <c r="AM2" t="s">
-        <v>282</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>283</v>
-      </c>
       <c r="AO2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AP2" t="s">
         <v>3</v>
@@ -1913,7 +1913,7 @@
         <v>232</v>
       </c>
       <c r="AB3" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>162</v>
@@ -2589,13 +2589,13 @@
         <v>195</v>
       </c>
       <c r="AB11" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AC11" s="36" t="s">
         <v>211</v>
       </c>
       <c r="AD11" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="36" t="s">
@@ -2613,20 +2613,20 @@
       <c r="AJ11" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="AK11" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="AL11" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="AM11" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="AN11" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="AO11" s="46" t="s">
-        <v>243</v>
+      <c r="AK11" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL11" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM11" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN11" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO11" s="45" t="s">
+        <v>242</v>
       </c>
       <c r="AP11" s="36" t="s">
         <v>176</v>
@@ -2634,8 +2634,8 @@
       <c r="AQ11" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="AR11" s="52" t="s">
-        <v>251</v>
+      <c r="AR11" s="51" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:44">
@@ -2721,13 +2721,13 @@
         <v>206</v>
       </c>
       <c r="AB12" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC12" s="37" t="s">
         <v>208</v>
       </c>
       <c r="AD12" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="37" t="s">
@@ -2745,19 +2745,19 @@
       <c r="AJ12" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="AK12" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="AL12" s="47" t="s">
+      <c r="AK12" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="AL12" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="AM12" s="47" t="s">
+      <c r="AM12" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="AN12" s="47" t="s">
+      <c r="AN12" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="AO12" s="47" t="s">
+      <c r="AO12" s="46" t="s">
         <v>207</v>
       </c>
       <c r="AP12" s="37" t="s">
@@ -2766,8 +2766,8 @@
       <c r="AQ12" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="AR12" s="53" t="s">
-        <v>252</v>
+      <c r="AR12" s="52" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:44">
@@ -2853,13 +2853,13 @@
         <v>197</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AC13" s="36" t="s">
         <v>178</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1" t="s">
@@ -2985,13 +2985,13 @@
         <v>198</v>
       </c>
       <c r="AB14" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AC14" s="36" t="s">
         <v>212</v>
       </c>
       <c r="AD14" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="36" t="s">
@@ -3030,7 +3030,7 @@
       <c r="AQ14" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="AR14" s="52" t="s">
+      <c r="AR14" s="51" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3248,14 +3248,14 @@
       <c r="AA16" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="AB16" s="44" t="s">
-        <v>239</v>
+      <c r="AB16" s="43" t="s">
+        <v>238</v>
       </c>
       <c r="AC16" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="AD16" s="44" t="s">
-        <v>239</v>
+      <c r="AD16" s="43" t="s">
+        <v>238</v>
       </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="36" t="s">
@@ -3273,20 +3273,20 @@
       <c r="AJ16" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="AK16" s="51" t="s">
+      <c r="AK16" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL16" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="AL16" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="AM16" s="48" t="s">
+      <c r="AM16" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN16" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="AN16" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO16" s="48" t="s">
-        <v>245</v>
+      <c r="AO16" s="47" t="s">
+        <v>244</v>
       </c>
       <c r="AP16" s="36" t="s">
         <v>180</v>
@@ -3294,8 +3294,8 @@
       <c r="AQ16" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="AR16" s="52" t="s">
-        <v>254</v>
+      <c r="AR16" s="51" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:44">
@@ -3377,17 +3377,17 @@
       <c r="Z17" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="AA17" s="46" t="s">
+      <c r="AA17" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="AB17" s="44" t="s">
-        <v>240</v>
+      <c r="AB17" s="43" t="s">
+        <v>239</v>
       </c>
       <c r="AC17" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="AD17" s="44" t="s">
-        <v>240</v>
+      <c r="AD17" s="43" t="s">
+        <v>239</v>
       </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="36" t="s">
@@ -3405,20 +3405,20 @@
       <c r="AJ17" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="AK17" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="AL17" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="AM17" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="AN17" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="AO17" s="46" t="s">
-        <v>244</v>
+      <c r="AK17" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL17" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM17" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN17" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO17" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="AP17" s="36" t="s">
         <v>181</v>
@@ -3426,8 +3426,8 @@
       <c r="AQ17" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="AR17" s="52" t="s">
-        <v>253</v>
+      <c r="AR17" s="51" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:44">
@@ -4226,132 +4226,132 @@
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="I24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="J24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="K24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="L24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="M24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="N24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="O24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="P24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="R24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="S24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="T24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="U24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="V24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="W24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="X24" s="42" t="s">
-        <v>234</v>
+      <c r="B24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="G24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="J24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="K24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="L24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="M24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="N24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="O24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="P24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="R24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="S24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="T24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="U24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="V24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="W24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="X24" s="53" t="s">
+        <v>283</v>
       </c>
       <c r="Y24" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="Z24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA24" s="42" t="s">
-        <v>234</v>
+      <c r="Z24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA24" s="53" t="s">
+        <v>283</v>
       </c>
       <c r="AB24" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="AC24" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="AD24" s="42" t="s">
-        <v>234</v>
+      <c r="AC24" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD24" s="53" t="s">
+        <v>283</v>
       </c>
       <c r="AE24" s="1"/>
-      <c r="AF24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AH24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AI24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AJ24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AK24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AL24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AM24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AP24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AQ24" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AR24" s="51" t="s">
-        <v>250</v>
+      <c r="AF24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="AJ24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="AN24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="AO24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="AP24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ24" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="AR24" s="53" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:44">
@@ -5033,8 +5033,8 @@
       <c r="AR31" s="1"/>
     </row>
     <row r="32" spans="1:44">
-      <c r="A32" s="45" t="s">
-        <v>242</v>
+      <c r="A32" s="44" t="s">
+        <v>241</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>60</v>
@@ -5114,7 +5114,7 @@
       <c r="AA32" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AB32" s="43" t="s">
+      <c r="AB32" s="42" t="s">
         <v>59</v>
       </c>
       <c r="AC32" s="11" t="s">

--- a/Excel/2.1 Esign - Full API Services.xlsx
+++ b/Excel/2.1 Esign - Full API Services.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="API Registrasi" sheetId="17" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="285">
   <si>
     <t>Status</t>
   </si>
@@ -226,6 +226,531 @@
     <t>Email Benar user aktif = 1 dan register = 1 vendor &gt; 1</t>
   </si>
   <si>
+    <t>refNumber</t>
+  </si>
+  <si>
+    <t>use Correct Tenant Code</t>
+  </si>
+  <si>
+    <t>Wrong tenant Code</t>
+  </si>
+  <si>
+    <t>Tenant Code tidak ada</t>
+  </si>
+  <si>
+    <t>ref num belum di ttd</t>
+  </si>
+  <si>
+    <t>ref num sudah di ttd sebagian</t>
+  </si>
+  <si>
+    <t>ref num sudah di tdd</t>
+  </si>
+  <si>
+    <t>ref num sudah di tdd dan stamping</t>
+  </si>
+  <si>
+    <t>slado stamp tidak cukup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref num sudah dalam proses stamping </t>
+  </si>
+  <si>
+    <t>ref num exist tapi milik tenant lain</t>
+  </si>
+  <si>
+    <t>ref num tidak exist</t>
+  </si>
+  <si>
+    <t>"refnumtidakexist001"</t>
+  </si>
+  <si>
+    <t>"013130211100003"</t>
+  </si>
+  <si>
+    <t>"7777"</t>
+  </si>
+  <si>
+    <t>ref num sudah dalam proses stamping proses materai = 51</t>
+  </si>
+  <si>
+    <t>"01312911110009_1"</t>
+  </si>
+  <si>
+    <t>"0000003"</t>
+  </si>
+  <si>
+    <t>"873"</t>
+  </si>
+  <si>
+    <t>"9090"</t>
+  </si>
+  <si>
+    <t>Ref num 1 document</t>
+  </si>
+  <si>
+    <t>"91003202215062000_1"</t>
+  </si>
+  <si>
+    <t>"20230126103000"</t>
+  </si>
+  <si>
+    <t>ref num dengan proses materai = 53</t>
+  </si>
+  <si>
+    <t>"124214214412"</t>
+  </si>
+  <si>
+    <t>"124124124124"</t>
+  </si>
+  <si>
+    <t>ref num dengan proses materai = 51 2 document 1 UPL_CON dan 1 NOT_STR</t>
+  </si>
+  <si>
+    <t>"WS-MOCK-VIDA-0001"</t>
+  </si>
+  <si>
+    <t>ref num dengan proses materai = 51 2 document 1 UPL_CON dan 1 STM_SDT</t>
+  </si>
+  <si>
+    <t>"1016120220410045"</t>
+  </si>
+  <si>
+    <t>ref num dengan proses materai = 51 2 dokumen error stamping</t>
+  </si>
+  <si>
+    <t>"WS-ANDY-VIDA-0033"</t>
+  </si>
+  <si>
+    <t>ref num dengan proses materai = 51 2 document 1 NOT_STR dan 1 UPL_OSS</t>
+  </si>
+  <si>
+    <t>"20230130100700"</t>
+  </si>
+  <si>
+    <t>ref num dengan proses materai = 51 2 document 1 UPL_DOC dan 1 NOT_STR</t>
+  </si>
+  <si>
+    <t>"019120211100101A"</t>
+  </si>
+  <si>
+    <t>"WS-MOCK-VIDA-0005"</t>
+  </si>
+  <si>
+    <t>ref num dengan proses materai = 51 2 document 1 NOT_STR dan 1 GEN_SDT</t>
+  </si>
+  <si>
+    <t>ref num dengan proses materai = 51 1 Document UPL_DOC</t>
+  </si>
+  <si>
+    <t>"1020120220603533"</t>
+  </si>
+  <si>
+    <t>Ref num 2 document belom proses stamping</t>
+  </si>
+  <si>
+    <t>"667_6"</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 not str dan 1 lagi proses upl doc</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 not str dan 1 lagi proses gen sdt</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 not str dan 1 lagi proses stm sdt</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 not str dan 1 lagi proses upl oss</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 not str dan 1 lagi proses upl con</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 not str dan 1 lagi proses sdt fin</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 sdt fin dan 1 lagi proses upl doc</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 sdt fin dan 1 lagi proses gent sdt</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 sdt fin dan 1 lagi proses stm sdt</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 sdt fin dan 1 lagi proses upl oss</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 sdt fin dan 1 lagi proses upl con</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 stm sdt dan 1 lagi proses sdt fin</t>
+  </si>
+  <si>
+    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 stm sdt dan 1 lagi proses gen sdt</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>Request dengan API key salah</t>
+  </si>
+  <si>
+    <t>Request dengan tenant code tidak ada</t>
+  </si>
+  <si>
+    <t>Request dengan ref number exist tapi milik tenant lain</t>
+  </si>
+  <si>
+    <t>Request dengan ref number tidak exist</t>
+  </si>
+  <si>
+    <t>Request dengan ref number belum di ttd</t>
+  </si>
+  <si>
+    <t>Request dengan ref number sudah partial di ttd</t>
+  </si>
+  <si>
+    <t>Request dengan ref number sudah di ttd</t>
+  </si>
+  <si>
+    <t>Request dengan ref number sudah di ttd dan stamping</t>
+  </si>
+  <si>
+    <t>Request dengan ref number dengan 3 signer</t>
+  </si>
+  <si>
+    <t>Request dengan ref number dengan 2 signer</t>
+  </si>
+  <si>
+    <t>Request dengan 1 ref number 1 document</t>
+  </si>
+  <si>
+    <t>Request dengan 1 ref number 2 document</t>
+  </si>
+  <si>
+    <t>Request dengan data yang ada gagal tanda tangan</t>
+  </si>
+  <si>
+    <t>Unexecutedd</t>
+  </si>
+  <si>
+    <t>Register dengan API key salah</t>
+  </si>
+  <si>
+    <t>Register dengan tanpa email tapi email service off</t>
+  </si>
+  <si>
+    <t>Register dengan tanpa email dan email service on</t>
+  </si>
+  <si>
+    <t>Register dengan tenant code tidak ditemukan</t>
+  </si>
+  <si>
+    <t>Register dengan NIK dibawah 16 digit</t>
+  </si>
+  <si>
+    <t>Register dengan NIK tidak angka semua</t>
+  </si>
+  <si>
+    <t>Register dengan format tanggal lahir tidak sesuai</t>
+  </si>
+  <si>
+    <t>Register dengan password kurang dari 8 karakter</t>
+  </si>
+  <si>
+    <t>Register dengan password &gt;= 8 karakter tapi tidak kompleks</t>
+  </si>
+  <si>
+    <t>Register dengan jenis kelamin diluar aturan (M/F)</t>
+  </si>
+  <si>
+    <t>Register dengan data NIK, Phone, dan Email sudah terdaftar sama persis dengan di eSignHub</t>
+  </si>
+  <si>
+    <t>Register dengan data NIK dan Phone sudah terdaftar sama persis dengan di eSignHub</t>
+  </si>
+  <si>
+    <t>Register dengan dukcapil salah (misal , nama salah/tgl lahir salah)</t>
+  </si>
+  <si>
+    <t>Register dengan liveness salah</t>
+  </si>
+  <si>
+    <t>Register dengan face compare salah</t>
+  </si>
+  <si>
+    <t>Register dengan data NIK, Phone, dan Email sudah terdaftar sama persis dengan di eSignHub tapi buat vendor lain (bukan vendor utama tenant)</t>
+  </si>
+  <si>
+    <t>NIK sudah terdaftar tetapi phone dan email berbeda</t>
+  </si>
+  <si>
+    <t>NIK sudah terdaftar tetapi email berbeda (phone sama)</t>
+  </si>
+  <si>
+    <t>NIK sudah terdaftar tetapi phone berbeda (email sama)</t>
+  </si>
+  <si>
+    <t>Phone sudah terdaftar tetapi NIK dan email berbeda</t>
+  </si>
+  <si>
+    <t>Phone sudah terdaftar tetapi NIK berbeda (email sama)</t>
+  </si>
+  <si>
+    <t>Phone sudah terdaftar tetapi email berbeda (NIK sama)</t>
+  </si>
+  <si>
+    <t>Email sudah terdaftar tetapi NIK dan Phone berbeda</t>
+  </si>
+  <si>
+    <t>Email sudah terdaftar tetapi NIK berbeda (phone sama)</t>
+  </si>
+  <si>
+    <t>Email sudah terdaftar tetapi phone berbeda (NIK sama)</t>
+  </si>
+  <si>
+    <t>NIK sudah digunakan dan data phone dan email sama</t>
+  </si>
+  <si>
+    <t>"Albert"</t>
+  </si>
+  <si>
+    <t>"Albert@gmail.COM"</t>
+  </si>
+  <si>
+    <t>"JAKARTA"</t>
+  </si>
+  <si>
+    <t>"2000-02-02"</t>
+  </si>
+  <si>
+    <t>"081122334400"</t>
+  </si>
+  <si>
+    <t>"2301501556622000"</t>
+  </si>
+  <si>
+    <t>"JL KEMANG NO 001"</t>
+  </si>
+  <si>
+    <t>"KEBON JERUK"</t>
+  </si>
+  <si>
+    <t>"JAKARTA BARAT"</t>
+  </si>
+  <si>
+    <t>"DKI JAKARTA"</t>
+  </si>
+  <si>
+    <t>"11530"</t>
+  </si>
+  <si>
+    <t>"idPhoto"</t>
+  </si>
+  <si>
+    <t>"P@ssw0rd"</t>
+  </si>
+  <si>
+    <t>"23015015"</t>
+  </si>
+  <si>
+    <t>"2301501556ABCDE"</t>
+  </si>
+  <si>
+    <t>"02/02/2000"</t>
+  </si>
+  <si>
+    <t>"P@ss"</t>
+  </si>
+  <si>
+    <t>"passwordd"</t>
+  </si>
+  <si>
+    <t>"T"</t>
+  </si>
+  <si>
+    <t>"userCIIH"</t>
+  </si>
+  <si>
+    <t>"081233444406"</t>
+  </si>
+  <si>
+    <t>"Palembang"</t>
+  </si>
+  <si>
+    <t>"1980-01-01"</t>
+  </si>
+  <si>
+    <t>"userCIIH@AD-INS.COM"</t>
+  </si>
+  <si>
+    <t>"3511000101802887"</t>
+  </si>
+  <si>
+    <t>"KEBON"</t>
+  </si>
+  <si>
+    <t>"Jeruk"</t>
+  </si>
+  <si>
+    <t>"JL KEMANG"</t>
+  </si>
+  <si>
+    <t>"Jakarta"</t>
+  </si>
+  <si>
+    <t>"12862"</t>
+  </si>
+  <si>
+    <t>"userCIIH@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"userCIBA@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"FENDYTIO@ADINS.COM"</t>
+  </si>
+  <si>
+    <t>"2738293846273849"</t>
+  </si>
+  <si>
+    <t>"081220380088"</t>
+  </si>
+  <si>
+    <t>"FEN"</t>
+  </si>
+  <si>
+    <t>"2000-02-20"</t>
+  </si>
+  <si>
+    <t>"userCIIHA@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"081233444488"</t>
+  </si>
+  <si>
+    <t>"081233444477"</t>
+  </si>
+  <si>
+    <t>"3511000101808888"</t>
+  </si>
+  <si>
+    <t>"777"</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (NIK)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (alamat)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (Nama)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (tempat lahir)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (tgl lahir)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (jenis kelamin)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (no telpon)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (kecamatan)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (Kelurahan)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (Kota)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (Provinsi)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (kodepos)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (selfphoto)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (idphoto)</t>
+  </si>
+  <si>
+    <t>Register dengan tidak mengirimkan field mandatory register (password)</t>
+  </si>
+  <si>
+    <t>"QzpcVXNlcnNcZmVuZHkudGlvXERvd25sb2Fkc1xNT0RFTCBTS1JJUFNJLmpwZw=="</t>
+  </si>
+  <si>
+    <t>"Test nama"</t>
+  </si>
+  <si>
+    <t>"test123@gmail.com"</t>
+  </si>
+  <si>
+    <t>"tempat lahir"</t>
+  </si>
+  <si>
+    <t>"2023-03-28"</t>
+  </si>
+  <si>
+    <t>"0812345678"</t>
+  </si>
+  <si>
+    <t>"1234567890123456"</t>
+  </si>
+  <si>
+    <t>base64 invalid self photo</t>
+  </si>
+  <si>
+    <t>enter Correct base64 SelfPhoto</t>
+  </si>
+  <si>
+    <t>"userCIBA"</t>
+  </si>
+  <si>
+    <t>"3511000101802810"</t>
+  </si>
+  <si>
+    <t>"081199330000"</t>
+  </si>
+  <si>
+    <t>"081199330011"</t>
+  </si>
+  <si>
+    <t>"3511000101802811"</t>
+  </si>
+  <si>
+    <t>"userCIBB"</t>
+  </si>
+  <si>
+    <t>"userCIBB@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"USERCIBG"</t>
+  </si>
+  <si>
+    <t>"USERCIBG@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"3511000101802816"</t>
+  </si>
+  <si>
+    <t>"081933555499"</t>
+  </si>
+  <si>
+    <t>\Image\SelfPhoto.JPEG</t>
+  </si>
+  <si>
+    <t>\Image\pasFoto.Jpg</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
@@ -256,534 +781,15 @@
     <t>Format email harus username@domain.tld</t>
   </si>
   <si>
-    <t>refNumber</t>
-  </si>
-  <si>
-    <t>use Correct Tenant Code</t>
-  </si>
-  <si>
-    <t>Wrong tenant Code</t>
-  </si>
-  <si>
-    <t>Tenant Code tidak ada</t>
-  </si>
-  <si>
-    <t>ref num belum di ttd</t>
-  </si>
-  <si>
-    <t>ref num sudah di ttd sebagian</t>
-  </si>
-  <si>
-    <t>ref num sudah di tdd</t>
-  </si>
-  <si>
-    <t>ref num sudah di tdd dan stamping</t>
-  </si>
-  <si>
-    <t>slado stamp tidak cukup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref num sudah dalam proses stamping </t>
-  </si>
-  <si>
-    <t>ref num exist tapi milik tenant lain</t>
-  </si>
-  <si>
-    <t>ref num tidak exist</t>
-  </si>
-  <si>
-    <t>"refnumtidakexist001"</t>
-  </si>
-  <si>
-    <t>"013130211100003"</t>
-  </si>
-  <si>
-    <t>"7777"</t>
-  </si>
-  <si>
-    <t>ref num sudah dalam proses stamping proses materai = 51</t>
-  </si>
-  <si>
-    <t>"01312911110009_1"</t>
-  </si>
-  <si>
-    <t>"0000003"</t>
-  </si>
-  <si>
-    <t>"873"</t>
-  </si>
-  <si>
-    <t>"9090"</t>
-  </si>
-  <si>
-    <t>Ref num 1 document</t>
-  </si>
-  <si>
-    <t>"91003202215062000_1"</t>
-  </si>
-  <si>
-    <t>"20230126103000"</t>
-  </si>
-  <si>
-    <t>ref num dengan proses materai = 53</t>
-  </si>
-  <si>
-    <t>"124214214412"</t>
-  </si>
-  <si>
-    <t>"124124124124"</t>
-  </si>
-  <si>
-    <t>ref num dengan proses materai = 51 2 document 1 UPL_CON dan 1 NOT_STR</t>
-  </si>
-  <si>
-    <t>"WS-MOCK-VIDA-0001"</t>
-  </si>
-  <si>
-    <t>ref num dengan proses materai = 51 2 document 1 UPL_CON dan 1 STM_SDT</t>
-  </si>
-  <si>
-    <t>"1016120220410045"</t>
-  </si>
-  <si>
-    <t>ref num dengan proses materai = 51 2 dokumen error stamping</t>
-  </si>
-  <si>
-    <t>"WS-ANDY-VIDA-0033"</t>
-  </si>
-  <si>
-    <t>ref num dengan proses materai = 51 2 document 1 NOT_STR dan 1 UPL_OSS</t>
-  </si>
-  <si>
-    <t>"20230130100700"</t>
-  </si>
-  <si>
-    <t>ref num dengan proses materai = 51 2 document 1 UPL_DOC dan 1 NOT_STR</t>
-  </si>
-  <si>
-    <t>"019120211100101A"</t>
-  </si>
-  <si>
-    <t>"WS-MOCK-VIDA-0005"</t>
-  </si>
-  <si>
-    <t>ref num dengan proses materai = 51 2 document 1 NOT_STR dan 1 GEN_SDT</t>
-  </si>
-  <si>
-    <t>ref num dengan proses materai = 51 1 Document UPL_DOC</t>
-  </si>
-  <si>
     <t>Tenant code tidak ditemukan</t>
   </si>
   <si>
+    <t>Kontrak refnumtidakexist001 tidak ditemukan di tenant WOMF</t>
+  </si>
+  <si>
     <t>Kontrak 013130211100003 tidak ditemukan di tenant WOMF</t>
   </si>
   <si>
-    <t>Kontrak refnumtidakexist001 tidak ditemukan di tenant WOMF</t>
-  </si>
-  <si>
-    <t>"1020120220603533"</t>
-  </si>
-  <si>
-    <t>Ref num 2 document belom proses stamping</t>
-  </si>
-  <si>
-    <t>"667_6"</t>
-  </si>
-  <si>
-    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 not str dan 1 lagi proses upl doc</t>
-  </si>
-  <si>
-    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 not str dan 1 lagi proses gen sdt</t>
-  </si>
-  <si>
-    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 not str dan 1 lagi proses stm sdt</t>
-  </si>
-  <si>
-    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 not str dan 1 lagi proses upl oss</t>
-  </si>
-  <si>
-    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 not str dan 1 lagi proses upl con</t>
-  </si>
-  <si>
-    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 not str dan 1 lagi proses sdt fin</t>
-  </si>
-  <si>
-    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 sdt fin dan 1 lagi proses upl doc</t>
-  </si>
-  <si>
-    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 sdt fin dan 1 lagi proses gent sdt</t>
-  </si>
-  <si>
-    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 sdt fin dan 1 lagi proses stm sdt</t>
-  </si>
-  <si>
-    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 sdt fin dan 1 lagi proses upl oss</t>
-  </si>
-  <si>
-    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 sdt fin dan 1 lagi proses upl con</t>
-  </si>
-  <si>
-    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 stm sdt dan 1 lagi proses sdt fin</t>
-  </si>
-  <si>
-    <t>Request dengan proses materai 52 atau 55 dan document ada 2 : 1 stm sdt dan 1 lagi proses gen sdt</t>
-  </si>
-  <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>Request dengan API key salah</t>
-  </si>
-  <si>
-    <t>Request dengan tenant code tidak ada</t>
-  </si>
-  <si>
-    <t>Request dengan ref number exist tapi milik tenant lain</t>
-  </si>
-  <si>
-    <t>Request dengan ref number tidak exist</t>
-  </si>
-  <si>
-    <t>Request dengan ref number belum di ttd</t>
-  </si>
-  <si>
-    <t>Request dengan ref number sudah partial di ttd</t>
-  </si>
-  <si>
-    <t>Request dengan ref number sudah di ttd</t>
-  </si>
-  <si>
-    <t>Request dengan ref number sudah di ttd dan stamping</t>
-  </si>
-  <si>
-    <t>Request dengan ref number dengan 3 signer</t>
-  </si>
-  <si>
-    <t>Request dengan ref number dengan 2 signer</t>
-  </si>
-  <si>
-    <t>Request dengan 1 ref number 1 document</t>
-  </si>
-  <si>
-    <t>Request dengan 1 ref number 2 document</t>
-  </si>
-  <si>
-    <t>Request dengan data yang ada gagal tanda tangan</t>
-  </si>
-  <si>
-    <t>Unexecutedd</t>
-  </si>
-  <si>
-    <t>Register dengan API key salah</t>
-  </si>
-  <si>
-    <t>Register dengan tanpa email tapi email service off</t>
-  </si>
-  <si>
-    <t>Register dengan tanpa email dan email service on</t>
-  </si>
-  <si>
-    <t>Register dengan tenant code tidak ditemukan</t>
-  </si>
-  <si>
-    <t>Register dengan NIK dibawah 16 digit</t>
-  </si>
-  <si>
-    <t>Register dengan NIK tidak angka semua</t>
-  </si>
-  <si>
-    <t>Register dengan format tanggal lahir tidak sesuai</t>
-  </si>
-  <si>
-    <t>Register dengan password kurang dari 8 karakter</t>
-  </si>
-  <si>
-    <t>Register dengan password &gt;= 8 karakter tapi tidak kompleks</t>
-  </si>
-  <si>
-    <t>Register dengan jenis kelamin diluar aturan (M/F)</t>
-  </si>
-  <si>
-    <t>Register dengan data NIK, Phone, dan Email sudah terdaftar sama persis dengan di eSignHub</t>
-  </si>
-  <si>
-    <t>Register dengan data NIK dan Phone sudah terdaftar sama persis dengan di eSignHub</t>
-  </si>
-  <si>
-    <t>Register dengan dukcapil salah (misal , nama salah/tgl lahir salah)</t>
-  </si>
-  <si>
-    <t>Register dengan liveness salah</t>
-  </si>
-  <si>
-    <t>Register dengan face compare salah</t>
-  </si>
-  <si>
-    <t>Register dengan data NIK, Phone, dan Email sudah terdaftar sama persis dengan di eSignHub tapi buat vendor lain (bukan vendor utama tenant)</t>
-  </si>
-  <si>
-    <t>NIK sudah terdaftar tetapi phone dan email berbeda</t>
-  </si>
-  <si>
-    <t>NIK sudah terdaftar tetapi email berbeda (phone sama)</t>
-  </si>
-  <si>
-    <t>NIK sudah terdaftar tetapi phone berbeda (email sama)</t>
-  </si>
-  <si>
-    <t>Phone sudah terdaftar tetapi NIK dan email berbeda</t>
-  </si>
-  <si>
-    <t>Phone sudah terdaftar tetapi NIK berbeda (email sama)</t>
-  </si>
-  <si>
-    <t>Phone sudah terdaftar tetapi email berbeda (NIK sama)</t>
-  </si>
-  <si>
-    <t>Email sudah terdaftar tetapi NIK dan Phone berbeda</t>
-  </si>
-  <si>
-    <t>Email sudah terdaftar tetapi NIK berbeda (phone sama)</t>
-  </si>
-  <si>
-    <t>Email sudah terdaftar tetapi phone berbeda (NIK sama)</t>
-  </si>
-  <si>
-    <t>NIK sudah digunakan dan data phone dan email sama</t>
-  </si>
-  <si>
-    <t>"Albert"</t>
-  </si>
-  <si>
-    <t>"Albert@gmail.COM"</t>
-  </si>
-  <si>
-    <t>"JAKARTA"</t>
-  </si>
-  <si>
-    <t>"2000-02-02"</t>
-  </si>
-  <si>
-    <t>"081122334400"</t>
-  </si>
-  <si>
-    <t>"2301501556622000"</t>
-  </si>
-  <si>
-    <t>"JL KEMANG NO 001"</t>
-  </si>
-  <si>
-    <t>"KEBON JERUK"</t>
-  </si>
-  <si>
-    <t>"JAKARTA BARAT"</t>
-  </si>
-  <si>
-    <t>"DKI JAKARTA"</t>
-  </si>
-  <si>
-    <t>"11530"</t>
-  </si>
-  <si>
-    <t>"idPhoto"</t>
-  </si>
-  <si>
-    <t>"P@ssw0rd"</t>
-  </si>
-  <si>
-    <t>"23015015"</t>
-  </si>
-  <si>
-    <t>"2301501556ABCDE"</t>
-  </si>
-  <si>
-    <t>"02/02/2000"</t>
-  </si>
-  <si>
-    <t>"P@ss"</t>
-  </si>
-  <si>
-    <t>"passwordd"</t>
-  </si>
-  <si>
-    <t>"T"</t>
-  </si>
-  <si>
-    <t>"userCIIH"</t>
-  </si>
-  <si>
-    <t>"081233444406"</t>
-  </si>
-  <si>
-    <t>"Palembang"</t>
-  </si>
-  <si>
-    <t>"1980-01-01"</t>
-  </si>
-  <si>
-    <t>"userCIIH@AD-INS.COM"</t>
-  </si>
-  <si>
-    <t>"3511000101802887"</t>
-  </si>
-  <si>
-    <t>"KEBON"</t>
-  </si>
-  <si>
-    <t>"Jeruk"</t>
-  </si>
-  <si>
-    <t>"JL KEMANG"</t>
-  </si>
-  <si>
-    <t>"Jakarta"</t>
-  </si>
-  <si>
-    <t>"12862"</t>
-  </si>
-  <si>
-    <t>"userCIIH@GMAIL.COM"</t>
-  </si>
-  <si>
-    <t>"userCIBA@GMAIL.COM"</t>
-  </si>
-  <si>
-    <t>"FENDYTIO@ADINS.COM"</t>
-  </si>
-  <si>
-    <t>"2738293846273849"</t>
-  </si>
-  <si>
-    <t>"081220380088"</t>
-  </si>
-  <si>
-    <t>"FEN"</t>
-  </si>
-  <si>
-    <t>"2000-02-20"</t>
-  </si>
-  <si>
-    <t>"userCIIHA@GMAIL.COM"</t>
-  </si>
-  <si>
-    <t>"081233444488"</t>
-  </si>
-  <si>
-    <t>"081233444477"</t>
-  </si>
-  <si>
-    <t>"3511000101808888"</t>
-  </si>
-  <si>
-    <t>"777"</t>
-  </si>
-  <si>
-    <t>Register dengan tidak mengirimkan field mandatory register (NIK)</t>
-  </si>
-  <si>
-    <t>Register dengan tidak mengirimkan field mandatory register (alamat)</t>
-  </si>
-  <si>
-    <t>Register dengan tidak mengirimkan field mandatory register (Nama)</t>
-  </si>
-  <si>
-    <t>Register dengan tidak mengirimkan field mandatory register (tempat lahir)</t>
-  </si>
-  <si>
-    <t>Register dengan tidak mengirimkan field mandatory register (tgl lahir)</t>
-  </si>
-  <si>
-    <t>Register dengan tidak mengirimkan field mandatory register (jenis kelamin)</t>
-  </si>
-  <si>
-    <t>Register dengan tidak mengirimkan field mandatory register (no telpon)</t>
-  </si>
-  <si>
-    <t>Register dengan tidak mengirimkan field mandatory register (kecamatan)</t>
-  </si>
-  <si>
-    <t>Register dengan tidak mengirimkan field mandatory register (Kelurahan)</t>
-  </si>
-  <si>
-    <t>Register dengan tidak mengirimkan field mandatory register (Kota)</t>
-  </si>
-  <si>
-    <t>Register dengan tidak mengirimkan field mandatory register (Provinsi)</t>
-  </si>
-  <si>
-    <t>Register dengan tidak mengirimkan field mandatory register (kodepos)</t>
-  </si>
-  <si>
-    <t>Register dengan tidak mengirimkan field mandatory register (selfphoto)</t>
-  </si>
-  <si>
-    <t>Register dengan tidak mengirimkan field mandatory register (idphoto)</t>
-  </si>
-  <si>
-    <t>Register dengan tidak mengirimkan field mandatory register (password)</t>
-  </si>
-  <si>
-    <t>"QzpcVXNlcnNcZmVuZHkudGlvXERvd25sb2Fkc1xNT0RFTCBTS1JJUFNJLmpwZw=="</t>
-  </si>
-  <si>
-    <t>"Test nama"</t>
-  </si>
-  <si>
-    <t>"test123@gmail.com"</t>
-  </si>
-  <si>
-    <t>"tempat lahir"</t>
-  </si>
-  <si>
-    <t>"2023-03-28"</t>
-  </si>
-  <si>
-    <t>"0812345678"</t>
-  </si>
-  <si>
-    <t>"1234567890123456"</t>
-  </si>
-  <si>
-    <t>base64 invalid self photo</t>
-  </si>
-  <si>
-    <t>enter Correct base64 SelfPhoto</t>
-  </si>
-  <si>
-    <t>"userCIBA"</t>
-  </si>
-  <si>
-    <t>"3511000101802810"</t>
-  </si>
-  <si>
-    <t>"081199330000"</t>
-  </si>
-  <si>
-    <t>"081199330011"</t>
-  </si>
-  <si>
-    <t>"3511000101802811"</t>
-  </si>
-  <si>
-    <t>"userCIBB"</t>
-  </si>
-  <si>
-    <t>"userCIBB@GMAIL.COM"</t>
-  </si>
-  <si>
-    <t>"USERCIBG"</t>
-  </si>
-  <si>
-    <t>"USERCIBG@GMAIL.COM"</t>
-  </si>
-  <si>
-    <t>"3511000101802816"</t>
-  </si>
-  <si>
-    <t>"081933555499"</t>
-  </si>
-  <si>
     <t>tglLahir harus menggunakan format tanggal yyyy-MM-dd</t>
   </si>
   <si>
@@ -871,22 +877,40 @@
     <t>NIK sudah digunakan oleh no telp yang berbeda dari data yang dikirim</t>
   </si>
   <si>
-    <t>\Image\SelfPhoto.JPEG</t>
-  </si>
-  <si>
-    <t>\Image\pasFoto.Jpg</t>
+    <t>-;FailedStoreDB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1172,82 +1196,85 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="27" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="27" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -1529,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V10" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="B1:AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1567,133 +1594,133 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="K1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="L1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="M1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="N1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="O1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="P1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="Q1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="R1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="S1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="T1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="U1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="V1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="W1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="X1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="Y1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="Z1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="AA1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="AB1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="AC1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="AD1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="AE1" s="36" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="AF1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="AG1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="AH1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="AI1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="AJ1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="AK1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="AL1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="AM1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="AN1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="AO1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="AP1" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="AQ1" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="AR1" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:44" s="27" customFormat="1">
@@ -1701,124 +1728,124 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="R2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="S2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="T2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="U2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="V2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="W2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="X2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Y2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Z2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AA2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AB2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AC2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AD2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AF2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AG2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AH2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AI2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AJ2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AK2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AL2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AN2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AO2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AP2" t="s">
         <v>3</v>
@@ -1835,133 +1862,133 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="U3" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="V3" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="W3" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="X3" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y3" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z3" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA3" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB3" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="AI3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="M3" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="P3" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q3" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="R3" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="S3" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="T3" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="U3" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="V3" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="W3" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="X3" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y3" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z3" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA3" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB3" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AD3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="AP3" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="AQ3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR3" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -2511,131 +2538,131 @@
         <v>10</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="M11" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="N11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="O11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="R11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="S11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="T11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="U11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="V11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="W11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="X11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="Y11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="Z11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="AA11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="AB11" s="36" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="AC11" s="36" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AD11" s="36" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="AG11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="AH11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="AI11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="AJ11" s="36" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="AK11" s="50" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="AL11" s="48" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="AM11" s="48" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="AN11" s="45" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="AO11" s="45" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="AP11" s="36" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="AQ11" s="36" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="AR11" s="51" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:44">
@@ -2643,131 +2670,131 @@
         <v>11</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="K12" s="37" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="L12" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="M12" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="N12" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="O12" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="P12" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="Q12" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="R12" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="S12" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="T12" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="U12" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="V12" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="W12" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="X12" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="Y12" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="Z12" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AA12" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AB12" s="37" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="AC12" s="37" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="AD12" s="37" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="37" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AG12" s="37" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AH12" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AI12" s="37" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AJ12" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AK12" s="49" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="AL12" s="46" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="AM12" s="46" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="AN12" s="46" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="AO12" s="46" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="AP12" s="37" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AQ12" s="37" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AR12" s="52" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:44">
@@ -2775,131 +2802,131 @@
         <v>12</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="AC13" s="36" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="AP13" s="36" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="AQ13" s="36" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="AR13" s="36" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:44">
@@ -2907,131 +2934,131 @@
         <v>13</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="N14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="O14" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="P14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="R14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="S14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="T14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="U14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="V14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="W14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="X14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Y14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Z14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="AA14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="AB14" s="36" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="AC14" s="36" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AD14" s="36" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="AG14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="AH14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="AI14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="AJ14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="AK14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="AL14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="AM14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="AN14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="AO14" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="AP14" s="36" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="AQ14" s="36" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="AR14" s="51" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:44">
@@ -3063,7 +3090,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="K15" s="36" t="s">
         <v>15</v>
@@ -3081,7 +3108,7 @@
         <v>15</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Q15" s="36" t="s">
         <v>15</v>
@@ -3171,131 +3198,131 @@
         <v>16</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="N16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="O16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="P16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="R16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="T16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="U16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="V16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="W16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="X16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="Y16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="Z16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="AA16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="AB16" s="43" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="AC16" s="36" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="AD16" s="43" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="36" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AG16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="AH16" s="36" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="AI16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="AJ16" s="36" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="AK16" s="50" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AL16" s="48" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="AM16" s="47" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN16" s="48" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="AO16" s="47" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AP16" s="36" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="AQ16" s="36" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="AR16" s="51" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:44">
@@ -3303,131 +3330,131 @@
         <v>17</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="M17" s="36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="N17" s="36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="O17" s="36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="R17" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="S17" s="36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="T17" s="36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="U17" s="36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="V17" s="36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="W17" s="36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="X17" s="36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="Y17" s="36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="Z17" s="36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="AA17" s="45" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="AB17" s="43" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="AC17" s="36" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="AD17" s="43" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="AG17" s="36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="AH17" s="36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="AI17" s="36" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AJ17" s="36" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AK17" s="45" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="AL17" s="48" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="AM17" s="48" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="AN17" s="45" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="AO17" s="45" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="AP17" s="36" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="AQ17" s="36" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="AR17" s="51" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:44">
@@ -3435,131 +3462,131 @@
         <v>18</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="S18" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AC18" s="36" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AP18" s="36" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="AQ18" s="36" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="AR18" s="36" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:44">
@@ -3567,131 +3594,131 @@
         <v>19</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="T19" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AP19" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AQ19" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:44">
@@ -3699,131 +3726,131 @@
         <v>20</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="U20" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="AP20" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AQ20" s="36" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:44">
@@ -3831,131 +3858,131 @@
         <v>21</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="V21" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AI21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AM21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AP21" s="36" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AQ21" s="36" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:44">
@@ -3963,131 +3990,131 @@
         <v>22</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="W22" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AH22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AI22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AM22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AN22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AP22" s="36" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AQ22" s="36" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:44">
@@ -4095,131 +4122,131 @@
         <v>23</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="X23" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AH23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AI23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AM23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AN23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AP23" s="36" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="AQ23" s="36" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:44">
@@ -4227,131 +4254,131 @@
         <v>24</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="F24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="G24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="H24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="I24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="K24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="L24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="M24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="N24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="O24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="P24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="Q24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="R24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="S24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="T24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="U24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="V24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="W24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="X24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="Y24" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Z24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AA24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AB24" s="41" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="AC24" s="53" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="AD24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AE24" s="1"/>
       <c r="AF24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AG24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AH24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AI24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AJ24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AK24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AL24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AM24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AN24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AO24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AP24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AQ24" s="53" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AR24" s="53" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:44">
@@ -4359,131 +4386,131 @@
         <v>25</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="L25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="M25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="N25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="O25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="P25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="R25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="S25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="T25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="U25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="V25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="W25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="X25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="Y25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="Z25" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AA25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AB25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AC25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AD25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AE25" s="1"/>
       <c r="AF25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AG25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AH25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AI25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AJ25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AK25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AL25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AM25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AN25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AO25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AP25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AQ25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AR25" s="36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:44">
@@ -4491,131 +4518,131 @@
         <v>26</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="L26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="M26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="N26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="O26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="P26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="R26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="S26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="T26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="U26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="W26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="X26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="Y26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="Z26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AA26" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AB26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AC26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AD26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AE26" s="1"/>
       <c r="AF26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AG26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AH26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AI26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AJ26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AK26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AL26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AM26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AN26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AO26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AP26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AQ26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AR26" s="37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:44">
@@ -4852,7 +4879,7 @@
     </row>
     <row r="30" spans="1:44">
       <c r="A30" s="24" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>60</v>
@@ -4986,7 +5013,7 @@
     </row>
     <row r="31" spans="1:44">
       <c r="A31" s="24" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5034,7 +5061,7 @@
     </row>
     <row r="32" spans="1:44">
       <c r="A32" s="44" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>60</v>
@@ -5181,8 +5208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD15"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5199,13 +5226,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -5220,25 +5247,25 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="K1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="L1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="M1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="N1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="O1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="1"/>
@@ -5252,13 +5279,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -5273,25 +5300,25 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -5841,8 +5868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK16"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:AF2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5859,127 +5886,121 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>1</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" s="27" customFormat="1" ht="60">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" s="27" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -6011,94 +6032,94 @@
         <v>55</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="23" t="s">
+      <c r="K3" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="O3" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="L3" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="AF3" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="AG3" s="31"/>
       <c r="AH3" s="2"/>
@@ -6509,100 +6530,100 @@
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="R11" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O11" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="P11" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q11" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="R11" s="24" t="s">
-        <v>112</v>
-      </c>
       <c r="S11" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="T11" s="32" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="U11" s="32" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="V11" s="32" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="W11" s="32" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="X11" s="32" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Y11" s="32" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Z11" s="32" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AA11" s="32" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AB11" s="32" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AC11" s="32" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AD11" s="32" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AE11" s="32" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AF11" s="32" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -6779,7 +6800,7 @@
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="24" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>60</v>
@@ -6877,7 +6898,7 @@
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="24" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6926,8 +6947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K15" sqref="A15:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6945,49 +6966,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>149</v>
+        <v>242</v>
+      </c>
+      <c r="E1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>242</v>
+      </c>
+      <c r="O1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
       </c>
       <c r="Q1" t="s">
         <v>1</v>
@@ -6998,16 +7019,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>254</v>
+      </c>
+      <c r="E2" t="s">
+        <v>253</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -7033,11 +7054,11 @@
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>3</v>
+      <c r="N2" t="s">
+        <v>284</v>
+      </c>
+      <c r="O2" t="s">
+        <v>284</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>3</v>
@@ -7051,43 +7072,43 @@
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
@@ -7316,55 +7337,55 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11" s="35" t="s">
         <v>102</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O11" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="P11" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q11" s="35" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -7466,7 +7487,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="24" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>60</v>
@@ -7519,7 +7540,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="24" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -7541,67 +7562,67 @@
     <row r="36" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="37" spans="2:2" ht="15.75" thickBot="1">
       <c r="B37" s="33" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="15.75" thickBot="1">
       <c r="B38" s="33" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15.75" thickBot="1">
       <c r="B39" s="33" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="15.75" thickBot="1">
       <c r="B40" s="33" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="15.75" thickBot="1">
       <c r="B41" s="33" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="15.75" thickBot="1">
       <c r="B42" s="33" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="15.75" thickBot="1">
       <c r="B43" s="33" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="15.75" thickBot="1">
       <c r="B44" s="33" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="15.75" thickBot="1">
       <c r="B45" s="33" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="15.75" thickBot="1">
       <c r="B46" s="33" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="15.75" thickBot="1">
       <c r="B47" s="33" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="15.75" thickBot="1">
       <c r="B48" s="33" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="15.75" thickBot="1">
       <c r="B49" s="33" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -7728,34 +7749,34 @@
         <v>55</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E3" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>92</v>
-      </c>
       <c r="J3" s="23" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
@@ -8001,32 +8022,32 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="11"/>
       <c r="D11" s="24" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="24" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="24" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -8145,7 +8166,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="24" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>60</v>
@@ -8193,7 +8214,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="24" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/Excel/2.1 Esign - Full API Services.xlsx
+++ b/Excel/2.1 Esign - Full API Services.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="API Registrasi" sheetId="17" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="API Check Stamping Status" sheetId="19" r:id="rId3"/>
     <sheet name="API Check Signing Status" sheetId="21" r:id="rId4"/>
     <sheet name="API Request Stamping" sheetId="20" r:id="rId5"/>
+    <sheet name="API Download Document" sheetId="22" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="309">
   <si>
     <t>Status</t>
   </si>
@@ -787,109 +788,216 @@
     <t>Kontrak refnumtidakexist001 tidak ditemukan di tenant WOMF</t>
   </si>
   <si>
+    <t>tglLahir harus menggunakan format tanggal yyyy-MM-dd</t>
+  </si>
+  <si>
+    <t>Kode akses harus memiliki minimal 8 karakter</t>
+  </si>
+  <si>
+    <t>Kode akses baru harus mengandung huruf kapital, huruf kecil, angka, dan karakter spesial.</t>
+  </si>
+  <si>
+    <t>Kode jenis kelamin tidak valid</t>
+  </si>
+  <si>
+    <t>Anda sudah pernah terdaftar di eSignHub</t>
+  </si>
+  <si>
+    <t>NIK sudah digunakan oleh email yang berbeda dari data yang dikirim</t>
+  </si>
+  <si>
+    <t>nama harus diisi</t>
+  </si>
+  <si>
+    <t>tmpLahir harus diisi</t>
+  </si>
+  <si>
+    <t>tglLahir harus diisi</t>
+  </si>
+  <si>
+    <t>jenisKelamin harus diisi</t>
+  </si>
+  <si>
+    <t>tlp harus diisi</t>
+  </si>
+  <si>
+    <t>idKtp harus diisi</t>
+  </si>
+  <si>
+    <t>alamat harus diisi</t>
+  </si>
+  <si>
+    <t>kecamatan harus diisi</t>
+  </si>
+  <si>
+    <t>kelurahan harus diisi</t>
+  </si>
+  <si>
+    <t>kota harus diisi</t>
+  </si>
+  <si>
+    <t>provinsi harus diisi</t>
+  </si>
+  <si>
+    <t>kodePos harus diisi</t>
+  </si>
+  <si>
+    <t>selfPhoto harus diisi</t>
+  </si>
+  <si>
+    <t>idPhoto harus diisi</t>
+  </si>
+  <si>
+    <t>password harus diisi</t>
+  </si>
+  <si>
+    <t>Invalid image base64 String (selfiePhoto)</t>
+  </si>
+  <si>
+    <t>Verification failed (NIK is invalid or not registered in local authoritative source)</t>
+  </si>
+  <si>
+    <t>Verifikasi Liveness gagal. Harap mengambil Foto Selfie langsung. Pastikan wajah anda terlihat jelas tidak tertutup oleh aksesoris.</t>
+  </si>
+  <si>
+    <t>NIK sudah digunakan oleh no telp dan email yang berbeda dari data yang dikirim</t>
+  </si>
+  <si>
+    <t>No Telp sudah digunakan oleh NIK dan email yang berbeda dari data yang dikirim</t>
+  </si>
+  <si>
+    <t>Email sudah digunakan oleh NIK dan no telp yang berbeda dari data yang dikirim</t>
+  </si>
+  <si>
+    <t>No Telp sudah digunakan oleh NIK yang berbeda dari data yang dikirim</t>
+  </si>
+  <si>
+    <t>NIK sudah digunakan oleh no telp yang berbeda dari data yang dikirim</t>
+  </si>
+  <si>
     <t>Kontrak 013130211100003 tidak ditemukan di tenant WOMF</t>
   </si>
   <si>
-    <t>tglLahir harus menggunakan format tanggal yyyy-MM-dd</t>
-  </si>
-  <si>
-    <t>Kode akses harus memiliki minimal 8 karakter</t>
-  </si>
-  <si>
-    <t>Kode akses baru harus mengandung huruf kapital, huruf kecil, angka, dan karakter spesial.</t>
-  </si>
-  <si>
-    <t>Kode jenis kelamin tidak valid</t>
-  </si>
-  <si>
-    <t>Anda sudah pernah terdaftar di eSignHub</t>
-  </si>
-  <si>
-    <t>NIK sudah digunakan oleh email yang berbeda dari data yang dikirim</t>
-  </si>
-  <si>
-    <t>nama harus diisi</t>
-  </si>
-  <si>
-    <t>tmpLahir harus diisi</t>
-  </si>
-  <si>
-    <t>tglLahir harus diisi</t>
-  </si>
-  <si>
-    <t>jenisKelamin harus diisi</t>
-  </si>
-  <si>
-    <t>tlp harus diisi</t>
-  </si>
-  <si>
-    <t>idKtp harus diisi</t>
-  </si>
-  <si>
-    <t>alamat harus diisi</t>
-  </si>
-  <si>
-    <t>kecamatan harus diisi</t>
-  </si>
-  <si>
-    <t>kelurahan harus diisi</t>
-  </si>
-  <si>
-    <t>kota harus diisi</t>
-  </si>
-  <si>
-    <t>provinsi harus diisi</t>
-  </si>
-  <si>
-    <t>kodePos harus diisi</t>
-  </si>
-  <si>
-    <t>selfPhoto harus diisi</t>
-  </si>
-  <si>
-    <t>idPhoto harus diisi</t>
-  </si>
-  <si>
-    <t>password harus diisi</t>
-  </si>
-  <si>
-    <t>Invalid image base64 String (selfiePhoto)</t>
-  </si>
-  <si>
-    <t>Verification failed (NIK is invalid or not registered in local authoritative source)</t>
-  </si>
-  <si>
-    <t>Verifikasi Liveness gagal. Harap mengambil Foto Selfie langsung. Pastikan wajah anda terlihat jelas tidak tertutup oleh aksesoris.</t>
-  </si>
-  <si>
-    <t>NIK sudah digunakan oleh no telp dan email yang berbeda dari data yang dikirim</t>
-  </si>
-  <si>
-    <t>No Telp sudah digunakan oleh NIK dan email yang berbeda dari data yang dikirim</t>
-  </si>
-  <si>
-    <t>Email sudah digunakan oleh NIK dan no telp yang berbeda dari data yang dikirim</t>
-  </si>
-  <si>
-    <t>No Telp sudah digunakan oleh NIK yang berbeda dari data yang dikirim</t>
-  </si>
-  <si>
-    <t>NIK sudah digunakan oleh no telp yang berbeda dari data yang dikirim</t>
-  </si>
-  <si>
-    <t>-;FailedStoreDB</t>
+    <t>Request dengan document exist tapi milik tenant lain</t>
+  </si>
+  <si>
+    <t>Request dengan document tidak exist</t>
+  </si>
+  <si>
+    <t>Request dengan document belum di ttd</t>
+  </si>
+  <si>
+    <t>Request dengan document sudah partial di ttd</t>
+  </si>
+  <si>
+    <t>Request dengan document sudah di ttd</t>
+  </si>
+  <si>
+    <t>Request dengan document sudah di ttd dan stamping</t>
+  </si>
+  <si>
+    <t>documentId</t>
+  </si>
+  <si>
+    <t>"DOC-0001-0002"</t>
+  </si>
+  <si>
+    <t>"DOC-0001-0004"</t>
+  </si>
+  <si>
+    <t>"00163E01-4CB0-A3C3-11EC-722E4995AA10"</t>
+  </si>
+  <si>
+    <t>"00155D0B-7502-81A3-11ED-E24833ED5D30"</t>
+  </si>
+  <si>
+    <t>"00155D0A-AD03-8C34-11EC-DAB74EE7FEE0"</t>
+  </si>
+  <si>
+    <t>"00155D0A-AD03-8987-11EC-96344B91E0C0"</t>
+  </si>
+  <si>
+    <t>"00155D0B-7502-8C17-11ED-CC86678AB160"</t>
+  </si>
+  <si>
+    <t>"E02BE950-2C57-856E-11ED-63FBE6327140"</t>
+  </si>
+  <si>
+    <t>"00155D0B-7502-A9F9-11ED-CEAF8ADAFF00"</t>
+  </si>
+  <si>
+    <t>Document dengan ID 00163E01-4CB0-A3C3-11EC-722E4995AA10 tidak ditemukan</t>
+  </si>
+  <si>
+    <t>Document dengan ID DOC-0001-0004 tidak ditemukan</t>
+  </si>
+  <si>
+    <t>Fail download object from OSS, key=signing_document/2023/3/00155D0B-7502-8C17-11ED-CC86678AB160.pdf</t>
+  </si>
+  <si>
+    <t>Email USER@AD-INS.COM tidak ditemukan di sistem</t>
+  </si>
+  <si>
+    <t>Email user tidak ditemukan</t>
+  </si>
+  <si>
+    <t>file tdak ditemukan</t>
+  </si>
+  <si>
+    <t>Delete File ?</t>
+  </si>
+  <si>
+    <t>Fail download object from OSS, key=signing_document/2023/4/00155D0B-7502-81A3-11ED-E24833ED5D30.pdf</t>
+  </si>
+  <si>
+    <t>tidak delete file setelah download</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="34">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1196,84 +1304,94 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="27" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="27" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="32" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -1743,109 +1861,109 @@
         <v>250</v>
       </c>
       <c r="G2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" t="s">
         <v>255</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>256</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>257</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>258</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>259</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>260</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>261</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>262</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>263</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>264</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>265</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>266</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>267</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>268</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>269</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>270</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>271</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>272</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>273</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>274</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>275</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>276</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>277</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>278</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AF2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI2" t="s">
         <v>279</v>
       </c>
-      <c r="AG2" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>279</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL2" t="s">
         <v>280</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>260</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>281</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>282</v>
       </c>
-      <c r="AN2" t="s">
-        <v>283</v>
-      </c>
       <c r="AO2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AP2" t="s">
         <v>3</v>
@@ -5208,8 +5326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6947,9 +7065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -7002,10 +7118,10 @@
         <v>1</v>
       </c>
       <c r="N1" t="s">
-        <v>242</v>
+        <v>1</v>
       </c>
       <c r="O1" t="s">
-        <v>242</v>
+        <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
@@ -7025,7 +7141,7 @@
         <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="E2" t="s">
         <v>253</v>
@@ -7054,11 +7170,11 @@
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" t="s">
-        <v>284</v>
-      </c>
-      <c r="O2" t="s">
-        <v>284</v>
+      <c r="N2" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="59" t="s">
+        <v>3</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>3</v>
@@ -7375,7 +7491,7 @@
       <c r="M11" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="N11" s="56" t="s">
+      <c r="N11" s="57" t="s">
         <v>98</v>
       </c>
       <c r="O11" s="56" t="s">
@@ -7641,7 +7757,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8258,4 +8374,558 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="27" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:J4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:L4" si="1">COUNTIFS($A9:$A11,"*$*",K9:K11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>294</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>299</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+      <c r="C20" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+      <c r="C21" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+      <c r="C22" s="33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+      <c r="C23" s="33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+      <c r="C24" s="33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+      <c r="C25" s="33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1">
+      <c r="C26" s="33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+      <c r="C27" s="33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:L13 B15:L15 B17:L17">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="USER@AD-INS.COM"/>
+    <hyperlink ref="C9" r:id="rId2" display="USER@AD-INS.COM"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/Excel/2.1 Esign - Full API Services.xlsx
+++ b/Excel/2.1 Esign - Full API Services.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\ATeSign\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065" firstSheet="3" activeTab="5"/>
+    <workbookView activeTab="5" firstSheet="3" windowHeight="7065" windowWidth="18525" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="API Registrasi" sheetId="17" r:id="rId1"/>
-    <sheet name="API Check Registrasi" sheetId="18" r:id="rId2"/>
-    <sheet name="API Check Stamping Status" sheetId="19" r:id="rId3"/>
-    <sheet name="API Check Signing Status" sheetId="21" r:id="rId4"/>
-    <sheet name="API Request Stamping" sheetId="20" r:id="rId5"/>
-    <sheet name="API Download Document" sheetId="22" r:id="rId6"/>
+    <sheet name="API Registrasi" r:id="rId1" sheetId="17"/>
+    <sheet name="API Check Registrasi" r:id="rId2" sheetId="18"/>
+    <sheet name="API Check Stamping Status" r:id="rId3" sheetId="19"/>
+    <sheet name="API Check Signing Status" r:id="rId4" sheetId="21"/>
+    <sheet name="API Request Stamping" r:id="rId5" sheetId="20"/>
+    <sheet name="API Download Document" r:id="rId6" sheetId="22"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="311">
   <si>
     <t>Status</t>
   </si>
@@ -951,12 +951,19 @@
   </si>
   <si>
     <t>tidak delete file setelah download</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>DOCUMENT DOWNLOAD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="39">
     <font>
       <sz val="11"/>
@@ -1303,106 +1310,106 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="34" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="34" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="33" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="34" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="32" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="32" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="37" numFmtId="0" quotePrefix="1" xfId="1"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="31" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="32" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="31" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="36" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="36" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="33" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="37" numFmtId="0" quotePrefix="1" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="32" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="30" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="30" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="28" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="25" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="21" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="14" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="12" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="33" numFmtId="0" quotePrefix="1" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1419,10 +1426,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1586,21 +1593,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1617,7 +1624,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1671,8 +1678,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS32"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="AC1" sqref="B1:AC2"/>
@@ -1680,31 +1687,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="28" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="40" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="43" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="46.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="13" max="28" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="42" max="43" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="46.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
@@ -1841,7 +1848,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="27" customFormat="1">
+    <row customFormat="1" r="2" s="27" spans="1:44">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1975,7 +1982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="50.25" customHeight="1">
+    <row customHeight="1" ht="50.25" r="3" spans="1:44">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2114,163 +2121,163 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:AO4" si="0">COUNTIFS($A9:$A23,"*$*",B9:B23,"")</f>
+        <f ref="B4:AO4" si="0" t="shared">COUNTIFS($A9:$A23,"*$*",B9:B23,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4" si="1">COUNTIFS($A9:$A23,"*$*",F9:F23,"")</f>
+        <f ref="F4" si="1" t="shared">COUNTIFS($A9:$A23,"*$*",F9:F23,"")</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" ref="P4:R4" si="2">COUNTIFS($A9:$A23,"*$*",P9:P23,"")</f>
+        <f ref="P4:R4" si="2" t="shared">COUNTIFS($A9:$A23,"*$*",P9:P23,"")</f>
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" ref="U4" si="3">COUNTIFS($A9:$A23,"*$*",U9:U23,"")</f>
+        <f ref="U4" si="3" t="shared">COUNTIFS($A9:$A23,"*$*",U9:U23,"")</f>
         <v>0</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" ref="V4:W4" si="4">COUNTIFS($A9:$A23,"*$*",V9:V23,"")</f>
+        <f ref="V4:W4" si="4" t="shared">COUNTIFS($A9:$A23,"*$*",V9:V23,"")</f>
         <v>0</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA4" s="2">
-        <f t="shared" ref="AA4:AB4" si="5">COUNTIFS($A9:$A23,"*$*",AA9:AA23,"")</f>
+        <f ref="AA4:AB4" si="5" t="shared">COUNTIFS($A9:$A23,"*$*",AA9:AA23,"")</f>
         <v>0</v>
       </c>
       <c r="AB4" s="2">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>0</v>
       </c>
       <c r="AC4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AD4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AE4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AF4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AG4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AH4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AI4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AK4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AL4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AM4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AN4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AO4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AP4" s="2">
@@ -2329,7 +2336,7 @@
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
     </row>
-    <row r="6" spans="1:44" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="6" spans="1:44">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2375,7 +2382,7 @@
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
     </row>
-    <row r="7" spans="1:44" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="7" spans="1:44">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5313,18 +5320,18 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:AR30 B32:AR32 B28:AR28">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B30:AR30 B32:AR32 B28:AR28" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E15"/>
@@ -5332,11 +5339,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="22" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="3" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="22" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -5445,7 +5452,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="50.25" customHeight="1">
+    <row customHeight="1" ht="50.25" r="3" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -5504,59 +5511,59 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:O4" si="0">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
+        <f ref="B4:O4" si="0" t="shared">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4" si="1">COUNTIFS($A9:$A12,"*$*",F9:F12,"")</f>
+        <f ref="F4" si="1" t="shared">COUNTIFS($A9:$A12,"*$*",F9:F12,"")</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="P4" s="2"/>
@@ -5591,7 +5598,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="6" spans="1:22">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -5615,7 +5622,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="7" spans="1:22">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5963,28 +5970,28 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:O14">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14:O14" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L9" r:id="rId1" display="USER@AD-INS.COM"/>
-    <hyperlink ref="J9" r:id="rId2" display="USER@AD-INS.COM"/>
-    <hyperlink ref="K9" r:id="rId3" display="USER@AD-INS.COM"/>
-    <hyperlink ref="O9" r:id="rId4" display="USER@AD-INS.COM"/>
-    <hyperlink ref="H9" r:id="rId5" display="USER@AD-INS.COM"/>
-    <hyperlink ref="B9" r:id="rId6" display="USER@AD-INS.COM"/>
-    <hyperlink ref="C9" r:id="rId7" display="USER@AD-INS.COM"/>
-    <hyperlink ref="I9" r:id="rId8" display="USER@AD-INS.COM"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId1" ref="L9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId2" ref="J9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId3" ref="K9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId4" ref="O9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId5" ref="H9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId6" ref="B9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId7" ref="C9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId8" ref="I9"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -5992,12 +5999,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="23" width="22" customWidth="1" collapsed="1"/>
-    <col min="24" max="32" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="5" max="23" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="24" max="32" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -6098,7 +6105,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="27" customFormat="1">
+    <row customFormat="1" r="2" s="27" spans="1:37">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -6142,7 +6149,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:37" ht="78.75" customHeight="1">
+    <row customHeight="1" ht="78.75" r="3" spans="1:37">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -6250,127 +6257,127 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:N4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f ref="B4:N4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" ref="O4:P4" si="1">COUNTIFS($A9:$A11,"*$*",O9:O11,"")</f>
+        <f ref="O4:P4" si="1" t="shared">COUNTIFS($A9:$A11,"*$*",O9:O11,"")</f>
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" ref="Q4:R4" si="2">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
+        <f ref="Q4:R4" si="2" t="shared">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" ref="S4:AF4" si="3">COUNTIFS($A9:$A11,"*$*",S9:S11,"")</f>
+        <f ref="S4:AF4" si="3" t="shared">COUNTIFS($A9:$A11,"*$*",S9:S11,"")</f>
         <v>0</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AB4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AC4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AD4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AE4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AF4" s="2">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -6408,7 +6415,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
-    <row r="6" spans="1:37" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="6" spans="1:37">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -6442,7 +6449,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
-    <row r="7" spans="1:37" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="7" spans="1:37">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -7052,29 +7059,29 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:AF13 B15:AF15">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:AF13 B15:AF15" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16" width="22" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="5" max="16" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -7130,7 +7137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="27" customFormat="1">
+    <row customFormat="1" r="2" s="27" spans="1:17">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -7183,7 +7190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="78.75" customHeight="1">
+    <row customHeight="1" ht="78.75" r="3" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -7235,67 +7242,67 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:P4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f ref="B4:P4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" ref="Q4" si="1">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
+        <f ref="Q4" si="1" t="shared">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -7318,7 +7325,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="6" spans="1:17">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -7337,7 +7344,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="7" spans="1:17">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -7675,86 +7682,86 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="36" spans="2:2" ht="15.75" thickBot="1"/>
-    <row r="37" spans="2:2" ht="15.75" thickBot="1">
+    <row ht="15.75" r="36" spans="2:2" thickBot="1"/>
+    <row ht="15.75" r="37" spans="2:2" thickBot="1">
       <c r="B37" s="33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="15.75" thickBot="1">
+    <row ht="15.75" r="38" spans="2:2" thickBot="1">
       <c r="B38" s="33" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15.75" thickBot="1">
+    <row ht="15.75" r="39" spans="2:2" thickBot="1">
       <c r="B39" s="33" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="15.75" thickBot="1">
+    <row ht="15.75" r="40" spans="2:2" thickBot="1">
       <c r="B40" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="15.75" thickBot="1">
+    <row ht="15.75" r="41" spans="2:2" thickBot="1">
       <c r="B41" s="33" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="15.75" thickBot="1">
+    <row ht="15.75" r="42" spans="2:2" thickBot="1">
       <c r="B42" s="33" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="15.75" thickBot="1">
+    <row ht="15.75" r="43" spans="2:2" thickBot="1">
       <c r="B43" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="15.75" thickBot="1">
+    <row ht="15.75" r="44" spans="2:2" thickBot="1">
       <c r="B44" s="33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="15.75" thickBot="1">
+    <row ht="15.75" r="45" spans="2:2" thickBot="1">
       <c r="B45" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="15.75" thickBot="1">
+    <row ht="15.75" r="46" spans="2:2" thickBot="1">
       <c r="B46" s="33" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="15.75" thickBot="1">
+    <row ht="15.75" r="47" spans="2:2" thickBot="1">
       <c r="B47" s="33" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="15.75" thickBot="1">
+    <row ht="15.75" r="48" spans="2:2" thickBot="1">
       <c r="B48" s="33" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15.75" thickBot="1">
+    <row ht="15.75" r="49" spans="2:2" thickBot="1">
       <c r="B49" s="33" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:Q13 B15:Q15">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:Q13 B15:Q15" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD16"/>
@@ -7762,11 +7769,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="22" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="3" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="22" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -7857,7 +7864,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="50.25" customHeight="1">
+    <row customHeight="1" ht="50.25" r="3" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -7910,47 +7917,47 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:L4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f ref="B4:L4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="2"/>
@@ -7988,7 +7995,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="6" spans="1:22">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -8012,7 +8019,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="7" spans="1:22">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -8358,45 +8365,45 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:O13 B15:O15">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:O13 B15:O15" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L9" r:id="rId1" display="USER@AD-INS.COM"/>
-    <hyperlink ref="J9" r:id="rId2" display="USER@AD-INS.COM"/>
-    <hyperlink ref="K9" r:id="rId3" display="USER@AD-INS.COM"/>
-    <hyperlink ref="H9" r:id="rId4" display="USER@AD-INS.COM"/>
-    <hyperlink ref="B9" r:id="rId5" display="USER@AD-INS.COM"/>
-    <hyperlink ref="C9" r:id="rId6" display="USER@AD-INS.COM"/>
-    <hyperlink ref="I9" r:id="rId7" display="USER@AD-INS.COM"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId1" ref="L9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId2" ref="J9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId3" ref="K9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId4" ref="H9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId5" ref="B9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId6" ref="C9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId7" ref="I9"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -8437,7 +8444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="27" customFormat="1" ht="52.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="52.5" r="2" s="27" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -8475,7 +8482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45">
+    <row ht="45" r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -8518,47 +8525,47 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:J4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f ref="B4:J4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:L4" si="1">COUNTIFS($A9:$A11,"*$*",K9:K11,"")</f>
+        <f ref="K4:L4" si="1" t="shared">COUNTIFS($A9:$A11,"*$*",K9:K11,"")</f>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -8874,58 +8881,35 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1">
-      <c r="C20" s="33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
-      <c r="C21" s="33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
-      <c r="C22" s="33" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1">
-      <c r="C23" s="33" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
-      <c r="C24" s="33" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
-      <c r="C25" s="33" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1">
-      <c r="C26" s="33" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1">
-      <c r="C27" s="33" t="s">
-        <v>289</v>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:L13 B15:L15 B17:L17">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:L13 B15:L15 B17:L17" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="USER@AD-INS.COM"/>
-    <hyperlink ref="C9" r:id="rId2" display="USER@AD-INS.COM"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId1" ref="B9"/>
+    <hyperlink display="USER@AD-INS.COM" r:id="rId2" ref="C9"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Excel/2.1 Esign - Full API Services.xlsx
+++ b/Excel/2.1 Esign - Full API Services.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\ATeSign\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="5" firstSheet="3" windowHeight="7065" windowWidth="18525" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="API Registrasi" r:id="rId1" sheetId="17"/>
-    <sheet name="API Check Registrasi" r:id="rId2" sheetId="18"/>
-    <sheet name="API Check Stamping Status" r:id="rId3" sheetId="19"/>
-    <sheet name="API Check Signing Status" r:id="rId4" sheetId="21"/>
-    <sheet name="API Request Stamping" r:id="rId5" sheetId="20"/>
-    <sheet name="API Download Document" r:id="rId6" sheetId="22"/>
+    <sheet name="API Registrasi" sheetId="17" r:id="rId1"/>
+    <sheet name="API Check Registrasi" sheetId="18" r:id="rId2"/>
+    <sheet name="API Check Stamping Status" sheetId="19" r:id="rId3"/>
+    <sheet name="API Check Signing Status" sheetId="21" r:id="rId4"/>
+    <sheet name="API Request Stamping" sheetId="20" r:id="rId5"/>
+    <sheet name="API Download Document" sheetId="22" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="315">
   <si>
     <t>Status</t>
   </si>
@@ -548,9 +548,6 @@
     <t>"11530"</t>
   </si>
   <si>
-    <t>"idPhoto"</t>
-  </si>
-  <si>
     <t>"P@ssw0rd"</t>
   </si>
   <si>
@@ -957,19 +954,40 @@
   </si>
   <si>
     <t>DOCUMENT DOWNLOAD</t>
+  </si>
+  <si>
+    <t>Email @domain.co.id</t>
+  </si>
+  <si>
+    <t>"USERGMAIL@ADMIN.CO.ID"</t>
+  </si>
+  <si>
+    <t>base64 invalid id photo</t>
+  </si>
+  <si>
+    <t>"A"</t>
+  </si>
+  <si>
+    <t>enter Correct base64 IdPhoto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1309,107 +1327,538 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="34" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="34" numFmtId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="67">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="33" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="34" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="32" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="32" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="37" numFmtId="0" quotePrefix="1" xfId="1"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="31" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="33" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="31" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="36" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="36" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="33" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="37" numFmtId="0" quotePrefix="1" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="32" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="30" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="30" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="33" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="28" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="28" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="25" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="38" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="21" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="14" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="12" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="33" numFmtId="0" quotePrefix="1" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+  <cellStyles count="6">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkHorizontal">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkHorizontal">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkHorizontal">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkHorizontal">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkHorizontal">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkHorizontal">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkHorizontal">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkHorizontal">
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1426,10 +1875,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1593,21 +2042,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1624,7 +2073,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1678,168 +2127,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS33"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="B1:AC2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="13" max="28" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="42" max="43" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="46.42578125" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="31" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="29" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="41" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="44" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="46.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Z1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AA1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AB1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AC1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AD1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE1" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF1" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="AF1" t="s">
-        <v>242</v>
-      </c>
       <c r="AG1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AH1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AI1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AK1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AL1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AM1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AN1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AO1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AP1" t="s">
-        <v>136</v>
+        <v>241</v>
       </c>
       <c r="AQ1" t="s">
         <v>136</v>
@@ -1847,133 +2296,136 @@
       <c r="AR1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row customFormat="1" r="2" s="27" spans="1:44">
+      <c r="AS1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" s="27" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" t="s">
         <v>246</v>
       </c>
-      <c r="C2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>247</v>
       </c>
-      <c r="E2" t="s">
-        <v>248</v>
-      </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2" t="s">
         <v>254</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>255</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>256</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>257</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>258</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>259</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>260</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>261</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>262</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>263</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>264</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>265</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>266</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>267</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>268</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>269</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>270</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>271</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>272</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>273</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>274</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" t="s">
         <v>275</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>276</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" t="s">
         <v>277</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>278</v>
       </c>
-      <c r="AG2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>278</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM2" t="s">
         <v>279</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>279</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>280</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>281</v>
       </c>
-      <c r="AN2" t="s">
-        <v>282</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>258</v>
-      </c>
       <c r="AP2" t="s">
-        <v>3</v>
+        <v>257</v>
       </c>
       <c r="AQ2" t="s">
         <v>3</v>
@@ -1981,8 +2433,11 @@
       <c r="AR2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row customHeight="1" ht="50.25" r="3" spans="1:44">
+      <c r="AS2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" ht="50.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2020,267 +2475,271 @@
         <v>148</v>
       </c>
       <c r="M3" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="N3" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="O3" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="P3" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="Q3" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="R3" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="T3" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="R3" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="S3" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="T3" s="38" t="s">
+      <c r="U3" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="U3" s="38" t="s">
+      <c r="V3" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="V3" s="38" t="s">
+      <c r="W3" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="W3" s="38" t="s">
+      <c r="X3" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="X3" s="38" t="s">
+      <c r="Y3" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="Y3" s="38" t="s">
+      <c r="Z3" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="Z3" s="38" t="s">
+      <c r="AA3" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="AA3" s="38" t="s">
-        <v>219</v>
-      </c>
       <c r="AB3" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC3" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f ref="B4:AO4" si="0" t="shared">COUNTIFS($A9:$A23,"*$*",B9:B23,"")</f>
+        <f t="shared" ref="B4:AP4" si="0">COUNTIFS($A9:$A23,"*$*",B9:B23,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f ref="F4" si="1" t="shared">COUNTIFS($A9:$A23,"*$*",F9:F23,"")</f>
+        <f t="shared" ref="F4" si="1">COUNTIFS($A9:$A23,"*$*",F9:F23,"")</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <f ref="P4:R4" si="2" t="shared">COUNTIFS($A9:$A23,"*$*",P9:P23,"")</f>
+        <f t="shared" ref="P4:R4" si="2">COUNTIFS($A9:$A23,"*$*",P9:P23,"")</f>
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U4" s="2">
-        <f ref="U4" si="3" t="shared">COUNTIFS($A9:$A23,"*$*",U9:U23,"")</f>
+        <f t="shared" ref="U4" si="3">COUNTIFS($A9:$A23,"*$*",U9:U23,"")</f>
         <v>0</v>
       </c>
       <c r="V4" s="2">
-        <f ref="V4:W4" si="4" t="shared">COUNTIFS($A9:$A23,"*$*",V9:V23,"")</f>
+        <f t="shared" ref="V4:W4" si="4">COUNTIFS($A9:$A23,"*$*",V9:V23,"")</f>
         <v>0</v>
       </c>
       <c r="W4" s="2">
-        <f si="4" t="shared"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA4" s="2">
-        <f ref="AA4:AB4" si="5" t="shared">COUNTIFS($A9:$A23,"*$*",AA9:AA23,"")</f>
+        <f t="shared" ref="AA4:AB4" si="5">COUNTIFS($A9:$A23,"*$*",AA9:AA23,"")</f>
         <v>0</v>
       </c>
       <c r="AB4" s="2">
-        <f si="5" t="shared"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" ref="AC4" si="6">COUNTIFS($A9:$A23,"*$*",AC9:AC23,"")</f>
         <v>0</v>
       </c>
       <c r="AD4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AL4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AN4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AO4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AP4" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AQ4" s="2">
@@ -2289,8 +2748,11 @@
       <c r="AR4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:44">
+      <c r="AS4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2335,8 +2797,9 @@
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:44">
+      <c r="AS5" s="2"/>
+    </row>
+    <row r="6" spans="1:45" ht="14.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2381,8 +2844,9 @@
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:44">
+      <c r="AS6" s="2"/>
+    </row>
+    <row r="7" spans="1:45" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2427,8 +2891,9 @@
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
-    </row>
-    <row r="8" spans="1:44">
+      <c r="AS7" s="2"/>
+    </row>
+    <row r="8" spans="1:45">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2475,8 +2940,9 @@
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
-    </row>
-    <row r="9" spans="1:44">
+      <c r="AS8" s="3"/>
+    </row>
+    <row r="9" spans="1:45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2609,8 +3075,11 @@
       <c r="AR9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:44">
+      <c r="AS9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -2657,8 +3126,9 @@
       <c r="AP10" s="7"/>
       <c r="AQ10" s="7"/>
       <c r="AR10" s="7"/>
-    </row>
-    <row r="11" spans="1:44">
+      <c r="AS10" s="7"/>
+    </row>
+    <row r="11" spans="1:45">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2690,107 +3160,110 @@
         <v>163</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M11" s="40" t="s">
         <v>122</v>
       </c>
       <c r="N11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB11" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AC11" s="36" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="AD11" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="36" t="s">
-        <v>182</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="AE11" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF11" s="1"/>
       <c r="AG11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AI11" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ11" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK11" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="AL11" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="AM11" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN11" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="AO11" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="AP11" s="36" t="s">
-        <v>163</v>
+        <v>181</v>
+      </c>
+      <c r="AK11" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL11" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM11" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN11" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO11" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="AP11" s="44" t="s">
+        <v>228</v>
       </c>
       <c r="AQ11" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="AR11" s="51" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44">
+      <c r="AR11" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS11" s="50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2822,107 +3295,110 @@
         <v>164</v>
       </c>
       <c r="K12" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L12" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="S12" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="T12" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="U12" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="V12" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="W12" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="X12" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y12" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z12" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA12" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB12" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC12" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD12" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE12" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH12" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI12" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ12" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK12" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL12" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM12" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="AN12" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="N12" s="37" t="s">
+      <c r="AO12" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="O12" s="37" t="s">
+      <c r="AP12" s="45" t="s">
         <v>193</v>
-      </c>
-      <c r="P12" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q12" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="R12" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="S12" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="T12" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="U12" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="V12" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="W12" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="X12" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y12" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z12" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA12" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB12" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC12" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD12" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="AG12" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH12" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI12" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ12" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="AK12" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="AL12" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM12" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN12" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO12" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP12" s="37" t="s">
-        <v>122</v>
       </c>
       <c r="AQ12" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="AR12" s="52" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44">
+      <c r="AR12" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS12" s="51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2954,83 +3430,83 @@
         <v>165</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>122</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC13" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD13" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="AD13" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="AE13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF13" s="1"/>
       <c r="AG13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="AL13" s="1" t="s">
         <v>165</v>
@@ -3044,7 +3520,7 @@
       <c r="AO13" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AP13" s="36" t="s">
+      <c r="AP13" s="1" t="s">
         <v>165</v>
       </c>
       <c r="AQ13" s="36" t="s">
@@ -3053,8 +3529,11 @@
       <c r="AR13" s="36" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="14" spans="1:44">
+      <c r="AS13" s="36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -3074,7 +3553,7 @@
         <v>166</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H14" s="36" t="s">
         <v>166</v>
@@ -3086,107 +3565,110 @@
         <v>166</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O14" s="40" t="s">
         <v>122</v>
       </c>
       <c r="P14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB14" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC14" s="36" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="AD14" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="36" t="s">
-        <v>185</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="AE14" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF14" s="1"/>
       <c r="AG14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AH14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AI14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AJ14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AM14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AN14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AO14" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AP14" s="36" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="AQ14" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="AR14" s="51" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44">
+      <c r="AR14" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS14" s="50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3215,7 +3697,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K15" s="36" t="s">
         <v>15</v>
@@ -3277,10 +3759,10 @@
       <c r="AD15" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="36" t="s">
+      <c r="AE15" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="AF15" s="1"/>
       <c r="AG15" s="36" t="s">
         <v>15</v>
       </c>
@@ -3308,17 +3790,20 @@
       <c r="AO15" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AP15" s="1" t="s">
+      <c r="AP15" s="36" t="s">
         <v>15</v>
       </c>
       <c r="AQ15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AR15" s="36" t="s">
+      <c r="AR15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:44">
+      <c r="AS15" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3335,7 +3820,7 @@
         <v>167</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>167</v>
@@ -3350,107 +3835,110 @@
         <v>167</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N16" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O16" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P16" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="40" t="s">
         <v>122</v>
       </c>
       <c r="R16" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T16" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U16" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V16" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W16" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X16" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y16" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z16" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA16" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB16" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC16" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD16" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC16" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE16" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH16" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI16" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="AG16" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH16" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="AI16" s="36" t="s">
-        <v>183</v>
-      </c>
       <c r="AJ16" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK16" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL16" s="48" t="s">
-        <v>232</v>
+        <v>182</v>
+      </c>
+      <c r="AK16" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL16" s="49" t="s">
+        <v>230</v>
       </c>
       <c r="AM16" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="AN16" s="48" t="s">
-        <v>232</v>
+      <c r="AN16" s="46" t="s">
+        <v>230</v>
       </c>
       <c r="AO16" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="AP16" s="36" t="s">
-        <v>167</v>
+      <c r="AP16" s="46" t="s">
+        <v>230</v>
       </c>
       <c r="AQ16" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="AR16" s="51" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:44">
+      <c r="AR16" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS16" s="50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -3461,10 +3949,10 @@
         <v>168</v>
       </c>
       <c r="D17" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="36" t="s">
         <v>176</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>177</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>168</v>
@@ -3482,107 +3970,110 @@
         <v>168</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M17" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N17" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O17" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R17" s="40" t="s">
         <v>122</v>
       </c>
       <c r="S17" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T17" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U17" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V17" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W17" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X17" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y17" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z17" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA17" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="AA17" s="44" t="s">
+        <v>186</v>
       </c>
       <c r="AB17" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC17" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD17" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="36" t="s">
-        <v>187</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="AC17" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD17" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE17" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF17" s="1"/>
       <c r="AG17" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH17" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI17" s="36" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="AJ17" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK17" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="AL17" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="AM17" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN17" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="AO17" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="AP17" s="36" t="s">
-        <v>168</v>
+        <v>202</v>
+      </c>
+      <c r="AK17" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL17" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM17" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN17" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO17" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP17" s="44" t="s">
+        <v>229</v>
       </c>
       <c r="AQ17" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="AR17" s="51" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:44">
+      <c r="AR17" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS17" s="50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
@@ -3614,107 +4105,110 @@
         <v>169</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S18" s="40" t="s">
         <v>122</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC18" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD18" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF18" s="1"/>
       <c r="AG18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AP18" s="36" t="s">
-        <v>169</v>
+        <v>189</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="AQ18" s="36" t="s">
         <v>169</v>
       </c>
       <c r="AR18" s="36" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:44">
+        <v>169</v>
+      </c>
+      <c r="AS18" s="36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -3746,107 +4240,110 @@
         <v>170</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T19" s="40" t="s">
         <v>122</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF19" s="1"/>
       <c r="AG19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AP19" s="36" t="s">
-        <v>170</v>
+        <v>187</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="AQ19" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="AR19" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:44">
+      <c r="AR19" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45">
       <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
@@ -3878,107 +4375,110 @@
         <v>170</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U20" s="40" t="s">
         <v>122</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1" t="s">
-        <v>189</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF20" s="1"/>
       <c r="AG20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AP20" s="36" t="s">
-        <v>170</v>
+        <v>188</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="AQ20" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="AR20" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:44">
+      <c r="AR20" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -4069,10 +4569,10 @@
       <c r="AD21" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1" t="s">
+      <c r="AE21" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="AF21" s="1"/>
       <c r="AG21" s="1" t="s">
         <v>171</v>
       </c>
@@ -4100,17 +4600,20 @@
       <c r="AO21" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AP21" s="36" t="s">
+      <c r="AP21" s="1" t="s">
         <v>171</v>
       </c>
       <c r="AQ21" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="AR21" s="1" t="s">
+      <c r="AR21" s="36" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="22" spans="1:44">
+      <c r="AS21" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -4142,107 +4645,110 @@
         <v>172</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W22" s="40" t="s">
         <v>122</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF22" s="1"/>
       <c r="AG22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AM22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AN22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AP22" s="36" t="s">
-        <v>172</v>
+        <v>190</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="AQ22" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="AR22" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:44">
+      <c r="AR22" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS22" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45">
       <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
@@ -4274,503 +4780,515 @@
         <v>173</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X23" s="40" t="s">
         <v>122</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1" t="s">
-        <v>192</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF23" s="1"/>
       <c r="AG23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AM23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AN23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AP23" s="36" t="s">
-        <v>173</v>
+        <v>191</v>
+      </c>
+      <c r="AP23" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="AQ23" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="AR23" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:44">
+      <c r="AR23" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS23" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="F24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="H24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="I24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="J24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="K24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="L24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="M24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="N24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="O24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="P24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="R24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="S24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="T24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="U24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="V24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="W24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="X24" s="53" t="s">
-        <v>241</v>
+      <c r="B24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="I24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="J24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="K24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="L24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="M24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="N24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="O24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="P24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="R24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="S24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="T24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="U24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="V24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="W24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="X24" s="52" t="s">
+        <v>240</v>
       </c>
       <c r="Y24" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="Z24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA24" s="53" t="s">
-        <v>241</v>
+      <c r="Z24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA24" s="52" t="s">
+        <v>240</v>
       </c>
       <c r="AB24" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC24" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC24" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD24" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE24" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="AD24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="AH24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="AI24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="AK24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="AL24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="AN24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="AO24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="AP24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="AQ24" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="AR24" s="53" t="s">
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="52" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="25" spans="1:44">
+      <c r="AH24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AP24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AQ24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AR24" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AS24" s="52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45">
       <c r="A25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="I25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="J25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="M25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="N25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="O25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="P25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="R25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="S25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="T25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="U25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="V25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="W25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="X25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y25" s="36" t="s">
-        <v>174</v>
+      <c r="B25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="L25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="N25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="O25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="P25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="R25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="S25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="T25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="U25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="V25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="W25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="X25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y25" s="52" t="s">
+        <v>240</v>
       </c>
       <c r="Z25" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="AA25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AJ25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AK25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AL25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AM25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AO25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AP25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AQ25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AR25" s="36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:44">
+      <c r="AA25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC25" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AP25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AQ25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AR25" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AS25" s="52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45">
       <c r="A26" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H26" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="I26" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="I26" s="37" t="s">
-        <v>180</v>
-      </c>
       <c r="J26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA26" s="40" t="s">
         <v>122</v>
       </c>
       <c r="AB26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD26" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="37" t="s">
-        <v>175</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AE26" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF26" s="1"/>
       <c r="AG26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AH26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AI26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AJ26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AK26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AM26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AN26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AO26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AP26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AQ26" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AR26" s="37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:44">
+        <v>174</v>
+      </c>
+      <c r="AS26" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45">
       <c r="A27" s="15" t="s">
         <v>56</v>
       </c>
@@ -4817,193 +5335,198 @@
       <c r="AP27" s="15"/>
       <c r="AQ27" s="15"/>
       <c r="AR27" s="15"/>
-    </row>
-    <row r="28" spans="1:44">
-      <c r="A28" s="11" t="s">
+      <c r="AS27" s="15"/>
+    </row>
+    <row r="28" spans="1:45">
+      <c r="A28" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="P28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="U28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="V28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR28" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:44">
-      <c r="A29" s="11" t="s">
+      <c r="C28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="M28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="R28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="S28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="T28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="U28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="V28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="X28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS28" s="65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45">
+      <c r="A29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
-      <c r="AM29" s="1"/>
-      <c r="AN29" s="1"/>
-      <c r="AO29" s="1"/>
-      <c r="AP29" s="1"/>
-      <c r="AQ29" s="1"/>
-      <c r="AR29" s="1"/>
-    </row>
-    <row r="30" spans="1:44">
-      <c r="A30" s="24" t="s">
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="65"/>
+      <c r="AC29" s="65"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="65"/>
+      <c r="AF29" s="65"/>
+      <c r="AG29" s="65"/>
+      <c r="AH29" s="65"/>
+      <c r="AI29" s="65"/>
+      <c r="AJ29" s="65"/>
+      <c r="AK29" s="65"/>
+      <c r="AL29" s="65"/>
+      <c r="AM29" s="65"/>
+      <c r="AN29" s="65"/>
+      <c r="AO29" s="65"/>
+      <c r="AP29" s="65"/>
+      <c r="AQ29" s="65"/>
+      <c r="AR29" s="65"/>
+      <c r="AS29" s="65"/>
+    </row>
+    <row r="30" spans="1:45" ht="30">
+      <c r="A30" s="23" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="24" t="s">
@@ -5135,13 +5658,18 @@
       <c r="AR30" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:44">
-      <c r="A31" s="24" t="s">
+      <c r="AS30" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45">
+      <c r="A31" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65" t="s">
+        <v>61</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -5183,10 +5711,11 @@
       <c r="AP31" s="1"/>
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
-    </row>
-    <row r="32" spans="1:44">
-      <c r="A32" s="44" t="s">
-        <v>228</v>
+      <c r="AS31" s="1"/>
+    </row>
+    <row r="32" spans="1:45" ht="30">
+      <c r="A32" s="66" t="s">
+        <v>227</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>60</v>
@@ -5269,7 +5798,7 @@
       <c r="AB32" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AC32" s="11" t="s">
+      <c r="AC32" s="42" t="s">
         <v>60</v>
       </c>
       <c r="AD32" s="11" t="s">
@@ -5317,33 +5846,183 @@
       <c r="AR32" s="11" t="s">
         <v>60</v>
       </c>
+      <c r="AS32" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" ht="30">
+      <c r="A33" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB33" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC33" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS33" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A29:XFD29">
+    <cfRule type="expression" dxfId="29" priority="3">
+      <formula>A$28="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:XFD31">
+    <cfRule type="expression" dxfId="30" priority="1">
+      <formula>A$30="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B30:AR30 B32:AR32 B28:AR28" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:AS28 B32:AS33 B30:AS30">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="3" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="22" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="22" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -5351,13 +6030,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -5372,27 +6051,29 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O1" t="s">
-        <v>242</v>
-      </c>
-      <c r="P1" s="11"/>
+        <v>241</v>
+      </c>
+      <c r="P1" t="s">
+        <v>241</v>
+      </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -5404,13 +6085,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" t="s">
         <v>243</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>244</v>
-      </c>
-      <c r="D2" t="s">
-        <v>245</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -5425,34 +6106,36 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J2" t="s">
         <v>246</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L2" t="s">
         <v>247</v>
       </c>
-      <c r="K2" t="s">
-        <v>247</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>248</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>249</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>250</v>
       </c>
-      <c r="O2" t="s">
-        <v>251</v>
-      </c>
-      <c r="P2" s="1"/>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row customHeight="1" ht="50.25" r="3" spans="1:22">
+    <row r="3" spans="1:22" ht="50.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -5498,7 +6181,9 @@
       <c r="O3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="12"/>
+      <c r="P3" s="64" t="s">
+        <v>310</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -5511,62 +6196,65 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f ref="B4:O4" si="0" t="shared">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
+        <f t="shared" ref="B4:O4" si="0">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f ref="F4" si="1" t="shared">COUNTIFS($A9:$A12,"*$*",F9:F12,"")</f>
+        <f t="shared" ref="F4" si="1">COUNTIFS($A9:$A12,"*$*",F9:F12,"")</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="2"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ref="P4" si="2">COUNTIFS($A9:$A12,"*$*",P9:P12,"")</f>
+        <v>0</v>
+      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -5598,7 +6286,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:22">
+    <row r="6" spans="1:22" ht="14.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -5622,7 +6310,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:22">
+    <row r="7" spans="1:22" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5664,7 +6352,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="16"/>
+      <c r="P8" s="3"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="3"/>
@@ -5718,7 +6406,9 @@
       <c r="O9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="17"/>
+      <c r="P9" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -5744,7 +6434,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="18"/>
+      <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -5798,7 +6488,9 @@
       <c r="O11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="19"/>
+      <c r="P11" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -5852,7 +6544,9 @@
       <c r="O12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="19"/>
+      <c r="P12" s="11" t="s">
+        <v>311</v>
+      </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -5878,7 +6572,7 @@
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
-      <c r="P13" s="14"/>
+      <c r="P13" s="15"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
@@ -5932,7 +6626,9 @@
       <c r="O14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P14" s="1"/>
+      <c r="P14" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -5944,7 +6640,7 @@
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -5969,42 +6665,49 @@
       <c r="V15" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A15:XFD15">
+    <cfRule type="expression" dxfId="25" priority="1">
+      <formula>A$14="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14:O14" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:P14">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId1" ref="L9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId2" ref="J9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId3" ref="K9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId4" ref="O9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId5" ref="H9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId6" ref="B9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId7" ref="C9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId8" ref="I9"/>
+    <hyperlink ref="L9" r:id="rId1" display="USER@AD-INS.COM"/>
+    <hyperlink ref="J9" r:id="rId2" display="USER@AD-INS.COM"/>
+    <hyperlink ref="K9" r:id="rId3" display="USER@AD-INS.COM"/>
+    <hyperlink ref="O9" r:id="rId4" display="USER@AD-INS.COM"/>
+    <hyperlink ref="H9" r:id="rId5" display="USER@AD-INS.COM"/>
+    <hyperlink ref="B9" r:id="rId6" display="USER@AD-INS.COM"/>
+    <hyperlink ref="C9" r:id="rId7" display="USER@AD-INS.COM"/>
+    <hyperlink ref="I9" r:id="rId8" display="USER@AD-INS.COM"/>
+    <hyperlink ref="P9" r:id="rId9" display="USER@AD-INS.COM"/>
+    <hyperlink ref="P12" r:id="rId10" display="USERGMAIL@ADMIN.CO.ID"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="5" max="23" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="24" max="32" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="23" width="22" customWidth="1" collapsed="1"/>
+    <col min="24" max="32" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -6012,16 +6715,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -6105,21 +6808,21 @@
         <v>136</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="27" spans="1:37">
+    <row r="2" spans="1:37" s="27" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" t="s">
         <v>252</v>
-      </c>
-      <c r="D2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" t="s">
-        <v>253</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -6149,7 +6852,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row customHeight="1" ht="78.75" r="3" spans="1:37">
+    <row r="3" spans="1:37" ht="78.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -6257,127 +6960,127 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f ref="B4:N4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f t="shared" ref="B4:N4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f ref="O4:P4" si="1" t="shared">COUNTIFS($A9:$A11,"*$*",O9:O11,"")</f>
+        <f t="shared" ref="O4:P4" si="1">COUNTIFS($A9:$A11,"*$*",O9:O11,"")</f>
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f ref="Q4:R4" si="2" t="shared">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
+        <f t="shared" ref="Q4:R4" si="2">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <f ref="S4:AF4" si="3" t="shared">COUNTIFS($A9:$A11,"*$*",S9:S11,"")</f>
+        <f t="shared" ref="S4:AF4" si="3">COUNTIFS($A9:$A11,"*$*",S9:S11,"")</f>
         <v>0</v>
       </c>
       <c r="T4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF4" s="2">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6415,7 +7118,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:37">
+    <row r="6" spans="1:37" ht="14.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -6449,7 +7152,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:37">
+    <row r="7" spans="1:37" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6889,7 +7592,7 @@
       <c r="A14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="65" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="1"/>
@@ -7025,8 +7728,10 @@
       <c r="A16" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65" t="s">
+        <v>61</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -7058,30 +7763,42 @@
       <c r="AF16" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A16:XFD16">
+    <cfRule type="expression" dxfId="21" priority="2">
+      <formula>A$15="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:XFD14">
+    <cfRule type="expression" dxfId="20" priority="1">
+      <formula>A$13="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:AF13 B15:AF15" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:AF13 B15:AF15">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="5" max="16" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16" width="22" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -7089,16 +7806,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -7137,21 +7854,21 @@
         <v>1</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="27" spans="1:17">
+    <row r="2" spans="1:17" s="27" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" t="s">
         <v>252</v>
-      </c>
-      <c r="D2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E2" t="s">
-        <v>253</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -7177,10 +7894,10 @@
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="59" t="s">
+      <c r="O2" s="58" t="s">
         <v>3</v>
       </c>
       <c r="P2" s="2" t="s">
@@ -7190,7 +7907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="78.75" r="3" spans="1:17">
+    <row r="3" spans="1:17" ht="78.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -7242,67 +7959,67 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f ref="B4:P4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f t="shared" ref="B4:P4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f ref="Q4" si="1" t="shared">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
+        <f t="shared" ref="Q4" si="1">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -7325,7 +8042,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:17">
+    <row r="6" spans="1:17" ht="14.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -7344,7 +8061,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:17">
+    <row r="7" spans="1:17" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -7477,7 +8194,7 @@
       <c r="F11" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="53" t="s">
         <v>106</v>
       </c>
       <c r="H11" s="25" t="s">
@@ -7492,16 +8209,16 @@
       <c r="K11" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="L11" s="55" t="s">
+      <c r="L11" s="54" t="s">
         <v>89</v>
       </c>
       <c r="M11" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="N11" s="57" t="s">
+      <c r="N11" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="O11" s="56" t="s">
+      <c r="O11" s="55" t="s">
         <v>94</v>
       </c>
       <c r="P11" s="24" t="s">
@@ -7589,7 +8306,7 @@
       <c r="A14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="65" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="1"/>
@@ -7665,8 +8382,10 @@
       <c r="A16" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65" t="s">
+        <v>61</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -7682,98 +8401,108 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row ht="15.75" r="36" spans="2:2" thickBot="1"/>
-    <row ht="15.75" r="37" spans="2:2" thickBot="1">
+    <row r="36" spans="2:2" ht="15.75" thickBot="1"/>
+    <row r="37" spans="2:2" ht="15.75" thickBot="1">
       <c r="B37" s="33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row ht="15.75" r="38" spans="2:2" thickBot="1">
+    <row r="38" spans="2:2" ht="15.75" thickBot="1">
       <c r="B38" s="33" t="s">
         <v>124</v>
       </c>
     </row>
-    <row ht="15.75" r="39" spans="2:2" thickBot="1">
+    <row r="39" spans="2:2" ht="15.75" thickBot="1">
       <c r="B39" s="33" t="s">
         <v>125</v>
       </c>
     </row>
-    <row ht="15.75" r="40" spans="2:2" thickBot="1">
+    <row r="40" spans="2:2" ht="15.75" thickBot="1">
       <c r="B40" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row ht="15.75" r="41" spans="2:2" thickBot="1">
+    <row r="41" spans="2:2" ht="15.75" thickBot="1">
       <c r="B41" s="33" t="s">
         <v>127</v>
       </c>
     </row>
-    <row ht="15.75" r="42" spans="2:2" thickBot="1">
+    <row r="42" spans="2:2" ht="15.75" thickBot="1">
       <c r="B42" s="33" t="s">
         <v>128</v>
       </c>
     </row>
-    <row ht="15.75" r="43" spans="2:2" thickBot="1">
+    <row r="43" spans="2:2" ht="15.75" thickBot="1">
       <c r="B43" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row ht="15.75" r="44" spans="2:2" thickBot="1">
+    <row r="44" spans="2:2" ht="15.75" thickBot="1">
       <c r="B44" s="33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row ht="15.75" r="45" spans="2:2" thickBot="1">
+    <row r="45" spans="2:2" ht="15.75" thickBot="1">
       <c r="B45" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row ht="15.75" r="46" spans="2:2" thickBot="1">
+    <row r="46" spans="2:2" ht="15.75" thickBot="1">
       <c r="B46" s="33" t="s">
         <v>132</v>
       </c>
     </row>
-    <row ht="15.75" r="47" spans="2:2" thickBot="1">
+    <row r="47" spans="2:2" ht="15.75" thickBot="1">
       <c r="B47" s="33" t="s">
         <v>133</v>
       </c>
     </row>
-    <row ht="15.75" r="48" spans="2:2" thickBot="1">
+    <row r="48" spans="2:2" ht="15.75" thickBot="1">
       <c r="B48" s="33" t="s">
         <v>134</v>
       </c>
     </row>
-    <row ht="15.75" r="49" spans="2:2" thickBot="1">
+    <row r="49" spans="2:2" ht="15.75" thickBot="1">
       <c r="B49" s="33" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A14:XFD14">
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>A$13="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:XFD16">
+    <cfRule type="expression" dxfId="13" priority="1">
+      <formula>A$15="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:Q13 B15:Q15" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:Q13 B15:Q15">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="3" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="22" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="22" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -7864,7 +8593,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row customHeight="1" ht="50.25" r="3" spans="1:22">
+    <row r="3" spans="1:22" ht="50.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -7917,47 +8646,47 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f ref="B4:L4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f t="shared" ref="B4:L4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="2"/>
@@ -7995,7 +8724,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:22">
+    <row r="6" spans="1:22" ht="14.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -8019,7 +8748,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:22">
+    <row r="7" spans="1:22" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -8234,8 +8963,8 @@
       <c r="H13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>59</v>
+      <c r="I13" s="65" t="s">
+        <v>60</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>60</v>
@@ -8261,7 +8990,7 @@
       <c r="A14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="65" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="1"/>
@@ -8270,9 +8999,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="I14" s="11"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -8312,8 +9039,8 @@
       <c r="H15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>59</v>
+      <c r="I15" s="65" t="s">
+        <v>60</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>60</v>
@@ -8340,15 +9067,15 @@
         <v>69</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="65" t="s">
+        <v>61</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="I16" s="11"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -8364,46 +9091,56 @@
       <c r="V16" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A14:XFD14">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>A$13="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:XFD16">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>A$15="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:O13 B15:O15" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:O13 B15:O15">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId1" ref="L9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId2" ref="J9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId3" ref="K9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId4" ref="H9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId5" ref="B9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId6" ref="C9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId7" ref="I9"/>
+    <hyperlink ref="L9" r:id="rId1" display="USER@AD-INS.COM"/>
+    <hyperlink ref="J9" r:id="rId2" display="USER@AD-INS.COM"/>
+    <hyperlink ref="K9" r:id="rId3" display="USER@AD-INS.COM"/>
+    <hyperlink ref="H9" r:id="rId4" display="USER@AD-INS.COM"/>
+    <hyperlink ref="B9" r:id="rId5" display="USER@AD-INS.COM"/>
+    <hyperlink ref="C9" r:id="rId6" display="USER@AD-INS.COM"/>
+    <hyperlink ref="I9" r:id="rId7" display="USER@AD-INS.COM"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -8411,22 +9148,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -8435,54 +9172,54 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="52.5" r="2" s="27" spans="1:12">
+    <row r="2" spans="1:12" s="27" customFormat="1" ht="52.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="57" t="s">
         <v>3</v>
       </c>
     </row>
-    <row ht="45" r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -8493,31 +9230,31 @@
         <v>124</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="60" t="s">
+        <v>303</v>
+      </c>
+      <c r="K3" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="K3" s="61" t="s">
-        <v>305</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8525,47 +9262,47 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f ref="B4:J4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f t="shared" ref="B4:J4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f ref="K4:L4" si="1" t="shared">COUNTIFS($A9:$A11,"*$*",K9:K11,"")</f>
+        <f t="shared" ref="K4:L4" si="1">COUNTIFS($A9:$A11,"*$*",K9:K11,"")</f>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8658,7 +9395,7 @@
       <c r="J9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="60" t="s">
+      <c r="K9" s="59" t="s">
         <v>65</v>
       </c>
       <c r="L9" s="10" t="s">
@@ -8682,41 +9419,41 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="C11" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="D11" s="56" t="s">
         <v>292</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="E11" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="E11" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="F11" s="57" t="s">
+      <c r="G11" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="J11" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="G11" s="57" t="s">
-        <v>297</v>
-      </c>
-      <c r="H11" s="57" t="s">
-        <v>298</v>
-      </c>
-      <c r="I11" s="57" t="s">
-        <v>299</v>
-      </c>
-      <c r="J11" s="57" t="s">
+      <c r="K11" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="K11" s="59" t="s">
-        <v>296</v>
-      </c>
-      <c r="L11" s="57" t="s">
-        <v>294</v>
+      <c r="L11" s="56" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8777,7 +9514,9 @@
       <c r="A14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="65" t="s">
+        <v>61</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -8814,13 +9553,13 @@
       <c r="H15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="57" t="s">
+      <c r="I15" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="56" t="s">
         <v>60</v>
       </c>
       <c r="L15" s="11" t="s">
@@ -8832,7 +9571,9 @@
         <v>69</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="65" t="s">
+        <v>61</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -8844,8 +9585,8 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="62" t="s">
-        <v>306</v>
+      <c r="A17" s="61" t="s">
+        <v>305</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>60</v>
@@ -8859,8 +9600,8 @@
       <c r="E17" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="63" t="s">
-        <v>59</v>
+      <c r="F17" s="62" t="s">
+        <v>60</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>60</v>
@@ -8877,13 +9618,13 @@
       <c r="K17" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="64" t="s">
+      <c r="L17" s="63" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -8896,20 +9637,35 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A14:XFD14">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>A$13="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:XFD16">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>A$15="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:XFD18">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>A$17="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:L13 B15:L15 B17:L17" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:L13 B15:L15 B17:L17">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId1" ref="B9"/>
-    <hyperlink display="USER@AD-INS.COM" r:id="rId2" ref="C9"/>
+    <hyperlink ref="B9" r:id="rId1" display="USER@AD-INS.COM"/>
+    <hyperlink ref="C9" r:id="rId2" display="USER@AD-INS.COM"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Excel/2.1 Esign - Full API Services.xlsx
+++ b/Excel/2.1 Esign - Full API Services.xlsx
@@ -1622,13 +1622,13 @@
     <t>Request dengan genset diset true</t>
   </si>
   <si>
-    <t>94291</t>
-  </si>
-  <si>
-    <t>94292</t>
-  </si>
-  <si>
-    <t>94293</t>
+    <t>94306</t>
+  </si>
+  <si>
+    <t>94303</t>
+  </si>
+  <si>
+    <t>94304</t>
   </si>
   <si>
     <t>Parameter Service</t>
@@ -1673,7 +1673,7 @@
     <t>"TESTDYLAN@GMAIL.COM"</t>
   </si>
   <si>
-    <t>"990x"</t>
+    <t>"00000018"</t>
   </si>
   <si>
     <t>"000000555555555"</t>
@@ -1690,12 +1690,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1745,38 +1745,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1786,9 +1765,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1796,7 +1782,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1811,39 +1844,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1854,24 +1857,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1887,29 +1882,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1954,19 +1926,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1978,109 +1974,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2098,13 +1992,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2116,13 +2004,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2134,7 +2076,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2204,54 +2176,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2276,17 +2200,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2301,10 +2214,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2322,136 +2294,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2495,25 +2467,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2523,8 +2493,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2986,7 +2956,7 @@
       <c r="AE1" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="34" t="s">
+      <c r="AF1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AG1" t="s">
@@ -3182,7 +3152,7 @@
       <c r="E3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="45" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="28" t="s">
@@ -3203,55 +3173,55 @@
       <c r="L3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="47" t="s">
+      <c r="Q3" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="47" t="s">
+      <c r="R3" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="47" t="s">
+      <c r="S3" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="47" t="s">
+      <c r="T3" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="U3" s="47" t="s">
+      <c r="U3" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="V3" s="47" t="s">
+      <c r="V3" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="W3" s="47" t="s">
+      <c r="W3" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="X3" s="47" t="s">
+      <c r="X3" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="Y3" s="47" t="s">
+      <c r="Y3" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="Z3" s="47" t="s">
+      <c r="Z3" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="AA3" s="47" t="s">
+      <c r="AA3" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="47" t="s">
+      <c r="AB3" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="AC3" s="47" t="s">
+      <c r="AC3" s="45" t="s">
         <v>66</v>
       </c>
       <c r="AD3" s="28" t="s">
@@ -3623,53 +3593,53 @@
       <c r="AS7" s="28"/>
     </row>
     <row r="8" spans="1:45">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="31"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="31"/>
-      <c r="AP8" s="31"/>
-      <c r="AQ8" s="31"/>
-      <c r="AR8" s="31"/>
-      <c r="AS8" s="31"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="30"/>
+      <c r="AR8" s="30"/>
+      <c r="AS8" s="30"/>
     </row>
     <row r="9" spans="1:45">
       <c r="A9" s="9" t="s">
@@ -3809,186 +3779,186 @@
       </c>
     </row>
     <row r="10" spans="1:45">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="33"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="33"/>
-      <c r="AO10" s="33"/>
-      <c r="AP10" s="33"/>
-      <c r="AQ10" s="33"/>
-      <c r="AR10" s="33"/>
-      <c r="AS10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="32"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="32"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="32"/>
     </row>
     <row r="11" spans="1:45">
       <c r="A11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="34" t="s">
+      <c r="M11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="O11" s="34" t="s">
+      <c r="O11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="P11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="Q11" s="34" t="s">
+      <c r="Q11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="R11" s="34" t="s">
+      <c r="R11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="S11" s="34" t="s">
+      <c r="S11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="T11" s="34" t="s">
+      <c r="T11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="U11" s="34" t="s">
+      <c r="U11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="V11" s="34" t="s">
+      <c r="V11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="W11" s="34" t="s">
+      <c r="W11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="X11" s="34" t="s">
+      <c r="X11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="Y11" s="34" t="s">
+      <c r="Y11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="Z11" s="34" t="s">
+      <c r="Z11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AA11" s="34" t="s">
+      <c r="AA11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AB11" s="34" t="s">
+      <c r="AB11" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AC11" s="34" t="s">
+      <c r="AC11" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AD11" s="34" t="s">
+      <c r="AD11" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AE11" s="34" t="s">
+      <c r="AE11" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AF11" s="9"/>
-      <c r="AG11" s="34" t="s">
+      <c r="AG11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AH11" s="34" t="s">
+      <c r="AH11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="34" t="s">
+      <c r="AI11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AJ11" s="34" t="s">
+      <c r="AJ11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AK11" s="34" t="s">
+      <c r="AK11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AL11" s="34" t="s">
+      <c r="AL11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AM11" s="34" t="s">
+      <c r="AM11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AN11" s="34" t="s">
+      <c r="AN11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AO11" s="34" t="s">
+      <c r="AO11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AP11" s="34" t="s">
+      <c r="AP11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AQ11" s="34" t="s">
+      <c r="AQ11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AR11" s="34" t="s">
+      <c r="AR11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AS11" s="34" t="s">
+      <c r="AS11" s="8" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3996,134 +3966,134 @@
       <c r="A12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="J12" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="L12" s="49" t="s">
+      <c r="L12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="49" t="s">
+      <c r="M12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="N12" s="49" t="s">
+      <c r="N12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="O12" s="49" t="s">
+      <c r="O12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="P12" s="49" t="s">
+      <c r="P12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="Q12" s="49" t="s">
+      <c r="Q12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="R12" s="49" t="s">
+      <c r="R12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="S12" s="49" t="s">
+      <c r="S12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="T12" s="49" t="s">
+      <c r="T12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="U12" s="49" t="s">
+      <c r="U12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="V12" s="49" t="s">
+      <c r="V12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="W12" s="49" t="s">
+      <c r="W12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="X12" s="49" t="s">
+      <c r="X12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="Y12" s="49" t="s">
+      <c r="Y12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="Z12" s="49" t="s">
+      <c r="Z12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="AA12" s="49" t="s">
+      <c r="AA12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="AB12" s="49" t="s">
+      <c r="AB12" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" s="49" t="s">
+      <c r="AC12" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="AD12" s="49" t="s">
+      <c r="AD12" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="AE12" s="49" t="s">
+      <c r="AE12" s="47" t="s">
         <v>101</v>
       </c>
       <c r="AF12" s="9"/>
-      <c r="AG12" s="49" t="s">
+      <c r="AG12" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="AH12" s="49" t="s">
+      <c r="AH12" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="AI12" s="49" t="s">
+      <c r="AI12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="AJ12" s="49" t="s">
+      <c r="AJ12" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="AK12" s="49" t="s">
+      <c r="AK12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="AL12" s="49" t="s">
+      <c r="AL12" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="AM12" s="49" t="s">
+      <c r="AM12" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="AN12" s="49" t="s">
+      <c r="AN12" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="AO12" s="49" t="s">
+      <c r="AO12" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="AP12" s="49" t="s">
+      <c r="AP12" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="AQ12" s="49" t="s">
+      <c r="AQ12" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="AR12" s="49" t="s">
+      <c r="AR12" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="AS12" s="49" t="s">
+      <c r="AS12" s="47" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4131,31 +4101,31 @@
       <c r="A13" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="8" t="s">
         <v>108</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -4215,7 +4185,7 @@
       <c r="AC13" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AD13" s="34" t="s">
+      <c r="AD13" s="8" t="s">
         <v>108</v>
       </c>
       <c r="AE13" s="9" t="s">
@@ -4252,13 +4222,13 @@
       <c r="AP13" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AQ13" s="34" t="s">
+      <c r="AQ13" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AR13" s="34" t="s">
+      <c r="AR13" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AS13" s="34" t="s">
+      <c r="AS13" s="8" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4266,134 +4236,134 @@
       <c r="A14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="M14" s="34" t="s">
+      <c r="M14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="N14" s="34" t="s">
+      <c r="N14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="O14" s="34" t="s">
+      <c r="O14" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="34" t="s">
+      <c r="P14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="Q14" s="34" t="s">
+      <c r="Q14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="R14" s="34" t="s">
+      <c r="R14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="S14" s="34" t="s">
+      <c r="S14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="T14" s="34" t="s">
+      <c r="T14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="U14" s="34" t="s">
+      <c r="U14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="V14" s="34" t="s">
+      <c r="V14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="W14" s="34" t="s">
+      <c r="W14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="X14" s="34" t="s">
+      <c r="X14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="Y14" s="34" t="s">
+      <c r="Y14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="Z14" s="34" t="s">
+      <c r="Z14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AA14" s="34" t="s">
+      <c r="AA14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AB14" s="34" t="s">
+      <c r="AB14" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="AC14" s="34" t="s">
+      <c r="AC14" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="AD14" s="34" t="s">
+      <c r="AD14" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="AE14" s="34" t="s">
+      <c r="AE14" s="8" t="s">
         <v>115</v>
       </c>
       <c r="AF14" s="9"/>
-      <c r="AG14" s="34" t="s">
+      <c r="AG14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AH14" s="34" t="s">
+      <c r="AH14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AI14" s="34" t="s">
+      <c r="AI14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AJ14" s="34" t="s">
+      <c r="AJ14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AK14" s="34" t="s">
+      <c r="AK14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AL14" s="34" t="s">
+      <c r="AL14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AM14" s="34" t="s">
+      <c r="AM14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AN14" s="34" t="s">
+      <c r="AN14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AO14" s="34" t="s">
+      <c r="AO14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AP14" s="34" t="s">
+      <c r="AP14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AQ14" s="34" t="s">
+      <c r="AQ14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AR14" s="34" t="s">
+      <c r="AR14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AS14" s="34" t="s">
+      <c r="AS14" s="8" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4425,101 +4395,101 @@
       <c r="I15" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="L15" s="34" t="s">
+      <c r="L15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="M15" s="34" t="s">
+      <c r="M15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="N15" s="34" t="s">
+      <c r="N15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="O15" s="34" t="s">
+      <c r="O15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="P15" s="34" t="s">
+      <c r="P15" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="Q15" s="34" t="s">
+      <c r="Q15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="R15" s="34" t="s">
+      <c r="R15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="S15" s="34" t="s">
+      <c r="S15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="T15" s="34" t="s">
+      <c r="T15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="U15" s="34" t="s">
+      <c r="U15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="V15" s="34" t="s">
+      <c r="V15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="W15" s="34" t="s">
+      <c r="W15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="X15" s="34" t="s">
+      <c r="X15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="Y15" s="34" t="s">
+      <c r="Y15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="Z15" s="34" t="s">
+      <c r="Z15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AA15" s="34" t="s">
+      <c r="AA15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AB15" s="34" t="s">
+      <c r="AB15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AC15" s="34" t="s">
+      <c r="AC15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AD15" s="34" t="s">
+      <c r="AD15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AE15" s="34" t="s">
+      <c r="AE15" s="8" t="s">
         <v>118</v>
       </c>
       <c r="AF15" s="9"/>
-      <c r="AG15" s="34" t="s">
+      <c r="AG15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AH15" s="34" t="s">
+      <c r="AH15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AI15" s="34" t="s">
+      <c r="AI15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AJ15" s="34" t="s">
+      <c r="AJ15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AK15" s="34" t="s">
+      <c r="AK15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AL15" s="34" t="s">
+      <c r="AL15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AM15" s="34" t="s">
+      <c r="AM15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AN15" s="34" t="s">
+      <c r="AN15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AO15" s="34" t="s">
+      <c r="AO15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AP15" s="34" t="s">
+      <c r="AP15" s="8" t="s">
         <v>118</v>
       </c>
       <c r="AQ15" s="9" t="s">
@@ -4528,7 +4498,7 @@
       <c r="AR15" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AS15" s="34" t="s">
+      <c r="AS15" s="8" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4536,134 +4506,134 @@
       <c r="A16" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="L16" s="34" t="s">
+      <c r="L16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="M16" s="34" t="s">
+      <c r="M16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="N16" s="34" t="s">
+      <c r="N16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="O16" s="34" t="s">
+      <c r="O16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="P16" s="34" t="s">
+      <c r="P16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="Q16" s="34" t="s">
+      <c r="Q16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="R16" s="34" t="s">
+      <c r="R16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="S16" s="34" t="s">
+      <c r="S16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="T16" s="34" t="s">
+      <c r="T16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="U16" s="34" t="s">
+      <c r="U16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="V16" s="34" t="s">
+      <c r="V16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="W16" s="34" t="s">
+      <c r="W16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="X16" s="34" t="s">
+      <c r="X16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="Y16" s="34" t="s">
+      <c r="Y16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="Z16" s="34" t="s">
+      <c r="Z16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AA16" s="34" t="s">
+      <c r="AA16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AB16" s="34" t="s">
+      <c r="AB16" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="AC16" s="34" t="s">
+      <c r="AC16" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="AD16" s="34" t="s">
+      <c r="AD16" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AE16" s="34" t="s">
+      <c r="AE16" s="8" t="s">
         <v>124</v>
       </c>
       <c r="AF16" s="9"/>
-      <c r="AG16" s="34" t="s">
+      <c r="AG16" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AH16" s="34" t="s">
+      <c r="AH16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AI16" s="34" t="s">
+      <c r="AI16" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AJ16" s="34" t="s">
+      <c r="AJ16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AK16" s="34" t="s">
+      <c r="AK16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AL16" s="34" t="s">
+      <c r="AL16" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AM16" s="34" t="s">
+      <c r="AM16" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AN16" s="34" t="s">
+      <c r="AN16" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AO16" s="34" t="s">
+      <c r="AO16" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AP16" s="34" t="s">
+      <c r="AP16" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AQ16" s="34" t="s">
+      <c r="AQ16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AR16" s="34" t="s">
+      <c r="AR16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AS16" s="34" t="s">
+      <c r="AS16" s="8" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4671,166 +4641,166 @@
       <c r="A17" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="L17" s="34" t="s">
+      <c r="L17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="M17" s="34" t="s">
+      <c r="M17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="N17" s="34" t="s">
+      <c r="N17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="O17" s="34" t="s">
+      <c r="O17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="Q17" s="34" t="s">
+      <c r="Q17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="R17" s="34" t="s">
+      <c r="R17" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="S17" s="34" t="s">
+      <c r="S17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="T17" s="34" t="s">
+      <c r="T17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="U17" s="34" t="s">
+      <c r="U17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="V17" s="34" t="s">
+      <c r="V17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="W17" s="34" t="s">
+      <c r="W17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="X17" s="34" t="s">
+      <c r="X17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="Y17" s="34" t="s">
+      <c r="Y17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="Z17" s="34" t="s">
+      <c r="Z17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="AA17" s="34" t="s">
+      <c r="AA17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="AB17" s="34" t="s">
+      <c r="AB17" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AC17" s="34" t="s">
+      <c r="AC17" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AD17" s="34" t="s">
+      <c r="AD17" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AE17" s="34" t="s">
+      <c r="AE17" s="8" t="s">
         <v>136</v>
       </c>
       <c r="AF17" s="9"/>
-      <c r="AG17" s="34" t="s">
+      <c r="AG17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="AH17" s="34" t="s">
+      <c r="AH17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="AI17" s="34" t="s">
+      <c r="AI17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="AJ17" s="34" t="s">
+      <c r="AJ17" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="AK17" s="34" t="s">
+      <c r="AK17" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="AL17" s="34" t="s">
+      <c r="AL17" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AM17" s="34" t="s">
+      <c r="AM17" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AN17" s="34" t="s">
+      <c r="AN17" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AO17" s="34" t="s">
+      <c r="AO17" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AP17" s="34" t="s">
+      <c r="AP17" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AQ17" s="34" t="s">
+      <c r="AQ17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AR17" s="34" t="s">
+      <c r="AR17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AS17" s="34" t="s">
+      <c r="AS17" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:45">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="8" t="s">
         <v>143</v>
       </c>
       <c r="K18" s="9" t="s">
@@ -4857,7 +4827,7 @@
       <c r="R18" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S18" s="34" t="s">
+      <c r="S18" s="8" t="s">
         <v>91</v>
       </c>
       <c r="T18" s="9" t="s">
@@ -4890,7 +4860,7 @@
       <c r="AC18" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="AD18" s="34" t="s">
+      <c r="AD18" s="8" t="s">
         <v>144</v>
       </c>
       <c r="AE18" s="9" t="s">
@@ -4927,13 +4897,13 @@
       <c r="AP18" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="AQ18" s="34" t="s">
+      <c r="AQ18" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="AR18" s="34" t="s">
+      <c r="AR18" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="AS18" s="34" t="s">
+      <c r="AS18" s="8" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4941,31 +4911,31 @@
       <c r="A19" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="8" t="s">
         <v>146</v>
       </c>
       <c r="K19" s="9" t="s">
@@ -4995,7 +4965,7 @@
       <c r="S19" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="T19" s="34" t="s">
+      <c r="T19" s="8" t="s">
         <v>91</v>
       </c>
       <c r="U19" s="9" t="s">
@@ -5062,10 +5032,10 @@
       <c r="AP19" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AQ19" s="34" t="s">
+      <c r="AQ19" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AR19" s="34" t="s">
+      <c r="AR19" s="8" t="s">
         <v>146</v>
       </c>
       <c r="AS19" s="9" t="s">
@@ -5073,34 +5043,34 @@
       </c>
     </row>
     <row r="20" spans="1:45">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="J20" s="8" t="s">
         <v>146</v>
       </c>
       <c r="K20" s="9" t="s">
@@ -5133,7 +5103,7 @@
       <c r="T20" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="U20" s="34" t="s">
+      <c r="U20" s="8" t="s">
         <v>91</v>
       </c>
       <c r="V20" s="9" t="s">
@@ -5197,10 +5167,10 @@
       <c r="AP20" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="AQ20" s="34" t="s">
+      <c r="AQ20" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AR20" s="34" t="s">
+      <c r="AR20" s="8" t="s">
         <v>146</v>
       </c>
       <c r="AS20" s="9" t="s">
@@ -5211,31 +5181,31 @@
       <c r="A21" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="8" t="s">
         <v>151</v>
       </c>
       <c r="K21" s="9" t="s">
@@ -5271,7 +5241,7 @@
       <c r="U21" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="V21" s="34" t="s">
+      <c r="V21" s="8" t="s">
         <v>91</v>
       </c>
       <c r="W21" s="9" t="s">
@@ -5332,10 +5302,10 @@
       <c r="AP21" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="AQ21" s="34" t="s">
+      <c r="AQ21" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="AR21" s="34" t="s">
+      <c r="AR21" s="8" t="s">
         <v>151</v>
       </c>
       <c r="AS21" s="9" t="s">
@@ -5346,31 +5316,31 @@
       <c r="A22" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="8" t="s">
         <v>153</v>
       </c>
       <c r="K22" s="9" t="s">
@@ -5409,7 +5379,7 @@
       <c r="V22" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="W22" s="34" t="s">
+      <c r="W22" s="8" t="s">
         <v>91</v>
       </c>
       <c r="X22" s="9" t="s">
@@ -5467,10 +5437,10 @@
       <c r="AP22" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="AQ22" s="34" t="s">
+      <c r="AQ22" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="AR22" s="34" t="s">
+      <c r="AR22" s="8" t="s">
         <v>153</v>
       </c>
       <c r="AS22" s="9" t="s">
@@ -5478,34 +5448,34 @@
       </c>
     </row>
     <row r="23" spans="1:45">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="J23" s="8" t="s">
         <v>156</v>
       </c>
       <c r="K23" s="9" t="s">
@@ -5547,7 +5517,7 @@
       <c r="W23" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="X23" s="34" t="s">
+      <c r="X23" s="8" t="s">
         <v>91</v>
       </c>
       <c r="Y23" s="9" t="s">
@@ -5602,10 +5572,10 @@
       <c r="AP23" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="AQ23" s="34" t="s">
+      <c r="AQ23" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="AR23" s="34" t="s">
+      <c r="AR23" s="8" t="s">
         <v>156</v>
       </c>
       <c r="AS23" s="9" t="s">
@@ -5613,593 +5583,593 @@
       </c>
     </row>
     <row r="24" spans="1:45">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="G24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J24" s="34" t="s">
+      <c r="J24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="L24" s="34" t="s">
+      <c r="L24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M24" s="34" t="s">
+      <c r="M24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="N24" s="34" t="s">
+      <c r="N24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="O24" s="34" t="s">
+      <c r="O24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="P24" s="34" t="s">
+      <c r="P24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="Q24" s="34" t="s">
+      <c r="Q24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="R24" s="34" t="s">
+      <c r="R24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="S24" s="34" t="s">
+      <c r="S24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="T24" s="34" t="s">
+      <c r="T24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="U24" s="34" t="s">
+      <c r="U24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="V24" s="34" t="s">
+      <c r="V24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="W24" s="34" t="s">
+      <c r="W24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="X24" s="34" t="s">
+      <c r="X24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="Y24" s="34" t="s">
+      <c r="Y24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="Z24" s="34" t="s">
+      <c r="Z24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AA24" s="34" t="s">
+      <c r="AA24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AB24" s="34" t="s">
+      <c r="AB24" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="AC24" s="34" t="s">
+      <c r="AC24" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="AD24" s="34" t="s">
+      <c r="AD24" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="AE24" s="34" t="s">
+      <c r="AE24" s="8" t="s">
         <v>159</v>
       </c>
       <c r="AF24" s="9"/>
-      <c r="AG24" s="34" t="s">
+      <c r="AG24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AH24" s="34" t="s">
+      <c r="AH24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AI24" s="34" t="s">
+      <c r="AI24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AJ24" s="34" t="s">
+      <c r="AJ24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AK24" s="34" t="s">
+      <c r="AK24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AL24" s="34" t="s">
+      <c r="AL24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AM24" s="34" t="s">
+      <c r="AM24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AN24" s="34" t="s">
+      <c r="AN24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AO24" s="34" t="s">
+      <c r="AO24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AP24" s="34" t="s">
+      <c r="AP24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AQ24" s="34" t="s">
+      <c r="AQ24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AR24" s="34" t="s">
+      <c r="AR24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AS24" s="34" t="s">
+      <c r="AS24" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:45">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J25" s="34" t="s">
+      <c r="J25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="34" t="s">
+      <c r="K25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="L25" s="34" t="s">
+      <c r="L25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M25" s="34" t="s">
+      <c r="M25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="N25" s="34" t="s">
+      <c r="N25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="O25" s="34" t="s">
+      <c r="O25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="P25" s="34" t="s">
+      <c r="P25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="Q25" s="34" t="s">
+      <c r="Q25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="R25" s="34" t="s">
+      <c r="R25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="S25" s="34" t="s">
+      <c r="S25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="T25" s="34" t="s">
+      <c r="T25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="U25" s="34" t="s">
+      <c r="U25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="V25" s="34" t="s">
+      <c r="V25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="W25" s="34" t="s">
+      <c r="W25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="X25" s="34" t="s">
+      <c r="X25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="Y25" s="34" t="s">
+      <c r="Y25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="Z25" s="34" t="s">
+      <c r="Z25" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AA25" s="34" t="s">
+      <c r="AA25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AB25" s="34" t="s">
+      <c r="AB25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AC25" s="34" t="s">
+      <c r="AC25" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="AD25" s="34" t="s">
+      <c r="AD25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AE25" s="34" t="s">
+      <c r="AE25" s="8" t="s">
         <v>159</v>
       </c>
       <c r="AF25" s="9"/>
-      <c r="AG25" s="34" t="s">
+      <c r="AG25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AH25" s="34" t="s">
+      <c r="AH25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AI25" s="34" t="s">
+      <c r="AI25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AJ25" s="34" t="s">
+      <c r="AJ25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AK25" s="34" t="s">
+      <c r="AK25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AL25" s="34" t="s">
+      <c r="AL25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AM25" s="34" t="s">
+      <c r="AM25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AN25" s="34" t="s">
+      <c r="AN25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AO25" s="34" t="s">
+      <c r="AO25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AP25" s="34" t="s">
+      <c r="AP25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AQ25" s="34" t="s">
+      <c r="AQ25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AR25" s="34" t="s">
+      <c r="AR25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AS25" s="34" t="s">
+      <c r="AS25" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:45">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="H26" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="I26" s="49" t="s">
+      <c r="I26" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="J26" s="49" t="s">
+      <c r="J26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="K26" s="49" t="s">
+      <c r="K26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="L26" s="49" t="s">
+      <c r="L26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="M26" s="49" t="s">
+      <c r="M26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="N26" s="49" t="s">
+      <c r="N26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="O26" s="49" t="s">
+      <c r="O26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="P26" s="49" t="s">
+      <c r="P26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="Q26" s="49" t="s">
+      <c r="Q26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="R26" s="49" t="s">
+      <c r="R26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="S26" s="49" t="s">
+      <c r="S26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="T26" s="49" t="s">
+      <c r="T26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="U26" s="49" t="s">
+      <c r="U26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="V26" s="49" t="s">
+      <c r="V26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="W26" s="49" t="s">
+      <c r="W26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="X26" s="49" t="s">
+      <c r="X26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="Y26" s="49" t="s">
+      <c r="Y26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="Z26" s="49" t="s">
+      <c r="Z26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="AA26" s="34" t="s">
+      <c r="AA26" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AB26" s="49" t="s">
+      <c r="AB26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="AC26" s="49" t="s">
+      <c r="AC26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="AD26" s="49" t="s">
+      <c r="AD26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="AE26" s="49" t="s">
+      <c r="AE26" s="47" t="s">
         <v>165</v>
       </c>
       <c r="AF26" s="9"/>
-      <c r="AG26" s="49" t="s">
+      <c r="AG26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="AH26" s="49" t="s">
+      <c r="AH26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="AI26" s="49" t="s">
+      <c r="AI26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="AJ26" s="49" t="s">
+      <c r="AJ26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="AK26" s="49" t="s">
+      <c r="AK26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="AL26" s="49" t="s">
+      <c r="AL26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="AM26" s="49" t="s">
+      <c r="AM26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="AN26" s="49" t="s">
+      <c r="AN26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="AO26" s="49" t="s">
+      <c r="AO26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="AP26" s="49" t="s">
+      <c r="AP26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="AQ26" s="49" t="s">
+      <c r="AQ26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="AR26" s="49" t="s">
+      <c r="AR26" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="AS26" s="49" t="s">
+      <c r="AS26" s="47" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:45">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="30"/>
-      <c r="AK27" s="30"/>
-      <c r="AL27" s="30"/>
-      <c r="AM27" s="30"/>
-      <c r="AN27" s="30"/>
-      <c r="AO27" s="30"/>
-      <c r="AP27" s="30"/>
-      <c r="AQ27" s="30"/>
-      <c r="AR27" s="30"/>
-      <c r="AS27" s="30"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="25"/>
+      <c r="AK27" s="25"/>
+      <c r="AL27" s="25"/>
+      <c r="AM27" s="25"/>
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="25"/>
+      <c r="AP27" s="25"/>
+      <c r="AQ27" s="25"/>
+      <c r="AR27" s="25"/>
+      <c r="AS27" s="25"/>
     </row>
     <row r="28" spans="1:45">
       <c r="A28" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="I28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="K28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="N28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="O28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="P28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="R28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="S28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="T28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="U28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="V28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="W28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="X28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AJ28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AO28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AQ28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR28" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS28" s="34" t="s">
+      <c r="C28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="U28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="V28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="W28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="X28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS28" s="8" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6207,187 +6177,187 @@
       <c r="A29" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="34"/>
-      <c r="AE29" s="34"/>
-      <c r="AF29" s="34"/>
-      <c r="AG29" s="34"/>
-      <c r="AH29" s="34"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="34"/>
-      <c r="AK29" s="34"/>
-      <c r="AL29" s="34"/>
-      <c r="AM29" s="34"/>
-      <c r="AN29" s="34"/>
-      <c r="AO29" s="34"/>
-      <c r="AP29" s="34"/>
-      <c r="AQ29" s="34"/>
-      <c r="AR29" s="34"/>
-      <c r="AS29" s="34"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="8"/>
+      <c r="AO29" s="8"/>
+      <c r="AP29" s="8"/>
+      <c r="AQ29" s="8"/>
+      <c r="AR29" s="8"/>
+      <c r="AS29" s="8"/>
     </row>
     <row r="30" spans="1:45">
       <c r="A30" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="34" t="s">
+      <c r="B30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="I30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="K30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="N30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="O30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="P30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="R30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="S30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="T30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="U30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="V30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="W30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="X30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AJ30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AO30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AQ30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS30" s="34" t="s">
+      <c r="D30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="U30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="V30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="W30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="X30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS30" s="8" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6395,8 +6365,8 @@
       <c r="A31" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
         <v>173</v>
       </c>
       <c r="D31" s="9"/>
@@ -6446,136 +6416,136 @@
       <c r="A32" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="34" t="s">
+      <c r="B32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="I32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="K32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="N32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="O32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="P32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="R32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="S32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="T32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="U32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="V32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="W32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="X32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y32" s="34" t="s">
+      <c r="D32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="U32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="W32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="X32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y32" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="Z32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB32" s="34" t="s">
+      <c r="Z32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB32" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="AC32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AJ32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AO32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AQ32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS32" s="34" t="s">
+      <c r="AC32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS32" s="8" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6583,136 +6553,136 @@
       <c r="A33" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="B33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="34" t="s">
+      <c r="B33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="K33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="N33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="O33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="P33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="R33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="S33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="T33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="U33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="V33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="W33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="X33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC33" s="34" t="s">
+      <c r="D33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="T33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="U33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="V33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="W33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="X33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC33" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="AD33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AJ33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AO33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AQ33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS33" s="34" t="s">
+      <c r="AD33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS33" s="8" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7066,78 +7036,78 @@
       <c r="V7" s="28"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="L9" s="50" t="s">
+      <c r="L9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="M9" s="50" t="s">
+      <c r="M9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="N9" s="50" t="s">
+      <c r="N9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="O9" s="50" t="s">
+      <c r="O9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="P9" s="50" t="s">
+      <c r="P9" s="48" t="s">
         <v>199</v>
       </c>
       <c r="Q9" s="9"/>
@@ -7148,78 +7118,78 @@
       <c r="V9" s="9"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="M11" s="34" t="s">
+      <c r="M11" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="O11" s="34" t="s">
+      <c r="O11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="P11" s="8" t="s">
         <v>202</v>
       </c>
       <c r="Q11" s="9"/>
@@ -7233,49 +7203,49 @@
       <c r="A12" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="M12" s="34" t="s">
+      <c r="M12" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="O12" s="34" t="s">
+      <c r="O12" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="P12" s="34" t="s">
+      <c r="P12" s="8" t="s">
         <v>218</v>
       </c>
       <c r="Q12" s="9"/>
@@ -7283,81 +7253,81 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
-      <c r="V12" s="44"/>
+      <c r="V12" s="42"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="I14" s="34" t="s">
+      <c r="B14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="J14" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M14" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="N14" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="O14" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="P14" s="34" t="s">
+      <c r="J14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" s="8" t="s">
         <v>171</v>
       </c>
       <c r="Q14" s="9"/>
@@ -7368,17 +7338,17 @@
       <c r="V14" s="9"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B15" s="34"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="8" t="s">
         <v>173</v>
       </c>
       <c r="J15" s="9"/>
@@ -7682,7 +7652,7 @@
       <c r="AF3" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="AG3" s="46"/>
+      <c r="AG3" s="44"/>
       <c r="AH3" s="28"/>
       <c r="AI3" s="28"/>
       <c r="AJ3" s="28"/>
@@ -7920,412 +7890,412 @@
       <c r="AF7" s="9"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="L9" s="50" t="s">
+      <c r="L9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="M9" s="50" t="s">
+      <c r="M9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="N9" s="50" t="s">
+      <c r="N9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="O9" s="50" t="s">
+      <c r="O9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="P9" s="50" t="s">
+      <c r="P9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="Q9" s="50" t="s">
+      <c r="Q9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="R9" s="50" t="s">
+      <c r="R9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="S9" s="50" t="s">
+      <c r="S9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="T9" s="50" t="s">
+      <c r="T9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="U9" s="50" t="s">
+      <c r="U9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="V9" s="50" t="s">
+      <c r="V9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="W9" s="50" t="s">
+      <c r="W9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="X9" s="50" t="s">
+      <c r="X9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="Y9" s="50" t="s">
+      <c r="Y9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="Z9" s="50" t="s">
+      <c r="Z9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="AA9" s="50" t="s">
+      <c r="AA9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="AB9" s="50" t="s">
+      <c r="AB9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="AC9" s="50" t="s">
+      <c r="AC9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="AD9" s="50" t="s">
+      <c r="AD9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="AE9" s="50" t="s">
+      <c r="AE9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="AF9" s="50" t="s">
+      <c r="AF9" s="48" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="M11" s="34" t="s">
+      <c r="M11" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="O11" s="34" t="s">
+      <c r="O11" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="P11" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="Q11" s="34" t="s">
+      <c r="Q11" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="R11" s="34" t="s">
+      <c r="R11" s="8" t="s">
         <v>267</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="T11" s="34" t="s">
+      <c r="T11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="U11" s="34" t="s">
+      <c r="U11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="V11" s="34" t="s">
+      <c r="V11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="W11" s="34" t="s">
+      <c r="W11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="X11" s="34" t="s">
+      <c r="X11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="Y11" s="34" t="s">
+      <c r="Y11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="Z11" s="34" t="s">
+      <c r="Z11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AA11" s="34" t="s">
+      <c r="AA11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AB11" s="34" t="s">
+      <c r="AB11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AC11" s="34" t="s">
+      <c r="AC11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AD11" s="34" t="s">
+      <c r="AD11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AE11" s="34" t="s">
+      <c r="AE11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AF11" s="34" t="s">
+      <c r="AF11" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="N13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="O13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="P13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="R13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="S13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="T13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="U13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="V13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="W13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="X13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF13" s="34" t="s">
+      <c r="C13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF13" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C14" s="9"/>
@@ -8360,109 +8330,109 @@
       <c r="AF14" s="9"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="N15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="O15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="P15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="R15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="S15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="T15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="U15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="V15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="W15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="X15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF15" s="34" t="s">
+      <c r="D15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF15" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
         <v>173</v>
       </c>
       <c r="D16" s="9"/>
@@ -8629,10 +8599,10 @@
       <c r="M2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="35" t="s">
         <v>31</v>
       </c>
       <c r="P2" s="28" t="s">
@@ -8816,232 +8786,232 @@
       <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="L9" s="50" t="s">
+      <c r="L9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="M9" s="50" t="s">
+      <c r="M9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="N9" s="50" t="s">
+      <c r="N9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="O9" s="50" t="s">
+      <c r="O9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="P9" s="50" t="s">
+      <c r="P9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="Q9" s="50" t="s">
+      <c r="Q9" s="48" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="M11" s="34" t="s">
+      <c r="M11" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="O11" s="34" t="s">
+      <c r="O11" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="P11" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="Q11" s="37" t="s">
+      <c r="Q11" s="35" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="N13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="O13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="P13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q13" s="34" t="s">
+      <c r="C13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q13" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C14" s="9"/>
@@ -9061,64 +9031,64 @@
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="N15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="O15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="P15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q15" s="34" t="s">
+      <c r="D15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q15" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
         <v>173</v>
       </c>
       <c r="D16" s="9"/>
@@ -9138,67 +9108,67 @@
     </row>
     <row r="36" ht="15.25"/>
     <row r="37" ht="15.25" spans="2:2">
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="43" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="2:2">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="43" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="2:2">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="43" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="40" ht="15.25" spans="2:2">
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="43" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="41" ht="15.25" spans="2:2">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="43" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="42" ht="15.25" spans="2:2">
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="43" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="43" ht="15.25" spans="2:2">
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="43" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="44" ht="15.25" spans="2:2">
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="43" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="45" ht="15.25" spans="2:2">
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="43" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="46" ht="15.25" spans="2:2">
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="43" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="47" ht="15.25" spans="2:2">
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="43" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="48" ht="15.25" spans="2:2">
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="43" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="49" ht="15.25" spans="2:2">
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="43" t="s">
         <v>282</v>
       </c>
     </row>
@@ -9279,7 +9249,7 @@
       <c r="L1" t="s">
         <v>283</v>
       </c>
-      <c r="P1" s="34"/>
+      <c r="P1" s="8"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
@@ -9510,72 +9480,72 @@
       <c r="V7" s="28"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="L9" s="50" t="s">
+      <c r="L9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="39"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="37"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
@@ -9584,137 +9554,137 @@
       <c r="V9" s="9"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34" t="s">
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="41"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="39"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
-      <c r="V11" s="44"/>
+      <c r="V11" s="42"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
+      <c r="C13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -9724,10 +9694,10 @@
       <c r="V13" s="9"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C14" s="9"/>
@@ -9736,7 +9706,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="34"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -9752,45 +9722,45 @@
       <c r="V14" s="9"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
+      <c r="D15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
@@ -9800,11 +9770,11 @@
       <c r="V15" s="9"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="8" t="s">
         <v>175</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="8" t="s">
         <v>173</v>
       </c>
       <c r="D16" s="9"/>
@@ -9812,7 +9782,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="34"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -9869,17 +9839,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="20.4272727272727" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="5" width="20.4272727272727" customWidth="1"/>
-    <col min="6" max="6" width="15.4272727272727" customWidth="1"/>
-    <col min="7" max="7" width="15.8545454545455" customWidth="1"/>
-    <col min="8" max="8" width="15.4272727272727" customWidth="1"/>
-    <col min="9" max="9" width="18.1363636363636" customWidth="1"/>
-    <col min="10" max="10" width="21.2818181818182" customWidth="1"/>
-    <col min="11" max="11" width="22.7090909090909" customWidth="1"/>
-    <col min="12" max="12" width="15.4272727272727" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="20.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.8545454545455" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.4272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -9986,10 +9956,10 @@
       <c r="I3" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="34" t="s">
         <v>300</v>
       </c>
       <c r="L3" s="28" t="s">
@@ -10088,172 +10058,172 @@
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="L9" s="50" t="s">
+      <c r="L9" s="48" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L13" s="34" t="s">
+      <c r="C13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C14" s="9"/>
@@ -10268,49 +10238,49 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L15" s="34" t="s">
+      <c r="D15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="8" t="s">
         <v>175</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="8" t="s">
         <v>173</v>
       </c>
       <c r="D16" s="9"/>
@@ -10318,46 +10288,46 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L17" s="34" t="s">
+      <c r="B17" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>170</v>
       </c>
     </row>
@@ -10421,16 +10391,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.4272727272727" style="10" customWidth="1"/>
-    <col min="2" max="3" width="28.7636363636364" style="10" customWidth="1"/>
-    <col min="4" max="10" width="45.2818181818182" style="10" customWidth="1"/>
-    <col min="11" max="16" width="36.1454545454545" style="10" customWidth="1"/>
-    <col min="17" max="25" width="44.9181818181818" style="10" customWidth="1"/>
-    <col min="26" max="30" width="28.7636363636364" style="10" customWidth="1"/>
-    <col min="31" max="32" width="36.1454545454545" style="10" customWidth="1"/>
-    <col min="33" max="33" width="28.7636363636364" style="10" customWidth="1"/>
-    <col min="34" max="35" width="79.5636363636364" style="10" customWidth="1"/>
-    <col min="36" max="42" width="79.5636363636364" customWidth="1"/>
+    <col min="1" max="1" width="24.4272727272727" style="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="28.7636363636364" style="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="10" width="45.2818181818182" style="10" customWidth="1" collapsed="1"/>
+    <col min="11" max="16" width="36.1454545454545" style="10" customWidth="1" collapsed="1"/>
+    <col min="17" max="25" width="44.9181818181818" style="10" customWidth="1" collapsed="1"/>
+    <col min="26" max="30" width="28.7636363636364" style="10" customWidth="1" collapsed="1"/>
+    <col min="31" max="32" width="36.1454545454545" style="10" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="28.7636363636364" style="10" customWidth="1" collapsed="1"/>
+    <col min="34" max="35" width="79.5636363636364" style="10" customWidth="1" collapsed="1"/>
+    <col min="36" max="42" width="79.5636363636364" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:35">
@@ -10860,38 +10830,18 @@
       <c r="A5" t="s">
         <v>360</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
       <c r="F5" t="s">
         <v>361</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
       <c r="I5" t="s">
         <v>362</v>
       </c>
-      <c r="J5"/>
-      <c r="K5"/>
       <c r="L5" t="s">
         <v>362</v>
       </c>
       <c r="M5" t="s">
         <v>362</v>
       </c>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
       <c r="Z5" t="s">
         <v>363</v>
       </c>
@@ -10910,7 +10860,6 @@
       <c r="AE5" t="s">
         <v>368</v>
       </c>
-      <c r="AF5"/>
       <c r="AG5" t="s">
         <v>369</v>
       </c>
@@ -14488,7 +14437,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -14924,10 +14873,10 @@
         <v>250</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>379</v>
+        <v>550</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>379</v>
+        <v>550</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>91</v>
@@ -14957,7 +14906,7 @@
         <v>91</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>379</v>
+        <v>550</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>552</v>

--- a/Excel/2.1 Esign - Full API Services.xlsx
+++ b/Excel/2.1 Esign - Full API Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="API Registrasi" sheetId="17" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3204" uniqueCount="576">
   <si>
     <t>Status</t>
   </si>
@@ -992,6 +992,9 @@
     <t>;1BM1CUST1SPSWS tidak tercatat di sistem</t>
   </si>
   <si>
+    <t>-;FailedStoreDB</t>
+  </si>
+  <si>
     <t>;null</t>
   </si>
   <si>
@@ -1001,6 +1004,33 @@
     <t>;User 3511000101802884 tidak bisa melakukan autosign. Mohon kirim ulang dokumen.</t>
   </si>
   <si>
+    <t>;Penandatangan dengan Tipe CUST dan No HP 082283949900 tidak di ijinkan</t>
+  </si>
+  <si>
+    <t>;Email harus diisi untuk NIK 3511000101802884</t>
+  </si>
+  <si>
+    <t>;NIK 3511000101802907 dan email USERCIIE@AD-INS.COM ini sudah digunakan oleh 2 user berbeda. Harap periksa kembali data yang dikirimkan.</t>
+  </si>
+  <si>
+    <t>;Nomor Telepon terdaftar dengan NIK 3511000101802907, berbeda dengan NIK yang direquest yaitu 3511000101802884</t>
+  </si>
+  <si>
+    <t>;Nomor Telepon terdaftar dengan NIK 3511000101802805, berbeda dengan NIK yang direquest yaitu 3511000101802884</t>
+  </si>
+  <si>
+    <t>-;FailedStoreDB;FailedStoreDB</t>
+  </si>
+  <si>
+    <t>;1BM1CUST tidak tercatat di sistem</t>
+  </si>
+  <si>
+    <t>;Kosongkan parameter email untuk NIK 3511000101802929 karena sudah terdaftar dengan email dari sistem</t>
+  </si>
+  <si>
+    <t>Menggunakan AuTosign (AT)</t>
+  </si>
+  <si>
     <t>Tidak menggunakan Base64.</t>
   </si>
   <si>
@@ -1010,9 +1040,6 @@
     <t>Tenant Code tidak ada.</t>
   </si>
   <si>
-    <t>Tenant Code salah.</t>
-  </si>
-  <si>
     <t>Saldo tidak cukup.</t>
   </si>
   <si>
@@ -1043,9 +1070,21 @@
     <t>templateCode tidak ada, Sign location : tidak ada informasi di salah satu signer</t>
   </si>
   <si>
+    <t>templateCode tidak ada, Sign location : tidak ada informasi di seluruh signer</t>
+  </si>
+  <si>
     <t>templateCode tidak ada, stamp location : tidak ada stamp location</t>
   </si>
   <si>
+    <t>templateCode tidak ada, stamp location : tidak ada page</t>
+  </si>
+  <si>
+    <t>templateCode tidak ada, stamp location : tidak ada koordinat</t>
+  </si>
+  <si>
+    <t>templateCode tidak ada, stamp location : tidak ada stamp location dan sign location</t>
+  </si>
+  <si>
     <t>MF Autosign, tapi tidak bisa karena MFnya belum daftar autosign.</t>
   </si>
   <si>
@@ -1064,7 +1103,7 @@
     <t>Signer tidak input email</t>
   </si>
   <si>
-    <t>email dan NIK tidak cocok, no telp cocok</t>
+    <t>email dan NIK tidak cocok, digunakan oleh 2 akun yang berbeda</t>
   </si>
   <si>
     <t>email dan No telp tidak cocok</t>
@@ -1088,58 +1127,76 @@
     <t>Office, Region, dan Business Line Baru</t>
   </si>
   <si>
-    <t>Referal number sudah ada di tenant tersebut.</t>
-  </si>
-  <si>
-    <t>referal number sudah ada di tenant lain.</t>
-  </si>
-  <si>
     <t>Tenant header berbeda dengan tenant body.</t>
   </si>
   <si>
-    <t>Gagal karena user NIK tidak dapat autosign</t>
-  </si>
-  <si>
-    <t>document pertama menggunakan sign dan stamp location, dokumen kedua menggunakan dokumen template code. Sign dan Stamp dokumen kedua tetap ada, tapi prioritas menuju document template code</t>
+    <t>referal number sudah ada di tenant lain(berbeda dengan tenant di header).</t>
+  </si>
+  <si>
+    <t>referal number sudah ada di tenant lain(berbeda dengan tenant di body).</t>
+  </si>
+  <si>
+    <t>Tenant body tidak memiliki doc template</t>
+  </si>
+  <si>
+    <t>Register hanya dengan NIK (Email auto generate)</t>
+  </si>
+  <si>
+    <t>Register hanya dengan NIK (Email auto generate). Email tidak dimasukkan kedalam value</t>
   </si>
   <si>
     <t>docid</t>
   </si>
   <si>
-    <t>[00155D0B-7502-A195-11ED-E6D32F32CDE0]</t>
-  </si>
-  <si>
-    <t>{code=0}</t>
-  </si>
-  <si>
-    <t>[00155D0B-7502-A195-11ED-E6D34D5A39C0, 00155D0B-7502-A195-11ED-E6D34D856870]</t>
-  </si>
-  <si>
-    <t>[00155D0B-7502-A195-11ED-E6D34FB23380, 00155D0B-7502-A195-11ED-E6D34FD85920]</t>
-  </si>
-  <si>
-    <t>[00155D0B-7502-A195-11ED-E6D3522EA530, 00155D0B-7502-A195-11ED-E6D3526C9890]</t>
-  </si>
-  <si>
-    <t>[00155D0B-7502-A195-11ED-E6D354D5D060, 00155D0B-7502-A195-11ED-E6D3550A4DE0]</t>
-  </si>
-  <si>
-    <t>[00155D0B-7502-A195-11ED-E6D35761D270, 00155D0B-7502-A195-11ED-E6D3578EFCF0]</t>
-  </si>
-  <si>
-    <t>[00155D0B-7502-A195-11ED-E6D35937A3E0]</t>
-  </si>
-  <si>
-    <t>[00155D0B-7502-A195-11ED-E6D35CE43120, 00155D0B-7502-A195-11ED-E6D35D13F3B0]</t>
+    <t>00155D0B-7502-B997-11ED-E9813ECDA170</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B997-11ED-E98149813190</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B997-11ED-E98154754D20</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B997-11ED-E98160415220</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B997-11ED-E981695F4E20</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B997-11ED-E981765D9190</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B997-11ED-E98178DE4900</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B997-11ED-E9817B5CB680</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B997-11ED-E9817DF0F5F0</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B997-11ED-E981806AF6A0</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B997-11ED-E981849EDC50, 00155D0B-7502-B997-11ED-E98184CA3210</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B997-11ED-E98188985110</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B997-11ED-E981FB14C9D0</t>
   </si>
   <si>
     <t>trxno</t>
   </si>
   <si>
-    <t>[null]</t>
-  </si>
-  <si>
-    <t>[null, null]</t>
+    <t>94368</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
   </si>
   <si>
     <t>$tenantCode</t>
@@ -1157,21 +1214,21 @@
     <t>$referenceNo</t>
   </si>
   <si>
+    <t>"ATNEW-QE-1"</t>
+  </si>
+  <si>
+    <t>"669"</t>
+  </si>
+  <si>
     <t>"669";"669"</t>
   </si>
   <si>
-    <t>"669"</t>
-  </si>
-  <si>
-    <t>"DEMO-REVIEW-230428-01"</t>
+    <t>"DOC-TAFS-VIDA-0001"</t>
   </si>
   <si>
     <t>$documentTemplateCode</t>
   </si>
   <si>
-    <t>"";"DOC-PPNFEWS"</t>
-  </si>
-  <si>
     <t>"1BM1CUST"</t>
   </si>
   <si>
@@ -1181,378 +1238,382 @@
     <t>"DOC-SKPJFNNBE"</t>
   </si>
   <si>
+    <t>"";""</t>
+  </si>
+  <si>
+    <t>"1BM1CUST";"DOC-PPNFEWS"</t>
+  </si>
+  <si>
     <t>officeCode</t>
   </si>
   <si>
+    <t>"GA1"</t>
+  </si>
+  <si>
     <t>"GA1";"GA1"</t>
   </si>
   <si>
-    <t>"GA1"</t>
-  </si>
-  <si>
-    <t>"GAA2";"GAA3"</t>
-  </si>
-  <si>
     <t>officeName</t>
   </si>
   <si>
+    <t>"GRAHA ADICIPTA"</t>
+  </si>
+  <si>
     <t>"GRAHA ADICIPTA";"GRAHA ADICIPTA"</t>
   </si>
   <si>
-    <t>"GRAHA ADICIPTA"</t>
-  </si>
-  <si>
-    <t>"GRAHAHA ADIWIJAYA";"GRAH ADIPWIJAYA"</t>
-  </si>
-  <si>
     <t>regionCode</t>
   </si>
   <si>
+    <t>"JKT"</t>
+  </si>
+  <si>
     <t>"JKT";"JKT"</t>
   </si>
   <si>
-    <t>"JKT"</t>
-  </si>
-  <si>
-    <t>"TGRR";"TGRR"</t>
-  </si>
-  <si>
     <t>regionName</t>
   </si>
   <si>
+    <t>"BOGOR"</t>
+  </si>
+  <si>
     <t>"BOGOR";"BOGOR"</t>
   </si>
   <si>
-    <t>"BOGOR"</t>
-  </si>
-  <si>
-    <t>"TANGERANR";"TANGERANR"</t>
-  </si>
-  <si>
     <t>businessLineCode</t>
   </si>
   <si>
+    <t>"ESIGN"</t>
+  </si>
+  <si>
     <t>"ESIGN";"ESIGN"</t>
   </si>
   <si>
-    <t>"ESIGN"</t>
-  </si>
-  <si>
-    <t>"APIFULL";"APIFULL"</t>
-  </si>
-  <si>
     <t>businessLineName</t>
   </si>
   <si>
+    <t>"ESIGNHUB"</t>
+  </si>
+  <si>
     <t>"ESIGNHUB";"ESIGNHUB"</t>
   </si>
   <si>
-    <t>"ESIGNHUB"</t>
-  </si>
-  <si>
-    <t>"APIFULLSERV";"APIFULLSERV"</t>
-  </si>
-  <si>
     <t>documentFile</t>
   </si>
   <si>
+    <t>/Document/doc template.pdf</t>
+  </si>
+  <si>
     <t>/Document/doc template.pdf;/Document/doc template 2.pdf</t>
   </si>
   <si>
-    <t>/Document/doc template.pdf</t>
-  </si>
-  <si>
     <t>stampLocation</t>
   </si>
   <si>
     <t>page</t>
   </si>
   <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ; </t>
+  </si>
+  <si>
+    <t>1;2|</t>
+  </si>
+  <si>
     <t>1;2|3;4</t>
   </si>
   <si>
-    <t>1;2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ; </t>
-  </si>
-  <si>
-    <t>1;2|</t>
-  </si>
-  <si>
     <t>llx</t>
   </si>
   <si>
+    <t>"453.00";"453.00"</t>
+  </si>
+  <si>
+    <t>"453.00";"453.00"|</t>
+  </si>
+  <si>
     <t>"453.00";"453.00"|"760.89";"760.89"</t>
   </si>
   <si>
-    <t>"453.00";"453.00"</t>
-  </si>
-  <si>
-    <t>"";""</t>
-  </si>
-  <si>
-    <t>"453.00";"453.00"|</t>
-  </si>
-  <si>
     <t>lly</t>
   </si>
   <si>
+    <t>"630.89";"630.89"</t>
+  </si>
+  <si>
+    <t>"630.89";"630.89"|</t>
+  </si>
+  <si>
     <t>"630.89";"630.89"|"583.00";"583.00"</t>
   </si>
   <si>
-    <t>"630.89";"630.89"</t>
-  </si>
-  <si>
-    <t>"630.89";"630.89"|</t>
-  </si>
-  <si>
     <t>urx</t>
   </si>
   <si>
+    <t>"583.00";"583.00"</t>
+  </si>
+  <si>
+    <t>"583.00";"583.00"|</t>
+  </si>
+  <si>
     <t>"583.00";"583.00"|"630.89";"630.89"</t>
   </si>
   <si>
-    <t>"583.00";"583.00"</t>
-  </si>
-  <si>
-    <t>"583.00";"583.00"|</t>
-  </si>
-  <si>
     <t>ury</t>
   </si>
   <si>
+    <t>"760.89";"760.89"</t>
+  </si>
+  <si>
+    <t>"760.89";"760.89"|</t>
+  </si>
+  <si>
     <t>"760.89";"760.89"|"453.00";"453.00"</t>
   </si>
   <si>
-    <t>"760.89";"760.89"</t>
-  </si>
-  <si>
-    <t>"760.89";"760.89"|</t>
-  </si>
-  <si>
     <t>signer</t>
   </si>
   <si>
     <t>$signAction</t>
   </si>
   <si>
+    <t>"at";"mt"</t>
+  </si>
+  <si>
+    <t>"mt";"mt"</t>
+  </si>
+  <si>
+    <t>"mt";"mt";"mt"</t>
+  </si>
+  <si>
+    <t>"mt";"at";"at"</t>
+  </si>
+  <si>
     <t>"mt";"mt"|"mt";"mt"</t>
   </si>
   <si>
-    <t>"mt";"mt"</t>
-  </si>
-  <si>
-    <t>"at";"mt"|"at";"mt"</t>
-  </si>
-  <si>
-    <t>"at";"mt"|"mt";"mt"</t>
-  </si>
-  <si>
-    <t>"mt";"at"|"mt";"at"</t>
-  </si>
-  <si>
-    <t>"mt";"mt";"mt"|</t>
-  </si>
-  <si>
     <t>$signerType</t>
   </si>
   <si>
+    <t>"MF";"CUST"</t>
+  </si>
+  <si>
+    <t>"MF";"CUST";"CUST"</t>
+  </si>
+  <si>
+    <t>"MF";"GRT"|"MF";"SPS"</t>
+  </si>
+  <si>
     <t>"MF";"CUST"|"MF";"CUST"</t>
   </si>
   <si>
-    <t>"MF";"CUST"</t>
-  </si>
-  <si>
-    <t>"MF";"CUST";"CUST"|</t>
-  </si>
-  <si>
-    <t>"MF";"CUST"|"MF";"GRT"</t>
-  </si>
-  <si>
     <t>$tlp</t>
   </si>
   <si>
+    <t>"085156436879";"082283949900"</t>
+  </si>
+  <si>
+    <t>"081233444403";"082283949900"</t>
+  </si>
+  <si>
+    <t>"081233444403";"089654990200"</t>
+  </si>
+  <si>
+    <t>"089654990200";"082283949900"</t>
+  </si>
+  <si>
+    <t>"081233444403";"082283911111"</t>
+  </si>
+  <si>
+    <t>"081233411111";"082283949900"</t>
+  </si>
+  <si>
+    <t>"081233444403";"082283949900";"081246378888"</t>
+  </si>
+  <si>
+    <t>"082283949900";"081233444403";"081246378888"</t>
+  </si>
+  <si>
+    <t>"081246378888";"081233444403";"082283949900"</t>
+  </si>
+  <si>
     <t>"081233444403";"082283949900"|"081233444403";"082283949900"</t>
   </si>
   <si>
-    <t>"081233444403";"082283949900"</t>
-  </si>
-  <si>
-    <t>"081233444403";"089654990200"</t>
-  </si>
-  <si>
-    <t>"089654990200";"082283949900"</t>
-  </si>
-  <si>
-    <t>"081233444403";"082283911111"</t>
-  </si>
-  <si>
-    <t>"081233411111";"082283949900"</t>
-  </si>
-  <si>
-    <t>"081363853152";"082283949900"|"081233444403";"082283949900"</t>
-  </si>
-  <si>
-    <t>"081363853152";"082283949900";"081233444403"|</t>
-  </si>
-  <si>
-    <t>"081233444403"|"081233444403";"082283949900"</t>
+    <t>"081233444403";"082288665522"</t>
   </si>
   <si>
     <t>$idKtp</t>
   </si>
   <si>
+    <t>"3271011312910014";"3511000101802907"</t>
+  </si>
+  <si>
+    <t>"3511000101802884";"3511000101802907"</t>
+  </si>
+  <si>
+    <t>"3511000101802884";"3271011312910000"</t>
+  </si>
+  <si>
+    <t>"3271011312910000";"3511000101802907"</t>
+  </si>
+  <si>
+    <t>"3511000101802884";"3511000101811111"</t>
+  </si>
+  <si>
+    <t>"3511000101811111";"3511000101802907"</t>
+  </si>
+  <si>
+    <t>"3511000101802884";"3511000101802907";"3511000101802805"</t>
+  </si>
+  <si>
+    <t>"3511000101802907";"3511000101802884";"3511000101802805"</t>
+  </si>
+  <si>
     <t>"3511000101802884";"3511000101802907"|"3511000101802884";"3511000101802907"</t>
   </si>
   <si>
-    <t>"3511000101802884";"3511000101802907"</t>
-  </si>
-  <si>
-    <t>"3511000101802884";"3271011312910000"</t>
-  </si>
-  <si>
-    <t>"3271011312910000";"3511000101802907"</t>
-  </si>
-  <si>
-    <t>"3511000101802884";"3511000101811111"</t>
-  </si>
-  <si>
-    <t>"3511000101811111";"3511000101802907"</t>
-  </si>
-  <si>
-    <t>"34567100010001";"3511000101802907"|"3511000101802884";"3511000101802907"</t>
-  </si>
-  <si>
-    <t>"34567100010001";"3511000101802907";"3511000101802884"|</t>
-  </si>
-  <si>
-    <t>"3511000101802907";"3511000101802884"|"3511000101802884";"3511000101802907"</t>
+    <t>"3511000101802884";"3511000101802929"</t>
   </si>
   <si>
     <t>$email</t>
   </si>
   <si>
+    <t>"ANDY@AD-INS.COM";"USERCJAH@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"USERCIIE@AD-INS.COM";"USERCJAH@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"USERCIIE@AD-INS.COM";"TESTDYLAN@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"TESTDYLAN@GMAIL.COM";"USERCJAH@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"USERCIIE@AD-INS.COM";"USERCJAH11111@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"USERCIIE11111@AD-INS.COM";"USERCJAH@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"USERCIIE@AD-INS.COM";"USERCJAH@GMAIL.COM";"USERCIAF@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"";"";""</t>
+  </si>
+  <si>
     <t>"USERCIIE@AD-INS.COM";"USERCJAH@GMAIL.COM"|"USERCIIE@AD-INS.COM";"USERCJAH@GMAIL.COM"</t>
   </si>
   <si>
-    <t>"USERCIIE@AD-INS.COM";"USERCJAH@GMAIL.COM"</t>
-  </si>
-  <si>
-    <t>"USERCIIE@AD-INS.COM";"TESTDYLAN@GMAIL.COM"</t>
-  </si>
-  <si>
-    <t>"TESTDYLAN@GMAIL.COM";"USERCJAH@GMAIL.COM"</t>
-  </si>
-  <si>
-    <t>"USERCIIE@AD-INS.COM";"USERCJAH11111@GMAIL.COM"</t>
-  </si>
-  <si>
-    <t>"USERCIIE11111@AD-INS.COM";"USERCJAH@GMAIL.COM"</t>
-  </si>
-  <si>
-    <t>"ANDY@ANDYRESEARCH.MY.ID";"USERCJAH@GMAIL.COM"|"USERCIIE@AD-INS.COM";"USERCJAH@GMAIL.COM"</t>
-  </si>
-  <si>
-    <t>"";"";""|</t>
+    <t>"USERCIIE@AD-INS.COM";"USERCJCJ@ESIGNHUB.MY.ID"</t>
+  </si>
+  <si>
+    <t>"USERCIIE@AD-INS.COM";""</t>
   </si>
   <si>
     <t>signLocation</t>
   </si>
   <si>
+    <t>1;2|3;4||</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ; | ; ||</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;2|3;4|| </t>
+  </si>
+  <si>
+    <t>1;2|3;4|5;6||</t>
+  </si>
+  <si>
     <t>1;2|3;4||1;2|3;4</t>
   </si>
   <si>
-    <t xml:space="preserve"> ; | ; ||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1;2|3;4|| </t>
-  </si>
-  <si>
-    <t>1;2|3;4|5;6||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1;2|1;2|| ; | ; </t>
+    <t>"453.00";"453.00"|"760.89";"760.89"||</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"453.00";"453.00"|"760.89";"760.89"|| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"";""|"";""|| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"";""|"760.89";"760.89"|| </t>
+  </si>
+  <si>
+    <t>"453.00";"453.00"|"760.89";"760.89"|"760.89";"760.89"||</t>
   </si>
   <si>
     <t>"453.00";"453.00"|"760.89";"760.89"||"453.00";"453.00"|"760.89";"760.89"</t>
   </si>
   <si>
-    <t xml:space="preserve">"453.00";"453.00"|"760.89";"760.89"|| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"";""|"";""|| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"";""|"760.89";"760.89"|| </t>
-  </si>
-  <si>
-    <t>"453.00";"453.00"|"760.89";"760.89"|"760.89";"760.89"||"453.00";"453.00"|"760.89";"760.89"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"453.00";"453.00"|"453.00";"453.00"|| ; | ; </t>
+    <t>"630.89";"630.89"|"583.00";"583.00"||</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"630.89";"630.89"|"583.00";"583.00"|| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"";"630.89"|"583.00";"583.00"|| </t>
+  </si>
+  <si>
+    <t>"630.89";"630.89"|"583.00";"583.00"|"760.89";"760.89"||</t>
   </si>
   <si>
     <t>"630.89";"630.89"|"583.00";"583.00"||"630.89";"630.89"|"583.00";"583.00"</t>
   </si>
   <si>
-    <t xml:space="preserve">"630.89";"630.89"|"583.00";"583.00"|| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"";"630.89"|"583.00";"583.00"|| </t>
-  </si>
-  <si>
-    <t>"630.89";"630.89"|"583.00";"583.00"|"760.89";"760.89"||"630.89";"630.89"|"583.00";"583.00"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"630.89";"630.89"|"630.89";"630.89"|| ; | ; </t>
+    <t>"583.00";"583.00"|"630.89";"630.89"||</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"583.00";"583.00"|"630.89";"630.89"|| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"";"583.00"|"630.89";"630.89"|| </t>
+  </si>
+  <si>
+    <t>"583.00";"583.00"|"630.89";"630.89"|"760.89";"760.89"||</t>
   </si>
   <si>
     <t>"583.00";"583.00"|"630.89";"630.89"||"583.00";"583.00"|"630.89";"630.89"</t>
   </si>
   <si>
-    <t xml:space="preserve">"583.00";"583.00"|"630.89";"630.89"|| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"";"583.00"|"630.89";"630.89"|| </t>
-  </si>
-  <si>
-    <t>"583.00";"583.00"|"630.89";"630.89"|"760.89";"760.89"||"583.00";"583.00"|"630.89";"630.89"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"583.00";"583.00"|"583.00";"583.00"|| ; | ; </t>
+    <t>"760.89";"760.89"|"453.00";"453.00"||</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"760.89";"760.89"|"453.00";"453.00"|| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"";"760.89"|"453.00";"453.00"|| </t>
+  </si>
+  <si>
+    <t>"760.89";"760.89"|"453.00";"453.00"|"760.89";"760.89"||</t>
   </si>
   <si>
     <t>"760.89";"760.89"|"453.00";"453.00"||"760.89";"760.89"|"453.00";"453.00"</t>
   </si>
   <si>
-    <t xml:space="preserve">"760.89";"760.89"|"453.00";"453.00"|| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"";"760.89"|"453.00";"453.00"|| </t>
-  </si>
-  <si>
-    <t>"760.89";"760.89"|"453.00";"453.00"|"760.89";"760.89"||"760.89";"760.89"|"453.00";"453.00"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"760.89";"760.89"|"760.89";"760.89"|| ; | ; </t>
-  </si>
-  <si>
     <t>audit</t>
   </si>
   <si>
     <t>"confins"</t>
   </si>
   <si>
-    <t>WOM</t>
-  </si>
-  <si>
-    <t>TAFS</t>
-  </si>
-  <si>
     <t>enter Correct base64 Document</t>
   </si>
   <si>
+    <t xml:space="preserve">Note : </t>
+  </si>
+  <si>
+    <t>Keterangan untuk signLocation, stampLocation dibedakan berdasarkan '|', '||', ';' dengan arti yang berbeda-beda.
+|| berarti per dokumen, | berarti per signer, dan ; adalah satu sign Location</t>
+  </si>
+  <si>
+    <t>Contoh : "453.00";"453.00"|"760.89";"760.89"||"453.00";"453.00"|"760.89";"760.89"</t>
+  </si>
+  <si>
     <t>Tenant tidak ditemukan</t>
   </si>
   <si>
@@ -1574,10 +1635,10 @@
     <t>User dengan email TESTDYLAN@GMAIL.COM belum aktivasi</t>
   </si>
   <si>
-    <t>Dokumen dengan ref number 000000555555555 tidak ditemukan di tenant WOMF</t>
-  </si>
-  <si>
-    <t>Dokumen dengan ref number 559 sudah selesai ditanda tangan</t>
+    <t>Dokumen dengan No Kontrak : 000000555555555 tidak ditemukan di tenant WOMF</t>
+  </si>
+  <si>
+    <t>Dokumen dengan No Kontrak : 559 sudah selesai ditanda tangan</t>
   </si>
   <si>
     <t>Scenario</t>
@@ -1589,7 +1650,7 @@
     <t>Request dengan email tidak valid</t>
   </si>
   <si>
-    <t>Request dengan nomor tidak bukan milik email usernya</t>
+    <t>Request dengan nomor bukan milik email usernya</t>
   </si>
   <si>
     <t>Request dengan nomor hp tidak ditemukan</t>
@@ -1598,10 +1659,13 @@
     <t>Request dengan email tidak ditemukan tapi nomor hp ditemukan</t>
   </si>
   <si>
-    <t>User belum aktivasi</t>
-  </si>
-  <si>
-    <t>Request dengan user belum aktivasi untuk vendor di kontrak yang akan di ttd</t>
+    <t>User belum aktivasi dengan tidak ada nomor kontrak</t>
+  </si>
+  <si>
+    <t>Request dengan user belum aktivasi untuk kontrak di vendor yang sama</t>
+  </si>
+  <si>
+    <t>Request dengan user belum aktivasi untuk kontrak di vendor yang yang lain</t>
   </si>
   <si>
     <t>Request dengan ref no tidak exist</t>
@@ -1613,7 +1677,7 @@
     <t>Request dengan kondisi success</t>
   </si>
   <si>
-    <t>Request dengan refnum yang sudah sign</t>
+    <t>Request dengan refnum yang sudah disign</t>
   </si>
   <si>
     <t>Request dengan genset diset false</t>
@@ -1622,13 +1686,10 @@
     <t>Request dengan genset diset true</t>
   </si>
   <si>
-    <t>94306</t>
-  </si>
-  <si>
-    <t>94303</t>
-  </si>
-  <si>
-    <t>94304</t>
+    <t>94329</t>
+  </si>
+  <si>
+    <t>94330</t>
   </si>
   <si>
     <t>Parameter Service</t>
@@ -1649,7 +1710,7 @@
     <t>"081233444403"</t>
   </si>
   <si>
-    <t>"0812334444030"</t>
+    <t>"08123344440300"</t>
   </si>
   <si>
     <t>"082283949900"</t>
@@ -1658,6 +1719,9 @@
     <t>"0822839490000"</t>
   </si>
   <si>
+    <t>"082277885506"</t>
+  </si>
+  <si>
     <t>"089654990200"</t>
   </si>
   <si>
@@ -1668,6 +1732,9 @@
   </si>
   <si>
     <t>"USERSIAISAISA@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"USERCIBE@GMAIL.COM"</t>
   </si>
   <si>
     <t>"TESTDYLAN@GMAIL.COM"</t>
@@ -1691,8 +1758,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -1765,6 +1832,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1796,14 +1879,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1819,6 +1894,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1827,9 +1910,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1844,7 +1926,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1858,22 +1940,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1926,25 +1993,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1956,13 +2035,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1980,7 +2071,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1992,115 +2161,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2176,6 +2243,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2215,21 +2312,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2248,21 +2330,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2276,13 +2343,13 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2295,129 +2362,129 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2439,10 +2506,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2460,7 +2527,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -10383,32 +10452,34 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI45"/>
+  <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.4272727272727" style="10" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="28.7636363636364" style="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="10" width="45.2818181818182" style="10" customWidth="1" collapsed="1"/>
-    <col min="11" max="16" width="36.1454545454545" style="10" customWidth="1" collapsed="1"/>
-    <col min="17" max="25" width="44.9181818181818" style="10" customWidth="1" collapsed="1"/>
-    <col min="26" max="30" width="28.7636363636364" style="10" customWidth="1" collapsed="1"/>
-    <col min="31" max="32" width="36.1454545454545" style="10" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="28.7636363636364" style="10" customWidth="1" collapsed="1"/>
-    <col min="34" max="35" width="79.5636363636364" style="10" customWidth="1" collapsed="1"/>
-    <col min="36" max="42" width="79.5636363636364" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="24.4272727272727" style="10" customWidth="1"/>
+    <col min="2" max="2" width="45.2818181818182" style="10" customWidth="1"/>
+    <col min="3" max="4" width="28.7636363636364" style="10" customWidth="1"/>
+    <col min="5" max="10" width="45.2818181818182" style="10" customWidth="1"/>
+    <col min="11" max="20" width="36.1454545454545" style="10" customWidth="1"/>
+    <col min="21" max="29" width="44.9181818181818" style="10" customWidth="1"/>
+    <col min="30" max="34" width="28.7636363636364" style="10" customWidth="1"/>
+    <col min="35" max="35" width="56.8818181818182" style="10" customWidth="1"/>
+    <col min="36" max="37" width="36.1454545454545" style="10" customWidth="1"/>
+    <col min="38" max="38" width="56.8818181818182" style="10" customWidth="1"/>
+    <col min="39" max="40" width="28.7636363636364" style="10" customWidth="1"/>
+    <col min="41" max="44" width="79.5636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:35">
+    <row r="1" customFormat="1" spans="1:40">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10438,7 +10509,7 @@
         <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="M1" t="s">
         <v>1</v>
@@ -10474,22 +10545,22 @@
         <v>1</v>
       </c>
       <c r="X1" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="Y1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="AA1" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="AB1" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="AC1" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="AD1" t="s">
         <v>178</v>
@@ -10498,30 +10569,45 @@
         <v>178</v>
       </c>
       <c r="AF1" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="AG1" t="s">
         <v>178</v>
       </c>
       <c r="AH1" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="AI1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:35">
-      <c r="A2" s="11" t="s">
-        <v>3</v>
+      <c r="AJ1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:40">
+      <c r="A2" t="s">
+        <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>315</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>316</v>
-      </c>
-      <c r="D2" t="s">
-        <v>317</v>
       </c>
       <c r="E2" t="s">
         <v>317</v>
@@ -10545,58 +10631,58 @@
         <v>322</v>
       </c>
       <c r="L2" t="s">
+        <v>323</v>
+      </c>
+      <c r="M2" t="s">
+        <v>324</v>
+      </c>
+      <c r="N2" t="s">
+        <v>325</v>
+      </c>
+      <c r="O2" t="s">
+        <v>324</v>
+      </c>
+      <c r="P2" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>324</v>
+      </c>
+      <c r="R2" t="s">
+        <v>324</v>
+      </c>
+      <c r="S2" t="s">
+        <v>323</v>
+      </c>
+      <c r="T2" t="s">
+        <v>324</v>
+      </c>
+      <c r="U2" t="s">
+        <v>326</v>
+      </c>
+      <c r="V2" t="s">
+        <v>316</v>
+      </c>
+      <c r="W2" t="s">
+        <v>316</v>
+      </c>
+      <c r="X2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s">
-        <v>323</v>
-      </c>
-      <c r="N2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O2" t="s">
-        <v>323</v>
-      </c>
-      <c r="P2" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>325</v>
-      </c>
-      <c r="R2" t="s">
-        <v>316</v>
-      </c>
-      <c r="S2" t="s">
-        <v>316</v>
-      </c>
-      <c r="T2" t="s">
-        <v>323</v>
-      </c>
-      <c r="U2" t="s">
-        <v>324</v>
-      </c>
-      <c r="V2" t="s">
-        <v>323</v>
-      </c>
-      <c r="W2" t="s">
-        <v>323</v>
-      </c>
-      <c r="X2" t="s">
-        <v>323</v>
-      </c>
       <c r="Y2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Z2" t="s">
-        <v>31</v>
+        <v>328</v>
       </c>
       <c r="AA2" t="s">
-        <v>31</v>
+        <v>329</v>
       </c>
       <c r="AB2" t="s">
-        <v>31</v>
+        <v>330</v>
       </c>
       <c r="AC2" t="s">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c r="AD2" t="s">
         <v>31</v>
@@ -10605,326 +10691,450 @@
         <v>31</v>
       </c>
       <c r="AF2" t="s">
-        <v>324</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s">
         <v>31</v>
       </c>
       <c r="AH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK2" t="s">
         <v>325</v>
       </c>
-      <c r="AI2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="43.5" spans="1:35">
-      <c r="A3" s="12" t="s">
+      <c r="AL2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="43.5" spans="1:40">
+      <c r="A3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="K3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="R3" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="T3" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="U3" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="V3" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="W3" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="X3" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="Y3" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="Z3" s="11" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:35">
-      <c r="A4" s="11" t="s">
+      <c r="AA3" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AL3" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="AM3" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN3" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:40">
+      <c r="A4" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="12">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="B4" s="11">
+        <f>COUNTIFS($A9:$A45,"*$*",B9:B45,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <f>COUNTIFS($A9:$A45,"*$*",C9:C45,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
         <f>COUNTIFS($A9:$A45,"*$*",D9:D45,"")</f>
         <v>0</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <f>COUNTIFS($A9:$A45,"*$*",E9:E45,"")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="12">
-        <f>COUNTIFS($A9:$A45,"*$*",F9:F45,"")</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12">
-        <v>0</v>
-      </c>
-      <c r="P4" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>0</v>
-      </c>
-      <c r="R4" s="12">
-        <v>0</v>
-      </c>
-      <c r="S4" s="12">
-        <v>0</v>
-      </c>
-      <c r="T4" s="12">
-        <v>0</v>
-      </c>
-      <c r="U4" s="12">
-        <v>0</v>
-      </c>
-      <c r="V4" s="12">
-        <v>0</v>
-      </c>
-      <c r="W4" s="12">
-        <v>0</v>
-      </c>
-      <c r="X4" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:33">
-      <c r="A5" t="s">
-        <v>360</v>
+      <c r="F4" s="11">
+        <f t="shared" ref="F4:AN4" si="0">COUNTIFS($A9:$A45,"*$*",F9:F45,"")</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="11">
+        <f>COUNTIFS($A9:$A45,"*$*",AB9:AB45,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="11">
+        <f>COUNTIFS($A9:$A45,"*$*",AC9:AC45,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="11">
+        <f>COUNTIFS($A9:$A45,"*$*",AD9:AD45,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="11">
+        <f>COUNTIFS($A9:$A45,"*$*",AE9:AE45,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="11">
+        <f>COUNTIFS($A9:$A45,"*$*",AF9:AF45,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="11">
+        <f>COUNTIFS($A9:$A45,"*$*",AG9:AG45,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="11">
+        <f>COUNTIFS($A9:$A45,"*$*",AH9:AH45,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="11">
+        <f>COUNTIFS($A9:$A45,"*$*",AI9:AI45,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="11">
+        <f>COUNTIFS($A9:$A45,"*$*",AJ9:AJ45,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="11">
+        <f>COUNTIFS($A9:$A45,"*$*",AK9:AK45,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="11">
+        <f>COUNTIFS($A9:$A45,"*$*",AL9:AL45,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="11">
+        <f>COUNTIFS($A9:$A45,"*$*",AM9:AM45,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="11">
+        <f>COUNTIFS($A9:$A45,"*$*",AN9:AN45,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:40">
+      <c r="A5" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" t="s">
+        <v>375</v>
       </c>
       <c r="F5" t="s">
-        <v>361</v>
-      </c>
-      <c r="I5" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="L5" t="s">
-        <v>362</v>
-      </c>
-      <c r="M5" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>364</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>365</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>366</v>
+        <v>377</v>
+      </c>
+      <c r="S5" t="s">
+        <v>378</v>
+      </c>
+      <c r="X5" t="s">
+        <v>379</v>
       </c>
       <c r="AD5" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="AE5" t="s">
-        <v>368</v>
+        <v>381</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>382</v>
       </c>
       <c r="AG5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:35">
+        <v>383</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>385</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>386</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:40">
       <c r="A6" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+        <v>388</v>
+      </c>
+      <c r="B6" t="s">
+        <v>389</v>
+      </c>
       <c r="F6" t="s">
-        <v>371</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+        <v>390</v>
+      </c>
       <c r="L6" t="s">
-        <v>371</v>
-      </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" t="s">
-        <v>372</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>372</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>372</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>372</v>
+        <v>390</v>
+      </c>
+      <c r="S6" t="s">
+        <v>390</v>
+      </c>
+      <c r="X6" t="s">
+        <v>390</v>
       </c>
       <c r="AD6" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="AE6" t="s">
-        <v>371</v>
-      </c>
-      <c r="AF6" s="13"/>
+        <v>390</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>390</v>
+      </c>
       <c r="AG6" t="s">
-        <v>372</v>
-      </c>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-    </row>
-    <row r="7" customFormat="1" spans="1:1">
+        <v>390</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:40">
       <c r="A7" s="13"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:35">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:40">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -10960,117 +11170,137 @@
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
-    </row>
-    <row r="9" customFormat="1" spans="1:35">
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:40">
       <c r="A9" s="16" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="Z9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="AA9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="AB9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="AC9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="AD9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="AE9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="AF9" s="16" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="AG9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="AH9" s="16" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="AI9" s="16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:35">
+        <v>394</v>
+      </c>
+      <c r="AJ9" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="AK9" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="AL9" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="AM9" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="AN9" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:40">
       <c r="A10" s="17" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -11105,148 +11335,168 @@
       <c r="AF10" s="18"/>
       <c r="AG10" s="18"/>
       <c r="AH10" s="18"/>
-      <c r="AI10" s="26"/>
-    </row>
-    <row r="11" customFormat="1" spans="1:35">
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:40">
       <c r="A11" s="16" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="V11" s="16" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="X11" s="16" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="Y11" s="16" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="Z11" s="16" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="AA11" s="16" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="AB11" s="16" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="AC11" s="16" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="AD11" s="16" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="AE11" s="16" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="AF11" s="16" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="AG11" s="16" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="AH11" s="16" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="AI11" s="16" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:35">
+        <v>399</v>
+      </c>
+      <c r="AJ11" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK11" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="AL11" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM11" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="AN11" s="16" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:40">
       <c r="A12" s="16" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="L12" s="19" t="s">
         <v>91</v>
@@ -11264,815 +11514,935 @@
         <v>91</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>382</v>
+        <v>91</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>382</v>
+        <v>91</v>
       </c>
       <c r="S12" s="19" t="s">
-        <v>382</v>
+        <v>91</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>385</v>
+        <v>91</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>382</v>
+        <v>91</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="W12" s="19" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="AA12" s="19" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="AB12" s="19" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="AC12" s="19" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="AD12" s="19" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="AE12" s="19" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="AF12" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="AG12" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="AH12" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI12" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="AJ12" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK12" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="AG12" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="AH12" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="AI12" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:35">
+      <c r="AL12" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="AM12" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="AN12" s="19" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:40">
       <c r="A13" s="16" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="S13" s="16" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="V13" s="16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="W13" s="16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="X13" s="16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="Y13" s="16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="Z13" s="16" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="AA13" s="16" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="AB13" s="16" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="AC13" s="16" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="AD13" s="16" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="AE13" s="16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="AF13" s="16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="AG13" s="16" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="AH13" s="16" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="AI13" s="16" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:35">
+        <v>409</v>
+      </c>
+      <c r="AJ13" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="AK13" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="AL13" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="AM13" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="AN13" s="16" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:40">
       <c r="A14" s="16" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="V14" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="W14" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="X14" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="Y14" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="Z14" s="16" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="AA14" s="16" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="AB14" s="16" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="AC14" s="16" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="AD14" s="16" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="AE14" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="AF14" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="AG14" s="16" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="AH14" s="16" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="AI14" s="16" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:35">
+        <v>412</v>
+      </c>
+      <c r="AJ14" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="AK14" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL14" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="AM14" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="AN14" s="16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:40">
       <c r="A15" s="16" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="V15" s="16" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="W15" s="16" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="X15" s="16" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="Y15" s="16" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="Z15" s="16" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="AA15" s="16" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="AB15" s="16" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="AC15" s="16" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="AD15" s="16" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="AE15" s="16" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="AF15" s="16" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="AG15" s="16" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="AH15" s="16" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="AI15" s="16" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:35">
+        <v>415</v>
+      </c>
+      <c r="AJ15" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="AK15" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="AL15" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="AM15" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="AN15" s="16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:40">
       <c r="A16" s="16" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="V16" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="W16" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="X16" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="Y16" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="Z16" s="16" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="AA16" s="16" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="AB16" s="16" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="AC16" s="16" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="AD16" s="16" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="AE16" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="AF16" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="AG16" s="16" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="AH16" s="16" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="AI16" s="16" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:35">
+        <v>418</v>
+      </c>
+      <c r="AJ16" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="AK16" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="AL16" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="AM16" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="AN16" s="16" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:40">
       <c r="A17" s="16" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="V17" s="16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="W17" s="16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="X17" s="16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="Y17" s="16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="Z17" s="16" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="AA17" s="16" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="AB17" s="16" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="AC17" s="16" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="AD17" s="16" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="AE17" s="16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="AF17" s="16" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="AG17" s="16" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="AH17" s="16" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="AI17" s="16" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:35">
+        <v>421</v>
+      </c>
+      <c r="AJ17" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="AK17" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="AL17" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="AM17" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="AN17" s="16" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:40">
       <c r="A18" s="16" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="T18" s="16" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="V18" s="16" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="W18" s="16" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="X18" s="16" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="Y18" s="16" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="Z18" s="16" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="AA18" s="16" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="AB18" s="16" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="AC18" s="16" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="AD18" s="16" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="AE18" s="16" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="AF18" s="16" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="AG18" s="16" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="AH18" s="16" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="AI18" s="16" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" ht="43.5" spans="1:35">
+        <v>424</v>
+      </c>
+      <c r="AJ18" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="AK18" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="AL18" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="AM18" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN18" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:40">
       <c r="A19" s="16" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="T19" s="13" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="U19" s="13" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="V19" s="13" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="W19" s="13" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="Y19" s="13" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="Z19" s="13" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="AA19" s="13" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="AB19" s="13" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="AC19" s="13" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="AD19" s="13" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="AE19" s="13" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="AF19" s="13" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="AG19" s="13" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="AH19" s="13" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="AI19" s="13" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:35">
+        <v>427</v>
+      </c>
+      <c r="AJ19" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="AK19" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL19" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="AM19" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="AN19" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:40">
       <c r="A20" s="20" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -12108,545 +12478,625 @@
       <c r="AG20" s="21"/>
       <c r="AH20" s="21"/>
       <c r="AI20" s="21"/>
-    </row>
-    <row r="21" customFormat="1" spans="1:35">
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="21"/>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="21"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:40">
       <c r="A21" s="16" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="S21" s="16" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="T21" s="16" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="U21" s="16" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="V21" s="16" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="W21" s="16" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="X21" s="16" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="Y21" s="16" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="Z21" s="16" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="AA21" s="16" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="AB21" s="16" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="AC21" s="16" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="AD21" s="16" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="AE21" s="16" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="AF21" s="16" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="AG21" s="16" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="AH21" s="16" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="AI21" s="16" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:35">
+        <v>433</v>
+      </c>
+      <c r="AJ21" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK21" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="AL21" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="AM21" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="AN21" s="16" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:40">
       <c r="A22" s="16" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="S22" s="16" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="V22" s="16" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="W22" s="16" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="Y22" s="16" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="Z22" s="16" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AA22" s="16" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AB22" s="16" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AC22" s="16" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AD22" s="16" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="AE22" s="16" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="AF22" s="16" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="AG22" s="16" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="AH22" s="16" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="AI22" s="16" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:35">
+        <v>437</v>
+      </c>
+      <c r="AJ22" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="AK22" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL22" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="AM22" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="AN22" s="16" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:40">
       <c r="A23" s="16" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="V23" s="16" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="W23" s="16" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="Z23" s="16" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="AA23" s="16" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="AD23" s="16" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="AE23" s="16" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="AF23" s="16" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="AH23" s="16" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="AI23" s="16" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:35">
+        <v>441</v>
+      </c>
+      <c r="AJ23" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK23" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL23" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="AM23" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="AN23" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:40">
       <c r="A24" s="16" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="T24" s="16" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="V24" s="16" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="W24" s="16" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="AA24" s="16" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="AD24" s="16" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="AE24" s="16" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="AF24" s="16" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="AH24" s="16" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="AI24" s="16" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:35">
+        <v>445</v>
+      </c>
+      <c r="AJ24" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="AK24" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="AL24" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM24" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="AN24" s="16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:40">
       <c r="A25" s="16" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="S25" s="16" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="V25" s="16" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="W25" s="16" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="X25" s="16" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="Y25" s="16" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="Z25" s="16" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="AA25" s="16" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="AB25" s="16" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="AC25" s="16" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="AD25" s="16" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="AE25" s="16" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="AF25" s="16" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="AG25" s="16" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="AH25" s="16" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="AI25" s="16" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:35">
+        <v>449</v>
+      </c>
+      <c r="AJ25" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="AK25" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL25" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="AM25" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="AN25" s="16" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:40">
       <c r="A26" s="17" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -12682,545 +13132,625 @@
       <c r="AG26" s="22"/>
       <c r="AH26" s="22"/>
       <c r="AI26" s="22"/>
-    </row>
-    <row r="27" customFormat="1" spans="1:35">
+      <c r="AJ26" s="22"/>
+      <c r="AK26" s="22"/>
+      <c r="AL26" s="22"/>
+      <c r="AM26" s="22"/>
+      <c r="AN26" s="22"/>
+    </row>
+    <row r="27" customFormat="1" spans="1:40">
       <c r="A27" s="16" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="P27" s="16" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="S27" s="16" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="T27" s="16" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="V27" s="16" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="W27" s="16" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="X27" s="16" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="Y27" s="16" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="Z27" s="16" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="AA27" s="16" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="AB27" s="16" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="AC27" s="16" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="AD27" s="16" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="AE27" s="16" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="AF27" s="16" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="AG27" s="16" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="AH27" s="16" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="AI27" s="16" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:35">
+        <v>456</v>
+      </c>
+      <c r="AJ27" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="AK27" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="AL27" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="AM27" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="AN27" s="16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:40">
       <c r="A28" s="16" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="P28" s="16" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="Q28" s="16" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="R28" s="16" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="S28" s="16" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="T28" s="16" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="U28" s="16" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="V28" s="16" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="W28" s="16" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="X28" s="16" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Y28" s="16" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Z28" s="16" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="AA28" s="16" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="AB28" s="16" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="AC28" s="16" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="AD28" s="16" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="AE28" s="16" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="AF28" s="16" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="AG28" s="16" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="AH28" s="16" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="AI28" s="16" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:35">
+        <v>460</v>
+      </c>
+      <c r="AJ28" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="AK28" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="AL28" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="AM28" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="AN28" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:40">
       <c r="A29" s="16" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="P29" s="16" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="T29" s="16" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="U29" s="16" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="V29" s="16" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="W29" s="16" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="X29" s="16" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="Y29" s="16" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="Z29" s="16" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="AB29" s="16" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="AC29" s="16" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="AD29" s="16" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="AE29" s="16" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="AF29" s="16" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="AG29" s="16" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="AH29" s="16" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="AI29" s="16" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:35">
+        <v>472</v>
+      </c>
+      <c r="AJ29" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="AK29" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="AL29" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="AM29" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="AN29" s="16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:40">
       <c r="A30" s="16" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="P30" s="16" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="R30" s="16" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="S30" s="16" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="T30" s="16" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="U30" s="16" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="V30" s="16" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="W30" s="16" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="X30" s="16" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="Y30" s="16" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="Z30" s="16" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="AA30" s="16" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="AB30" s="16" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="AC30" s="16" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="AD30" s="16" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="AE30" s="16" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="AF30" s="16" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="AG30" s="16" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="AH30" s="16" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="AI30" s="16" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:35">
+        <v>483</v>
+      </c>
+      <c r="AJ30" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="AK30" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="AL30" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="AM30" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="AN30" s="16" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:40">
       <c r="A31" s="16" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="N31" s="23" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="O31" s="23" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="P31" s="23" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="Q31" s="23" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="R31" s="23" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="S31" s="23" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="T31" s="23" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="U31" s="23" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="V31" s="23" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="W31" s="23" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="X31" s="23" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="Y31" s="23" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="Z31" s="23" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="AA31" s="23" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="AB31" s="23" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="AC31" s="23" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="AD31" s="23" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="AE31" s="23" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="AF31" s="23" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="AG31" s="23" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="AH31" s="23" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="AI31" s="23" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:35">
+        <v>494</v>
+      </c>
+      <c r="AJ31" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="AK31" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="AL31" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="AM31" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="AN31" s="23" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:40">
       <c r="A32" s="20" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -13256,545 +13786,625 @@
       <c r="AG32" s="24"/>
       <c r="AH32" s="24"/>
       <c r="AI32" s="24"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:35">
+      <c r="AJ32" s="24"/>
+      <c r="AK32" s="24"/>
+      <c r="AL32" s="24"/>
+      <c r="AM32" s="24"/>
+      <c r="AN32" s="24"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:40">
       <c r="A33" s="16" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="P33" s="16" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="Q33" s="16" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="R33" s="16" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="S33" s="16" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="T33" s="16" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="U33" s="16" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="V33" s="16" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="W33" s="16" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="X33" s="16" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="Y33" s="16" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="Z33" s="16" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="AA33" s="16" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="AB33" s="16" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="AC33" s="16" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="AD33" s="16" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="AE33" s="16" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="AF33" s="16" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="AG33" s="16" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="AH33" s="16" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="AI33" s="16" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:35">
+        <v>502</v>
+      </c>
+      <c r="AJ33" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="AK33" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="AL33" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="AM33" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="AN33" s="16" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:40">
       <c r="A34" s="16" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="N34" s="16" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="Q34" s="16" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="R34" s="16" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="S34" s="16" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="T34" s="16" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="U34" s="16" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="V34" s="16" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="W34" s="16" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="X34" s="16" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="Y34" s="16" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="Z34" s="16" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="AA34" s="16" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="AB34" s="16" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="AC34" s="16" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="AD34" s="16" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="AE34" s="16" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="AF34" s="16" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="AG34" s="16" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="AH34" s="16" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="AI34" s="16" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:35">
+        <v>508</v>
+      </c>
+      <c r="AJ34" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="AK34" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="AL34" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="AM34" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="AN34" s="16" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:40">
       <c r="A35" s="16" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="N35" s="16" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="P35" s="16" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q35" s="16" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="R35" s="16" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="S35" s="16" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="T35" s="16" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="U35" s="16" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="V35" s="16" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="W35" s="16" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="X35" s="16" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="Y35" s="16" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="Z35" s="16" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="AA35" s="16" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="AB35" s="16" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="AC35" s="16" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="AD35" s="16" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="AE35" s="16" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="AF35" s="16" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="AG35" s="16" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="AH35" s="16" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="AI35" s="16" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:35">
+        <v>513</v>
+      </c>
+      <c r="AJ35" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="AK35" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="AL35" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="AM35" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="AN35" s="16" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:40">
       <c r="A36" s="16" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="Q36" s="16" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="R36" s="16" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="S36" s="16" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="T36" s="16" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="U36" s="16" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="V36" s="16" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="W36" s="16" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="X36" s="16" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="Y36" s="16" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="Z36" s="16" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="AA36" s="16" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="AB36" s="16" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="AC36" s="16" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="AD36" s="16" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="AE36" s="16" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="AF36" s="16" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="AG36" s="16" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="AH36" s="16" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="AI36" s="16" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:35">
+        <v>518</v>
+      </c>
+      <c r="AJ36" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="AK36" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="AL36" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="AM36" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="AN36" s="16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:40">
       <c r="A37" s="16" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="Q37" s="16" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="T37" s="16" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="U37" s="16" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="V37" s="16" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="W37" s="16" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="X37" s="16" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="Y37" s="16" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="Z37" s="16" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="AA37" s="16" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="AB37" s="16" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="AC37" s="16" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="AD37" s="16" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="AE37" s="16" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="AF37" s="16" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="AG37" s="16" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="AH37" s="16" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="AI37" s="16" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:35">
+        <v>523</v>
+      </c>
+      <c r="AJ37" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="AK37" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="AL37" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="AM37" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="AN37" s="16" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:40">
       <c r="A38" s="20" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -13830,115 +14440,135 @@
       <c r="AG38" s="21"/>
       <c r="AH38" s="21"/>
       <c r="AI38" s="21"/>
-    </row>
-    <row r="39" customFormat="1" spans="1:35">
+      <c r="AJ38" s="21"/>
+      <c r="AK38" s="21"/>
+      <c r="AL38" s="21"/>
+      <c r="AM38" s="21"/>
+      <c r="AN38" s="21"/>
+    </row>
+    <row r="39" customFormat="1" spans="1:40">
       <c r="A39" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="R39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="S39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="T39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="U39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="V39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="W39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="X39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="Y39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="Z39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="AA39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="AB39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="AC39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="AD39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="AE39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="AF39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="AG39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="AH39" s="16" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="AI39" s="16" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:35">
+        <v>525</v>
+      </c>
+      <c r="AJ39" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="AK39" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="AL39" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="AM39" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="AN39" s="16" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:40">
       <c r="A40" s="25" t="s">
         <v>168</v>
       </c>
@@ -13976,8 +14606,13 @@
       <c r="AG40" s="25"/>
       <c r="AH40" s="25"/>
       <c r="AI40" s="25"/>
-    </row>
-    <row r="41" customFormat="1" spans="1:35">
+      <c r="AJ40" s="25"/>
+      <c r="AK40" s="25"/>
+      <c r="AL40" s="25"/>
+      <c r="AM40" s="25"/>
+      <c r="AN40" s="25"/>
+    </row>
+    <row r="41" customFormat="1" spans="1:40">
       <c r="A41" s="8" t="s">
         <v>169</v>
       </c>
@@ -13985,11 +14620,11 @@
         <v>171</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="E41" s="8" t="s">
         <v>171</v>
       </c>
@@ -14030,23 +14665,23 @@
         <v>171</v>
       </c>
       <c r="R41" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="U41" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="V41" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="S41" s="8" t="s">
+      <c r="W41" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="T41" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="U41" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="V41" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="W41" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="X41" s="8" t="s">
         <v>171</v>
       </c>
@@ -14083,16 +14718,31 @@
       <c r="AI41" s="8" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:35">
+      <c r="AJ41" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK41" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL41" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM41" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN41" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:40">
       <c r="A42" s="8" t="s">
         <v>172</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -14106,13 +14756,13 @@
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
-      <c r="R42" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="R42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
+      <c r="V42" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
@@ -14126,8 +14776,13 @@
       <c r="AG42" s="8"/>
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
-    </row>
-    <row r="43" customFormat="1" spans="1:35">
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="8"/>
+      <c r="AN42" s="8"/>
+    </row>
+    <row r="43" customFormat="1" spans="1:40">
       <c r="A43" s="8" t="s">
         <v>174</v>
       </c>
@@ -14138,7 +14793,7 @@
         <v>171</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>170</v>
@@ -14225,7 +14880,7 @@
         <v>171</v>
       </c>
       <c r="AG43" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH43" s="8" t="s">
         <v>171</v>
@@ -14233,17 +14888,30 @@
       <c r="AI43" s="8" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:35">
+      <c r="AJ43" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK43" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL43" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM43" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN43" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:40">
       <c r="A44" s="8" t="s">
         <v>175</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>507</v>
-      </c>
+      <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -14271,22 +14939,25 @@
       <c r="AD44" s="9"/>
       <c r="AE44" s="9"/>
       <c r="AF44" s="9"/>
-      <c r="AG44" s="9" t="s">
-        <v>508</v>
-      </c>
+      <c r="AG44" s="9"/>
       <c r="AH44" s="9"/>
       <c r="AI44" s="9"/>
-    </row>
-    <row r="45" customFormat="1" spans="1:35">
+      <c r="AJ44" s="9"/>
+      <c r="AK44" s="9"/>
+      <c r="AL44" s="9"/>
+      <c r="AM44" s="9"/>
+      <c r="AN44" s="9"/>
+    </row>
+    <row r="45" customFormat="1" spans="1:40">
       <c r="A45" s="8" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="D45" s="8" t="s">
         <v>171</v>
       </c>
@@ -14382,49 +15053,82 @@
       </c>
       <c r="AI45" s="8" t="s">
         <v>171</v>
+      </c>
+      <c r="AJ45" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK45" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL45" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM45" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN45" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" ht="72.5" spans="1:2">
+      <c r="A47" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="10" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41 C41 D41 E41 F41 G41 H41 I41 J41 K41 L41 M41 N41 O41 P41 Q41 R41 S41 T41 U41 V41 W41 X41 Y41 Z41:AD41 AE41 AF41 AG41 AH41 AI41 B43 C43 D43 E43 F43 G43 H43 I43 J43 K43 L43 M43 N43 O43 P43 Q43 R43 S43 T43 U43 V43 W43 X43 Y43 Z43 AA43 AB43 AC43 AD43 AE43 AF43 AG43 AH43 AI43 B45 C45 D45 E45 F45 G45 H45 I45 J45 K45 L45 M45 N45 O45 P45 Q45 R45 S45 T45 U45 V45 W45 X45 Y45 Z45 AA45 AB45 AC45 AD45 AE45 AF45 AG45 AH45 AI45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41 C41 D41 E41 F41 G41 H41 I41 J41 K41 L41 M41 N41 O41 P41 Q41 R41 S41 T41 U41 V41 W41 X41 Y41 Z41 AA41 AB41 AC41 AD41 AE41:AH41 AI41 AJ41 AK41 AL41 AM41 AN41 B43 C43 D43 E43 F43 G43 H43 I43 J43 K43 L43 M43 N43 O43 P43 Q43 R43 S43 T43 U43 V43 W43 X43 Y43 Z43 AA43 AB43 AC43 AD43 AE43 AF43 AG43 AH43 AI43 AJ43 AK43 AL43 AM43 AN43 B45 C45 D45 E45 F45 G45 H45 I45 J45 K45 L45 M45 N45 O45 P45 Q45 R45 S45 T45 U45 V45 W45 X45 Y45 Z45 AA45 AB45 AC45 AD45 AE45 AF45 AG45 AH45 AI45 AJ45 AK45 AL45 AM45 AN45">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AI31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="F31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="Q31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="C31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AH31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="D31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="E31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="G31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;TESTDYLAN@GMAIL.COM&quot;"/>
     <hyperlink ref="H31" r:id="rId1" display="&quot;TESTDYLAN@GMAIL.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="I31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH11111@GMAIL.COM&quot;"/>
     <hyperlink ref="J31" r:id="rId1" display="&quot;USERCIIE11111@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="K31" r:id="rId1" display="&quot;USERCIIE11111@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="M31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="L31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="N31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="O31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AL31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AJ31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AK31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="X31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="B31" r:id="rId1" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="T31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="P31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="R31" r:id="rId1" display="&quot;ANDY@ANDYRESEARCH.MY.ID&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="S31" r:id="rId1" display="&quot;ANDY@ANDYRESEARCH.MY.ID&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="V31" r:id="rId1" display="&quot;&quot;;&quot;&quot;;&quot;&quot;|"/>
-    <hyperlink ref="Z31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AA31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AB31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AC31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AD31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AG31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="Q31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="R31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="S31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AI31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="Y31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="AA31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="Z31" r:id="rId1" display="&quot;&quot;;&quot;&quot;;&quot;&quot;"/>
+    <hyperlink ref="AB31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="AC31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="C31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="D31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="E31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="U31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="V31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="W31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AD31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="AE31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="AF31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="B31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="T31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="U31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="W31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="X31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="Y31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AG31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AH31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="L31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AM31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJCJ@ESIGNHUB.MY.ID&quot;"/>
+    <hyperlink ref="AN31" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;&quot;"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -14434,23 +15138,30 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="28.2727272727273" customWidth="1"/>
-    <col min="3" max="7" width="18.5454545454545" customWidth="1"/>
-    <col min="8" max="8" width="23.8181818181818" customWidth="1"/>
-    <col min="9" max="10" width="26.6363636363636" customWidth="1"/>
-    <col min="11" max="16" width="18.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="18.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="31.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="42.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="12" max="14" width="18.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="56.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="18.5454545454545" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14485,13 +15196,13 @@
         <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="M1" t="s">
         <v>178</v>
       </c>
       <c r="N1" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="O1" t="s">
         <v>1</v>
@@ -14499,8 +15210,11 @@
       <c r="P1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:14">
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -14508,45 +15222,48 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D2" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="E2" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="F2" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="G2" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="H2" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="K2" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>537</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="3" ht="43.5" spans="1:16">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" ht="43.5" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>270</v>
@@ -14555,46 +15272,49 @@
         <v>271</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>552</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
@@ -14643,10 +15363,13 @@
       <c r="P4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -14655,22 +15378,23 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" t="s">
-        <v>533</v>
+      <c r="I5">
+        <v>94328</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" t="s">
-        <v>534</v>
-      </c>
+      <c r="L5" s="1"/>
       <c r="M5" t="s">
-        <v>535</v>
-      </c>
-      <c r="N5" s="1"/>
+        <v>554</v>
+      </c>
+      <c r="N5" t="s">
+        <v>555</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -14687,8 +15411,9 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -14705,10 +15430,11 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="5" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -14725,158 +15451,168 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>539</v>
+        <v>558</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>558</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>559</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="4" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="O10" s="4"/>
+        <v>561</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>561</v>
+      </c>
       <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>546</v>
+        <v>571</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>571</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="O11" s="4"/>
+        <v>567</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>567</v>
+      </c>
       <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>91</v>
@@ -14897,89 +15633,133 @@
         <v>91</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>551</v>
+        <v>256</v>
       </c>
       <c r="L12" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>550</v>
-      </c>
       <c r="N12" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="O12" s="4"/>
+        <v>572</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>574</v>
+      </c>
       <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="5" t="s">
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="D16" s="8" t="s">
         <v>171</v>
       </c>
@@ -15019,104 +15799,36 @@
       <c r="P16" s="8" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 C16:M16 N16 O16 P16 B18 C18 D18 E18 F18 G18 H18 I18 J18 K18 L18 M18 N18 O18 P18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 C14:J14 K14 L14:N14 O14 P14 Q14 B16 C16 D16 E16 F16 G16 H16 I16 J16 K16 L16 M16 N16 O16 P16 Q16">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15136,14 +15848,15 @@
     <hyperlink ref="H9" r:id="rId1" display="&quot;tafs&quot;"/>
     <hyperlink ref="I9" r:id="rId1" display="&quot;tafs&quot;"/>
     <hyperlink ref="J9" r:id="rId1" display="&quot;tafs&quot;"/>
-    <hyperlink ref="K9" r:id="rId1" display="&quot;tafs&quot;"/>
-    <hyperlink ref="K11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
     <hyperlink ref="L9" r:id="rId1" display="&quot;tafs&quot;"/>
     <hyperlink ref="L11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
     <hyperlink ref="M9" r:id="rId1" display="&quot;tafs&quot;"/>
     <hyperlink ref="M11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
     <hyperlink ref="N9" r:id="rId1" display="&quot;tafs&quot;"/>
     <hyperlink ref="N11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
+    <hyperlink ref="O9" r:id="rId1" display="&quot;tafs&quot;"/>
+    <hyperlink ref="O11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
+    <hyperlink ref="K9" r:id="rId1" display="&quot;tafs&quot;"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Excel/2.1 Esign - Full API Services.xlsx
+++ b/Excel/2.1 Esign - Full API Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="6" activeTab="8"/>
+    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="API Registrasi" sheetId="17" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3855" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3855" uniqueCount="744">
   <si>
     <t>Status</t>
   </si>
@@ -969,9 +969,6 @@
     <t>DOCUMENT DOWNLOAD</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>;String Base64 Document File tidak valid</t>
   </si>
   <si>
@@ -1044,6 +1041,9 @@
     <t>;Nomor Telepon terdaftar dengan NIK 3511000101802929, berbeda dengan NIK yang direquest yaitu 3511000101802333</t>
   </si>
   <si>
+    <t>Scenario</t>
+  </si>
+  <si>
     <t>Menggunakan AuTosign (AT)</t>
   </si>
   <si>
@@ -1206,7 +1206,7 @@
     <t>00155D0B-7502-8004-11ED-EB35545E65A0</t>
   </si>
   <si>
-    <t>00155D0B-7502-8004-11ED-EB360F81CE80</t>
+    <t>00155D0B-7502-8004-11ED-EB3B306CD4F0</t>
   </si>
   <si>
     <t>00155D0B-7502-8004-11ED-EB3141DFE330</t>
@@ -1910,9 +1910,6 @@
   </si>
   <si>
     <t>Tenant tidak ditemukan</t>
-  </si>
-  <si>
-    <t>Scenario</t>
   </si>
   <si>
     <t>Request dengan nomor hp tidak valid (diatas 13 digit)</t>
@@ -2265,10 +2262,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2327,6 +2324,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2335,29 +2353,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2371,8 +2374,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2380,15 +2384,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2433,17 +2429,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2456,7 +2446,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2513,7 +2510,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2525,19 +2654,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2549,31 +2666,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2585,115 +2684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2763,26 +2760,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2802,22 +2795,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2846,6 +2834,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2863,13 +2860,13 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2882,28 +2879,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2912,99 +2909,99 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10981,8 +10978,8 @@
   <sheetPr/>
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AR4" sqref="AR4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5"/>
@@ -11004,7 +11001,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -11113,7 +11110,7 @@
         <v>178</v>
       </c>
       <c r="AK1" t="s">
-        <v>315</v>
+        <v>178</v>
       </c>
       <c r="AL1" t="s">
         <v>1</v>
@@ -11141,95 +11138,95 @@
       </c>
     </row>
     <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>31</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
       <c r="C2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" t="s">
         <v>316</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>317</v>
-      </c>
-      <c r="E2" t="s">
-        <v>318</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
       </c>
       <c r="G2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" t="s">
         <v>319</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>320</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>321</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>322</v>
-      </c>
-      <c r="K2" t="s">
-        <v>323</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>
       </c>
       <c r="M2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N2" t="s">
         <v>324</v>
       </c>
-      <c r="N2" t="s">
-        <v>325</v>
-      </c>
       <c r="O2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S2" t="s">
         <v>31</v>
       </c>
       <c r="T2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U2" t="s">
+        <v>325</v>
+      </c>
+      <c r="V2" t="s">
+        <v>316</v>
+      </c>
+      <c r="W2" t="s">
+        <v>316</v>
+      </c>
+      <c r="X2" t="s">
         <v>326</v>
       </c>
-      <c r="V2" t="s">
-        <v>317</v>
-      </c>
-      <c r="W2" t="s">
-        <v>317</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z2" t="s">
         <v>327</v>
       </c>
-      <c r="Y2" t="s">
-        <v>327</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>328</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>329</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>330</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>331</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>332</v>
       </c>
       <c r="AE2" t="s">
         <v>31</v>
@@ -11238,10 +11235,10 @@
         <v>31</v>
       </c>
       <c r="AG2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH2" t="s">
         <v>333</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>334</v>
       </c>
       <c r="AI2" t="s">
         <v>31</v>
@@ -11253,33 +11250,33 @@
         <v>31</v>
       </c>
       <c r="AL2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>324</v>
+      </c>
+      <c r="AO2" t="s">
         <v>335</v>
       </c>
-      <c r="AM2" t="s">
-        <v>335</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>325</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>336</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>337</v>
       </c>
       <c r="AQ2" t="s">
         <v>31</v>
       </c>
       <c r="AR2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AS2" t="s">
         <v>338</v>
       </c>
-      <c r="AS2" t="s">
+    </row>
+    <row r="3" ht="72.5" spans="1:45">
+      <c r="A3" s="2" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="3" ht="72.5" spans="1:45">
-      <c r="A3" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>340</v>
@@ -16438,7 +16435,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A1" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5"/>
@@ -16528,7 +16525,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E2" t="s">
         <v>622</v>
@@ -16563,7 +16560,7 @@
     </row>
     <row r="3" ht="43.5" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>629</v>
+        <v>339</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>270</v>
@@ -16572,46 +16569,46 @@
         <v>271</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -16685,10 +16682,10 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" t="s">
+        <v>643</v>
+      </c>
+      <c r="N5" t="s">
         <v>644</v>
-      </c>
-      <c r="N5" t="s">
-        <v>645</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -16734,7 +16731,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -16755,60 +16752,60 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>647</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="P9" s="14" t="s">
         <v>648</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="Q9" s="14" t="s">
         <v>648</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>544</v>
@@ -16817,28 +16814,28 @@
         <v>544</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>544</v>
       </c>
       <c r="F10" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>652</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>653</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>544</v>
       </c>
       <c r="I10" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>655</v>
-      </c>
       <c r="K10" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>544</v>
@@ -16869,7 +16866,7 @@
         <v>573</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>573</v>
@@ -16878,16 +16875,16 @@
         <v>573</v>
       </c>
       <c r="H11" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="J11" s="14" t="s">
         <v>658</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>659</v>
-      </c>
       <c r="K11" s="14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L11" s="17" t="s">
         <v>573</v>
@@ -16909,10 +16906,10 @@
         <v>250</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>91</v>
@@ -16933,22 +16930,22 @@
         <v>91</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>256</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M12" s="14" t="s">
         <v>91</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
@@ -17109,7 +17106,7 @@
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -17168,22 +17165,22 @@
   <sheetPr/>
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.5727272727273" customWidth="1"/>
-    <col min="2" max="6" width="35.7090909090909" customWidth="1"/>
-    <col min="7" max="8" width="35.8545454545455" customWidth="1"/>
-    <col min="9" max="10" width="36.1363636363636" customWidth="1"/>
-    <col min="11" max="11" width="35.8545454545455" customWidth="1"/>
-    <col min="12" max="12" width="35.1363636363636" customWidth="1"/>
-    <col min="13" max="13" width="35.5727272727273" customWidth="1"/>
-    <col min="14" max="14" width="36.1363636363636" customWidth="1"/>
-    <col min="15" max="16" width="35" customWidth="1"/>
-    <col min="17" max="28" width="55.2818181818182" customWidth="1"/>
+    <col min="1" max="1" width="18.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="6" width="35.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="35.8545454545455" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="36.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="35.8545454545455" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="35.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="35.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="36.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="35" customWidth="1" collapsed="1"/>
+    <col min="17" max="28" width="55.2818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -17280,67 +17277,67 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D2" t="s">
         <v>664</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>665</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>666</v>
-      </c>
-      <c r="F2" t="s">
-        <v>667</v>
       </c>
       <c r="G2" t="s">
         <v>31</v>
       </c>
       <c r="H2" t="s">
+        <v>667</v>
+      </c>
+      <c r="I2" t="s">
         <v>668</v>
-      </c>
-      <c r="I2" t="s">
-        <v>669</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
       </c>
       <c r="K2" t="s">
+        <v>669</v>
+      </c>
+      <c r="L2" t="s">
+        <v>669</v>
+      </c>
+      <c r="M2" t="s">
         <v>670</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>670</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>671</v>
       </c>
-      <c r="N2" t="s">
-        <v>671</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>672</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>673</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>674</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>675</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>676</v>
-      </c>
-      <c r="T2" t="s">
-        <v>677</v>
       </c>
       <c r="U2" t="s">
         <v>31</v>
       </c>
       <c r="V2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="W2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="X2" t="s">
         <v>183</v>
@@ -17352,7 +17349,7 @@
         <v>628</v>
       </c>
       <c r="AA2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB2" t="s">
         <v>31</v>
@@ -17360,88 +17357,88 @@
     </row>
     <row r="3" ht="29" spans="1:28">
       <c r="A3" s="2" t="s">
-        <v>629</v>
+        <v>339</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="U3" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>700</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>701</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>191</v>
       </c>
       <c r="Z3" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -17543,7 +17540,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -17625,7 +17622,7 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -17657,88 +17654,88 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="R9" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="R9" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="S9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="V9" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="V9" s="6" t="s">
+      <c r="W9" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="W9" s="6" t="s">
+      <c r="X9" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="Y9" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="X9" s="6" t="s">
+      <c r="Z9" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="Y9" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="Z9" s="6" t="s">
-        <v>727</v>
-      </c>
       <c r="AA9" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -17809,10 +17806,10 @@
         <v>573</v>
       </c>
       <c r="W10" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="X10" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>729</v>
       </c>
       <c r="Y10" s="7" t="s">
         <v>573</v>
@@ -17880,7 +17877,7 @@
         <v>165</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>165</v>
@@ -17915,260 +17912,260 @@
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>734</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="I14" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>738</v>
-      </c>
       <c r="J14" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>495</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U14" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="W14" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="X14" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Y14" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Z14" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AA14" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AB14" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -18438,14 +18435,14 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>171</v>
@@ -18531,7 +18528,7 @@
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -18555,10 +18552,10 @@
         <v>91</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -18577,7 +18574,7 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>170</v>
@@ -18663,7 +18660,7 @@
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>171</v>
@@ -18784,85 +18781,85 @@
         <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="P25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="R25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="S25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="T25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="U25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="V25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="W25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="X25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Y25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Z25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AA25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AB25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/2.1 Esign - Full API Services.xlsx
+++ b/Excel/2.1 Esign - Full API Services.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="6" activeTab="6"/>
+    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="API Registrasi" sheetId="17" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3855" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="747">
   <si>
     <t>Status</t>
   </si>
@@ -2062,6 +2062,9 @@
     <t>Saldo OTP tidak cukup</t>
   </si>
   <si>
+    <t>Saldo Sign tidak cukup</t>
+  </si>
+  <si>
     <t>Nomor kontrak pada dokumen id belum ditandatangani</t>
   </si>
   <si>
@@ -2137,6 +2140,9 @@
     <t>Menggunakan IP Address yang tidak sesuai dengan hit.</t>
   </si>
   <si>
+    <t>Saldo Sign habis</t>
+  </si>
+  <si>
     <t>94569</t>
   </si>
   <si>
@@ -2210,6 +2216,9 @@
   </si>
   <si>
     <t>"3511000101802929"</t>
+  </si>
+  <si>
+    <t>["00155D0B-7502-8004-11ED-EBD81E1AA780","00155D0B-7502-8004-11ED-EBD8237755C0"]</t>
   </si>
   <si>
     <t>"password"</t>
@@ -2262,10 +2271,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2331,20 +2340,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2359,24 +2354,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2391,7 +2378,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2402,14 +2405,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2429,17 +2424,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2447,6 +2433,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2510,13 +2519,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2528,37 +2615,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2570,97 +2657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2678,19 +2675,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2762,15 +2771,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2780,17 +2780,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2844,6 +2838,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2860,13 +2869,13 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2879,129 +2888,129 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3025,10 +3034,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1"/>
@@ -10978,8 +10987,8 @@
   <sheetPr/>
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5"/>
@@ -16565,7 +16574,7 @@
       <c r="B3" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -16714,20 +16723,20 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="15" t="s">
@@ -16751,7 +16760,7 @@
       <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>646</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -16796,64 +16805,64 @@
       <c r="O9" s="17" t="s">
         <v>647</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Q9" s="13" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -16874,16 +16883,16 @@
       <c r="G11" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="13" t="s">
         <v>658</v>
       </c>
       <c r="L11" s="17" t="s">
@@ -16898,57 +16907,57 @@
       <c r="O11" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="M12" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="15" t="s">
@@ -17163,27 +17172,27 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="2" max="6" width="35.7090909090909" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="35.8545454545455" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="36.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="35.8545454545455" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="35.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="35.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="36.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="35" customWidth="1" collapsed="1"/>
-    <col min="17" max="28" width="55.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.5727272727273" customWidth="1"/>
+    <col min="2" max="6" width="35.7090909090909" customWidth="1"/>
+    <col min="7" max="8" width="35.8545454545455" customWidth="1"/>
+    <col min="9" max="10" width="36.1363636363636" customWidth="1"/>
+    <col min="11" max="11" width="35.8545454545455" customWidth="1"/>
+    <col min="12" max="12" width="35.1363636363636" customWidth="1"/>
+    <col min="13" max="13" width="35.5727272727273" customWidth="1"/>
+    <col min="14" max="14" width="36.1363636363636" customWidth="1"/>
+    <col min="15" max="16" width="35" customWidth="1"/>
+    <col min="17" max="29" width="55.2818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17268,8 +17277,11 @@
       <c r="AB1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -17354,94 +17366,100 @@
       <c r="AB2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" ht="29" spans="1:28">
+      <c r="AC2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="3" ht="29" spans="1:29">
       <c r="A3" s="2" t="s">
         <v>339</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>191</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+        <v>704</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="2" t="s">
         <v>83</v>
       </c>
@@ -17524,6 +17542,9 @@
         <v>0</v>
       </c>
       <c r="AB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -17540,7 +17561,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -17561,7 +17582,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:29">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -17589,8 +17610,9 @@
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6" s="2"/>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -17619,10 +17641,11 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" s="5"/>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="4" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -17651,94 +17674,98 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8" s="13" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+        <v>728</v>
+      </c>
+      <c r="AC9" s="5"/>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="2" t="s">
         <v>97</v>
       </c>
@@ -17806,10 +17833,10 @@
         <v>573</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="Y10" s="7" t="s">
         <v>573</v>
@@ -17823,8 +17850,11 @@
       <c r="AB10" s="7" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10" s="6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="2" t="s">
         <v>164</v>
       </c>
@@ -17877,7 +17907,7 @@
         <v>165</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>165</v>
@@ -17909,266 +17939,278 @@
       <c r="AB11" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="2" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+        <v>734</v>
+      </c>
+      <c r="AC12" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="2" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+        <v>736</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="2" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>495</v>
       </c>
       <c r="L14" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="AC14" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="M14" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="T14" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="V14" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="W14" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="X14" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="Y14" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="Z14" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="AA14" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="AB14" s="8" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="4" t="s">
         <v>168</v>
       </c>
@@ -18199,8 +18241,11 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="9" t="s">
         <v>169</v>
       </c>
@@ -18285,8 +18330,9 @@
       <c r="AB16" s="9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16" s="5"/>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" s="9" t="s">
         <v>172</v>
       </c>
@@ -18319,8 +18365,11 @@
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" s="9" t="s">
         <v>174</v>
       </c>
@@ -18405,8 +18454,9 @@
       <c r="AB18" s="9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18" s="9"/>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" s="9" t="s">
         <v>175</v>
       </c>
@@ -18435,14 +18485,17 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AC19" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" s="9" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>171</v>
@@ -18525,10 +18578,11 @@
       <c r="AB20" s="9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20" s="7"/>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="9" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -18552,10 +18606,10 @@
         <v>91</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -18571,10 +18625,13 @@
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" s="9" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>170</v>
@@ -18657,10 +18714,13 @@
       <c r="AB22" s="9" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AC22" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" s="9" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>171</v>
@@ -18743,8 +18803,11 @@
       <c r="AB23" s="9" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:28">
+      <c r="AC23" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:29">
       <c r="A24" s="10" t="s">
         <v>614</v>
       </c>
@@ -18775,8 +18838,11 @@
       <c r="Z24" s="11"/>
       <c r="AA24" s="11"/>
       <c r="AB24" s="11"/>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AC24" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -18861,10 +18927,16 @@
       <c r="AB25" t="s">
         <v>647</v>
       </c>
+      <c r="AC25" s="11"/>
+    </row>
+    <row r="26" spans="29:29">
+      <c r="AC26" t="s">
+        <v>647</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 C16 D16 E16 F16 G16 H16 I16 J16 K16 L16 M16 N16 O16 P16 Q16 R16 S16 T16 U16 V16 W16 X16 Y16 Z16 AA16 AB16 B18 C18 D18 E18 F18 G18 H18 I18 J18 K18 L18 M18 N18 O18 P18 Q18 R18 S18 T18 U18 V18 W18 X18 Y18 Z18 AA18 AB18 B20 C20 D20 E20 F20 G20 H20 I20 J20 K20 L20 M20 N20 O20 P20 Q20 R20 S20 T20 U20 V20 W20 X20 Y20 Z20 AA20 AB20 B22 C22 D22 E22 F22 G22 H22 I22 J22 K22 L22 M22 N22 O22 P22 Q22 R22 S22 T22 U22 V22 W22 X22 Y22 Z22 AA22 AB22 B23 C23 D23 E23 F23 G23 H23 I23 J23 K23 L23 M23 N23 O23 P23 Q23 R23 S23 T23 U23 V23 W23 X23 Y23 Z23 AA23 AB23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 C16 D16 E16 F16 G16 H16 I16 J16 K16 L16 M16 N16 O16 P16 Q16 R16 S16 T16 U16 V16 W16 X16 Y16 Z16 AA16 AB16 AC17 B18 C18 D18 E18 F18 G18 H18 I18 J18 K18 L18 M18 N18 O18 P18 Q18 R18 S18 T18 U18 V18 W18 X18 Y18 Z18 AA18 AB18 AC19 B20 C20 D20 E20 F20 G20 H20 I20 J20 K20 L20 M20 N20 O20 P20 Q20 R20 S20 T20 U20 V20 W20 X20 Y20 Z20 AA20 AB20 AC21 B22 C22 D22 E22 F22 G22 H22 I22 J22 K22 L22 M22 N22 O22 P22 Q22 R22 S22 T22 U22 V22 W22 X22 Y22 Z22 AA22 AB22 B23 C23 D23 E23 F23 G23 H23 I23 J23 K23 L23 M23 N23 O23 P23 Q23 R23 S23 T23 U23 V23 W23 X23 Y23 Z23 AA23 AB23 AC23 AC24">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/2.1 Esign - Full API Services.xlsx
+++ b/Excel/2.1 Esign - Full API Services.xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="6" activeTab="8"/>
+    <workbookView activeTab="6" firstSheet="6" windowHeight="7070" windowWidth="18530"/>
   </bookViews>
   <sheets>
-    <sheet name="API Registrasi" sheetId="17" r:id="rId1"/>
-    <sheet name="API Check Registrasi" sheetId="18" r:id="rId2"/>
-    <sheet name="API Check Stamping Status" sheetId="19" r:id="rId3"/>
-    <sheet name="API Check Signing Status" sheetId="21" r:id="rId4"/>
-    <sheet name="API Request Stamping" sheetId="20" r:id="rId5"/>
-    <sheet name="API Download Document" sheetId="22" r:id="rId6"/>
-    <sheet name="API Send Document" sheetId="23" r:id="rId7"/>
-    <sheet name="API Sent OTP Signing" sheetId="24" r:id="rId8"/>
-    <sheet name="API Sign Document" sheetId="25" r:id="rId9"/>
+    <sheet name="API Registrasi" r:id="rId1" sheetId="17"/>
+    <sheet name="API Check Registrasi" r:id="rId2" sheetId="18"/>
+    <sheet name="API Check Stamping Status" r:id="rId3" sheetId="19"/>
+    <sheet name="API Check Signing Status" r:id="rId4" sheetId="21"/>
+    <sheet name="API Request Stamping" r:id="rId5" sheetId="20"/>
+    <sheet name="API Download Document" r:id="rId6" sheetId="22"/>
+    <sheet name="API Send Document" r:id="rId7" sheetId="23"/>
+    <sheet name="API Sent OTP Signing" r:id="rId8" sheetId="24"/>
+    <sheet name="API Sign Document" r:id="rId9" sheetId="25"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3895" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3920" uniqueCount="748">
   <si>
     <t>Status</t>
   </si>
@@ -1044,12 +1044,12 @@
     <t>Scenario</t>
   </si>
   <si>
+    <t>Tidak menggunakan Base64.</t>
+  </si>
+  <si>
     <t>Menggunakan AuTosign (AT)</t>
   </si>
   <si>
-    <t>Tidak menggunakan Base64.</t>
-  </si>
-  <si>
     <t>API Key Salah.</t>
   </si>
   <si>
@@ -1236,12 +1236,12 @@
     <t>$referenceNo</t>
   </si>
   <si>
+    <t>"669"</t>
+  </si>
+  <si>
     <t>"ATNEW-QE-1"</t>
   </si>
   <si>
-    <t>"669"</t>
-  </si>
-  <si>
     <t>"tessps"</t>
   </si>
   <si>
@@ -1284,6 +1284,9 @@
     <t>documentName</t>
   </si>
   <si>
+    <t>"dokumen yang dikirim per 19"</t>
+  </si>
+  <si>
     <t>"dokumen yang dikirim per 1"</t>
   </si>
   <si>
@@ -1338,9 +1341,6 @@
     <t>"dokumen yang dikirim per 18"</t>
   </si>
   <si>
-    <t>"dokumen yang dikirim per 19"</t>
-  </si>
-  <si>
     <t>"dokumen yang dikirim per 20"</t>
   </si>
   <si>
@@ -1587,12 +1587,12 @@
     <t>$signAction</t>
   </si>
   <si>
+    <t>"mt";"mt"</t>
+  </si>
+  <si>
     <t>"at";"mt"</t>
   </si>
   <si>
-    <t>"mt";"mt"</t>
-  </si>
-  <si>
     <t>"mt";"mt";"mt"</t>
   </si>
   <si>
@@ -1629,12 +1629,12 @@
     <t>$tlp</t>
   </si>
   <si>
+    <t>"081233444403";"082283949900"</t>
+  </si>
+  <si>
     <t>"085156436879";"082283949900"</t>
   </si>
   <si>
-    <t>"081233444403";"082283949900"</t>
-  </si>
-  <si>
     <t>"081233444403";"089654990200"</t>
   </si>
   <si>
@@ -1668,12 +1668,12 @@
     <t>$idKtp</t>
   </si>
   <si>
+    <t>"3511000101802884";"3511000101802907"</t>
+  </si>
+  <si>
     <t>"3271011312910014";"3511000101802907"</t>
   </si>
   <si>
-    <t>"3511000101802884";"3511000101802907"</t>
-  </si>
-  <si>
     <t>"3511000101802884";"3271011312910000"</t>
   </si>
   <si>
@@ -1713,10 +1713,10 @@
     <t>$email</t>
   </si>
   <si>
+    <t>"USERCIIE@AD-INS.COM";"USERCJAH@GMAIL.COM"</t>
+  </si>
+  <si>
     <t>"ANDY@AD-INS.COM";"USERCJAH@GMAIL.COM"</t>
-  </si>
-  <si>
-    <t>"USERCIIE@AD-INS.COM";"USERCJAH@GMAIL.COM"</t>
   </si>
   <si>
     <t>"USERCIIE@AD-INS.COM";"TESTDYLAN@GMAIL.COM"</t>
@@ -2264,6 +2264,9 @@
   </si>
   <si>
     <t>Use Correct ipAddress</t>
+  </si>
+  <si>
+    <t>;Mohon sediakan parameter wajib : documentTemplateCode</t>
   </si>
 </sst>
 </file>
@@ -2271,10 +2274,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2332,11 +2335,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2347,16 +2381,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2371,29 +2404,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2401,7 +2435,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2415,25 +2449,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2447,22 +2464,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2519,73 +2522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2603,7 +2546,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2615,73 +2678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2693,13 +2690,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2769,17 +2772,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2791,6 +2783,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2810,15 +2811,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2830,6 +2822,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2852,302 +2853,304 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="53">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="13" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="19" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="24" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="11" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="11" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="12" fillId="0" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="37" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="38" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="36" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="39" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="35" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="54">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="7"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="7"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="7"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="32"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="32">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="32"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="58" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="7"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="7"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="32">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="7"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="3" numFmtId="58" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="7"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="4" fontId="3" numFmtId="58" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" quotePrefix="1" xfId="7"/>
   </cellXfs>
   <cellStyles count="53">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="7"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="8"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="10"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="11"/>
+    <cellStyle builtinId="10" name="Note" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
     <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="33"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="34"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="35"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="36"/>
     <cellStyle name="Normal 3" xfId="37"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="39" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="40" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="41" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="42" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="43" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="44" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="45" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="47" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="49" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="50" builtinId="52"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="39"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="40"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="41"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="42"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="43"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="44"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="45"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="46"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="47"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="48"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="49"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="50"/>
     <cellStyle name="Hyperlink 2" xfId="51"/>
     <cellStyle name="Normal 2 2" xfId="52"/>
   </cellStyles>
@@ -3160,7 +3163,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3174,10 +3177,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3341,21 +3344,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3372,7 +3375,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3425,9 +3428,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AS33"/>
+  <dimension ref="A1:AT33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -3435,31 +3438,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="19.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="18.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.2818181818182" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="31" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="13" max="29" width="20.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="23.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="20.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="19.7090909090909" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="18.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="19.8545454545455" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="18.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="20.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="20.2818181818182" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="18.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="40" max="41" width="20.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="19.7090909090909" customWidth="1" collapsed="1"/>
-    <col min="43" max="44" width="21" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="46.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="19.1363636363636" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="18.5727272727273" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.5727272727273" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="21.4272727272727" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.2818181818182" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.4272727272727" collapsed="true"/>
+    <col min="13" max="29" customWidth="true" width="20.4272727272727" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="23.5727272727273" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="20.4272727272727" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="19.7090909090909" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="18.4272727272727" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="19.8545454545455" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="20.5727272727273" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="18.4272727272727" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="20.5727272727273" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="20.2818181818182" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="18.5727272727273" collapsed="true"/>
+    <col min="40" max="41" customWidth="true" width="20.1363636363636" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="19.7090909090909" collapsed="true"/>
+    <col min="43" max="44" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="46.4272727272727" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45">
@@ -3599,7 +3602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="34" customFormat="1" spans="1:45">
+    <row customFormat="1" r="2" s="34" spans="1:45">
       <c r="A2" s="35" t="s">
         <v>3</v>
       </c>
@@ -3736,7 +3739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="50.25" customHeight="1" spans="1:45">
+    <row customHeight="1" ht="50.25" r="3" spans="1:45">
       <c r="A3" s="35" t="s">
         <v>39</v>
       </c>
@@ -3878,167 +3881,167 @@
         <v>83</v>
       </c>
       <c r="B4" s="35">
-        <f t="shared" ref="B4:AP4" si="0">COUNTIFS($A9:$A23,"*$*",B9:B23,"")</f>
+        <f ref="B4:AP4" si="0" t="shared">COUNTIFS($A9:$A23,"*$*",B9:B23,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="35">
-        <f t="shared" ref="F4" si="1">COUNTIFS($A9:$A23,"*$*",F9:F23,"")</f>
+        <f ref="F4" si="1" t="shared">COUNTIFS($A9:$A23,"*$*",F9:F23,"")</f>
         <v>0</v>
       </c>
       <c r="G4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="P4" s="35">
-        <f t="shared" ref="P4:R4" si="2">COUNTIFS($A9:$A23,"*$*",P9:P23,"")</f>
+        <f ref="P4:R4" si="2" t="shared">COUNTIFS($A9:$A23,"*$*",P9:P23,"")</f>
         <v>0</v>
       </c>
       <c r="Q4" s="35">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="R4" s="35">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="S4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="T4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="U4" s="35">
-        <f t="shared" ref="U4" si="3">COUNTIFS($A9:$A23,"*$*",U9:U23,"")</f>
+        <f ref="U4" si="3" t="shared">COUNTIFS($A9:$A23,"*$*",U9:U23,"")</f>
         <v>0</v>
       </c>
       <c r="V4" s="35">
-        <f t="shared" ref="V4:W4" si="4">COUNTIFS($A9:$A23,"*$*",V9:V23,"")</f>
+        <f ref="V4:W4" si="4" t="shared">COUNTIFS($A9:$A23,"*$*",V9:V23,"")</f>
         <v>0</v>
       </c>
       <c r="W4" s="35">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
       <c r="X4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Y4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Z4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA4" s="35">
-        <f t="shared" ref="AA4:AB4" si="5">COUNTIFS($A9:$A23,"*$*",AA9:AA23,"")</f>
+        <f ref="AA4:AB4" si="5" t="shared">COUNTIFS($A9:$A23,"*$*",AA9:AA23,"")</f>
         <v>0</v>
       </c>
       <c r="AB4" s="35">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>0</v>
       </c>
       <c r="AC4" s="35">
-        <f t="shared" ref="AC4" si="6">COUNTIFS($A9:$A23,"*$*",AC9:AC23,"")</f>
+        <f ref="AC4" si="6" t="shared">COUNTIFS($A9:$A23,"*$*",AC9:AC23,"")</f>
         <v>0</v>
       </c>
       <c r="AD4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AE4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AF4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AG4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AH4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AI4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AK4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AL4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AM4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AN4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AO4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AP4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AQ4" s="35">
@@ -4098,7 +4101,7 @@
       <c r="AR5" s="35"/>
       <c r="AS5" s="35"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:45">
+    <row customHeight="1" ht="14.25" r="6" spans="1:45">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -4145,7 +4148,7 @@
       <c r="AR6" s="35"/>
       <c r="AS6" s="35"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:45">
+    <row customHeight="1" ht="14.25" r="7" spans="1:45">
       <c r="A7" s="8"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -7012,7 +7015,7 @@
       <c r="AR31" s="8"/>
       <c r="AS31" s="8"/>
     </row>
-    <row r="32" ht="29" spans="1:45">
+    <row ht="29" r="32" spans="1:45">
       <c r="A32" s="36" t="s">
         <v>176</v>
       </c>
@@ -7149,7 +7152,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" ht="29" spans="1:45">
+    <row ht="29" r="33" spans="1:45">
       <c r="A33" s="36" t="s">
         <v>177</v>
       </c>
@@ -7288,30 +7291,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A29:$XFD29">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule dxfId="0" priority="3" type="expression">
       <formula>A$28="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="$A31:$XFD31">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule dxfId="0" priority="1" type="expression">
       <formula>A$30="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:AS28 B30:AS30 B32:AS33">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B28:AS28 B30:AS30 B32:AS33" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -7319,11 +7322,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="3" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="12" max="22" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.1363636363636" collapsed="true"/>
+    <col min="3" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.1363636363636" collapsed="true"/>
+    <col min="12" max="22" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -7436,7 +7439,7 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
     </row>
-    <row r="3" ht="50.25" customHeight="1" spans="1:22">
+    <row customHeight="1" ht="50.25" r="3" spans="1:22">
       <c r="A3" s="35" t="s">
         <v>39</v>
       </c>
@@ -7497,63 +7500,63 @@
         <v>83</v>
       </c>
       <c r="B4" s="35">
-        <f t="shared" ref="B4:O4" si="0">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
+        <f ref="B4:O4" si="0" t="shared">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="35">
-        <f t="shared" ref="F4" si="1">COUNTIFS($A9:$A12,"*$*",F9:F12,"")</f>
+        <f ref="F4" si="1" t="shared">COUNTIFS($A9:$A12,"*$*",F9:F12,"")</f>
         <v>0</v>
       </c>
       <c r="G4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="P4" s="35">
-        <f t="shared" ref="P4" si="2">COUNTIFS($A9:$A12,"*$*",P9:P12,"")</f>
+        <f ref="P4" si="2" t="shared">COUNTIFS($A9:$A12,"*$*",P9:P12,"")</f>
         <v>0</v>
       </c>
       <c r="Q4" s="35"/>
@@ -7587,7 +7590,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:22">
+    <row customHeight="1" ht="14.25" r="6" spans="1:22">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -7611,7 +7614,7 @@
       <c r="U6" s="35"/>
       <c r="V6" s="35"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:22">
+    <row customHeight="1" ht="14.25" r="7" spans="1:22">
       <c r="A7" s="8"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -7967,37 +7970,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A15:$XFD15">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule dxfId="0" priority="1" type="expression">
       <formula>A$14="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:P14">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14:P14" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
-    <hyperlink ref="J9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
-    <hyperlink ref="K9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
-    <hyperlink ref="O9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
-    <hyperlink ref="H9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
-    <hyperlink ref="B9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
-    <hyperlink ref="C9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
-    <hyperlink ref="I9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
-    <hyperlink ref="P9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
-    <hyperlink ref="P12" r:id="rId2" display="&quot;USERGMAIL@ADMIN.CO.ID&quot;"/>
+    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="L9"/>
+    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="J9"/>
+    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="K9"/>
+    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="O9"/>
+    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="H9"/>
+    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="B9"/>
+    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="C9"/>
+    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="I9"/>
+    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="P9"/>
+    <hyperlink display="&quot;USERGMAIL@ADMIN.CO.ID&quot;" r:id="rId2" ref="P12"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AK16"/>
+  <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -8005,12 +8008,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="5" max="23" width="22" customWidth="1" collapsed="1"/>
-    <col min="24" max="32" width="20.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.1363636363636" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.1363636363636" collapsed="true"/>
+    <col min="5" max="23" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="24" max="32" customWidth="true" width="20.7090909090909" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -8111,7 +8114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="34" customFormat="1" spans="1:32">
+    <row customFormat="1" r="2" s="34" spans="1:32">
       <c r="A2" s="35" t="s">
         <v>3</v>
       </c>
@@ -8155,7 +8158,7 @@
       <c r="AE2" s="35"/>
       <c r="AF2" s="35"/>
     </row>
-    <row r="3" ht="78.75" customHeight="1" spans="1:37">
+    <row customHeight="1" ht="78.75" r="3" spans="1:37">
       <c r="A3" s="35" t="s">
         <v>39</v>
       </c>
@@ -8263,127 +8266,127 @@
         <v>83</v>
       </c>
       <c r="B4" s="35">
-        <f t="shared" ref="B4:N4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f ref="B4:N4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4" s="35">
-        <f t="shared" ref="O4:P4" si="1">COUNTIFS($A9:$A11,"*$*",O9:O11,"")</f>
+        <f ref="O4:P4" si="1" t="shared">COUNTIFS($A9:$A11,"*$*",O9:O11,"")</f>
         <v>0</v>
       </c>
       <c r="P4" s="35">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q4" s="35">
-        <f t="shared" ref="Q4:R4" si="2">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
+        <f ref="Q4:R4" si="2" t="shared">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
         <v>0</v>
       </c>
       <c r="R4" s="35">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="S4" s="35">
-        <f t="shared" ref="S4:AF4" si="3">COUNTIFS($A9:$A11,"*$*",S9:S11,"")</f>
+        <f ref="S4:AF4" si="3" t="shared">COUNTIFS($A9:$A11,"*$*",S9:S11,"")</f>
         <v>0</v>
       </c>
       <c r="T4" s="35">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="U4" s="35">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="V4" s="35">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="W4" s="35">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="X4" s="35">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="Y4" s="35">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="Z4" s="35">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA4" s="35">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AB4" s="35">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AC4" s="35">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AD4" s="35">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AE4" s="35">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AF4" s="35">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -8421,7 +8424,7 @@
       <c r="AE5" s="8"/>
       <c r="AF5" s="8"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:32">
+    <row customHeight="1" ht="14.25" r="6" spans="1:32">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -8455,7 +8458,7 @@
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:32">
+    <row customHeight="1" ht="14.25" r="7" spans="1:32">
       <c r="A7" s="8"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -9067,30 +9070,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A14:$XFD14">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule dxfId="0" priority="1" type="expression">
       <formula>A$13="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="$A16:$XFD16">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule dxfId="0" priority="2" type="expression">
       <formula>A$15="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:AF13 B15:AF15">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:AF13 B15:AF15" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -9098,12 +9101,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="5" max="16" width="22" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.1363636363636" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.1363636363636" collapsed="true"/>
+    <col min="5" max="16" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="20.4272727272727" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -9159,7 +9162,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" s="34" customFormat="1" spans="1:17">
+    <row customFormat="1" r="2" s="34" spans="1:17">
       <c r="A2" s="35" t="s">
         <v>3</v>
       </c>
@@ -9212,7 +9215,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="78.75" customHeight="1" spans="1:17">
+    <row customHeight="1" ht="78.75" r="3" spans="1:17">
       <c r="A3" s="35" t="s">
         <v>39</v>
       </c>
@@ -9264,67 +9267,67 @@
         <v>83</v>
       </c>
       <c r="B4" s="35">
-        <f t="shared" ref="B4:P4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f ref="B4:P4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="P4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q4" s="35">
-        <f t="shared" ref="Q4" si="1">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
+        <f ref="Q4" si="1" t="shared">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -9347,7 +9350,7 @@
       <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:17">
+    <row customHeight="1" ht="14.25" r="6" spans="1:17">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -9366,7 +9369,7 @@
       <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:17">
+    <row customHeight="1" ht="14.25" r="7" spans="1:17">
       <c r="A7" s="8"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -9706,98 +9709,98 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="36" ht="15.25"/>
-    <row r="37" ht="15.25" spans="2:2">
+    <row ht="15.25" r="36"/>
+    <row ht="15.25" r="37" spans="2:2">
       <c r="B37" s="48" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="38" ht="15.25" spans="2:2">
+    <row ht="15.25" r="38" spans="2:2">
       <c r="B38" s="48" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="39" ht="15.25" spans="2:2">
+    <row ht="15.25" r="39" spans="2:2">
       <c r="B39" s="48" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="40" ht="15.25" spans="2:2">
+    <row ht="15.25" r="40" spans="2:2">
       <c r="B40" s="48" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="41" ht="15.25" spans="2:2">
+    <row ht="15.25" r="41" spans="2:2">
       <c r="B41" s="48" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="42" ht="15.25" spans="2:2">
+    <row ht="15.25" r="42" spans="2:2">
       <c r="B42" s="48" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="43" ht="15.25" spans="2:2">
+    <row ht="15.25" r="43" spans="2:2">
       <c r="B43" s="48" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="44" ht="15.25" spans="2:2">
+    <row ht="15.25" r="44" spans="2:2">
       <c r="B44" s="48" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="45" ht="15.25" spans="2:2">
+    <row ht="15.25" r="45" spans="2:2">
       <c r="B45" s="48" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="46" ht="15.25" spans="2:2">
+    <row ht="15.25" r="46" spans="2:2">
       <c r="B46" s="48" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="47" ht="15.25" spans="2:2">
+    <row ht="15.25" r="47" spans="2:2">
       <c r="B47" s="48" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="48" ht="15.25" spans="2:2">
+    <row ht="15.25" r="48" spans="2:2">
       <c r="B48" s="48" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="49" ht="15.25" spans="2:2">
+    <row ht="15.25" r="49" spans="2:2">
       <c r="B49" s="48" t="s">
         <v>282</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A14:$XFD14">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule dxfId="0" priority="2" type="expression">
       <formula>A$13="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="$A16:$XFD16">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule dxfId="0" priority="1" type="expression">
       <formula>A$15="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:Q13 B15:Q15">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:Q13 B15:Q15" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -9805,11 +9808,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="3" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="12" max="22" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.1363636363636" collapsed="true"/>
+    <col min="3" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.1363636363636" collapsed="true"/>
+    <col min="12" max="22" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -9900,7 +9903,7 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
     </row>
-    <row r="3" ht="50.25" customHeight="1" spans="1:22">
+    <row customHeight="1" ht="50.25" r="3" spans="1:22">
       <c r="A3" s="35" t="s">
         <v>39</v>
       </c>
@@ -9953,47 +9956,47 @@
         <v>83</v>
       </c>
       <c r="B4" s="35">
-        <f t="shared" ref="B4:L4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f ref="B4:L4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="35"/>
@@ -10031,7 +10034,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:22">
+    <row customHeight="1" ht="14.25" r="6" spans="1:22">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -10055,7 +10058,7 @@
       <c r="U6" s="35"/>
       <c r="V6" s="35"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:22">
+    <row customHeight="1" ht="14.25" r="7" spans="1:22">
       <c r="A7" s="8"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -10399,39 +10402,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A14:$XFD14">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule dxfId="0" priority="2" type="expression">
       <formula>A$13="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="$A16:$XFD16">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule dxfId="0" priority="1" type="expression">
       <formula>A$15="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:O13 B15:O15">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:O13 B15:O15" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
-    <hyperlink ref="J9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
-    <hyperlink ref="K9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
-    <hyperlink ref="H9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
-    <hyperlink ref="B9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
-    <hyperlink ref="C9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
-    <hyperlink ref="I9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
+    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="L9"/>
+    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="J9"/>
+    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="K9"/>
+    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="H9"/>
+    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="B9"/>
+    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="C9"/>
+    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="I9"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -10439,17 +10442,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="20.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.8545454545455" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.2818181818182" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.7090909090909" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.4272727272727" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="20.4272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.4272727272727" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.8545454545455" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.4272727272727" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.1363636363636" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.2818181818182" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.7090909090909" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.4272727272727" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -10490,7 +10493,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" s="34" customFormat="1" ht="52.5" customHeight="1" spans="1:12">
+    <row customFormat="1" customHeight="1" ht="52.5" r="2" s="34" spans="1:12">
       <c r="A2" s="35" t="s">
         <v>3</v>
       </c>
@@ -10528,7 +10531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="43.5" spans="1:12">
+    <row ht="43.5" r="3" spans="1:12">
       <c r="A3" s="35" t="s">
         <v>39</v>
       </c>
@@ -10571,47 +10574,47 @@
         <v>83</v>
       </c>
       <c r="B4" s="35">
-        <f t="shared" ref="B4:J4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f ref="B4:J4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="35">
-        <f t="shared" ref="K4:L4" si="1">COUNTIFS($A9:$A11,"*$*",K9:K11,"")</f>
+        <f ref="K4:L4" si="1" t="shared">COUNTIFS($A9:$A11,"*$*",K9:K11,"")</f>
         <v>0</v>
       </c>
       <c r="L4" s="35">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -10951,71 +10954,72 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A14:$XFD14">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule dxfId="0" priority="3" type="expression">
       <formula>A$13="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="$A16:$XFD16">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule dxfId="0" priority="2" type="expression">
       <formula>A$15="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="$A18:$XFD18">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule dxfId="0" priority="1" type="expression">
       <formula>A$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:L13 B15:L15 B17:L17">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:L13 B15:L15 B17:L17" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
-    <hyperlink ref="C9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
+    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="B9"/>
+    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="C9"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AS49"/>
+  <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.4272727272727" style="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.2818181818182" style="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="28.7090909090909" style="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="45.2818181818182" style="16" customWidth="1" collapsed="1"/>
-    <col min="11" max="20" width="36.1363636363636" style="16" customWidth="1" collapsed="1"/>
-    <col min="21" max="30" width="44.8545454545455" style="16" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="28.7090909090909" style="16" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="28.7636363636364" style="16" customWidth="1" collapsed="1"/>
-    <col min="34" max="37" width="28.7090909090909" style="16" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="56.8545454545455" style="16" customWidth="1" collapsed="1"/>
-    <col min="39" max="40" width="36.1363636363636" style="16" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="56.8545454545455" style="16" customWidth="1" collapsed="1"/>
-    <col min="42" max="45" width="28.7090909090909" style="16" customWidth="1" collapsed="1"/>
-    <col min="46" max="47" width="79.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="16" width="24.4272727272727" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="16" width="28.7090909090909" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="16" width="45.2818181818182" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="16" width="28.7090909090909" collapsed="true"/>
+    <col min="6" max="11" customWidth="true" style="16" width="45.2818181818182" collapsed="true"/>
+    <col min="12" max="21" customWidth="true" style="16" width="36.1363636363636" collapsed="true"/>
+    <col min="22" max="31" customWidth="true" style="16" width="44.8545454545455" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="16" width="28.7090909090909" collapsed="true"/>
+    <col min="33" max="34" customWidth="true" style="16" width="28.7636363636364" collapsed="true"/>
+    <col min="35" max="38" customWidth="true" style="16" width="28.7090909090909" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="16" width="56.8545454545455" collapsed="true"/>
+    <col min="40" max="41" customWidth="true" style="16" width="36.1363636363636" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="16" width="56.8545454545455" collapsed="true"/>
+    <col min="43" max="46" customWidth="true" style="16" width="28.7090909090909" collapsed="true"/>
+    <col min="47" max="48" customWidth="true" width="79.5727272727273" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:46">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>178</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -11024,10 +11028,10 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>178</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -11042,10 +11046,10 @@
         <v>1</v>
       </c>
       <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
         <v>178</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1</v>
       </c>
       <c r="N1" t="s">
         <v>1</v>
@@ -11063,10 +11067,10 @@
         <v>1</v>
       </c>
       <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
         <v>178</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1</v>
       </c>
       <c r="U1" t="s">
         <v>1</v>
@@ -11099,19 +11103,19 @@
         <v>1</v>
       </c>
       <c r="AE1" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="AF1" t="s">
         <v>178</v>
       </c>
       <c r="AG1" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="AH1" t="s">
         <v>1</v>
       </c>
       <c r="AI1" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="AJ1" t="s">
         <v>178</v>
@@ -11120,7 +11124,7 @@
         <v>178</v>
       </c>
       <c r="AL1" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="AM1" t="s">
         <v>1</v>
@@ -11135,60 +11139,63 @@
         <v>1</v>
       </c>
       <c r="AQ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" t="s">
         <v>178</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>1</v>
       </c>
       <c r="AS1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:45">
+      <c r="AT1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>315</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>316</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>317</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>318</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>319</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>320</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>321</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>322</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>323</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>324</v>
-      </c>
-      <c r="O2" t="s">
-        <v>323</v>
       </c>
       <c r="P2" t="s">
         <v>323</v>
@@ -11200,55 +11207,55 @@
         <v>323</v>
       </c>
       <c r="S2" t="s">
+        <v>323</v>
+      </c>
+      <c r="T2" t="s">
         <v>31</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>323</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>325</v>
-      </c>
-      <c r="V2" t="s">
-        <v>316</v>
       </c>
       <c r="W2" t="s">
         <v>316</v>
       </c>
       <c r="X2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="Y2" t="s">
         <v>326</v>
       </c>
       <c r="Z2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA2" t="s">
         <v>327</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>328</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>329</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>330</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>331</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>31</v>
       </c>
       <c r="AF2" t="s">
         <v>31</v>
       </c>
       <c r="AG2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" t="s">
         <v>332</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>333</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>31</v>
       </c>
       <c r="AJ2" t="s">
         <v>31</v>
@@ -11257,31 +11264,34 @@
         <v>31</v>
       </c>
       <c r="AL2" t="s">
-        <v>334</v>
+        <v>31</v>
       </c>
       <c r="AM2" t="s">
         <v>334</v>
       </c>
       <c r="AN2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AO2" t="s">
         <v>324</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>335</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>336</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>31</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>337</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="3" ht="72.5" spans="1:45">
+    <row ht="72.5" r="3" spans="1:46">
       <c r="A3" s="2" t="s">
         <v>339</v>
       </c>
@@ -11292,133 +11302,136 @@
         <v>341</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="L3" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="M3" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="Q3" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="R3" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="S3" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="T3" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="U3" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="V3" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="W3" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="X3" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="Y3" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Z3" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="AA3" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AB3" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AC3" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="AC3" s="17" t="s">
+      <c r="AD3" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="AD3" s="17" t="s">
+      <c r="AE3" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="AE3" s="17" t="s">
+      <c r="AF3" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="AF3" s="17" t="s">
+      <c r="AG3" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="AG3" s="17" t="s">
+      <c r="AH3" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="AH3" s="17" t="s">
+      <c r="AI3" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="AI3" s="17" t="s">
+      <c r="AJ3" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="AJ3" s="17" t="s">
+      <c r="AK3" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="AK3" s="17" t="s">
+      <c r="AL3" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="AL3" s="17" t="s">
+      <c r="AM3" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="AM3" s="17" t="s">
+      <c r="AN3" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="AN3" s="17" t="s">
+      <c r="AO3" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="AO3" s="17" t="s">
+      <c r="AP3" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="AP3" s="17" t="s">
+      <c r="AQ3" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="AQ3" s="17" t="s">
+      <c r="AR3" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="AR3" s="17" t="s">
+      <c r="AS3" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="AS3" s="17" t="s">
+      <c r="AT3" s="17" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:46">
       <c r="A4" s="18" t="s">
         <v>83</v>
       </c>
@@ -11439,95 +11452,95 @@
         <v>0</v>
       </c>
       <c r="F4" s="17">
-        <f t="shared" ref="F4:AA4" si="0">COUNTIFS($A9:$A46,"*$*",F9:F46,"")</f>
+        <f>COUNTIFS($A9:$A46,"*$*",F9:F46,"")</f>
         <v>0</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" si="0"/>
+        <f ref="G4:AB4" si="0" t="shared">COUNTIFS($A9:$A46,"*$*",G9:G46,"")</f>
         <v>0</v>
       </c>
       <c r="H4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="P4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="R4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="S4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="T4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="U4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="V4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="W4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="X4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Y4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Z4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA4" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AB4" s="17">
-        <f>COUNTIFS($A9:$A46,"*$*",AB9:AB46,"")</f>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AC4" s="17">
@@ -11551,85 +11564,89 @@
         <v>0</v>
       </c>
       <c r="AH4" s="17">
-        <f t="shared" ref="AH4:AQ4" si="1">COUNTIFS($A9:$A46,"*$*",AH9:AH46,"")</f>
+        <f>COUNTIFS($A9:$A46,"*$*",AH9:AH46,"")</f>
         <v>0</v>
       </c>
       <c r="AI4" s="17">
-        <f t="shared" si="1"/>
+        <f ref="AI4:AR4" si="1" t="shared">COUNTIFS($A9:$A46,"*$*",AI9:AI46,"")</f>
         <v>0</v>
       </c>
       <c r="AJ4" s="17">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AK4" s="17">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AL4" s="17">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AM4" s="17">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AN4" s="17">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AO4" s="17">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AP4" s="17">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AQ4" s="17">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AR4" s="17">
-        <f>COUNTIFS($A9:$A46,"*$*",AR9:AR46,"")</f>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AS4" s="17">
         <f>COUNTIFS($A9:$A46,"*$*",AS9:AS46,"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:45">
+      <c r="AT4" s="17">
+        <f>COUNTIFS($A9:$A46,"*$*",AT9:AT46,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
       <c r="A5" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5"/>
+      <c r="C5" t="s">
         <v>385</v>
       </c>
-      <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
-      <c r="F5" t="s">
+      <c r="F5"/>
+      <c r="G5" t="s">
         <v>386</v>
       </c>
-      <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5" t="s">
+      <c r="L5"/>
+      <c r="M5" t="s">
         <v>387</v>
       </c>
-      <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
-      <c r="S5" t="s">
+      <c r="S5"/>
+      <c r="T5" t="s">
         <v>388</v>
       </c>
-      <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
@@ -11640,82 +11657,81 @@
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
-      <c r="AE5" t="s">
+      <c r="AE5"/>
+      <c r="AF5" t="s">
         <v>389</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>390</v>
       </c>
-      <c r="AG5"/>
-      <c r="AH5" t="s">
+      <c r="AH5"/>
+      <c r="AI5" t="s">
         <v>391</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>392</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>393</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>394</v>
       </c>
-      <c r="AL5"/>
       <c r="AM5"/>
       <c r="AN5"/>
       <c r="AO5"/>
       <c r="AP5"/>
-      <c r="AQ5" t="s">
+      <c r="AQ5"/>
+      <c r="AR5" t="s">
         <v>395</v>
       </c>
-      <c r="AR5"/>
       <c r="AS5"/>
-    </row>
-    <row r="6" spans="1:45">
+      <c r="AT5"/>
+    </row>
+    <row r="6" spans="1:46">
       <c r="A6" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6"/>
+      <c r="C6" t="s">
         <v>397</v>
       </c>
-      <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
-      <c r="F6" t="s">
+      <c r="F6"/>
+      <c r="G6" t="s">
         <v>398</v>
       </c>
-      <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6" t="s">
+      <c r="L6"/>
+      <c r="M6" t="s">
         <v>398</v>
       </c>
-      <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
-      <c r="S6" t="s">
+      <c r="S6"/>
+      <c r="T6" t="s">
         <v>398</v>
       </c>
-      <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
-      <c r="X6" t="s">
+      <c r="X6"/>
+      <c r="Y6" t="s">
         <v>398</v>
       </c>
-      <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
       <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
-      <c r="AE6" t="s">
-        <v>398</v>
-      </c>
+      <c r="AE6"/>
       <c r="AF6" t="s">
         <v>398</v>
       </c>
@@ -11734,15 +11750,15 @@
       <c r="AK6" t="s">
         <v>398</v>
       </c>
-      <c r="AL6"/>
-      <c r="AM6" t="s">
+      <c r="AL6" t="s">
         <v>398</v>
       </c>
-      <c r="AN6"/>
+      <c r="AM6"/>
+      <c r="AN6" t="s">
+        <v>398</v>
+      </c>
       <c r="AO6"/>
-      <c r="AP6" t="s">
-        <v>398</v>
-      </c>
+      <c r="AP6"/>
       <c r="AQ6" t="s">
         <v>398</v>
       </c>
@@ -11752,8 +11768,11 @@
       <c r="AS6" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="7" spans="1:45">
+      <c r="AT6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46">
       <c r="A7" s="9"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -11799,8 +11818,9 @@
       <c r="AQ7" s="8"/>
       <c r="AR7" s="8"/>
       <c r="AS7" s="8"/>
-    </row>
-    <row r="8" spans="1:45">
+      <c r="AT7" s="8"/>
+    </row>
+    <row r="8" spans="1:46">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -11846,8 +11866,9 @@
       <c r="AQ8" s="20"/>
       <c r="AR8" s="20"/>
       <c r="AS8" s="20"/>
-    </row>
-    <row r="9" spans="1:45">
+      <c r="AT8" s="20"/>
+    </row>
+    <row r="9" spans="1:46">
       <c r="A9" s="21" t="s">
         <v>399</v>
       </c>
@@ -11960,19 +11981,19 @@
         <v>400</v>
       </c>
       <c r="AL9" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="AM9" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="AM9" s="21" t="s">
+      <c r="AN9" s="21" t="s">
         <v>400</v>
-      </c>
-      <c r="AN9" s="21" t="s">
-        <v>401</v>
       </c>
       <c r="AO9" s="21" t="s">
         <v>401</v>
       </c>
       <c r="AP9" s="21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AQ9" s="21" t="s">
         <v>400</v>
@@ -11983,8 +12004,11 @@
       <c r="AS9" s="21" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:45">
+      <c r="AT9" s="21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
       <c r="A10" s="22" t="s">
         <v>402</v>
       </c>
@@ -12018,9 +12042,9 @@
       <c r="AC10" s="23"/>
       <c r="AD10" s="23"/>
       <c r="AE10" s="23"/>
-      <c r="AF10" s="32"/>
+      <c r="AF10" s="23"/>
       <c r="AG10" s="32"/>
-      <c r="AH10" s="23"/>
+      <c r="AH10" s="32"/>
       <c r="AI10" s="23"/>
       <c r="AJ10" s="23"/>
       <c r="AK10" s="23"/>
@@ -12032,8 +12056,9 @@
       <c r="AQ10" s="23"/>
       <c r="AR10" s="23"/>
       <c r="AS10" s="23"/>
-    </row>
-    <row r="11" spans="1:45">
+      <c r="AT10" s="23"/>
+    </row>
+    <row r="11" spans="1:46">
       <c r="A11" s="21" t="s">
         <v>403</v>
       </c>
@@ -12041,141 +12066,144 @@
         <v>404</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>405</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="V11" s="21" t="s">
         <v>404</v>
       </c>
       <c r="W11" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="X11" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y11" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z11" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="X11" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y11" s="21" t="s">
+      <c r="AA11" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB11" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC11" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD11" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="AE11" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF11" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG11" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="Z11" s="21" t="s">
+      <c r="AH11" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="AA11" s="21" t="s">
+      <c r="AI11" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="AB11" s="21" t="s">
+      <c r="AJ11" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="AC11" s="21" t="s">
+      <c r="AK11" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="AD11" s="21" t="s">
+      <c r="AL11" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="AM11" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="AN11" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="AO11" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="AP11" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="AQ11" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="AR11" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="AE11" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="AF11" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="AG11" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="AH11" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="AI11" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="AJ11" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="AK11" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="AL11" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="AM11" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="AN11" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="AO11" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="AP11" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="AQ11" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="AR11" s="21" t="s">
-        <v>404</v>
-      </c>
       <c r="AS11" s="21" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
+        <v>405</v>
+      </c>
+      <c r="AT11" s="21" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46">
       <c r="A12" s="21" t="s">
         <v>413</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>414</v>
+        <v>91</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>414</v>
@@ -12202,10 +12230,10 @@
         <v>414</v>
       </c>
       <c r="K12" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="L12" s="24" t="s">
         <v>415</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>91</v>
       </c>
       <c r="M12" s="24" t="s">
         <v>91</v>
@@ -12235,13 +12263,13 @@
         <v>91</v>
       </c>
       <c r="V12" s="24" t="s">
-        <v>414</v>
+        <v>91</v>
       </c>
       <c r="W12" s="24" t="s">
         <v>414</v>
       </c>
       <c r="X12" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="Y12" s="24" t="s">
         <v>416</v>
@@ -12262,10 +12290,10 @@
         <v>416</v>
       </c>
       <c r="AE12" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="AF12" s="24" t="s">
         <v>91</v>
-      </c>
-      <c r="AF12" s="24" t="s">
-        <v>414</v>
       </c>
       <c r="AG12" s="24" t="s">
         <v>414</v>
@@ -12277,25 +12305,25 @@
         <v>414</v>
       </c>
       <c r="AJ12" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="AK12" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="AK12" s="24" t="s">
+      <c r="AL12" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="AL12" s="24" t="s">
+      <c r="AM12" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="AM12" s="24" t="s">
+      <c r="AN12" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="AN12" s="24" t="s">
+      <c r="AO12" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="AO12" s="24" t="s">
+      <c r="AP12" s="24" t="s">
         <v>418</v>
-      </c>
-      <c r="AP12" s="24" t="s">
-        <v>414</v>
       </c>
       <c r="AQ12" s="24" t="s">
         <v>414</v>
@@ -12306,8 +12334,11 @@
       <c r="AS12" s="24" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="13" spans="1:45">
+      <c r="AT12" s="24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46">
       <c r="A13" s="21" t="s">
         <v>419</v>
       </c>
@@ -12369,73 +12400,73 @@
         <v>438</v>
       </c>
       <c r="U13" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="V13" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="V13" s="21" t="s">
+      <c r="W13" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="W13" s="21" t="s">
+      <c r="X13" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="X13" s="21" t="s">
+      <c r="Y13" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="Y13" s="21" t="s">
+      <c r="Z13" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="Z13" s="21" t="s">
+      <c r="AA13" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="AA13" s="21" t="s">
+      <c r="AB13" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="AB13" s="21" t="s">
+      <c r="AC13" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="AC13" s="21" t="s">
+      <c r="AD13" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="AD13" s="21" t="s">
+      <c r="AE13" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="AE13" s="21" t="s">
+      <c r="AF13" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="AF13" s="21" t="s">
+      <c r="AG13" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="AG13" s="21" t="s">
+      <c r="AH13" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="AH13" s="21" t="s">
+      <c r="AI13" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="AI13" s="21" t="s">
+      <c r="AJ13" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="AJ13" s="21" t="s">
+      <c r="AK13" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="AK13" s="21" t="s">
+      <c r="AL13" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="AL13" s="21" t="s">
+      <c r="AM13" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="AM13" s="21" t="s">
+      <c r="AN13" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="AN13" s="21" t="s">
+      <c r="AO13" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="AO13" s="21" t="s">
+      <c r="AP13" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="AP13" s="21" t="s">
+      <c r="AQ13" s="21" t="s">
         <v>460</v>
-      </c>
-      <c r="AQ13" s="21" t="s">
-        <v>461</v>
       </c>
       <c r="AR13" s="21" t="s">
         <v>461</v>
@@ -12443,8 +12474,11 @@
       <c r="AS13" s="21" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="14" spans="1:45">
+      <c r="AT13" s="21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46">
       <c r="A14" s="21" t="s">
         <v>462</v>
       </c>
@@ -12536,10 +12570,10 @@
         <v>463</v>
       </c>
       <c r="AE14" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="AF14" s="21" t="s">
         <v>464</v>
-      </c>
-      <c r="AF14" s="21" t="s">
-        <v>463</v>
       </c>
       <c r="AG14" s="21" t="s">
         <v>463</v>
@@ -12551,25 +12585,25 @@
         <v>463</v>
       </c>
       <c r="AJ14" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="AK14" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="AK14" s="21" t="s">
+      <c r="AL14" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="AL14" s="21" t="s">
+      <c r="AM14" s="21" t="s">
         <v>467</v>
-      </c>
-      <c r="AM14" s="21" t="s">
-        <v>463</v>
       </c>
       <c r="AN14" s="21" t="s">
         <v>463</v>
       </c>
       <c r="AO14" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="AP14" s="21" t="s">
         <v>467</v>
-      </c>
-      <c r="AP14" s="21" t="s">
-        <v>463</v>
       </c>
       <c r="AQ14" s="21" t="s">
         <v>463</v>
@@ -12580,8 +12614,11 @@
       <c r="AS14" s="21" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="15" spans="1:45">
+      <c r="AT14" s="21" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46">
       <c r="A15" s="21" t="s">
         <v>468</v>
       </c>
@@ -12673,10 +12710,10 @@
         <v>469</v>
       </c>
       <c r="AE15" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="AF15" s="21" t="s">
         <v>470</v>
-      </c>
-      <c r="AF15" s="21" t="s">
-        <v>469</v>
       </c>
       <c r="AG15" s="21" t="s">
         <v>469</v>
@@ -12688,25 +12725,25 @@
         <v>469</v>
       </c>
       <c r="AJ15" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="AK15" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="AK15" s="21" t="s">
+      <c r="AL15" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="AL15" s="21" t="s">
+      <c r="AM15" s="21" t="s">
         <v>473</v>
-      </c>
-      <c r="AM15" s="21" t="s">
-        <v>469</v>
       </c>
       <c r="AN15" s="21" t="s">
         <v>469</v>
       </c>
       <c r="AO15" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP15" s="21" t="s">
         <v>473</v>
-      </c>
-      <c r="AP15" s="21" t="s">
-        <v>469</v>
       </c>
       <c r="AQ15" s="21" t="s">
         <v>469</v>
@@ -12717,8 +12754,11 @@
       <c r="AS15" s="21" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="16" spans="1:45">
+      <c r="AT15" s="21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46">
       <c r="A16" s="21" t="s">
         <v>474</v>
       </c>
@@ -12819,31 +12859,31 @@
         <v>475</v>
       </c>
       <c r="AH16" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="AI16" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="AI16" s="21" t="s">
+      <c r="AJ16" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="AJ16" s="21" t="s">
+      <c r="AK16" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="AK16" s="21" t="s">
+      <c r="AL16" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="AL16" s="21" t="s">
+      <c r="AM16" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="AM16" s="21" t="s">
-        <v>475</v>
       </c>
       <c r="AN16" s="21" t="s">
         <v>475</v>
       </c>
       <c r="AO16" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="AP16" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="AP16" s="21" t="s">
-        <v>475</v>
       </c>
       <c r="AQ16" s="21" t="s">
         <v>475</v>
@@ -12854,8 +12894,11 @@
       <c r="AS16" s="21" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="17" spans="1:45">
+      <c r="AT16" s="21" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46">
       <c r="A17" s="21" t="s">
         <v>480</v>
       </c>
@@ -12956,31 +12999,31 @@
         <v>481</v>
       </c>
       <c r="AH17" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="AI17" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="AI17" s="21" t="s">
+      <c r="AJ17" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="AJ17" s="21" t="s">
+      <c r="AK17" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="AK17" s="21" t="s">
+      <c r="AL17" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="AL17" s="21" t="s">
+      <c r="AM17" s="21" t="s">
         <v>484</v>
-      </c>
-      <c r="AM17" s="21" t="s">
-        <v>481</v>
       </c>
       <c r="AN17" s="21" t="s">
         <v>481</v>
       </c>
       <c r="AO17" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="AP17" s="21" t="s">
         <v>484</v>
-      </c>
-      <c r="AP17" s="21" t="s">
-        <v>481</v>
       </c>
       <c r="AQ17" s="21" t="s">
         <v>481</v>
@@ -12991,8 +13034,11 @@
       <c r="AS17" s="21" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="18" spans="1:45">
+      <c r="AT17" s="21" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46">
       <c r="A18" s="21" t="s">
         <v>485</v>
       </c>
@@ -13096,28 +13142,28 @@
         <v>486</v>
       </c>
       <c r="AI18" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="AJ18" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="AJ18" s="21" t="s">
+      <c r="AK18" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="AK18" s="21" t="s">
+      <c r="AL18" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="AL18" s="21" t="s">
+      <c r="AM18" s="21" t="s">
         <v>489</v>
-      </c>
-      <c r="AM18" s="21" t="s">
-        <v>486</v>
       </c>
       <c r="AN18" s="21" t="s">
         <v>486</v>
       </c>
       <c r="AO18" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="AP18" s="21" t="s">
         <v>489</v>
-      </c>
-      <c r="AP18" s="21" t="s">
-        <v>486</v>
       </c>
       <c r="AQ18" s="21" t="s">
         <v>486</v>
@@ -13128,8 +13174,11 @@
       <c r="AS18" s="21" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="19" spans="1:45">
+      <c r="AT18" s="21" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46">
       <c r="A19" s="21" t="s">
         <v>490</v>
       </c>
@@ -13233,28 +13282,28 @@
         <v>491</v>
       </c>
       <c r="AI19" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="AJ19" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="AJ19" s="21" t="s">
+      <c r="AK19" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="AK19" s="21" t="s">
+      <c r="AL19" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="AL19" s="21" t="s">
+      <c r="AM19" s="21" t="s">
         <v>493</v>
-      </c>
-      <c r="AM19" s="21" t="s">
-        <v>491</v>
       </c>
       <c r="AN19" s="21" t="s">
         <v>491</v>
       </c>
       <c r="AO19" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="AP19" s="21" t="s">
         <v>493</v>
-      </c>
-      <c r="AP19" s="21" t="s">
-        <v>491</v>
       </c>
       <c r="AQ19" s="21" t="s">
         <v>491</v>
@@ -13265,8 +13314,11 @@
       <c r="AS19" s="21" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="20" spans="1:45">
+      <c r="AT19" s="21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46">
       <c r="A20" s="21" t="s">
         <v>494</v>
       </c>
@@ -13379,19 +13431,19 @@
         <v>495</v>
       </c>
       <c r="AL20" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="AM20" s="9" t="s">
         <v>496</v>
-      </c>
-      <c r="AM20" s="9" t="s">
-        <v>495</v>
       </c>
       <c r="AN20" s="9" t="s">
         <v>495</v>
       </c>
       <c r="AO20" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="AP20" s="9" t="s">
         <v>496</v>
-      </c>
-      <c r="AP20" s="9" t="s">
-        <v>495</v>
       </c>
       <c r="AQ20" s="9" t="s">
         <v>495</v>
@@ -13402,8 +13454,11 @@
       <c r="AS20" s="9" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="21" spans="1:45">
+      <c r="AT20" s="9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46">
       <c r="A21" s="25" t="s">
         <v>497</v>
       </c>
@@ -13451,14 +13506,13 @@
       <c r="AQ21" s="26"/>
       <c r="AR21" s="26"/>
       <c r="AS21" s="26"/>
-    </row>
-    <row r="22" spans="1:45">
+      <c r="AT21" s="26"/>
+    </row>
+    <row r="22" spans="1:46">
       <c r="A22" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>499</v>
-      </c>
+      <c r="B22" s="21"/>
       <c r="C22" s="21" t="s">
         <v>499</v>
       </c>
@@ -13502,19 +13556,19 @@
         <v>499</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="R22" s="21" t="s">
         <v>500</v>
       </c>
       <c r="S22" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="T22" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="T22" s="21" t="s">
+      <c r="U22" s="21" t="s">
         <v>500</v>
-      </c>
-      <c r="U22" s="21" t="s">
-        <v>499</v>
       </c>
       <c r="V22" s="21" t="s">
         <v>499</v>
@@ -13523,7 +13577,7 @@
         <v>499</v>
       </c>
       <c r="X22" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Y22" s="21" t="s">
         <v>501</v>
@@ -13544,7 +13598,7 @@
         <v>501</v>
       </c>
       <c r="AE22" s="21" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AF22" s="21" t="s">
         <v>499</v>
@@ -13565,19 +13619,19 @@
         <v>499</v>
       </c>
       <c r="AL22" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="AM22" s="21" t="s">
         <v>502</v>
-      </c>
-      <c r="AM22" s="21" t="s">
-        <v>499</v>
       </c>
       <c r="AN22" s="21" t="s">
         <v>499</v>
       </c>
       <c r="AO22" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="AP22" s="21" t="s">
         <v>502</v>
-      </c>
-      <c r="AP22" s="21" t="s">
-        <v>499</v>
       </c>
       <c r="AQ22" s="21" t="s">
         <v>499</v>
@@ -13588,14 +13642,15 @@
       <c r="AS22" s="21" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="23" spans="1:45">
+      <c r="AT22" s="21" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46">
       <c r="A23" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>504</v>
-      </c>
+      <c r="B23" s="21"/>
       <c r="C23" s="21" t="s">
         <v>504</v>
       </c>
@@ -13639,19 +13694,19 @@
         <v>504</v>
       </c>
       <c r="Q23" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="R23" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="R23" s="21" t="s">
+      <c r="S23" s="21" t="s">
         <v>504</v>
-      </c>
-      <c r="S23" s="21" t="s">
-        <v>417</v>
       </c>
       <c r="T23" s="21" t="s">
         <v>417</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>504</v>
+        <v>417</v>
       </c>
       <c r="V23" s="21" t="s">
         <v>504</v>
@@ -13660,7 +13715,7 @@
         <v>504</v>
       </c>
       <c r="X23" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Y23" s="21" t="s">
         <v>505</v>
@@ -13681,7 +13736,7 @@
         <v>505</v>
       </c>
       <c r="AE23" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF23" s="21" t="s">
         <v>504</v>
@@ -13702,19 +13757,19 @@
         <v>504</v>
       </c>
       <c r="AL23" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="AM23" s="21" t="s">
         <v>506</v>
-      </c>
-      <c r="AM23" s="21" t="s">
-        <v>504</v>
       </c>
       <c r="AN23" s="21" t="s">
         <v>504</v>
       </c>
       <c r="AO23" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="AP23" s="21" t="s">
         <v>506</v>
-      </c>
-      <c r="AP23" s="21" t="s">
-        <v>504</v>
       </c>
       <c r="AQ23" s="21" t="s">
         <v>504</v>
@@ -13725,14 +13780,15 @@
       <c r="AS23" s="21" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="24" spans="1:45">
+      <c r="AT23" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46">
       <c r="A24" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>508</v>
-      </c>
+      <c r="B24" s="21"/>
       <c r="C24" s="21" t="s">
         <v>508</v>
       </c>
@@ -13776,19 +13832,19 @@
         <v>508</v>
       </c>
       <c r="Q24" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="R24" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="R24" s="21" t="s">
+      <c r="S24" s="21" t="s">
         <v>508</v>
-      </c>
-      <c r="S24" s="21" t="s">
-        <v>417</v>
       </c>
       <c r="T24" s="21" t="s">
         <v>417</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>508</v>
+        <v>417</v>
       </c>
       <c r="V24" s="21" t="s">
         <v>508</v>
@@ -13797,7 +13853,7 @@
         <v>508</v>
       </c>
       <c r="X24" s="21" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y24" s="21" t="s">
         <v>509</v>
@@ -13818,7 +13874,7 @@
         <v>509</v>
       </c>
       <c r="AE24" s="21" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF24" s="21" t="s">
         <v>508</v>
@@ -13839,19 +13895,19 @@
         <v>508</v>
       </c>
       <c r="AL24" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="AM24" s="21" t="s">
         <v>510</v>
-      </c>
-      <c r="AM24" s="21" t="s">
-        <v>508</v>
       </c>
       <c r="AN24" s="21" t="s">
         <v>508</v>
       </c>
       <c r="AO24" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="AP24" s="21" t="s">
         <v>510</v>
-      </c>
-      <c r="AP24" s="21" t="s">
-        <v>508</v>
       </c>
       <c r="AQ24" s="21" t="s">
         <v>508</v>
@@ -13862,14 +13918,15 @@
       <c r="AS24" s="21" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="25" spans="1:45">
+      <c r="AT24" s="21" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46">
       <c r="A25" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>512</v>
-      </c>
+      <c r="B25" s="21"/>
       <c r="C25" s="21" t="s">
         <v>512</v>
       </c>
@@ -13913,19 +13970,19 @@
         <v>512</v>
       </c>
       <c r="Q25" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="R25" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="R25" s="21" t="s">
+      <c r="S25" s="21" t="s">
         <v>512</v>
-      </c>
-      <c r="S25" s="21" t="s">
-        <v>417</v>
       </c>
       <c r="T25" s="21" t="s">
         <v>417</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>512</v>
+        <v>417</v>
       </c>
       <c r="V25" s="21" t="s">
         <v>512</v>
@@ -13934,7 +13991,7 @@
         <v>512</v>
       </c>
       <c r="X25" s="21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y25" s="21" t="s">
         <v>513</v>
@@ -13955,7 +14012,7 @@
         <v>513</v>
       </c>
       <c r="AE25" s="21" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AF25" s="21" t="s">
         <v>512</v>
@@ -13976,19 +14033,19 @@
         <v>512</v>
       </c>
       <c r="AL25" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="AM25" s="21" t="s">
         <v>514</v>
-      </c>
-      <c r="AM25" s="21" t="s">
-        <v>512</v>
       </c>
       <c r="AN25" s="21" t="s">
         <v>512</v>
       </c>
       <c r="AO25" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="AP25" s="21" t="s">
         <v>514</v>
-      </c>
-      <c r="AP25" s="21" t="s">
-        <v>512</v>
       </c>
       <c r="AQ25" s="21" t="s">
         <v>512</v>
@@ -13999,14 +14056,15 @@
       <c r="AS25" s="21" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="26" spans="1:45">
+      <c r="AT25" s="21" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46">
       <c r="A26" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>516</v>
-      </c>
+      <c r="B26" s="21"/>
       <c r="C26" s="21" t="s">
         <v>516</v>
       </c>
@@ -14050,19 +14108,19 @@
         <v>516</v>
       </c>
       <c r="Q26" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="R26" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="R26" s="21" t="s">
+      <c r="S26" s="21" t="s">
         <v>516</v>
-      </c>
-      <c r="S26" s="21" t="s">
-        <v>417</v>
       </c>
       <c r="T26" s="21" t="s">
         <v>417</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>516</v>
+        <v>417</v>
       </c>
       <c r="V26" s="21" t="s">
         <v>516</v>
@@ -14071,7 +14129,7 @@
         <v>516</v>
       </c>
       <c r="X26" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Y26" s="21" t="s">
         <v>517</v>
@@ -14092,7 +14150,7 @@
         <v>517</v>
       </c>
       <c r="AE26" s="21" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF26" s="21" t="s">
         <v>516</v>
@@ -14113,19 +14171,19 @@
         <v>516</v>
       </c>
       <c r="AL26" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM26" s="21" t="s">
         <v>518</v>
-      </c>
-      <c r="AM26" s="21" t="s">
-        <v>516</v>
       </c>
       <c r="AN26" s="21" t="s">
         <v>516</v>
       </c>
       <c r="AO26" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="AP26" s="21" t="s">
         <v>518</v>
-      </c>
-      <c r="AP26" s="21" t="s">
-        <v>516</v>
       </c>
       <c r="AQ26" s="21" t="s">
         <v>516</v>
@@ -14136,8 +14194,11 @@
       <c r="AS26" s="21" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="27" spans="1:45">
+      <c r="AT26" s="21" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46">
       <c r="A27" s="22" t="s">
         <v>519</v>
       </c>
@@ -14171,9 +14232,9 @@
       <c r="AC27" s="27"/>
       <c r="AD27" s="27"/>
       <c r="AE27" s="27"/>
-      <c r="AF27" s="33"/>
+      <c r="AF27" s="27"/>
       <c r="AG27" s="33"/>
-      <c r="AH27" s="27"/>
+      <c r="AH27" s="33"/>
       <c r="AI27" s="27"/>
       <c r="AJ27" s="27"/>
       <c r="AK27" s="27"/>
@@ -14185,8 +14246,9 @@
       <c r="AQ27" s="27"/>
       <c r="AR27" s="27"/>
       <c r="AS27" s="27"/>
-    </row>
-    <row r="28" spans="1:45">
+      <c r="AT27" s="27"/>
+    </row>
+    <row r="28" spans="1:46">
       <c r="A28" s="21" t="s">
         <v>520</v>
       </c>
@@ -14197,55 +14259,55 @@
         <v>522</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Q28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="U28" s="21" t="s">
         <v>521</v>
@@ -14254,16 +14316,16 @@
         <v>522</v>
       </c>
       <c r="W28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="X28" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y28" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="Y28" s="21" t="s">
+      <c r="Z28" s="21" t="s">
         <v>524</v>
-      </c>
-      <c r="Z28" s="21" t="s">
-        <v>523</v>
       </c>
       <c r="AA28" s="21" t="s">
         <v>523</v>
@@ -14275,55 +14337,58 @@
         <v>523</v>
       </c>
       <c r="AD28" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="AE28" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="AE28" s="21" t="s">
-        <v>522</v>
-      </c>
       <c r="AF28" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="AG28" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="AG28" s="21" t="s">
+      <c r="AH28" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="AH28" s="21" t="s">
-        <v>522</v>
-      </c>
       <c r="AI28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AJ28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AK28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AL28" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="AM28" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="AM28" s="21" t="s">
-        <v>522</v>
-      </c>
       <c r="AN28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AO28" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="AP28" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="AP28" s="21" t="s">
-        <v>522</v>
-      </c>
       <c r="AQ28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AR28" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AS28" s="21" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45">
+        <v>521</v>
+      </c>
+      <c r="AT28" s="21" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46">
       <c r="A29" s="21" t="s">
         <v>527</v>
       </c>
@@ -14394,7 +14459,7 @@
         <v>528</v>
       </c>
       <c r="X29" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y29" s="21" t="s">
         <v>529</v>
@@ -14415,16 +14480,16 @@
         <v>529</v>
       </c>
       <c r="AE29" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="AF29" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="AF29" s="21" t="s">
+      <c r="AG29" s="21" t="s">
         <v>530</v>
       </c>
-      <c r="AG29" s="21" t="s">
+      <c r="AH29" s="21" t="s">
         <v>531</v>
-      </c>
-      <c r="AH29" s="21" t="s">
-        <v>528</v>
       </c>
       <c r="AI29" s="21" t="s">
         <v>528</v>
@@ -14436,19 +14501,19 @@
         <v>528</v>
       </c>
       <c r="AL29" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="AM29" s="21" t="s">
         <v>532</v>
-      </c>
-      <c r="AM29" s="21" t="s">
-        <v>528</v>
       </c>
       <c r="AN29" s="21" t="s">
         <v>528</v>
       </c>
       <c r="AO29" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="AP29" s="21" t="s">
         <v>533</v>
-      </c>
-      <c r="AP29" s="21" t="s">
-        <v>528</v>
       </c>
       <c r="AQ29" s="21" t="s">
         <v>528</v>
@@ -14459,8 +14524,11 @@
       <c r="AS29" s="21" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="30" spans="1:45">
+      <c r="AT29" s="21" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46">
       <c r="A30" s="21" t="s">
         <v>534</v>
       </c>
@@ -14471,67 +14539,67 @@
         <v>536</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G30" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="H30" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="I30" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="J30" s="21" t="s">
         <v>539</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>540</v>
       </c>
       <c r="K30" s="21" t="s">
         <v>540</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="M30" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N30" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P30" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q30" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="R30" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S30" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T30" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U30" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="V30" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W30" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="X30" s="21" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="Y30" s="21" t="s">
         <v>541</v>
@@ -14543,49 +14611,49 @@
         <v>541</v>
       </c>
       <c r="AB30" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="AC30" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="AC30" s="21" t="s">
+      <c r="AD30" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="AD30" s="21" t="s">
+      <c r="AE30" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="AE30" s="21" t="s">
-        <v>536</v>
-      </c>
       <c r="AF30" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="AG30" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="AG30" s="21" t="s">
+      <c r="AH30" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="AH30" s="21" t="s">
-        <v>536</v>
-      </c>
       <c r="AI30" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AJ30" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AK30" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AL30" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="AM30" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="AM30" s="21" t="s">
-        <v>536</v>
-      </c>
       <c r="AN30" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AO30" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="AP30" s="21" t="s">
         <v>545</v>
-      </c>
-      <c r="AP30" s="21" t="s">
-        <v>546</v>
       </c>
       <c r="AQ30" s="21" t="s">
         <v>546</v>
@@ -14596,8 +14664,11 @@
       <c r="AS30" s="21" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="31" spans="1:45">
+      <c r="AT30" s="21" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46">
       <c r="A31" s="21" t="s">
         <v>547</v>
       </c>
@@ -14608,67 +14679,67 @@
         <v>549</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G31" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="H31" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="I31" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="J31" s="21" t="s">
         <v>552</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>553</v>
       </c>
       <c r="K31" s="21" t="s">
         <v>553</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P31" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q31" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="R31" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S31" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="T31" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="U31" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V31" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="W31" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="X31" s="21" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="Y31" s="21" t="s">
         <v>554</v>
@@ -14677,10 +14748,10 @@
         <v>554</v>
       </c>
       <c r="AA31" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="AB31" s="21" t="s">
         <v>555</v>
-      </c>
-      <c r="AB31" s="21" t="s">
-        <v>554</v>
       </c>
       <c r="AC31" s="21" t="s">
         <v>554</v>
@@ -14689,52 +14760,55 @@
         <v>554</v>
       </c>
       <c r="AE31" s="21" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="AF31" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="AG31" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="AG31" s="21" t="s">
+      <c r="AH31" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="AH31" s="21" t="s">
-        <v>549</v>
-      </c>
       <c r="AI31" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AJ31" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AK31" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AL31" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="AM31" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="AM31" s="21" t="s">
-        <v>549</v>
-      </c>
       <c r="AN31" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AO31" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="AP31" s="21" t="s">
         <v>558</v>
-      </c>
-      <c r="AP31" s="21" t="s">
-        <v>559</v>
       </c>
       <c r="AQ31" s="21" t="s">
         <v>559</v>
       </c>
       <c r="AR31" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="AS31" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="AS31" s="21" t="s">
+      <c r="AT31" s="21" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:46">
       <c r="A32" s="21" t="s">
         <v>562</v>
       </c>
@@ -14745,76 +14819,76 @@
         <v>564</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G32" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="H32" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="I32" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="I32" s="28" t="s">
+      <c r="J32" s="28" t="s">
         <v>567</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>568</v>
       </c>
       <c r="K32" s="28" t="s">
         <v>568</v>
       </c>
       <c r="L32" s="28" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="M32" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N32" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="O32" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="P32" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="Q32" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="R32" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="S32" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="T32" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U32" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="V32" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="W32" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="X32" s="28" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="Y32" s="28" t="s">
         <v>569</v>
       </c>
       <c r="Z32" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="AA32" s="28" t="s">
         <v>570</v>
-      </c>
-      <c r="AA32" s="28" t="s">
-        <v>569</v>
       </c>
       <c r="AB32" s="28" t="s">
         <v>569</v>
@@ -14823,46 +14897,46 @@
         <v>569</v>
       </c>
       <c r="AD32" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="AE32" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="AE32" s="28" t="s">
-        <v>564</v>
-      </c>
       <c r="AF32" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="AG32" s="28" t="s">
         <v>572</v>
       </c>
-      <c r="AG32" s="28" t="s">
+      <c r="AH32" s="28" t="s">
         <v>573</v>
       </c>
-      <c r="AH32" s="28" t="s">
-        <v>564</v>
-      </c>
       <c r="AI32" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AJ32" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AK32" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AL32" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="AM32" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="AM32" s="28" t="s">
-        <v>564</v>
-      </c>
       <c r="AN32" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AO32" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="AP32" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="AP32" s="28" t="s">
+      <c r="AQ32" s="28" t="s">
         <v>575</v>
-      </c>
-      <c r="AQ32" s="28" t="s">
-        <v>576</v>
       </c>
       <c r="AR32" s="28" t="s">
         <v>576</v>
@@ -14870,8 +14944,11 @@
       <c r="AS32" s="28" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="33" spans="1:45">
+      <c r="AT32" s="28" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46">
       <c r="A33" s="25" t="s">
         <v>577</v>
       </c>
@@ -14919,14 +14996,13 @@
       <c r="AQ33" s="29"/>
       <c r="AR33" s="29"/>
       <c r="AS33" s="29"/>
-    </row>
-    <row r="34" spans="1:45">
+      <c r="AT33" s="29"/>
+    </row>
+    <row r="34" spans="1:46">
       <c r="A34" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>578</v>
-      </c>
+      <c r="B34" s="21"/>
       <c r="C34" s="21" t="s">
         <v>578</v>
       </c>
@@ -14958,19 +15034,19 @@
         <v>578</v>
       </c>
       <c r="M34" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="N34" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="N34" s="21" t="s">
+      <c r="O34" s="21" t="s">
         <v>580</v>
-      </c>
-      <c r="O34" s="21" t="s">
-        <v>579</v>
       </c>
       <c r="P34" s="21" t="s">
         <v>579</v>
       </c>
       <c r="Q34" s="21" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="R34" s="21" t="s">
         <v>578</v>
@@ -14979,10 +15055,10 @@
         <v>578</v>
       </c>
       <c r="T34" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="U34" s="21" t="s">
         <v>579</v>
-      </c>
-      <c r="U34" s="21" t="s">
-        <v>578</v>
       </c>
       <c r="V34" s="21" t="s">
         <v>578</v>
@@ -14991,7 +15067,7 @@
         <v>578</v>
       </c>
       <c r="X34" s="21" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="Y34" s="21" t="s">
         <v>581</v>
@@ -15012,19 +15088,19 @@
         <v>581</v>
       </c>
       <c r="AE34" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="AF34" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="AF34" s="21" t="s">
+      <c r="AG34" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="AG34" s="21" t="s">
+      <c r="AH34" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="AH34" s="21" t="s">
+      <c r="AI34" s="21" t="s">
         <v>502</v>
-      </c>
-      <c r="AI34" s="21" t="s">
-        <v>578</v>
       </c>
       <c r="AJ34" s="21" t="s">
         <v>578</v>
@@ -15033,19 +15109,19 @@
         <v>578</v>
       </c>
       <c r="AL34" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="AM34" s="21" t="s">
         <v>584</v>
-      </c>
-      <c r="AM34" s="21" t="s">
-        <v>580</v>
       </c>
       <c r="AN34" s="21" t="s">
         <v>580</v>
       </c>
       <c r="AO34" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="AP34" s="21" t="s">
         <v>584</v>
-      </c>
-      <c r="AP34" s="21" t="s">
-        <v>578</v>
       </c>
       <c r="AQ34" s="21" t="s">
         <v>578</v>
@@ -15056,14 +15132,15 @@
       <c r="AS34" s="21" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="35" spans="1:45">
+      <c r="AT34" s="21" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46">
       <c r="A35" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>585</v>
-      </c>
+      <c r="B35" s="21"/>
       <c r="C35" s="21" t="s">
         <v>585</v>
       </c>
@@ -15095,19 +15172,19 @@
         <v>585</v>
       </c>
       <c r="M35" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="N35" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="N35" s="21" t="s">
+      <c r="O35" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="O35" s="21" t="s">
+      <c r="P35" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="P35" s="21" t="s">
+      <c r="Q35" s="21" t="s">
         <v>587</v>
-      </c>
-      <c r="Q35" s="21" t="s">
-        <v>586</v>
       </c>
       <c r="R35" s="21" t="s">
         <v>586</v>
@@ -15116,19 +15193,19 @@
         <v>586</v>
       </c>
       <c r="T35" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="U35" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="U35" s="21" t="s">
+      <c r="V35" s="21" t="s">
         <v>586</v>
-      </c>
-      <c r="V35" s="21" t="s">
-        <v>585</v>
       </c>
       <c r="W35" s="21" t="s">
         <v>585</v>
       </c>
       <c r="X35" s="21" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="Y35" s="21" t="s">
         <v>589</v>
@@ -15149,19 +15226,19 @@
         <v>589</v>
       </c>
       <c r="AE35" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="AF35" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="AF35" s="21" t="s">
+      <c r="AG35" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="AG35" s="21" t="s">
+      <c r="AH35" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="AH35" s="21" t="s">
+      <c r="AI35" s="21" t="s">
         <v>506</v>
-      </c>
-      <c r="AI35" s="21" t="s">
-        <v>585</v>
       </c>
       <c r="AJ35" s="21" t="s">
         <v>585</v>
@@ -15170,19 +15247,19 @@
         <v>585</v>
       </c>
       <c r="AL35" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="AM35" s="21" t="s">
         <v>592</v>
-      </c>
-      <c r="AM35" s="21" t="s">
-        <v>587</v>
       </c>
       <c r="AN35" s="21" t="s">
         <v>587</v>
       </c>
       <c r="AO35" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="AP35" s="21" t="s">
         <v>592</v>
-      </c>
-      <c r="AP35" s="21" t="s">
-        <v>585</v>
       </c>
       <c r="AQ35" s="21" t="s">
         <v>585</v>
@@ -15193,14 +15270,15 @@
       <c r="AS35" s="21" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="36" spans="1:45">
+      <c r="AT35" s="21" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46">
       <c r="A36" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>593</v>
-      </c>
+      <c r="B36" s="21"/>
       <c r="C36" s="21" t="s">
         <v>593</v>
       </c>
@@ -15232,19 +15310,19 @@
         <v>593</v>
       </c>
       <c r="M36" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="N36" s="21" t="s">
         <v>594</v>
       </c>
-      <c r="N36" s="21" t="s">
+      <c r="O36" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="O36" s="21" t="s">
+      <c r="P36" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="P36" s="21" t="s">
+      <c r="Q36" s="21" t="s">
         <v>587</v>
-      </c>
-      <c r="Q36" s="21" t="s">
-        <v>594</v>
       </c>
       <c r="R36" s="21" t="s">
         <v>594</v>
@@ -15253,19 +15331,19 @@
         <v>594</v>
       </c>
       <c r="T36" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="U36" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="U36" s="21" t="s">
+      <c r="V36" s="21" t="s">
         <v>594</v>
-      </c>
-      <c r="V36" s="21" t="s">
-        <v>593</v>
       </c>
       <c r="W36" s="21" t="s">
         <v>593</v>
       </c>
       <c r="X36" s="21" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="Y36" s="21" t="s">
         <v>596</v>
@@ -15286,19 +15364,19 @@
         <v>596</v>
       </c>
       <c r="AE36" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="AF36" s="21" t="s">
         <v>597</v>
       </c>
-      <c r="AF36" s="21" t="s">
+      <c r="AG36" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="AG36" s="21" t="s">
+      <c r="AH36" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="AH36" s="21" t="s">
+      <c r="AI36" s="21" t="s">
         <v>510</v>
-      </c>
-      <c r="AI36" s="21" t="s">
-        <v>593</v>
       </c>
       <c r="AJ36" s="21" t="s">
         <v>593</v>
@@ -15307,19 +15385,19 @@
         <v>593</v>
       </c>
       <c r="AL36" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM36" s="21" t="s">
         <v>599</v>
-      </c>
-      <c r="AM36" s="21" t="s">
-        <v>587</v>
       </c>
       <c r="AN36" s="21" t="s">
         <v>587</v>
       </c>
       <c r="AO36" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="AP36" s="21" t="s">
         <v>599</v>
-      </c>
-      <c r="AP36" s="21" t="s">
-        <v>593</v>
       </c>
       <c r="AQ36" s="21" t="s">
         <v>593</v>
@@ -15330,14 +15408,15 @@
       <c r="AS36" s="21" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="37" spans="1:45">
+      <c r="AT36" s="21" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46">
       <c r="A37" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>600</v>
-      </c>
+      <c r="B37" s="21"/>
       <c r="C37" s="21" t="s">
         <v>600</v>
       </c>
@@ -15369,19 +15448,19 @@
         <v>600</v>
       </c>
       <c r="M37" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="N37" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="N37" s="21" t="s">
+      <c r="O37" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="O37" s="21" t="s">
+      <c r="P37" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="P37" s="21" t="s">
+      <c r="Q37" s="21" t="s">
         <v>587</v>
-      </c>
-      <c r="Q37" s="21" t="s">
-        <v>601</v>
       </c>
       <c r="R37" s="21" t="s">
         <v>601</v>
@@ -15390,19 +15469,19 @@
         <v>601</v>
       </c>
       <c r="T37" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="U37" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="U37" s="21" t="s">
+      <c r="V37" s="21" t="s">
         <v>601</v>
-      </c>
-      <c r="V37" s="21" t="s">
-        <v>600</v>
       </c>
       <c r="W37" s="21" t="s">
         <v>600</v>
       </c>
       <c r="X37" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="Y37" s="21" t="s">
         <v>603</v>
@@ -15423,19 +15502,19 @@
         <v>603</v>
       </c>
       <c r="AE37" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="AF37" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="AF37" s="21" t="s">
+      <c r="AG37" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="AG37" s="21" t="s">
+      <c r="AH37" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="AH37" s="21" t="s">
+      <c r="AI37" s="21" t="s">
         <v>514</v>
-      </c>
-      <c r="AI37" s="21" t="s">
-        <v>600</v>
       </c>
       <c r="AJ37" s="21" t="s">
         <v>600</v>
@@ -15444,19 +15523,19 @@
         <v>600</v>
       </c>
       <c r="AL37" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="AM37" s="21" t="s">
         <v>606</v>
-      </c>
-      <c r="AM37" s="21" t="s">
-        <v>587</v>
       </c>
       <c r="AN37" s="21" t="s">
         <v>587</v>
       </c>
       <c r="AO37" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="AP37" s="21" t="s">
         <v>606</v>
-      </c>
-      <c r="AP37" s="21" t="s">
-        <v>600</v>
       </c>
       <c r="AQ37" s="21" t="s">
         <v>600</v>
@@ -15467,14 +15546,15 @@
       <c r="AS37" s="21" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="38" spans="1:45">
+      <c r="AT37" s="21" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46">
       <c r="A38" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>607</v>
-      </c>
+      <c r="B38" s="21"/>
       <c r="C38" s="21" t="s">
         <v>607</v>
       </c>
@@ -15506,19 +15586,19 @@
         <v>607</v>
       </c>
       <c r="M38" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="N38" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="N38" s="21" t="s">
+      <c r="O38" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="O38" s="21" t="s">
+      <c r="P38" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="P38" s="21" t="s">
+      <c r="Q38" s="21" t="s">
         <v>587</v>
-      </c>
-      <c r="Q38" s="21" t="s">
-        <v>608</v>
       </c>
       <c r="R38" s="21" t="s">
         <v>608</v>
@@ -15527,19 +15607,19 @@
         <v>608</v>
       </c>
       <c r="T38" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="U38" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="U38" s="21" t="s">
+      <c r="V38" s="21" t="s">
         <v>608</v>
-      </c>
-      <c r="V38" s="21" t="s">
-        <v>607</v>
       </c>
       <c r="W38" s="21" t="s">
         <v>607</v>
       </c>
       <c r="X38" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="Y38" s="21" t="s">
         <v>610</v>
@@ -15560,19 +15640,19 @@
         <v>610</v>
       </c>
       <c r="AE38" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="AF38" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="AF38" s="21" t="s">
+      <c r="AG38" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="AG38" s="21" t="s">
+      <c r="AH38" s="21" t="s">
         <v>612</v>
       </c>
-      <c r="AH38" s="21" t="s">
+      <c r="AI38" s="21" t="s">
         <v>518</v>
-      </c>
-      <c r="AI38" s="21" t="s">
-        <v>607</v>
       </c>
       <c r="AJ38" s="21" t="s">
         <v>607</v>
@@ -15581,19 +15661,19 @@
         <v>607</v>
       </c>
       <c r="AL38" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="AM38" s="21" t="s">
         <v>613</v>
-      </c>
-      <c r="AM38" s="21" t="s">
-        <v>587</v>
       </c>
       <c r="AN38" s="21" t="s">
         <v>587</v>
       </c>
       <c r="AO38" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="AP38" s="21" t="s">
         <v>613</v>
-      </c>
-      <c r="AP38" s="21" t="s">
-        <v>607</v>
       </c>
       <c r="AQ38" s="21" t="s">
         <v>607</v>
@@ -15604,8 +15684,11 @@
       <c r="AS38" s="21" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="39" spans="1:45">
+      <c r="AT38" s="21" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46">
       <c r="A39" s="25" t="s">
         <v>614</v>
       </c>
@@ -15653,8 +15736,9 @@
       <c r="AQ39" s="26"/>
       <c r="AR39" s="26"/>
       <c r="AS39" s="26"/>
-    </row>
-    <row r="40" spans="1:45">
+      <c r="AT39" s="26"/>
+    </row>
+    <row r="40" spans="1:46">
       <c r="A40" s="21" t="s">
         <v>85</v>
       </c>
@@ -15790,8 +15874,11 @@
       <c r="AS40" s="21" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="41" spans="1:45">
+      <c r="AT40" s="21" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46">
       <c r="A41" s="30" t="s">
         <v>168</v>
       </c>
@@ -15839,8 +15926,9 @@
       <c r="AQ41" s="30"/>
       <c r="AR41" s="30"/>
       <c r="AS41" s="30"/>
-    </row>
-    <row r="42" spans="1:45">
+      <c r="AT41" s="30"/>
+    </row>
+    <row r="42" spans="1:46">
       <c r="A42" s="10" t="s">
         <v>169</v>
       </c>
@@ -15851,11 +15939,11 @@
         <v>171</v>
       </c>
       <c r="D42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>171</v>
-      </c>
       <c r="F42" s="10" t="s">
         <v>171</v>
       </c>
@@ -15905,13 +15993,13 @@
         <v>171</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="W42" s="10" t="s">
         <v>170</v>
       </c>
       <c r="X42" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Y42" s="10" t="s">
         <v>171</v>
@@ -15956,7 +16044,7 @@
         <v>171</v>
       </c>
       <c r="AM42" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN42" s="10" t="s">
         <v>170</v>
@@ -15965,7 +16053,7 @@
         <v>170</v>
       </c>
       <c r="AP42" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AQ42" s="10" t="s">
         <v>171</v>
@@ -15976,17 +16064,20 @@
       <c r="AS42" s="10" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="43" spans="1:45">
+      <c r="AT42" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46">
       <c r="A43" s="10" t="s">
         <v>172</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -16003,10 +16094,10 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
-      <c r="V43" s="10" t="s">
+      <c r="V43" s="10"/>
+      <c r="W43" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="W43" s="10"/>
       <c r="X43" s="10"/>
       <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
@@ -16022,21 +16113,22 @@
       <c r="AJ43" s="10"/>
       <c r="AK43" s="10"/>
       <c r="AL43" s="10"/>
-      <c r="AM43" s="10" t="s">
-        <v>616</v>
-      </c>
+      <c r="AM43" s="10"/>
       <c r="AN43" s="10" t="s">
         <v>616</v>
       </c>
       <c r="AO43" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AP43" s="10"/>
+      <c r="AP43" s="10" t="s">
+        <v>616</v>
+      </c>
       <c r="AQ43" s="10"/>
       <c r="AR43" s="10"/>
       <c r="AS43" s="10"/>
-    </row>
-    <row r="44" spans="1:45">
+      <c r="AT43" s="10"/>
+    </row>
+    <row r="44" spans="1:46">
       <c r="A44" s="10" t="s">
         <v>174</v>
       </c>
@@ -16050,11 +16142,11 @@
         <v>171</v>
       </c>
       <c r="E44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>171</v>
-      </c>
       <c r="G44" s="10" t="s">
         <v>171</v>
       </c>
@@ -16152,7 +16244,7 @@
         <v>171</v>
       </c>
       <c r="AM44" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN44" s="10" t="s">
         <v>170</v>
@@ -16161,7 +16253,7 @@
         <v>170</v>
       </c>
       <c r="AP44" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AQ44" s="10" t="s">
         <v>171</v>
@@ -16172,8 +16264,11 @@
       <c r="AS44" s="10" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="45" spans="1:45">
+      <c r="AT44" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46">
       <c r="A45" s="10" t="s">
         <v>175</v>
       </c>
@@ -16214,33 +16309,34 @@
       <c r="AJ45" s="8"/>
       <c r="AK45" s="8"/>
       <c r="AL45" s="8"/>
-      <c r="AM45" s="8" t="s">
-        <v>617</v>
-      </c>
+      <c r="AM45" s="8"/>
       <c r="AN45" s="8" t="s">
         <v>617</v>
       </c>
       <c r="AO45" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="AP45" s="8"/>
+      <c r="AP45" s="8" t="s">
+        <v>617</v>
+      </c>
       <c r="AQ45" s="8"/>
       <c r="AR45" s="8"/>
       <c r="AS45" s="8"/>
-    </row>
-    <row r="46" spans="1:45">
+      <c r="AT45" s="8"/>
+    </row>
+    <row r="46" spans="1:46">
       <c r="A46" s="10" t="s">
         <v>618</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>171</v>
-      </c>
       <c r="E46" s="10" t="s">
         <v>171</v>
       </c>
@@ -16364,82 +16460,86 @@
       <c r="AS46" s="10" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="48" ht="72.5" spans="1:2">
+      <c r="AT46" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row ht="72.5" r="48" spans="1:3">
       <c r="A48" s="16" t="s">
         <v>619</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="C48" s="31" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="16" t="s">
+    <row r="49" spans="3:3">
+      <c r="C49" s="16" t="s">
         <v>621</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42:AE42 AF42 AG42 AH42:AM42 AN42 AO42:AQ42 AR42 AS42 B44:AE44 AF44 AG44 AH44:AM44 AN44 AO44:AQ44 AR44 AS44 B46:AE46 AF46 AG46 AH46:AM46 AN46 AO46:AQ46 AR46 AS46">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B42 C42:AF42 AG42 AH42 AI42:AN42 AO42 AP42:AR42 AS42 AT42 B44 C44:AF44 AG44 AH44 AI44:AN44 AO44 AP44:AR44 AS44 AT44 B46 C46:AF46 AG46 AH46 AI46:AN46 AO46 AP46:AR46 AS46 AT46" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="G32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;TESTDYLAN@GMAIL.COM&quot;"/>
-    <hyperlink ref="H32" r:id="rId1" display="&quot;TESTDYLAN@GMAIL.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="I32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH11111@GMAIL.COM&quot;"/>
-    <hyperlink ref="J32" r:id="rId1" display="&quot;USERCIIE11111@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="K32" r:id="rId1" display="&quot;USERCIIE11111@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="M32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="N32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="O32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AO32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AM32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AN32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="X32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
-    <hyperlink ref="B32" r:id="rId1" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="T32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="P32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="Q32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="R32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="S32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AL32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="Y32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
-    <hyperlink ref="AA32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
-    <hyperlink ref="Z32" r:id="rId1" display="&quot;&quot;;&quot;&quot;;&quot;&quot;"/>
-    <hyperlink ref="AB32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
-    <hyperlink ref="AC32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
-    <hyperlink ref="C32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="D32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="E32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="U32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="V32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="W32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AE32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AH32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AI32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AJ32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AK32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="L32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AP32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJCJ@ESIGNHUB.MY.ID&quot;"/>
-    <hyperlink ref="AQ32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;&quot;"/>
-    <hyperlink ref="AD32" r:id="rId1" display="&quot;USERCJAH@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
-    <hyperlink ref="AF32" r:id="rId1" display="&quot;USERCIAF@GMAIL.COM&quot;;&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AG32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
-    <hyperlink ref="AR32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;&quot;"/>
-    <hyperlink ref="AS32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;&quot;"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="G32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;TESTDYLAN@GMAIL.COM&quot;" r:id="rId1" ref="H32"/>
+    <hyperlink display="&quot;TESTDYLAN@GMAIL.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="I32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH11111@GMAIL.COM&quot;" r:id="rId1" ref="J32"/>
+    <hyperlink display="&quot;USERCIIE11111@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="K32"/>
+    <hyperlink display="&quot;USERCIIE11111@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="L32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="N32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="O32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="P32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AP32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AN32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AO32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;" r:id="rId1" ref="Y32"/>
+    <hyperlink display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="C32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="U32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="Q32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="R32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="S32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="T32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AM32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;" r:id="rId1" ref="Z32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;" r:id="rId1" ref="AB32"/>
+    <hyperlink display="&quot;&quot;;&quot;&quot;;&quot;&quot;" r:id="rId1" ref="AA32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;" r:id="rId1" ref="AC32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;" r:id="rId1" ref="AD32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="D32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="E32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="F32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="V32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="W32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="X32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AF32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AI32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AJ32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AK32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AL32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="M32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJCJ@ESIGNHUB.MY.ID&quot;" r:id="rId1" ref="AQ32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;&quot;" r:id="rId1" ref="AR32"/>
+    <hyperlink display="&quot;USERCJAH@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;" r:id="rId1" ref="AE32"/>
+    <hyperlink display="&quot;USERCIAF@GMAIL.COM&quot;;&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AG32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="AH32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;&quot;" r:id="rId1" ref="AS32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;&quot;" r:id="rId1" ref="AT32"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="B32"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -16447,19 +16547,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.2818181818182" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.7090909090909" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="42.7090909090909" customWidth="1" collapsed="1"/>
-    <col min="12" max="14" width="18.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="56.2818181818182" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="18.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5727272727273" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.2818181818182" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.7090909090909" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.5727272727273" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.4272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.1363636363636" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.5727272727273" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="31.5727272727273" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="26.5727272727273" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="42.7090909090909" collapsed="true"/>
+    <col min="12" max="14" customWidth="true" width="18.5727272727273" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="56.2818181818182" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" width="18.5727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -16554,7 +16654,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" ht="43.5" spans="1:17">
+    <row ht="43.5" r="3" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>339</v>
       </c>
@@ -17121,62 +17221,62 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 C14:J14 K14 L14:N14 O14 P14 Q14 B16 C16 D16 E16 F16 G16 H16 I16 J16 K16 L16 M16 N16 O16 P16 Q16">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14 C14:J14 K14 L14:N14 O14 P14 Q14 B16 C16 D16 E16 F16 G16 H16 I16 J16 K16 L16 M16 N16 O16 P16 Q16" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="&quot;tafs&quot;"/>
-    <hyperlink ref="C9" r:id="rId1" display="&quot;tafs&quot;"/>
-    <hyperlink ref="D9" r:id="rId1" display="&quot;tafs&quot;"/>
-    <hyperlink ref="E9" r:id="rId1" display="&quot;tafs&quot;"/>
-    <hyperlink ref="B11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
-    <hyperlink ref="C11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
-    <hyperlink ref="D11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
-    <hyperlink ref="E11" r:id="rId1" display="&quot;USERCIIE@AD-INS.CO.INS.ID&quot;"/>
-    <hyperlink ref="F9" r:id="rId1" display="&quot;tafs&quot;"/>
-    <hyperlink ref="F11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
-    <hyperlink ref="G9" r:id="rId1" display="&quot;tafs&quot;"/>
-    <hyperlink ref="G11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
-    <hyperlink ref="H9" r:id="rId1" display="&quot;tafs&quot;"/>
-    <hyperlink ref="I9" r:id="rId1" display="&quot;tafs&quot;"/>
-    <hyperlink ref="J9" r:id="rId1" display="&quot;tafs&quot;"/>
-    <hyperlink ref="L9" r:id="rId1" display="&quot;tafs&quot;"/>
-    <hyperlink ref="L11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
-    <hyperlink ref="M9" r:id="rId1" display="&quot;tafs&quot;"/>
-    <hyperlink ref="M11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
-    <hyperlink ref="N9" r:id="rId1" display="&quot;tafs&quot;"/>
-    <hyperlink ref="N11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
-    <hyperlink ref="O9" r:id="rId1" display="&quot;tafs&quot;"/>
-    <hyperlink ref="O11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
-    <hyperlink ref="K9" r:id="rId1" display="&quot;tafs&quot;"/>
+    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="B9"/>
+    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="C9"/>
+    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="D9"/>
+    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="E9"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="B11"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="C11"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="D11"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.CO.INS.ID&quot;" r:id="rId1" ref="E11"/>
+    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="F9"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="F11"/>
+    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="G9"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="G11"/>
+    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="H9"/>
+    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="I9"/>
+    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="J9"/>
+    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="L9"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="L11"/>
+    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="M9"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="M11"/>
+    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="N9"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="N11"/>
+    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="O9"/>
+    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="O11"/>
+    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="K9"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AC26"/>
+  <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.5727272727273" customWidth="1"/>
-    <col min="2" max="6" width="35.7090909090909" customWidth="1"/>
-    <col min="7" max="8" width="35.8545454545455" customWidth="1"/>
-    <col min="9" max="10" width="36.1363636363636" customWidth="1"/>
-    <col min="11" max="11" width="35.8545454545455" customWidth="1"/>
-    <col min="12" max="12" width="35.1363636363636" customWidth="1"/>
-    <col min="13" max="13" width="35.5727272727273" customWidth="1"/>
-    <col min="14" max="14" width="36.1363636363636" customWidth="1"/>
-    <col min="15" max="16" width="35" customWidth="1"/>
-    <col min="17" max="29" width="55.2818181818182" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5727272727273" collapsed="true"/>
+    <col min="2" max="6" customWidth="true" width="35.7090909090909" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="35.8545454545455" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="36.1363636363636" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="35.8545454545455" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="35.1363636363636" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="35.5727272727273" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="36.1363636363636" collapsed="true"/>
+    <col min="15" max="16" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="17" max="29" customWidth="true" width="55.2818181818182" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -17357,7 +17457,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:29">
+    <row ht="29" r="3" spans="1:29">
       <c r="A3" s="2" t="s">
         <v>339</v>
       </c>
@@ -18885,7 +18985,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:29">
+    <row customFormat="1" r="25" s="1" spans="1:29">
       <c r="A25" s="11" t="s">
         <v>614</v>
       </c>
@@ -19009,11 +19109,11 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 C17 D17 E17 F17 G17 H17 I17 J17 K17 L17 M17 N17 O17 P17 Q17 R17 S17 T17 U17 V17 W17 X17 Y17 Z17 AA17 AB17 AC17 B19 C19 D19 E19 F19 G19 H19 I19 J19 K19 L19 M19 N19 O19 P19 Q19 R19 S19 T19 U19 V19 W19 X19 Y19 Z19 AA19 AB19 AC19 B21 C21 D21 E21 F21 G21 H21 I21 J21 K21 L21 M21 N21 O21 P21 Q21 R21 S21 T21 U21 V21 W21 X21 Y21 Z21 AA21 AB21 AC21 B23 C23 D23 E23 F23 G23 H23 I23 J23 K23 L23 M23 N23 O23 P23 Q23 R23 S23 T23 U23 V23 W23 X23 Y23 Z23 AA23 AB23 AC23 B24 C24 D24 E24 F24 G24 H24 I24 J24 K24 L24 M24 N24 O24 P24 Q24 R24 S24 T24 U24 V24 W24 X24 Y24 Z24 AA24 AB24 AC24">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17 C17 D17 E17 F17 G17 H17 I17 J17 K17 L17 M17 N17 O17 P17 Q17 R17 S17 T17 U17 V17 W17 X17 Y17 Z17 AA17 AB17 AC17 B19 C19 D19 E19 F19 G19 H19 I19 J19 K19 L19 M19 N19 O19 P19 Q19 R19 S19 T19 U19 V19 W19 X19 Y19 Z19 AA19 AB19 AC19 B21 C21 D21 E21 F21 G21 H21 I21 J21 K21 L21 M21 N21 O21 P21 Q21 R21 S21 T21 U21 V21 W21 X21 Y21 Z21 AA21 AB21 AC21 B23 C23 D23 E23 F23 G23 H23 I23 J23 K23 L23 M23 N23 O23 P23 Q23 R23 S23 T23 U23 V23 W23 X23 Y23 Z23 AA23 AB23 AC23 B24 C24 D24 E24 F24 G24 H24 I24 J24 K24 L24 M24 N24 O24 P24 Q24 R24 S24 T24 U24 V24 W24 X24 Y24 Z24 AA24 AB24 AC24" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/2.1 Esign - Full API Services.xlsx
+++ b/Excel/2.1 Esign - Full API Services.xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="6" windowHeight="7070" windowWidth="18530"/>
+    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="API Registrasi" r:id="rId1" sheetId="17"/>
-    <sheet name="API Check Registrasi" r:id="rId2" sheetId="18"/>
-    <sheet name="API Check Stamping Status" r:id="rId3" sheetId="19"/>
-    <sheet name="API Check Signing Status" r:id="rId4" sheetId="21"/>
-    <sheet name="API Request Stamping" r:id="rId5" sheetId="20"/>
-    <sheet name="API Download Document" r:id="rId6" sheetId="22"/>
-    <sheet name="API Send Document" r:id="rId7" sheetId="23"/>
-    <sheet name="API Sent OTP Signing" r:id="rId8" sheetId="24"/>
-    <sheet name="API Sign Document" r:id="rId9" sheetId="25"/>
+    <sheet name="API Registrasi" sheetId="17" r:id="rId1"/>
+    <sheet name="API Check Registrasi" sheetId="18" r:id="rId2"/>
+    <sheet name="API Check Stamping Status" sheetId="19" r:id="rId3"/>
+    <sheet name="API Check Signing Status" sheetId="21" r:id="rId4"/>
+    <sheet name="API Request Stamping" sheetId="20" r:id="rId5"/>
+    <sheet name="API Download Document" sheetId="22" r:id="rId6"/>
+    <sheet name="API Send Document" sheetId="23" r:id="rId7"/>
+    <sheet name="API Sent OTP Signing" sheetId="24" r:id="rId8"/>
+    <sheet name="API Sign Document" sheetId="25" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3920" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3895" uniqueCount="747">
   <si>
     <t>Status</t>
   </si>
@@ -1044,12 +1044,12 @@
     <t>Scenario</t>
   </si>
   <si>
+    <t>Menggunakan AuTosign (AT)</t>
+  </si>
+  <si>
     <t>Tidak menggunakan Base64.</t>
   </si>
   <si>
-    <t>Menggunakan AuTosign (AT)</t>
-  </si>
-  <si>
     <t>API Key Salah.</t>
   </si>
   <si>
@@ -1236,12 +1236,12 @@
     <t>$referenceNo</t>
   </si>
   <si>
+    <t>"ATNEW-QE-1"</t>
+  </si>
+  <si>
     <t>"669"</t>
   </si>
   <si>
-    <t>"ATNEW-QE-1"</t>
-  </si>
-  <si>
     <t>"tessps"</t>
   </si>
   <si>
@@ -1284,63 +1284,63 @@
     <t>documentName</t>
   </si>
   <si>
+    <t>"dokumen yang dikirim per 1"</t>
+  </si>
+  <si>
+    <t>"dokumen yang dikirim per 2"</t>
+  </si>
+  <si>
+    <t>"dokumen yang dikirim per 3"</t>
+  </si>
+  <si>
+    <t>"dokumen yang dikirim per 4"</t>
+  </si>
+  <si>
+    <t>"dokumen yang dikirim per 5"</t>
+  </si>
+  <si>
+    <t>"dokumen yang dikirim per 6"</t>
+  </si>
+  <si>
+    <t>"dokumen yang dikirim per 7"</t>
+  </si>
+  <si>
+    <t>"dokumen yang dikirim per 8"</t>
+  </si>
+  <si>
+    <t>"dokumen yang dikirim per 9"</t>
+  </si>
+  <si>
+    <t>"dokumen yang dikirim per 10"</t>
+  </si>
+  <si>
+    <t>"dokumen yang dikirim per 11"</t>
+  </si>
+  <si>
+    <t>"dokumen yang dikirim per 12"</t>
+  </si>
+  <si>
+    <t>"dokumen yang dikirim per 13"</t>
+  </si>
+  <si>
+    <t>"dokumen yang dikirim per 14"</t>
+  </si>
+  <si>
+    <t>"dokumen yang dikirim per 15"</t>
+  </si>
+  <si>
+    <t>"dokumen yang dikirim per 16"</t>
+  </si>
+  <si>
+    <t>"dokumen yang dikirim per 17"</t>
+  </si>
+  <si>
+    <t>"dokumen yang dikirim per 18"</t>
+  </si>
+  <si>
     <t>"dokumen yang dikirim per 19"</t>
   </si>
   <si>
-    <t>"dokumen yang dikirim per 1"</t>
-  </si>
-  <si>
-    <t>"dokumen yang dikirim per 2"</t>
-  </si>
-  <si>
-    <t>"dokumen yang dikirim per 3"</t>
-  </si>
-  <si>
-    <t>"dokumen yang dikirim per 4"</t>
-  </si>
-  <si>
-    <t>"dokumen yang dikirim per 5"</t>
-  </si>
-  <si>
-    <t>"dokumen yang dikirim per 6"</t>
-  </si>
-  <si>
-    <t>"dokumen yang dikirim per 7"</t>
-  </si>
-  <si>
-    <t>"dokumen yang dikirim per 8"</t>
-  </si>
-  <si>
-    <t>"dokumen yang dikirim per 9"</t>
-  </si>
-  <si>
-    <t>"dokumen yang dikirim per 10"</t>
-  </si>
-  <si>
-    <t>"dokumen yang dikirim per 11"</t>
-  </si>
-  <si>
-    <t>"dokumen yang dikirim per 12"</t>
-  </si>
-  <si>
-    <t>"dokumen yang dikirim per 13"</t>
-  </si>
-  <si>
-    <t>"dokumen yang dikirim per 14"</t>
-  </si>
-  <si>
-    <t>"dokumen yang dikirim per 15"</t>
-  </si>
-  <si>
-    <t>"dokumen yang dikirim per 16"</t>
-  </si>
-  <si>
-    <t>"dokumen yang dikirim per 17"</t>
-  </si>
-  <si>
-    <t>"dokumen yang dikirim per 18"</t>
-  </si>
-  <si>
     <t>"dokumen yang dikirim per 20"</t>
   </si>
   <si>
@@ -1587,12 +1587,12 @@
     <t>$signAction</t>
   </si>
   <si>
+    <t>"at";"mt"</t>
+  </si>
+  <si>
     <t>"mt";"mt"</t>
   </si>
   <si>
-    <t>"at";"mt"</t>
-  </si>
-  <si>
     <t>"mt";"mt";"mt"</t>
   </si>
   <si>
@@ -1629,12 +1629,12 @@
     <t>$tlp</t>
   </si>
   <si>
+    <t>"085156436879";"082283949900"</t>
+  </si>
+  <si>
     <t>"081233444403";"082283949900"</t>
   </si>
   <si>
-    <t>"085156436879";"082283949900"</t>
-  </si>
-  <si>
     <t>"081233444403";"089654990200"</t>
   </si>
   <si>
@@ -1668,12 +1668,12 @@
     <t>$idKtp</t>
   </si>
   <si>
+    <t>"3271011312910014";"3511000101802907"</t>
+  </si>
+  <si>
     <t>"3511000101802884";"3511000101802907"</t>
   </si>
   <si>
-    <t>"3271011312910014";"3511000101802907"</t>
-  </si>
-  <si>
     <t>"3511000101802884";"3271011312910000"</t>
   </si>
   <si>
@@ -1713,10 +1713,10 @@
     <t>$email</t>
   </si>
   <si>
+    <t>"ANDY@AD-INS.COM";"USERCJAH@GMAIL.COM"</t>
+  </si>
+  <si>
     <t>"USERCIIE@AD-INS.COM";"USERCJAH@GMAIL.COM"</t>
-  </si>
-  <si>
-    <t>"ANDY@AD-INS.COM";"USERCJAH@GMAIL.COM"</t>
   </si>
   <si>
     <t>"USERCIIE@AD-INS.COM";"TESTDYLAN@GMAIL.COM"</t>
@@ -2264,9 +2264,6 @@
   </si>
   <si>
     <t>Use Correct ipAddress</t>
-  </si>
-  <si>
-    <t>;Mohon sediakan parameter wajib : documentTemplateCode</t>
   </si>
 </sst>
 </file>
@@ -2274,10 +2271,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2335,8 +2332,114 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2351,97 +2454,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -2450,22 +2462,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2522,7 +2519,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2534,25 +2639,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2564,145 +2699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2772,26 +2769,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2807,6 +2789,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2828,9 +2819,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2849,308 +2866,288 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="13" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="19" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="24" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="11" fontId="22" numFmtId="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="11" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="24" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="12" fillId="0" fontId="25" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="23" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="37" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="38" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="36" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="39" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="35" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="52">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="7"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="7"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="7"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="32"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="32">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="32"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="58" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="7"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="7"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="7"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="3" numFmtId="58" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="7"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="4" fontId="3" numFmtId="58" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" quotePrefix="1" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="53">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
-    <cellStyle builtinId="3" name="Comma" xfId="2"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="4" name="Currency" xfId="5"/>
-    <cellStyle builtinId="5" name="Percent" xfId="6"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="7"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="8"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="9"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="10"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="11"/>
-    <cellStyle builtinId="10" name="Note" xfId="12"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="15" name="Title" xfId="16"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
-    <cellStyle builtinId="20" name="Input" xfId="21"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
-    <cellStyle builtinId="26" name="Good" xfId="23"/>
-    <cellStyle builtinId="21" name="Output" xfId="24"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
-    <cellStyle builtinId="25" name="Total" xfId="28"/>
-    <cellStyle builtinId="27" name="Bad" xfId="29"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
     <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="33"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="34"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="35"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="36"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
     <cellStyle name="Normal 3" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="39"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="40"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="41"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="42"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="43"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="44"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="45"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="46"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="47"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="48"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="49"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="50"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="39" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="40" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="41" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="42" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="43" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="44" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="45" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="47" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="49" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="50" builtinId="52"/>
     <cellStyle name="Hyperlink 2" xfId="51"/>
     <cellStyle name="Normal 2 2" xfId="52"/>
   </cellStyles>
@@ -3163,7 +3160,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3177,10 +3174,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3344,21 +3341,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3375,7 +3372,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3428,9 +3425,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT33"/>
+  <dimension ref="A1:AS33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -3438,31 +3435,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="19.1363636363636" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="18.5727272727273" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.5727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.4272727272727" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.2818181818182" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="27.4272727272727" collapsed="true"/>
-    <col min="13" max="29" customWidth="true" width="20.4272727272727" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="23.5727272727273" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="20.4272727272727" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="19.7090909090909" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="18.4272727272727" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="19.8545454545455" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="20.5727272727273" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="18.4272727272727" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="20.5727272727273" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="20.2818181818182" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="18.5727272727273" collapsed="true"/>
-    <col min="40" max="41" customWidth="true" width="20.1363636363636" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="19.7090909090909" collapsed="true"/>
-    <col min="43" max="44" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" width="46.4272727272727" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="19.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="18.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="31" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="13" max="29" width="20.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="23.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="20.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="19.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="18.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="19.8545454545455" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="20.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="18.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="20.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="20.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="18.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="40" max="41" width="20.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="19.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="43" max="44" width="21" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="46.4272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45">
@@ -3602,7 +3599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="34" spans="1:45">
+    <row r="2" s="34" customFormat="1" spans="1:45">
       <c r="A2" s="35" t="s">
         <v>3</v>
       </c>
@@ -3739,7 +3736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="50.25" r="3" spans="1:45">
+    <row r="3" ht="50.25" customHeight="1" spans="1:45">
       <c r="A3" s="35" t="s">
         <v>39</v>
       </c>
@@ -3881,167 +3878,167 @@
         <v>83</v>
       </c>
       <c r="B4" s="35">
-        <f ref="B4:AP4" si="0" t="shared">COUNTIFS($A9:$A23,"*$*",B9:B23,"")</f>
+        <f t="shared" ref="B4:AP4" si="0">COUNTIFS($A9:$A23,"*$*",B9:B23,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="35">
-        <f ref="F4" si="1" t="shared">COUNTIFS($A9:$A23,"*$*",F9:F23,"")</f>
+        <f t="shared" ref="F4" si="1">COUNTIFS($A9:$A23,"*$*",F9:F23,"")</f>
         <v>0</v>
       </c>
       <c r="G4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="35">
-        <f ref="P4:R4" si="2" t="shared">COUNTIFS($A9:$A23,"*$*",P9:P23,"")</f>
+        <f t="shared" ref="P4:R4" si="2">COUNTIFS($A9:$A23,"*$*",P9:P23,"")</f>
         <v>0</v>
       </c>
       <c r="Q4" s="35">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R4" s="35">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U4" s="35">
-        <f ref="U4" si="3" t="shared">COUNTIFS($A9:$A23,"*$*",U9:U23,"")</f>
+        <f t="shared" ref="U4" si="3">COUNTIFS($A9:$A23,"*$*",U9:U23,"")</f>
         <v>0</v>
       </c>
       <c r="V4" s="35">
-        <f ref="V4:W4" si="4" t="shared">COUNTIFS($A9:$A23,"*$*",V9:V23,"")</f>
+        <f t="shared" ref="V4:W4" si="4">COUNTIFS($A9:$A23,"*$*",V9:V23,"")</f>
         <v>0</v>
       </c>
       <c r="W4" s="35">
-        <f si="4" t="shared"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA4" s="35">
-        <f ref="AA4:AB4" si="5" t="shared">COUNTIFS($A9:$A23,"*$*",AA9:AA23,"")</f>
+        <f t="shared" ref="AA4:AB4" si="5">COUNTIFS($A9:$A23,"*$*",AA9:AA23,"")</f>
         <v>0</v>
       </c>
       <c r="AB4" s="35">
-        <f si="5" t="shared"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC4" s="35">
-        <f ref="AC4" si="6" t="shared">COUNTIFS($A9:$A23,"*$*",AC9:AC23,"")</f>
+        <f t="shared" ref="AC4" si="6">COUNTIFS($A9:$A23,"*$*",AC9:AC23,"")</f>
         <v>0</v>
       </c>
       <c r="AD4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AL4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AN4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AO4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AP4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AQ4" s="35">
@@ -4101,7 +4098,7 @@
       <c r="AR5" s="35"/>
       <c r="AS5" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:45">
+    <row r="6" ht="14.25" customHeight="1" spans="1:45">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -4148,7 +4145,7 @@
       <c r="AR6" s="35"/>
       <c r="AS6" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:45">
+    <row r="7" ht="14.25" customHeight="1" spans="1:45">
       <c r="A7" s="8"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -7015,7 +7012,7 @@
       <c r="AR31" s="8"/>
       <c r="AS31" s="8"/>
     </row>
-    <row ht="29" r="32" spans="1:45">
+    <row r="32" ht="29" spans="1:45">
       <c r="A32" s="36" t="s">
         <v>176</v>
       </c>
@@ -7152,7 +7149,7 @@
         <v>171</v>
       </c>
     </row>
-    <row ht="29" r="33" spans="1:45">
+    <row r="33" ht="29" spans="1:45">
       <c r="A33" s="36" t="s">
         <v>177</v>
       </c>
@@ -7291,30 +7288,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A29:$XFD29">
-    <cfRule dxfId="0" priority="3" type="expression">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>A$28="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="$A31:$XFD31">
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>A$30="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B28:AS28 B30:AS30 B32:AS33" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:AS28 B30:AS30 B32:AS33">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -7322,11 +7319,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.1363636363636" collapsed="true"/>
-    <col min="3" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.1363636363636" collapsed="true"/>
-    <col min="12" max="22" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="3" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="12" max="22" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -7439,7 +7436,7 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
     </row>
-    <row customHeight="1" ht="50.25" r="3" spans="1:22">
+    <row r="3" ht="50.25" customHeight="1" spans="1:22">
       <c r="A3" s="35" t="s">
         <v>39</v>
       </c>
@@ -7500,63 +7497,63 @@
         <v>83</v>
       </c>
       <c r="B4" s="35">
-        <f ref="B4:O4" si="0" t="shared">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
+        <f t="shared" ref="B4:O4" si="0">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="35">
-        <f ref="F4" si="1" t="shared">COUNTIFS($A9:$A12,"*$*",F9:F12,"")</f>
+        <f t="shared" ref="F4" si="1">COUNTIFS($A9:$A12,"*$*",F9:F12,"")</f>
         <v>0</v>
       </c>
       <c r="G4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="35">
-        <f ref="P4" si="2" t="shared">COUNTIFS($A9:$A12,"*$*",P9:P12,"")</f>
+        <f t="shared" ref="P4" si="2">COUNTIFS($A9:$A12,"*$*",P9:P12,"")</f>
         <v>0</v>
       </c>
       <c r="Q4" s="35"/>
@@ -7590,7 +7587,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
     </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:22">
+    <row r="6" ht="14.25" customHeight="1" spans="1:22">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -7614,7 +7611,7 @@
       <c r="U6" s="35"/>
       <c r="V6" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:22">
+    <row r="7" ht="14.25" customHeight="1" spans="1:22">
       <c r="A7" s="8"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -7970,37 +7967,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A15:$XFD15">
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>A$14="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14:P14" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:P14">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="L9"/>
-    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="J9"/>
-    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="K9"/>
-    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="O9"/>
-    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="H9"/>
-    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="B9"/>
-    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="C9"/>
-    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="I9"/>
-    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="P9"/>
-    <hyperlink display="&quot;USERGMAIL@ADMIN.CO.ID&quot;" r:id="rId2" ref="P12"/>
+    <hyperlink ref="L9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
+    <hyperlink ref="J9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
+    <hyperlink ref="K9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
+    <hyperlink ref="O9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
+    <hyperlink ref="H9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
+    <hyperlink ref="B9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
+    <hyperlink ref="C9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
+    <hyperlink ref="I9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
+    <hyperlink ref="P9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
+    <hyperlink ref="P12" r:id="rId2" display="&quot;USERGMAIL@ADMIN.CO.ID&quot;"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL16"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -8008,12 +8005,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.1363636363636" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.1363636363636" collapsed="true"/>
-    <col min="5" max="23" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="24" max="32" customWidth="true" width="20.7090909090909" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="5" max="23" width="22" customWidth="1" collapsed="1"/>
+    <col min="24" max="32" width="20.7090909090909" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -8114,7 +8111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="34" spans="1:32">
+    <row r="2" s="34" customFormat="1" spans="1:32">
       <c r="A2" s="35" t="s">
         <v>3</v>
       </c>
@@ -8158,7 +8155,7 @@
       <c r="AE2" s="35"/>
       <c r="AF2" s="35"/>
     </row>
-    <row customHeight="1" ht="78.75" r="3" spans="1:37">
+    <row r="3" ht="78.75" customHeight="1" spans="1:37">
       <c r="A3" s="35" t="s">
         <v>39</v>
       </c>
@@ -8266,127 +8263,127 @@
         <v>83</v>
       </c>
       <c r="B4" s="35">
-        <f ref="B4:N4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f t="shared" ref="B4:N4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" s="35">
-        <f ref="O4:P4" si="1" t="shared">COUNTIFS($A9:$A11,"*$*",O9:O11,"")</f>
+        <f t="shared" ref="O4:P4" si="1">COUNTIFS($A9:$A11,"*$*",O9:O11,"")</f>
         <v>0</v>
       </c>
       <c r="P4" s="35">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q4" s="35">
-        <f ref="Q4:R4" si="2" t="shared">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
+        <f t="shared" ref="Q4:R4" si="2">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
         <v>0</v>
       </c>
       <c r="R4" s="35">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S4" s="35">
-        <f ref="S4:AF4" si="3" t="shared">COUNTIFS($A9:$A11,"*$*",S9:S11,"")</f>
+        <f t="shared" ref="S4:AF4" si="3">COUNTIFS($A9:$A11,"*$*",S9:S11,"")</f>
         <v>0</v>
       </c>
       <c r="T4" s="35">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U4" s="35">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V4" s="35">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W4" s="35">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X4" s="35">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y4" s="35">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z4" s="35">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA4" s="35">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB4" s="35">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC4" s="35">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD4" s="35">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE4" s="35">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF4" s="35">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8424,7 +8421,7 @@
       <c r="AE5" s="8"/>
       <c r="AF5" s="8"/>
     </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:32">
+    <row r="6" ht="14.25" customHeight="1" spans="1:32">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -8458,7 +8455,7 @@
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:32">
+    <row r="7" ht="14.25" customHeight="1" spans="1:32">
       <c r="A7" s="8"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -9070,30 +9067,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A14:$XFD14">
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>A$13="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="$A16:$XFD16">
-    <cfRule dxfId="0" priority="2" type="expression">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>A$15="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:AF13 B15:AF15" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:AF13 B15:AF15">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -9101,12 +9098,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.1363636363636" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.1363636363636" collapsed="true"/>
-    <col min="5" max="16" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="20.4272727272727" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="5" max="16" width="22" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.4272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -9162,7 +9159,7 @@
         <v>178</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="34" spans="1:17">
+    <row r="2" s="34" customFormat="1" spans="1:17">
       <c r="A2" s="35" t="s">
         <v>3</v>
       </c>
@@ -9215,7 +9212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="78.75" r="3" spans="1:17">
+    <row r="3" ht="78.75" customHeight="1" spans="1:17">
       <c r="A3" s="35" t="s">
         <v>39</v>
       </c>
@@ -9267,67 +9264,67 @@
         <v>83</v>
       </c>
       <c r="B4" s="35">
-        <f ref="B4:P4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f t="shared" ref="B4:P4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q4" s="35">
-        <f ref="Q4" si="1" t="shared">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
+        <f t="shared" ref="Q4" si="1">COUNTIFS($A9:$A11,"*$*",Q9:Q11,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -9350,7 +9347,7 @@
       <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:17">
+    <row r="6" ht="14.25" customHeight="1" spans="1:17">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -9369,7 +9366,7 @@
       <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:17">
+    <row r="7" ht="14.25" customHeight="1" spans="1:17">
       <c r="A7" s="8"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -9709,98 +9706,98 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
     </row>
-    <row ht="15.25" r="36"/>
-    <row ht="15.25" r="37" spans="2:2">
+    <row r="36" ht="15.25"/>
+    <row r="37" ht="15.25" spans="2:2">
       <c r="B37" s="48" t="s">
         <v>270</v>
       </c>
     </row>
-    <row ht="15.25" r="38" spans="2:2">
+    <row r="38" ht="15.25" spans="2:2">
       <c r="B38" s="48" t="s">
         <v>271</v>
       </c>
     </row>
-    <row ht="15.25" r="39" spans="2:2">
+    <row r="39" ht="15.25" spans="2:2">
       <c r="B39" s="48" t="s">
         <v>272</v>
       </c>
     </row>
-    <row ht="15.25" r="40" spans="2:2">
+    <row r="40" ht="15.25" spans="2:2">
       <c r="B40" s="48" t="s">
         <v>273</v>
       </c>
     </row>
-    <row ht="15.25" r="41" spans="2:2">
+    <row r="41" ht="15.25" spans="2:2">
       <c r="B41" s="48" t="s">
         <v>274</v>
       </c>
     </row>
-    <row ht="15.25" r="42" spans="2:2">
+    <row r="42" ht="15.25" spans="2:2">
       <c r="B42" s="48" t="s">
         <v>275</v>
       </c>
     </row>
-    <row ht="15.25" r="43" spans="2:2">
+    <row r="43" ht="15.25" spans="2:2">
       <c r="B43" s="48" t="s">
         <v>276</v>
       </c>
     </row>
-    <row ht="15.25" r="44" spans="2:2">
+    <row r="44" ht="15.25" spans="2:2">
       <c r="B44" s="48" t="s">
         <v>277</v>
       </c>
     </row>
-    <row ht="15.25" r="45" spans="2:2">
+    <row r="45" ht="15.25" spans="2:2">
       <c r="B45" s="48" t="s">
         <v>278</v>
       </c>
     </row>
-    <row ht="15.25" r="46" spans="2:2">
+    <row r="46" ht="15.25" spans="2:2">
       <c r="B46" s="48" t="s">
         <v>279</v>
       </c>
     </row>
-    <row ht="15.25" r="47" spans="2:2">
+    <row r="47" ht="15.25" spans="2:2">
       <c r="B47" s="48" t="s">
         <v>280</v>
       </c>
     </row>
-    <row ht="15.25" r="48" spans="2:2">
+    <row r="48" ht="15.25" spans="2:2">
       <c r="B48" s="48" t="s">
         <v>281</v>
       </c>
     </row>
-    <row ht="15.25" r="49" spans="2:2">
+    <row r="49" ht="15.25" spans="2:2">
       <c r="B49" s="48" t="s">
         <v>282</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A14:$XFD14">
-    <cfRule dxfId="0" priority="2" type="expression">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>A$13="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="$A16:$XFD16">
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>A$15="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:Q13 B15:Q15" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:Q13 B15:Q15">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -9808,11 +9805,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.1363636363636" collapsed="true"/>
-    <col min="3" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.1363636363636" collapsed="true"/>
-    <col min="12" max="22" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="3" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="12" max="22" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -9903,7 +9900,7 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
     </row>
-    <row customHeight="1" ht="50.25" r="3" spans="1:22">
+    <row r="3" ht="50.25" customHeight="1" spans="1:22">
       <c r="A3" s="35" t="s">
         <v>39</v>
       </c>
@@ -9956,47 +9953,47 @@
         <v>83</v>
       </c>
       <c r="B4" s="35">
-        <f ref="B4:L4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f t="shared" ref="B4:L4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="35"/>
@@ -10034,7 +10031,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
     </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:22">
+    <row r="6" ht="14.25" customHeight="1" spans="1:22">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -10058,7 +10055,7 @@
       <c r="U6" s="35"/>
       <c r="V6" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:22">
+    <row r="7" ht="14.25" customHeight="1" spans="1:22">
       <c r="A7" s="8"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -10402,39 +10399,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A14:$XFD14">
-    <cfRule dxfId="0" priority="2" type="expression">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>A$13="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="$A16:$XFD16">
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>A$15="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:O13 B15:O15" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:O13 B15:O15">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="L9"/>
-    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="J9"/>
-    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="K9"/>
-    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="H9"/>
-    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="B9"/>
-    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="C9"/>
-    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="I9"/>
+    <hyperlink ref="L9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
+    <hyperlink ref="J9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
+    <hyperlink ref="K9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
+    <hyperlink ref="H9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
+    <hyperlink ref="B9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
+    <hyperlink ref="C9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
+    <hyperlink ref="I9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -10442,17 +10439,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.4272727272727" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="20.4272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.4272727272727" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.8545454545455" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.4272727272727" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.1363636363636" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="21.2818181818182" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.7090909090909" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.4272727272727" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="20.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.8545454545455" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.4272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -10493,7 +10490,7 @@
         <v>178</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="52.5" r="2" s="34" spans="1:12">
+    <row r="2" s="34" customFormat="1" ht="52.5" customHeight="1" spans="1:12">
       <c r="A2" s="35" t="s">
         <v>3</v>
       </c>
@@ -10531,7 +10528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="43.5" r="3" spans="1:12">
+    <row r="3" ht="43.5" spans="1:12">
       <c r="A3" s="35" t="s">
         <v>39</v>
       </c>
@@ -10574,47 +10571,47 @@
         <v>83</v>
       </c>
       <c r="B4" s="35">
-        <f ref="B4:J4" si="0" t="shared">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
+        <f t="shared" ref="B4:J4" si="0">COUNTIFS($A9:$A11,"*$*",B9:B11,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="35">
-        <f ref="K4:L4" si="1" t="shared">COUNTIFS($A9:$A11,"*$*",K9:K11,"")</f>
+        <f t="shared" ref="K4:L4" si="1">COUNTIFS($A9:$A11,"*$*",K9:K11,"")</f>
         <v>0</v>
       </c>
       <c r="L4" s="35">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10954,72 +10951,71 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A14:$XFD14">
-    <cfRule dxfId="0" priority="3" type="expression">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>A$13="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="$A16:$XFD16">
-    <cfRule dxfId="0" priority="2" type="expression">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>A$15="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="$A18:$XFD18">
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>A$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:L13 B15:L15 B17:L17" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:L13 B15:L15 B17:L17">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="B9"/>
-    <hyperlink display="&quot;USER@AD-INS.COM&quot;" r:id="rId1" ref="C9"/>
+    <hyperlink ref="B9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
+    <hyperlink ref="C9" r:id="rId1" display="&quot;USER@AD-INS.COM&quot;"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AU49"/>
+  <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="16" width="24.4272727272727" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="16" width="28.7090909090909" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="16" width="45.2818181818182" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="16" width="28.7090909090909" collapsed="true"/>
-    <col min="6" max="11" customWidth="true" style="16" width="45.2818181818182" collapsed="true"/>
-    <col min="12" max="21" customWidth="true" style="16" width="36.1363636363636" collapsed="true"/>
-    <col min="22" max="31" customWidth="true" style="16" width="44.8545454545455" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="16" width="28.7090909090909" collapsed="true"/>
-    <col min="33" max="34" customWidth="true" style="16" width="28.7636363636364" collapsed="true"/>
-    <col min="35" max="38" customWidth="true" style="16" width="28.7090909090909" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="16" width="56.8545454545455" collapsed="true"/>
-    <col min="40" max="41" customWidth="true" style="16" width="36.1363636363636" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" style="16" width="56.8545454545455" collapsed="true"/>
-    <col min="43" max="46" customWidth="true" style="16" width="28.7090909090909" collapsed="true"/>
-    <col min="47" max="48" customWidth="true" width="79.5727272727273" collapsed="true"/>
+    <col min="1" max="1" width="24.4272727272727" style="16" customWidth="1"/>
+    <col min="2" max="2" width="45.2818181818182" style="16" customWidth="1"/>
+    <col min="3" max="4" width="28.7090909090909" style="16" customWidth="1"/>
+    <col min="5" max="10" width="45.2818181818182" style="16" customWidth="1"/>
+    <col min="11" max="20" width="36.1363636363636" style="16" customWidth="1"/>
+    <col min="21" max="30" width="44.8545454545455" style="16" customWidth="1"/>
+    <col min="31" max="31" width="28.7090909090909" style="16" customWidth="1"/>
+    <col min="32" max="33" width="28.7636363636364" style="16" customWidth="1"/>
+    <col min="34" max="37" width="28.7090909090909" style="16" customWidth="1"/>
+    <col min="38" max="38" width="56.8545454545455" style="16" customWidth="1"/>
+    <col min="39" max="40" width="36.1363636363636" style="16" customWidth="1"/>
+    <col min="41" max="41" width="56.8545454545455" style="16" customWidth="1"/>
+    <col min="42" max="45" width="28.7090909090909" style="16" customWidth="1"/>
+    <col min="46" max="47" width="79.5727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>178</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -11028,10 +11024,10 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>178</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -11046,10 +11042,10 @@
         <v>1</v>
       </c>
       <c r="L1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" t="s">
         <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>178</v>
       </c>
       <c r="N1" t="s">
         <v>1</v>
@@ -11067,10 +11063,10 @@
         <v>1</v>
       </c>
       <c r="S1" t="s">
+        <v>178</v>
+      </c>
+      <c r="T1" t="s">
         <v>1</v>
-      </c>
-      <c r="T1" t="s">
-        <v>178</v>
       </c>
       <c r="U1" t="s">
         <v>1</v>
@@ -11103,19 +11099,19 @@
         <v>1</v>
       </c>
       <c r="AE1" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="AF1" t="s">
         <v>178</v>
       </c>
       <c r="AG1" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="AH1" t="s">
         <v>1</v>
       </c>
       <c r="AI1" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="AJ1" t="s">
         <v>178</v>
@@ -11124,7 +11120,7 @@
         <v>178</v>
       </c>
       <c r="AL1" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="AM1" t="s">
         <v>1</v>
@@ -11139,63 +11135,60 @@
         <v>1</v>
       </c>
       <c r="AQ1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AR1" t="s">
         <v>1</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>178</v>
       </c>
       <c r="AS1" t="s">
         <v>1</v>
       </c>
-      <c r="AT1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46">
+    </row>
+    <row r="2" spans="1:45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>747</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F2" t="s">
-        <v>317</v>
-      </c>
       <c r="G2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K2" t="s">
+        <v>322</v>
+      </c>
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
-        <v>318</v>
-      </c>
-      <c r="I2" t="s">
-        <v>319</v>
-      </c>
-      <c r="J2" t="s">
-        <v>320</v>
-      </c>
-      <c r="K2" t="s">
-        <v>321</v>
-      </c>
-      <c r="L2" t="s">
-        <v>322</v>
-      </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="N2" t="s">
+        <v>324</v>
+      </c>
+      <c r="O2" t="s">
         <v>323</v>
-      </c>
-      <c r="O2" t="s">
-        <v>324</v>
       </c>
       <c r="P2" t="s">
         <v>323</v>
@@ -11207,55 +11200,55 @@
         <v>323</v>
       </c>
       <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" t="s">
         <v>323</v>
       </c>
-      <c r="T2" t="s">
-        <v>31</v>
-      </c>
       <c r="U2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="V2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="W2" t="s">
         <v>316</v>
       </c>
       <c r="X2" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="Y2" t="s">
         <v>326</v>
       </c>
       <c r="Z2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AB2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AD2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AE2" t="s">
-        <v>331</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s">
         <v>31</v>
       </c>
       <c r="AG2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AI2" t="s">
         <v>31</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>332</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>333</v>
       </c>
       <c r="AJ2" t="s">
         <v>31</v>
@@ -11264,34 +11257,31 @@
         <v>31</v>
       </c>
       <c r="AL2" t="s">
-        <v>31</v>
+        <v>334</v>
       </c>
       <c r="AM2" t="s">
         <v>334</v>
       </c>
       <c r="AN2" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="AO2" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="AP2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AQ2" t="s">
-        <v>336</v>
+        <v>31</v>
       </c>
       <c r="AR2" t="s">
-        <v>31</v>
+        <v>337</v>
       </c>
       <c r="AS2" t="s">
-        <v>337</v>
-      </c>
-      <c r="AT2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row ht="72.5" r="3" spans="1:46">
+    <row r="3" ht="72.5" spans="1:45">
       <c r="A3" s="2" t="s">
         <v>339</v>
       </c>
@@ -11302,136 +11292,133 @@
         <v>341</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="U3" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="X3" s="17" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA3" s="17" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AC3" s="17" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AD3" s="17" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AE3" s="17" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF3" s="17" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG3" s="17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH3" s="17" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI3" s="17" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AJ3" s="17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AK3" s="17" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL3" s="17" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM3" s="17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN3" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO3" s="17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AP3" s="17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AQ3" s="17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AR3" s="17" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AS3" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="AT3" s="17" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:45">
       <c r="A4" s="18" t="s">
         <v>83</v>
       </c>
@@ -11452,95 +11439,95 @@
         <v>0</v>
       </c>
       <c r="F4" s="17">
-        <f>COUNTIFS($A9:$A46,"*$*",F9:F46,"")</f>
+        <f t="shared" ref="F4:AA4" si="0">COUNTIFS($A9:$A46,"*$*",F9:F46,"")</f>
         <v>0</v>
       </c>
       <c r="G4" s="17">
-        <f ref="G4:AB4" si="0" t="shared">COUNTIFS($A9:$A46,"*$*",G9:G46,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA4" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB4" s="17">
-        <f si="0" t="shared"/>
+        <f>COUNTIFS($A9:$A46,"*$*",AB9:AB46,"")</f>
         <v>0</v>
       </c>
       <c r="AC4" s="17">
@@ -11564,89 +11551,85 @@
         <v>0</v>
       </c>
       <c r="AH4" s="17">
-        <f>COUNTIFS($A9:$A46,"*$*",AH9:AH46,"")</f>
+        <f t="shared" ref="AH4:AQ4" si="1">COUNTIFS($A9:$A46,"*$*",AH9:AH46,"")</f>
         <v>0</v>
       </c>
       <c r="AI4" s="17">
-        <f ref="AI4:AR4" si="1" t="shared">COUNTIFS($A9:$A46,"*$*",AI9:AI46,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ4" s="17">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK4" s="17">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL4" s="17">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM4" s="17">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AN4" s="17">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AO4" s="17">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AP4" s="17">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AQ4" s="17">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AR4" s="17">
-        <f si="1" t="shared"/>
+        <f>COUNTIFS($A9:$A46,"*$*",AR9:AR46,"")</f>
         <v>0</v>
       </c>
       <c r="AS4" s="17">
         <f>COUNTIFS($A9:$A46,"*$*",AS9:AS46,"")</f>
         <v>0</v>
       </c>
-      <c r="AT4" s="17">
-        <f>COUNTIFS($A9:$A46,"*$*",AT9:AT46,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46">
+    </row>
+    <row r="5" spans="1:45">
       <c r="A5" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B5"/>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>385</v>
       </c>
+      <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>386</v>
       </c>
+      <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
         <v>387</v>
       </c>
+      <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5" t="s">
+      <c r="S5" t="s">
         <v>388</v>
       </c>
+      <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
@@ -11657,81 +11640,82 @@
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
-      <c r="AE5"/>
+      <c r="AE5" t="s">
+        <v>389</v>
+      </c>
       <c r="AF5" t="s">
-        <v>389</v>
-      </c>
-      <c r="AG5" t="s">
         <v>390</v>
       </c>
-      <c r="AH5"/>
+      <c r="AG5"/>
+      <c r="AH5" t="s">
+        <v>391</v>
+      </c>
       <c r="AI5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AJ5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK5" t="s">
-        <v>393</v>
-      </c>
-      <c r="AL5" t="s">
         <v>394</v>
       </c>
+      <c r="AL5"/>
       <c r="AM5"/>
       <c r="AN5"/>
       <c r="AO5"/>
       <c r="AP5"/>
-      <c r="AQ5"/>
-      <c r="AR5" t="s">
+      <c r="AQ5" t="s">
         <v>395</v>
       </c>
+      <c r="AR5"/>
       <c r="AS5"/>
-      <c r="AT5"/>
-    </row>
-    <row r="6" spans="1:46">
+    </row>
+    <row r="6" spans="1:45">
       <c r="A6" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="B6"/>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>397</v>
       </c>
+      <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>398</v>
       </c>
+      <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
         <v>398</v>
       </c>
+      <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6" t="s">
+      <c r="S6" t="s">
         <v>398</v>
       </c>
+      <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6" t="s">
+      <c r="X6" t="s">
         <v>398</v>
       </c>
+      <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
       <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
-      <c r="AE6"/>
+      <c r="AE6" t="s">
+        <v>398</v>
+      </c>
       <c r="AF6" t="s">
         <v>398</v>
       </c>
@@ -11750,15 +11734,15 @@
       <c r="AK6" t="s">
         <v>398</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AL6"/>
+      <c r="AM6" t="s">
         <v>398</v>
       </c>
-      <c r="AM6"/>
-      <c r="AN6" t="s">
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6" t="s">
         <v>398</v>
       </c>
-      <c r="AO6"/>
-      <c r="AP6"/>
       <c r="AQ6" t="s">
         <v>398</v>
       </c>
@@ -11768,11 +11752,8 @@
       <c r="AS6" t="s">
         <v>398</v>
       </c>
-      <c r="AT6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46">
+    </row>
+    <row r="7" spans="1:45">
       <c r="A7" s="9"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -11818,9 +11799,8 @@
       <c r="AQ7" s="8"/>
       <c r="AR7" s="8"/>
       <c r="AS7" s="8"/>
-      <c r="AT7" s="8"/>
-    </row>
-    <row r="8" spans="1:46">
+    </row>
+    <row r="8" spans="1:45">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -11866,9 +11846,8 @@
       <c r="AQ8" s="20"/>
       <c r="AR8" s="20"/>
       <c r="AS8" s="20"/>
-      <c r="AT8" s="20"/>
-    </row>
-    <row r="9" spans="1:46">
+    </row>
+    <row r="9" spans="1:45">
       <c r="A9" s="21" t="s">
         <v>399</v>
       </c>
@@ -11981,19 +11960,19 @@
         <v>400</v>
       </c>
       <c r="AL9" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="AM9" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="AM9" s="21" t="s">
+      <c r="AN9" s="21" t="s">
         <v>401</v>
-      </c>
-      <c r="AN9" s="21" t="s">
-        <v>400</v>
       </c>
       <c r="AO9" s="21" t="s">
         <v>401</v>
       </c>
       <c r="AP9" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AQ9" s="21" t="s">
         <v>400</v>
@@ -12004,11 +11983,8 @@
       <c r="AS9" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="AT9" s="21" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46">
+    </row>
+    <row r="10" spans="1:45">
       <c r="A10" s="22" t="s">
         <v>402</v>
       </c>
@@ -12042,9 +12018,9 @@
       <c r="AC10" s="23"/>
       <c r="AD10" s="23"/>
       <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
+      <c r="AF10" s="32"/>
       <c r="AG10" s="32"/>
-      <c r="AH10" s="32"/>
+      <c r="AH10" s="23"/>
       <c r="AI10" s="23"/>
       <c r="AJ10" s="23"/>
       <c r="AK10" s="23"/>
@@ -12056,9 +12032,8 @@
       <c r="AQ10" s="23"/>
       <c r="AR10" s="23"/>
       <c r="AS10" s="23"/>
-      <c r="AT10" s="23"/>
-    </row>
-    <row r="11" spans="1:46">
+    </row>
+    <row r="11" spans="1:45">
       <c r="A11" s="21" t="s">
         <v>403</v>
       </c>
@@ -12066,144 +12041,141 @@
         <v>404</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>405</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="V11" s="21" t="s">
         <v>404</v>
       </c>
       <c r="W11" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="X11" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y11" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="X11" s="21" t="s">
+      <c r="Z11" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="Y11" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="Z11" s="21" t="s">
+      <c r="AA11" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB11" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="AC11" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD11" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE11" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="AF11" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="AA11" s="21" t="s">
+      <c r="AG11" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="AB11" s="21" t="s">
+      <c r="AH11" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="AC11" s="21" t="s">
+      <c r="AI11" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="AD11" s="21" t="s">
+      <c r="AJ11" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="AE11" s="21" t="s">
+      <c r="AK11" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="AL11" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="AM11" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="AN11" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="AO11" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="AP11" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="AQ11" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="AF11" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="AG11" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="AH11" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="AI11" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="AJ11" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="AK11" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="AL11" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="AM11" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="AN11" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="AO11" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="AP11" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="AQ11" s="21" t="s">
-        <v>412</v>
-      </c>
       <c r="AR11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AS11" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="AT11" s="21" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
       <c r="A12" s="21" t="s">
         <v>413</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>91</v>
+        <v>414</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>414</v>
@@ -12230,10 +12202,10 @@
         <v>414</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>415</v>
+        <v>91</v>
       </c>
       <c r="M12" s="24" t="s">
         <v>91</v>
@@ -12263,13 +12235,13 @@
         <v>91</v>
       </c>
       <c r="V12" s="24" t="s">
-        <v>91</v>
+        <v>414</v>
       </c>
       <c r="W12" s="24" t="s">
         <v>414</v>
       </c>
       <c r="X12" s="24" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Y12" s="24" t="s">
         <v>416</v>
@@ -12290,10 +12262,10 @@
         <v>416</v>
       </c>
       <c r="AE12" s="24" t="s">
-        <v>416</v>
+        <v>91</v>
       </c>
       <c r="AF12" s="24" t="s">
-        <v>91</v>
+        <v>414</v>
       </c>
       <c r="AG12" s="24" t="s">
         <v>414</v>
@@ -12305,25 +12277,25 @@
         <v>414</v>
       </c>
       <c r="AJ12" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK12" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="AK12" s="24" t="s">
+      <c r="AL12" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="AM12" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="AN12" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="AL12" s="24" t="s">
+      <c r="AO12" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="AP12" s="24" t="s">
         <v>414</v>
-      </c>
-      <c r="AM12" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="AN12" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="AO12" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP12" s="24" t="s">
-        <v>418</v>
       </c>
       <c r="AQ12" s="24" t="s">
         <v>414</v>
@@ -12334,11 +12306,8 @@
       <c r="AS12" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="AT12" s="24" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46">
+    </row>
+    <row r="13" spans="1:45">
       <c r="A13" s="21" t="s">
         <v>419</v>
       </c>
@@ -12400,73 +12369,73 @@
         <v>438</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="V13" s="21" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="W13" s="21" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="X13" s="21" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y13" s="21" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z13" s="21" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AA13" s="21" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AB13" s="21" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AC13" s="21" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AD13" s="21" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AE13" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF13" s="21" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG13" s="21" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AH13" s="21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AI13" s="21" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AJ13" s="21" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AK13" s="21" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL13" s="21" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM13" s="21" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN13" s="21" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO13" s="21" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AP13" s="21" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AQ13" s="21" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AR13" s="21" t="s">
         <v>461</v>
@@ -12474,11 +12443,8 @@
       <c r="AS13" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="AT13" s="21" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46">
+    </row>
+    <row r="14" spans="1:45">
       <c r="A14" s="21" t="s">
         <v>462</v>
       </c>
@@ -12570,10 +12536,10 @@
         <v>463</v>
       </c>
       <c r="AE14" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="AF14" s="21" t="s">
         <v>463</v>
-      </c>
-      <c r="AF14" s="21" t="s">
-        <v>464</v>
       </c>
       <c r="AG14" s="21" t="s">
         <v>463</v>
@@ -12585,25 +12551,25 @@
         <v>463</v>
       </c>
       <c r="AJ14" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="AK14" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="AL14" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="AM14" s="21" t="s">
         <v>463</v>
-      </c>
-      <c r="AK14" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="AL14" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="AM14" s="21" t="s">
-        <v>467</v>
       </c>
       <c r="AN14" s="21" t="s">
         <v>463</v>
       </c>
       <c r="AO14" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="AP14" s="21" t="s">
         <v>463</v>
-      </c>
-      <c r="AP14" s="21" t="s">
-        <v>467</v>
       </c>
       <c r="AQ14" s="21" t="s">
         <v>463</v>
@@ -12614,11 +12580,8 @@
       <c r="AS14" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="AT14" s="21" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46">
+    </row>
+    <row r="15" spans="1:45">
       <c r="A15" s="21" t="s">
         <v>468</v>
       </c>
@@ -12710,10 +12673,10 @@
         <v>469</v>
       </c>
       <c r="AE15" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="AF15" s="21" t="s">
         <v>469</v>
-      </c>
-      <c r="AF15" s="21" t="s">
-        <v>470</v>
       </c>
       <c r="AG15" s="21" t="s">
         <v>469</v>
@@ -12725,25 +12688,25 @@
         <v>469</v>
       </c>
       <c r="AJ15" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="AK15" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="AL15" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="AM15" s="21" t="s">
         <v>469</v>
-      </c>
-      <c r="AK15" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="AL15" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="AM15" s="21" t="s">
-        <v>473</v>
       </c>
       <c r="AN15" s="21" t="s">
         <v>469</v>
       </c>
       <c r="AO15" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="AP15" s="21" t="s">
         <v>469</v>
-      </c>
-      <c r="AP15" s="21" t="s">
-        <v>473</v>
       </c>
       <c r="AQ15" s="21" t="s">
         <v>469</v>
@@ -12754,11 +12717,8 @@
       <c r="AS15" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="AT15" s="21" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46">
+    </row>
+    <row r="16" spans="1:45">
       <c r="A16" s="21" t="s">
         <v>474</v>
       </c>
@@ -12859,31 +12819,31 @@
         <v>475</v>
       </c>
       <c r="AH16" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="AI16" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="AI16" s="21" t="s">
-        <v>476</v>
-      </c>
       <c r="AJ16" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="AK16" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="AL16" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="AM16" s="21" t="s">
         <v>475</v>
-      </c>
-      <c r="AK16" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="AL16" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="AM16" s="21" t="s">
-        <v>479</v>
       </c>
       <c r="AN16" s="21" t="s">
         <v>475</v>
       </c>
       <c r="AO16" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP16" s="21" t="s">
         <v>475</v>
-      </c>
-      <c r="AP16" s="21" t="s">
-        <v>479</v>
       </c>
       <c r="AQ16" s="21" t="s">
         <v>475</v>
@@ -12894,11 +12854,8 @@
       <c r="AS16" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="AT16" s="21" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46">
+    </row>
+    <row r="17" spans="1:45">
       <c r="A17" s="21" t="s">
         <v>480</v>
       </c>
@@ -12999,31 +12956,31 @@
         <v>481</v>
       </c>
       <c r="AH17" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI17" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="AI17" s="21" t="s">
-        <v>151</v>
-      </c>
       <c r="AJ17" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="AK17" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="AL17" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="AM17" s="21" t="s">
         <v>481</v>
-      </c>
-      <c r="AK17" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="AL17" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="AM17" s="21" t="s">
-        <v>484</v>
       </c>
       <c r="AN17" s="21" t="s">
         <v>481</v>
       </c>
       <c r="AO17" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="AP17" s="21" t="s">
         <v>481</v>
-      </c>
-      <c r="AP17" s="21" t="s">
-        <v>484</v>
       </c>
       <c r="AQ17" s="21" t="s">
         <v>481</v>
@@ -13034,11 +12991,8 @@
       <c r="AS17" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="AT17" s="21" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="18" spans="1:46">
+    </row>
+    <row r="18" spans="1:45">
       <c r="A18" s="21" t="s">
         <v>485</v>
       </c>
@@ -13142,28 +13096,28 @@
         <v>486</v>
       </c>
       <c r="AI18" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="AJ18" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="AJ18" s="21" t="s">
-        <v>487</v>
-      </c>
       <c r="AK18" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="AL18" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="AM18" s="21" t="s">
         <v>486</v>
-      </c>
-      <c r="AL18" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="AM18" s="21" t="s">
-        <v>489</v>
       </c>
       <c r="AN18" s="21" t="s">
         <v>486</v>
       </c>
       <c r="AO18" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="AP18" s="21" t="s">
         <v>486</v>
-      </c>
-      <c r="AP18" s="21" t="s">
-        <v>489</v>
       </c>
       <c r="AQ18" s="21" t="s">
         <v>486</v>
@@ -13174,11 +13128,8 @@
       <c r="AS18" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="AT18" s="21" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="19" spans="1:46">
+    </row>
+    <row r="19" spans="1:45">
       <c r="A19" s="21" t="s">
         <v>490</v>
       </c>
@@ -13282,28 +13233,28 @@
         <v>491</v>
       </c>
       <c r="AI19" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="AJ19" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="AJ19" s="21" t="s">
-        <v>492</v>
-      </c>
       <c r="AK19" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="AL19" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM19" s="21" t="s">
         <v>491</v>
-      </c>
-      <c r="AL19" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="AM19" s="21" t="s">
-        <v>493</v>
       </c>
       <c r="AN19" s="21" t="s">
         <v>491</v>
       </c>
       <c r="AO19" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="AP19" s="21" t="s">
         <v>491</v>
-      </c>
-      <c r="AP19" s="21" t="s">
-        <v>493</v>
       </c>
       <c r="AQ19" s="21" t="s">
         <v>491</v>
@@ -13314,11 +13265,8 @@
       <c r="AS19" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="AT19" s="21" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="20" spans="1:46">
+    </row>
+    <row r="20" spans="1:45">
       <c r="A20" s="21" t="s">
         <v>494</v>
       </c>
@@ -13431,19 +13379,19 @@
         <v>495</v>
       </c>
       <c r="AL20" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="AM20" s="9" t="s">
         <v>495</v>
-      </c>
-      <c r="AM20" s="9" t="s">
-        <v>496</v>
       </c>
       <c r="AN20" s="9" t="s">
         <v>495</v>
       </c>
       <c r="AO20" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="AP20" s="9" t="s">
         <v>495</v>
-      </c>
-      <c r="AP20" s="9" t="s">
-        <v>496</v>
       </c>
       <c r="AQ20" s="9" t="s">
         <v>495</v>
@@ -13454,11 +13402,8 @@
       <c r="AS20" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="AT20" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="21" spans="1:46">
+    </row>
+    <row r="21" spans="1:45">
       <c r="A21" s="25" t="s">
         <v>497</v>
       </c>
@@ -13506,13 +13451,14 @@
       <c r="AQ21" s="26"/>
       <c r="AR21" s="26"/>
       <c r="AS21" s="26"/>
-      <c r="AT21" s="26"/>
-    </row>
-    <row r="22" spans="1:46">
+    </row>
+    <row r="22" spans="1:45">
       <c r="A22" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="21" t="s">
+        <v>499</v>
+      </c>
       <c r="C22" s="21" t="s">
         <v>499</v>
       </c>
@@ -13556,19 +13502,19 @@
         <v>499</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="R22" s="21" t="s">
         <v>500</v>
       </c>
       <c r="S22" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="T22" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="T22" s="21" t="s">
+      <c r="U22" s="21" t="s">
         <v>499</v>
-      </c>
-      <c r="U22" s="21" t="s">
-        <v>500</v>
       </c>
       <c r="V22" s="21" t="s">
         <v>499</v>
@@ -13577,7 +13523,7 @@
         <v>499</v>
       </c>
       <c r="X22" s="21" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Y22" s="21" t="s">
         <v>501</v>
@@ -13598,7 +13544,7 @@
         <v>501</v>
       </c>
       <c r="AE22" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AF22" s="21" t="s">
         <v>499</v>
@@ -13619,19 +13565,19 @@
         <v>499</v>
       </c>
       <c r="AL22" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="AM22" s="21" t="s">
         <v>499</v>
-      </c>
-      <c r="AM22" s="21" t="s">
-        <v>502</v>
       </c>
       <c r="AN22" s="21" t="s">
         <v>499</v>
       </c>
       <c r="AO22" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="AP22" s="21" t="s">
         <v>499</v>
-      </c>
-      <c r="AP22" s="21" t="s">
-        <v>502</v>
       </c>
       <c r="AQ22" s="21" t="s">
         <v>499</v>
@@ -13642,15 +13588,14 @@
       <c r="AS22" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="AT22" s="21" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="23" spans="1:46">
+    </row>
+    <row r="23" spans="1:45">
       <c r="A23" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="21" t="s">
+        <v>504</v>
+      </c>
       <c r="C23" s="21" t="s">
         <v>504</v>
       </c>
@@ -13694,19 +13639,19 @@
         <v>504</v>
       </c>
       <c r="Q23" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="R23" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="R23" s="21" t="s">
+      <c r="S23" s="21" t="s">
         <v>417</v>
-      </c>
-      <c r="S23" s="21" t="s">
-        <v>504</v>
       </c>
       <c r="T23" s="21" t="s">
         <v>417</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>417</v>
+        <v>504</v>
       </c>
       <c r="V23" s="21" t="s">
         <v>504</v>
@@ -13715,7 +13660,7 @@
         <v>504</v>
       </c>
       <c r="X23" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Y23" s="21" t="s">
         <v>505</v>
@@ -13736,7 +13681,7 @@
         <v>505</v>
       </c>
       <c r="AE23" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF23" s="21" t="s">
         <v>504</v>
@@ -13757,19 +13702,19 @@
         <v>504</v>
       </c>
       <c r="AL23" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="AM23" s="21" t="s">
         <v>504</v>
-      </c>
-      <c r="AM23" s="21" t="s">
-        <v>506</v>
       </c>
       <c r="AN23" s="21" t="s">
         <v>504</v>
       </c>
       <c r="AO23" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="AP23" s="21" t="s">
         <v>504</v>
-      </c>
-      <c r="AP23" s="21" t="s">
-        <v>506</v>
       </c>
       <c r="AQ23" s="21" t="s">
         <v>504</v>
@@ -13780,15 +13725,14 @@
       <c r="AS23" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="AT23" s="21" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="24" spans="1:46">
+    </row>
+    <row r="24" spans="1:45">
       <c r="A24" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="21" t="s">
+        <v>508</v>
+      </c>
       <c r="C24" s="21" t="s">
         <v>508</v>
       </c>
@@ -13832,19 +13776,19 @@
         <v>508</v>
       </c>
       <c r="Q24" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="R24" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="R24" s="21" t="s">
+      <c r="S24" s="21" t="s">
         <v>417</v>
-      </c>
-      <c r="S24" s="21" t="s">
-        <v>508</v>
       </c>
       <c r="T24" s="21" t="s">
         <v>417</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>417</v>
+        <v>508</v>
       </c>
       <c r="V24" s="21" t="s">
         <v>508</v>
@@ -13853,7 +13797,7 @@
         <v>508</v>
       </c>
       <c r="X24" s="21" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Y24" s="21" t="s">
         <v>509</v>
@@ -13874,7 +13818,7 @@
         <v>509</v>
       </c>
       <c r="AE24" s="21" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF24" s="21" t="s">
         <v>508</v>
@@ -13895,19 +13839,19 @@
         <v>508</v>
       </c>
       <c r="AL24" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="AM24" s="21" t="s">
         <v>508</v>
-      </c>
-      <c r="AM24" s="21" t="s">
-        <v>510</v>
       </c>
       <c r="AN24" s="21" t="s">
         <v>508</v>
       </c>
       <c r="AO24" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="AP24" s="21" t="s">
         <v>508</v>
-      </c>
-      <c r="AP24" s="21" t="s">
-        <v>510</v>
       </c>
       <c r="AQ24" s="21" t="s">
         <v>508</v>
@@ -13918,15 +13862,14 @@
       <c r="AS24" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="AT24" s="21" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="25" spans="1:46">
+    </row>
+    <row r="25" spans="1:45">
       <c r="A25" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="21" t="s">
+        <v>512</v>
+      </c>
       <c r="C25" s="21" t="s">
         <v>512</v>
       </c>
@@ -13970,19 +13913,19 @@
         <v>512</v>
       </c>
       <c r="Q25" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="R25" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="R25" s="21" t="s">
+      <c r="S25" s="21" t="s">
         <v>417</v>
-      </c>
-      <c r="S25" s="21" t="s">
-        <v>512</v>
       </c>
       <c r="T25" s="21" t="s">
         <v>417</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>417</v>
+        <v>512</v>
       </c>
       <c r="V25" s="21" t="s">
         <v>512</v>
@@ -13991,7 +13934,7 @@
         <v>512</v>
       </c>
       <c r="X25" s="21" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Y25" s="21" t="s">
         <v>513</v>
@@ -14012,7 +13955,7 @@
         <v>513</v>
       </c>
       <c r="AE25" s="21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF25" s="21" t="s">
         <v>512</v>
@@ -14033,19 +13976,19 @@
         <v>512</v>
       </c>
       <c r="AL25" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="AM25" s="21" t="s">
         <v>512</v>
-      </c>
-      <c r="AM25" s="21" t="s">
-        <v>514</v>
       </c>
       <c r="AN25" s="21" t="s">
         <v>512</v>
       </c>
       <c r="AO25" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="AP25" s="21" t="s">
         <v>512</v>
-      </c>
-      <c r="AP25" s="21" t="s">
-        <v>514</v>
       </c>
       <c r="AQ25" s="21" t="s">
         <v>512</v>
@@ -14056,15 +13999,14 @@
       <c r="AS25" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="AT25" s="21" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="26" spans="1:46">
+    </row>
+    <row r="26" spans="1:45">
       <c r="A26" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="21" t="s">
+        <v>516</v>
+      </c>
       <c r="C26" s="21" t="s">
         <v>516</v>
       </c>
@@ -14108,19 +14050,19 @@
         <v>516</v>
       </c>
       <c r="Q26" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="R26" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="R26" s="21" t="s">
+      <c r="S26" s="21" t="s">
         <v>417</v>
-      </c>
-      <c r="S26" s="21" t="s">
-        <v>516</v>
       </c>
       <c r="T26" s="21" t="s">
         <v>417</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>417</v>
+        <v>516</v>
       </c>
       <c r="V26" s="21" t="s">
         <v>516</v>
@@ -14129,7 +14071,7 @@
         <v>516</v>
       </c>
       <c r="X26" s="21" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Y26" s="21" t="s">
         <v>517</v>
@@ -14150,7 +14092,7 @@
         <v>517</v>
       </c>
       <c r="AE26" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AF26" s="21" t="s">
         <v>516</v>
@@ -14171,19 +14113,19 @@
         <v>516</v>
       </c>
       <c r="AL26" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="AM26" s="21" t="s">
         <v>516</v>
-      </c>
-      <c r="AM26" s="21" t="s">
-        <v>518</v>
       </c>
       <c r="AN26" s="21" t="s">
         <v>516</v>
       </c>
       <c r="AO26" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="AP26" s="21" t="s">
         <v>516</v>
-      </c>
-      <c r="AP26" s="21" t="s">
-        <v>518</v>
       </c>
       <c r="AQ26" s="21" t="s">
         <v>516</v>
@@ -14194,11 +14136,8 @@
       <c r="AS26" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="AT26" s="21" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="27" spans="1:46">
+    </row>
+    <row r="27" spans="1:45">
       <c r="A27" s="22" t="s">
         <v>519</v>
       </c>
@@ -14232,9 +14171,9 @@
       <c r="AC27" s="27"/>
       <c r="AD27" s="27"/>
       <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
+      <c r="AF27" s="33"/>
       <c r="AG27" s="33"/>
-      <c r="AH27" s="33"/>
+      <c r="AH27" s="27"/>
       <c r="AI27" s="27"/>
       <c r="AJ27" s="27"/>
       <c r="AK27" s="27"/>
@@ -14246,9 +14185,8 @@
       <c r="AQ27" s="27"/>
       <c r="AR27" s="27"/>
       <c r="AS27" s="27"/>
-      <c r="AT27" s="27"/>
-    </row>
-    <row r="28" spans="1:46">
+    </row>
+    <row r="28" spans="1:45">
       <c r="A28" s="21" t="s">
         <v>520</v>
       </c>
@@ -14259,55 +14197,55 @@
         <v>522</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="R28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="U28" s="21" t="s">
         <v>521</v>
@@ -14316,16 +14254,16 @@
         <v>522</v>
       </c>
       <c r="W28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="X28" s="21" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="Y28" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="Z28" s="21" t="s">
         <v>523</v>
-      </c>
-      <c r="Z28" s="21" t="s">
-        <v>524</v>
       </c>
       <c r="AA28" s="21" t="s">
         <v>523</v>
@@ -14337,58 +14275,55 @@
         <v>523</v>
       </c>
       <c r="AD28" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE28" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF28" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="AE28" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="AF28" s="21" t="s">
-        <v>521</v>
-      </c>
       <c r="AG28" s="21" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AH28" s="21" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AI28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AJ28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AK28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AL28" s="21" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="AM28" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="AN28" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="AO28" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="AN28" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="AO28" s="21" t="s">
-        <v>521</v>
-      </c>
       <c r="AP28" s="21" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AQ28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AR28" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AS28" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="AT28" s="21" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="29" spans="1:46">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45">
       <c r="A29" s="21" t="s">
         <v>527</v>
       </c>
@@ -14459,7 +14394,7 @@
         <v>528</v>
       </c>
       <c r="X29" s="21" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Y29" s="21" t="s">
         <v>529</v>
@@ -14480,16 +14415,16 @@
         <v>529</v>
       </c>
       <c r="AE29" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AF29" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="AG29" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="AH29" s="21" t="s">
         <v>528</v>
-      </c>
-      <c r="AG29" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="AH29" s="21" t="s">
-        <v>531</v>
       </c>
       <c r="AI29" s="21" t="s">
         <v>528</v>
@@ -14501,19 +14436,19 @@
         <v>528</v>
       </c>
       <c r="AL29" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="AM29" s="21" t="s">
         <v>528</v>
-      </c>
-      <c r="AM29" s="21" t="s">
-        <v>532</v>
       </c>
       <c r="AN29" s="21" t="s">
         <v>528</v>
       </c>
       <c r="AO29" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="AP29" s="21" t="s">
         <v>528</v>
-      </c>
-      <c r="AP29" s="21" t="s">
-        <v>533</v>
       </c>
       <c r="AQ29" s="21" t="s">
         <v>528</v>
@@ -14524,11 +14459,8 @@
       <c r="AS29" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="AT29" s="21" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="30" spans="1:46">
+    </row>
+    <row r="30" spans="1:45">
       <c r="A30" s="21" t="s">
         <v>534</v>
       </c>
@@ -14539,67 +14471,67 @@
         <v>536</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K30" s="21" t="s">
         <v>540</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="M30" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N30" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P30" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q30" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="R30" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="S30" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="T30" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="U30" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="V30" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="W30" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="X30" s="21" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="Y30" s="21" t="s">
         <v>541</v>
@@ -14611,49 +14543,49 @@
         <v>541</v>
       </c>
       <c r="AB30" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC30" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="AD30" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="AC30" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="AD30" s="21" t="s">
+      <c r="AE30" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="AF30" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="AE30" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="AF30" s="21" t="s">
-        <v>535</v>
-      </c>
       <c r="AG30" s="21" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AH30" s="21" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="AI30" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AJ30" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AK30" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AL30" s="21" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="AM30" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="AN30" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="AO30" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="AN30" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="AO30" s="21" t="s">
-        <v>535</v>
-      </c>
       <c r="AP30" s="21" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AQ30" s="21" t="s">
         <v>546</v>
@@ -14664,11 +14596,8 @@
       <c r="AS30" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="AT30" s="21" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="31" spans="1:46">
+    </row>
+    <row r="31" spans="1:45">
       <c r="A31" s="21" t="s">
         <v>547</v>
       </c>
@@ -14679,67 +14608,67 @@
         <v>549</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K31" s="21" t="s">
         <v>553</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P31" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Q31" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="R31" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="S31" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="T31" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="U31" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="V31" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="W31" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="X31" s="21" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="Y31" s="21" t="s">
         <v>554</v>
@@ -14748,10 +14677,10 @@
         <v>554</v>
       </c>
       <c r="AA31" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="AB31" s="21" t="s">
         <v>554</v>
-      </c>
-      <c r="AB31" s="21" t="s">
-        <v>555</v>
       </c>
       <c r="AC31" s="21" t="s">
         <v>554</v>
@@ -14760,55 +14689,52 @@
         <v>554</v>
       </c>
       <c r="AE31" s="21" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="AF31" s="21" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="AG31" s="21" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AH31" s="21" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="AI31" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AJ31" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AK31" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AL31" s="21" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="AM31" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="AN31" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="AO31" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="AN31" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="AO31" s="21" t="s">
-        <v>548</v>
-      </c>
       <c r="AP31" s="21" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AQ31" s="21" t="s">
         <v>559</v>
       </c>
       <c r="AR31" s="21" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AS31" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="AT31" s="21" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="32" spans="1:46">
+    <row r="32" spans="1:45">
       <c r="A32" s="21" t="s">
         <v>562</v>
       </c>
@@ -14819,76 +14745,76 @@
         <v>564</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K32" s="28" t="s">
         <v>568</v>
       </c>
       <c r="L32" s="28" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="M32" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N32" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O32" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P32" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q32" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="R32" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="S32" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="T32" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="U32" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="V32" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="W32" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="X32" s="28" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="Y32" s="28" t="s">
         <v>569</v>
       </c>
       <c r="Z32" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="AA32" s="28" t="s">
         <v>569</v>
-      </c>
-      <c r="AA32" s="28" t="s">
-        <v>570</v>
       </c>
       <c r="AB32" s="28" t="s">
         <v>569</v>
@@ -14897,46 +14823,46 @@
         <v>569</v>
       </c>
       <c r="AD32" s="28" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AE32" s="28" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="AF32" s="28" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="AG32" s="28" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AH32" s="28" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="AI32" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AJ32" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AK32" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AL32" s="28" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="AM32" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="AN32" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="AO32" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="AN32" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="AO32" s="28" t="s">
-        <v>563</v>
-      </c>
       <c r="AP32" s="28" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AQ32" s="28" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AR32" s="28" t="s">
         <v>576</v>
@@ -14944,11 +14870,8 @@
       <c r="AS32" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="AT32" s="28" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="33" spans="1:46">
+    </row>
+    <row r="33" spans="1:45">
       <c r="A33" s="25" t="s">
         <v>577</v>
       </c>
@@ -14996,13 +14919,14 @@
       <c r="AQ33" s="29"/>
       <c r="AR33" s="29"/>
       <c r="AS33" s="29"/>
-      <c r="AT33" s="29"/>
-    </row>
-    <row r="34" spans="1:46">
+    </row>
+    <row r="34" spans="1:45">
       <c r="A34" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="21" t="s">
+        <v>578</v>
+      </c>
       <c r="C34" s="21" t="s">
         <v>578</v>
       </c>
@@ -15034,19 +14958,19 @@
         <v>578</v>
       </c>
       <c r="M34" s="21" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N34" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="O34" s="21" t="s">
         <v>579</v>
-      </c>
-      <c r="O34" s="21" t="s">
-        <v>580</v>
       </c>
       <c r="P34" s="21" t="s">
         <v>579</v>
       </c>
       <c r="Q34" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="R34" s="21" t="s">
         <v>578</v>
@@ -15055,10 +14979,10 @@
         <v>578</v>
       </c>
       <c r="T34" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="U34" s="21" t="s">
         <v>578</v>
-      </c>
-      <c r="U34" s="21" t="s">
-        <v>579</v>
       </c>
       <c r="V34" s="21" t="s">
         <v>578</v>
@@ -15067,7 +14991,7 @@
         <v>578</v>
       </c>
       <c r="X34" s="21" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="Y34" s="21" t="s">
         <v>581</v>
@@ -15088,19 +15012,19 @@
         <v>581</v>
       </c>
       <c r="AE34" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="AF34" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="AF34" s="21" t="s">
-        <v>582</v>
-      </c>
       <c r="AG34" s="21" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AH34" s="21" t="s">
-        <v>583</v>
+        <v>502</v>
       </c>
       <c r="AI34" s="21" t="s">
-        <v>502</v>
+        <v>578</v>
       </c>
       <c r="AJ34" s="21" t="s">
         <v>578</v>
@@ -15109,19 +15033,19 @@
         <v>578</v>
       </c>
       <c r="AL34" s="21" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="AM34" s="21" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="AN34" s="21" t="s">
         <v>580</v>
       </c>
       <c r="AO34" s="21" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="AP34" s="21" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="AQ34" s="21" t="s">
         <v>578</v>
@@ -15132,15 +15056,14 @@
       <c r="AS34" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="AT34" s="21" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="35" spans="1:46">
+    </row>
+    <row r="35" spans="1:45">
       <c r="A35" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="21" t="s">
+        <v>585</v>
+      </c>
       <c r="C35" s="21" t="s">
         <v>585</v>
       </c>
@@ -15172,19 +15095,19 @@
         <v>585</v>
       </c>
       <c r="M35" s="21" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N35" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="O35" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q35" s="21" t="s">
         <v>586</v>
-      </c>
-      <c r="O35" s="21" t="s">
-        <v>587</v>
-      </c>
-      <c r="P35" s="21" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q35" s="21" t="s">
-        <v>587</v>
       </c>
       <c r="R35" s="21" t="s">
         <v>586</v>
@@ -15193,19 +15116,19 @@
         <v>586</v>
       </c>
       <c r="T35" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="U35" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="U35" s="21" t="s">
-        <v>587</v>
-      </c>
       <c r="V35" s="21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="W35" s="21" t="s">
         <v>585</v>
       </c>
       <c r="X35" s="21" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="Y35" s="21" t="s">
         <v>589</v>
@@ -15226,19 +15149,19 @@
         <v>589</v>
       </c>
       <c r="AE35" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="AF35" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="AF35" s="21" t="s">
-        <v>590</v>
-      </c>
       <c r="AG35" s="21" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AH35" s="21" t="s">
-        <v>591</v>
+        <v>506</v>
       </c>
       <c r="AI35" s="21" t="s">
-        <v>506</v>
+        <v>585</v>
       </c>
       <c r="AJ35" s="21" t="s">
         <v>585</v>
@@ -15247,19 +15170,19 @@
         <v>585</v>
       </c>
       <c r="AL35" s="21" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="AM35" s="21" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="AN35" s="21" t="s">
         <v>587</v>
       </c>
       <c r="AO35" s="21" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="AP35" s="21" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="AQ35" s="21" t="s">
         <v>585</v>
@@ -15270,15 +15193,14 @@
       <c r="AS35" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="AT35" s="21" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="36" spans="1:46">
+    </row>
+    <row r="36" spans="1:45">
       <c r="A36" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="21" t="s">
+        <v>593</v>
+      </c>
       <c r="C36" s="21" t="s">
         <v>593</v>
       </c>
@@ -15310,19 +15232,19 @@
         <v>593</v>
       </c>
       <c r="M36" s="21" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N36" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="O36" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="P36" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q36" s="21" t="s">
         <v>594</v>
-      </c>
-      <c r="O36" s="21" t="s">
-        <v>587</v>
-      </c>
-      <c r="P36" s="21" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q36" s="21" t="s">
-        <v>587</v>
       </c>
       <c r="R36" s="21" t="s">
         <v>594</v>
@@ -15331,19 +15253,19 @@
         <v>594</v>
       </c>
       <c r="T36" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="U36" s="21" t="s">
         <v>594</v>
       </c>
-      <c r="U36" s="21" t="s">
-        <v>587</v>
-      </c>
       <c r="V36" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="W36" s="21" t="s">
         <v>593</v>
       </c>
       <c r="X36" s="21" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="Y36" s="21" t="s">
         <v>596</v>
@@ -15364,19 +15286,19 @@
         <v>596</v>
       </c>
       <c r="AE36" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="AF36" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="AF36" s="21" t="s">
-        <v>597</v>
-      </c>
       <c r="AG36" s="21" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AH36" s="21" t="s">
-        <v>598</v>
+        <v>510</v>
       </c>
       <c r="AI36" s="21" t="s">
-        <v>510</v>
+        <v>593</v>
       </c>
       <c r="AJ36" s="21" t="s">
         <v>593</v>
@@ -15385,19 +15307,19 @@
         <v>593</v>
       </c>
       <c r="AL36" s="21" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="AM36" s="21" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="AN36" s="21" t="s">
         <v>587</v>
       </c>
       <c r="AO36" s="21" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AP36" s="21" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="AQ36" s="21" t="s">
         <v>593</v>
@@ -15408,15 +15330,14 @@
       <c r="AS36" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="AT36" s="21" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="37" spans="1:46">
+    </row>
+    <row r="37" spans="1:45">
       <c r="A37" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="21" t="s">
+        <v>600</v>
+      </c>
       <c r="C37" s="21" t="s">
         <v>600</v>
       </c>
@@ -15448,19 +15369,19 @@
         <v>600</v>
       </c>
       <c r="M37" s="21" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N37" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="P37" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q37" s="21" t="s">
         <v>601</v>
-      </c>
-      <c r="O37" s="21" t="s">
-        <v>587</v>
-      </c>
-      <c r="P37" s="21" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q37" s="21" t="s">
-        <v>587</v>
       </c>
       <c r="R37" s="21" t="s">
         <v>601</v>
@@ -15469,19 +15390,19 @@
         <v>601</v>
       </c>
       <c r="T37" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="U37" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="U37" s="21" t="s">
-        <v>587</v>
-      </c>
       <c r="V37" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W37" s="21" t="s">
         <v>600</v>
       </c>
       <c r="X37" s="21" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="Y37" s="21" t="s">
         <v>603</v>
@@ -15502,19 +15423,19 @@
         <v>603</v>
       </c>
       <c r="AE37" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="AF37" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="AF37" s="21" t="s">
-        <v>604</v>
-      </c>
       <c r="AG37" s="21" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AH37" s="21" t="s">
-        <v>605</v>
+        <v>514</v>
       </c>
       <c r="AI37" s="21" t="s">
-        <v>514</v>
+        <v>600</v>
       </c>
       <c r="AJ37" s="21" t="s">
         <v>600</v>
@@ -15523,19 +15444,19 @@
         <v>600</v>
       </c>
       <c r="AL37" s="21" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="AM37" s="21" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="AN37" s="21" t="s">
         <v>587</v>
       </c>
       <c r="AO37" s="21" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="AP37" s="21" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="AQ37" s="21" t="s">
         <v>600</v>
@@ -15546,15 +15467,14 @@
       <c r="AS37" s="21" t="s">
         <v>600</v>
       </c>
-      <c r="AT37" s="21" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="38" spans="1:46">
+    </row>
+    <row r="38" spans="1:45">
       <c r="A38" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="B38" s="21"/>
+      <c r="B38" s="21" t="s">
+        <v>607</v>
+      </c>
       <c r="C38" s="21" t="s">
         <v>607</v>
       </c>
@@ -15586,19 +15506,19 @@
         <v>607</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N38" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="P38" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q38" s="21" t="s">
         <v>608</v>
-      </c>
-      <c r="O38" s="21" t="s">
-        <v>587</v>
-      </c>
-      <c r="P38" s="21" t="s">
-        <v>609</v>
-      </c>
-      <c r="Q38" s="21" t="s">
-        <v>587</v>
       </c>
       <c r="R38" s="21" t="s">
         <v>608</v>
@@ -15607,19 +15527,19 @@
         <v>608</v>
       </c>
       <c r="T38" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="U38" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="U38" s="21" t="s">
-        <v>587</v>
-      </c>
       <c r="V38" s="21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="W38" s="21" t="s">
         <v>607</v>
       </c>
       <c r="X38" s="21" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="Y38" s="21" t="s">
         <v>610</v>
@@ -15640,19 +15560,19 @@
         <v>610</v>
       </c>
       <c r="AE38" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="AF38" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="AF38" s="21" t="s">
-        <v>611</v>
-      </c>
       <c r="AG38" s="21" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AH38" s="21" t="s">
-        <v>612</v>
+        <v>518</v>
       </c>
       <c r="AI38" s="21" t="s">
-        <v>518</v>
+        <v>607</v>
       </c>
       <c r="AJ38" s="21" t="s">
         <v>607</v>
@@ -15661,19 +15581,19 @@
         <v>607</v>
       </c>
       <c r="AL38" s="21" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="AM38" s="21" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="AN38" s="21" t="s">
         <v>587</v>
       </c>
       <c r="AO38" s="21" t="s">
-        <v>587</v>
+        <v>613</v>
       </c>
       <c r="AP38" s="21" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="AQ38" s="21" t="s">
         <v>607</v>
@@ -15684,11 +15604,8 @@
       <c r="AS38" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="AT38" s="21" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="39" spans="1:46">
+    </row>
+    <row r="39" spans="1:45">
       <c r="A39" s="25" t="s">
         <v>614</v>
       </c>
@@ -15736,9 +15653,8 @@
       <c r="AQ39" s="26"/>
       <c r="AR39" s="26"/>
       <c r="AS39" s="26"/>
-      <c r="AT39" s="26"/>
-    </row>
-    <row r="40" spans="1:46">
+    </row>
+    <row r="40" spans="1:45">
       <c r="A40" s="21" t="s">
         <v>85</v>
       </c>
@@ -15874,11 +15790,8 @@
       <c r="AS40" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="AT40" s="21" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="41" spans="1:46">
+    </row>
+    <row r="41" spans="1:45">
       <c r="A41" s="30" t="s">
         <v>168</v>
       </c>
@@ -15926,9 +15839,8 @@
       <c r="AQ41" s="30"/>
       <c r="AR41" s="30"/>
       <c r="AS41" s="30"/>
-      <c r="AT41" s="30"/>
-    </row>
-    <row r="42" spans="1:46">
+    </row>
+    <row r="42" spans="1:45">
       <c r="A42" s="10" t="s">
         <v>169</v>
       </c>
@@ -15939,112 +15851,112 @@
         <v>171</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="S42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="T42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="U42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="V42" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="M42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="N42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="O42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="P42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="R42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="S42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="T42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="U42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="V42" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="W42" s="10" t="s">
         <v>170</v>
       </c>
       <c r="X42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL42" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM42" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="Y42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AJ42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM42" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="AN42" s="10" t="s">
         <v>170</v>
@@ -16053,7 +15965,7 @@
         <v>170</v>
       </c>
       <c r="AP42" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AQ42" s="10" t="s">
         <v>171</v>
@@ -16064,20 +15976,17 @@
       <c r="AS42" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="AT42" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:46">
+    </row>
+    <row r="43" spans="1:45">
       <c r="A43" s="10" t="s">
         <v>172</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10" t="s">
+      <c r="D43" s="10" t="s">
         <v>173</v>
       </c>
+      <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -16094,10 +16003,10 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10" t="s">
+      <c r="V43" s="10" t="s">
         <v>173</v>
       </c>
+      <c r="W43" s="10"/>
       <c r="X43" s="10"/>
       <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
@@ -16113,22 +16022,21 @@
       <c r="AJ43" s="10"/>
       <c r="AK43" s="10"/>
       <c r="AL43" s="10"/>
-      <c r="AM43" s="10"/>
+      <c r="AM43" s="10" t="s">
+        <v>616</v>
+      </c>
       <c r="AN43" s="10" t="s">
         <v>616</v>
       </c>
       <c r="AO43" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AP43" s="10" t="s">
-        <v>616</v>
-      </c>
+      <c r="AP43" s="10"/>
       <c r="AQ43" s="10"/>
       <c r="AR43" s="10"/>
       <c r="AS43" s="10"/>
-      <c r="AT43" s="10"/>
-    </row>
-    <row r="44" spans="1:46">
+    </row>
+    <row r="44" spans="1:45">
       <c r="A44" s="10" t="s">
         <v>174</v>
       </c>
@@ -16142,109 +16050,109 @@
         <v>171</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="R44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="S44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="T44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="U44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM44" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="N44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="O44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="P44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="R44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="S44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="T44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="U44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="V44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="W44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="X44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AJ44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL44" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM44" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="AN44" s="10" t="s">
         <v>170</v>
@@ -16253,7 +16161,7 @@
         <v>170</v>
       </c>
       <c r="AP44" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AQ44" s="10" t="s">
         <v>171</v>
@@ -16264,11 +16172,8 @@
       <c r="AS44" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="AT44" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:46">
+    </row>
+    <row r="45" spans="1:45">
       <c r="A45" s="10" t="s">
         <v>175</v>
       </c>
@@ -16309,33 +16214,32 @@
       <c r="AJ45" s="8"/>
       <c r="AK45" s="8"/>
       <c r="AL45" s="8"/>
-      <c r="AM45" s="8"/>
+      <c r="AM45" s="8" t="s">
+        <v>617</v>
+      </c>
       <c r="AN45" s="8" t="s">
         <v>617</v>
       </c>
       <c r="AO45" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="AP45" s="8" t="s">
-        <v>617</v>
-      </c>
+      <c r="AP45" s="8"/>
       <c r="AQ45" s="8"/>
       <c r="AR45" s="8"/>
       <c r="AS45" s="8"/>
-      <c r="AT45" s="8"/>
-    </row>
-    <row r="46" spans="1:46">
+    </row>
+    <row r="46" spans="1:45">
       <c r="A46" s="10" t="s">
         <v>618</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>171</v>
-      </c>
       <c r="D46" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>171</v>
@@ -16460,86 +16364,82 @@
       <c r="AS46" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="AT46" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row ht="72.5" r="48" spans="1:3">
+    </row>
+    <row r="48" ht="72.5" spans="1:2">
       <c r="A48" s="16" t="s">
         <v>619</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="B48" s="31" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="16" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="16" t="s">
         <v>621</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B42 C42:AF42 AG42 AH42 AI42:AN42 AO42 AP42:AR42 AS42 AT42 B44 C44:AF44 AG44 AH44 AI44:AN44 AO44 AP44:AR44 AS44 AT44 B46 C46:AF46 AG46 AH46 AI46:AN46 AO46 AP46:AR46 AS46 AT46" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42:AE42 AF42 AG42 AH42:AM42 AN42 AO42:AQ42 AR42 AS42 B44:AE44 AF44 AG44 AH44:AM44 AN44 AO44:AQ44 AR44 AS44 B46:AE46 AF46 AG46 AH46:AM46 AN46 AO46:AQ46 AR46 AS46">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="G32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;TESTDYLAN@GMAIL.COM&quot;" r:id="rId1" ref="H32"/>
-    <hyperlink display="&quot;TESTDYLAN@GMAIL.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="I32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH11111@GMAIL.COM&quot;" r:id="rId1" ref="J32"/>
-    <hyperlink display="&quot;USERCIIE11111@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="K32"/>
-    <hyperlink display="&quot;USERCIIE11111@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="L32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="N32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="O32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="P32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AP32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AN32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AO32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;" r:id="rId1" ref="Y32"/>
-    <hyperlink display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="C32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="U32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="Q32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="R32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="S32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="T32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AM32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;" r:id="rId1" ref="Z32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;" r:id="rId1" ref="AB32"/>
-    <hyperlink display="&quot;&quot;;&quot;&quot;;&quot;&quot;" r:id="rId1" ref="AA32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;" r:id="rId1" ref="AC32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;" r:id="rId1" ref="AD32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="D32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="E32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="F32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="V32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="W32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="X32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AF32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AI32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AJ32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AK32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AL32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="M32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJCJ@ESIGNHUB.MY.ID&quot;" r:id="rId1" ref="AQ32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;&quot;" r:id="rId1" ref="AR32"/>
-    <hyperlink display="&quot;USERCJAH@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;" r:id="rId1" ref="AE32"/>
-    <hyperlink display="&quot;USERCIAF@GMAIL.COM&quot;;&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="AG32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="AH32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;&quot;" r:id="rId1" ref="AS32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;&quot;" r:id="rId1" ref="AT32"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;" r:id="rId1" ref="B32"/>
+    <hyperlink ref="F32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="G32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;TESTDYLAN@GMAIL.COM&quot;"/>
+    <hyperlink ref="H32" r:id="rId1" display="&quot;TESTDYLAN@GMAIL.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="I32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH11111@GMAIL.COM&quot;"/>
+    <hyperlink ref="J32" r:id="rId1" display="&quot;USERCIIE11111@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="K32" r:id="rId1" display="&quot;USERCIIE11111@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="M32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="N32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="O32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AO32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AM32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AN32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="X32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="B32" r:id="rId1" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="T32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="P32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="Q32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="R32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="S32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AL32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;|&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="Y32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="AA32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="Z32" r:id="rId1" display="&quot;&quot;;&quot;&quot;;&quot;&quot;"/>
+    <hyperlink ref="AB32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="AC32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="C32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="D32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="E32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="U32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="V32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="W32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AE32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AH32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AI32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AJ32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AK32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="L32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AP32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJCJ@ESIGNHUB.MY.ID&quot;"/>
+    <hyperlink ref="AQ32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;&quot;"/>
+    <hyperlink ref="AD32" r:id="rId1" display="&quot;USERCJAH@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="AF32" r:id="rId1" display="&quot;USERCIAF@GMAIL.COM&quot;;&quot;USERCIIE@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AG32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
+    <hyperlink ref="AR32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;&quot;"/>
+    <hyperlink ref="AS32" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;;&quot;&quot;"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -16547,19 +16447,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.5727272727273" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.2818181818182" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.7090909090909" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.5727272727273" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="24.4272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.1363636363636" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.5727272727273" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="31.5727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="26.5727272727273" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="42.7090909090909" collapsed="true"/>
-    <col min="12" max="14" customWidth="true" width="18.5727272727273" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="56.2818181818182" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" width="18.5727272727273" collapsed="true"/>
+    <col min="1" max="1" width="18.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="31.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="42.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="12" max="14" width="18.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="56.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="18.5727272727273" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -16654,7 +16554,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row ht="43.5" r="3" spans="1:17">
+    <row r="3" ht="43.5" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>339</v>
       </c>
@@ -17221,62 +17121,62 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14 C14:J14 K14 L14:N14 O14 P14 Q14 B16 C16 D16 E16 F16 G16 H16 I16 J16 K16 L16 M16 N16 O16 P16 Q16" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 C14:J14 K14 L14:N14 O14 P14 Q14 B16 C16 D16 E16 F16 G16 H16 I16 J16 K16 L16 M16 N16 O16 P16 Q16">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="B9"/>
-    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="C9"/>
-    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="D9"/>
-    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="E9"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="B11"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="C11"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="D11"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.CO.INS.ID&quot;" r:id="rId1" ref="E11"/>
-    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="F9"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="F11"/>
-    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="G9"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="G11"/>
-    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="H9"/>
-    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="I9"/>
-    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="J9"/>
-    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="L9"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="L11"/>
-    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="M9"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="M11"/>
-    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="N9"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="N11"/>
-    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="O9"/>
-    <hyperlink display="&quot;USERCIIE@AD-INS.COM&quot;" r:id="rId1" ref="O11"/>
-    <hyperlink display="&quot;tafs&quot;" r:id="rId1" ref="K9"/>
+    <hyperlink ref="B9" r:id="rId1" display="&quot;tafs&quot;"/>
+    <hyperlink ref="C9" r:id="rId1" display="&quot;tafs&quot;"/>
+    <hyperlink ref="D9" r:id="rId1" display="&quot;tafs&quot;"/>
+    <hyperlink ref="E9" r:id="rId1" display="&quot;tafs&quot;"/>
+    <hyperlink ref="B11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
+    <hyperlink ref="C11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
+    <hyperlink ref="D11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
+    <hyperlink ref="E11" r:id="rId1" display="&quot;USERCIIE@AD-INS.CO.INS.ID&quot;"/>
+    <hyperlink ref="F9" r:id="rId1" display="&quot;tafs&quot;"/>
+    <hyperlink ref="F11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
+    <hyperlink ref="G9" r:id="rId1" display="&quot;tafs&quot;"/>
+    <hyperlink ref="G11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
+    <hyperlink ref="H9" r:id="rId1" display="&quot;tafs&quot;"/>
+    <hyperlink ref="I9" r:id="rId1" display="&quot;tafs&quot;"/>
+    <hyperlink ref="J9" r:id="rId1" display="&quot;tafs&quot;"/>
+    <hyperlink ref="L9" r:id="rId1" display="&quot;tafs&quot;"/>
+    <hyperlink ref="L11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
+    <hyperlink ref="M9" r:id="rId1" display="&quot;tafs&quot;"/>
+    <hyperlink ref="M11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
+    <hyperlink ref="N9" r:id="rId1" display="&quot;tafs&quot;"/>
+    <hyperlink ref="N11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
+    <hyperlink ref="O9" r:id="rId1" display="&quot;tafs&quot;"/>
+    <hyperlink ref="O11" r:id="rId1" display="&quot;USERCIIE@AD-INS.COM&quot;"/>
+    <hyperlink ref="K9" r:id="rId1" display="&quot;tafs&quot;"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD26"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.5727272727273" collapsed="true"/>
-    <col min="2" max="6" customWidth="true" width="35.7090909090909" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="35.8545454545455" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="36.1363636363636" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="35.8545454545455" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="35.1363636363636" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="35.5727272727273" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="36.1363636363636" collapsed="true"/>
-    <col min="15" max="16" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="17" max="29" customWidth="true" width="55.2818181818182" collapsed="true"/>
+    <col min="1" max="1" width="18.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="6" width="35.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="35.8545454545455" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="36.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="35.8545454545455" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="35.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="35.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="36.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="35" customWidth="1" collapsed="1"/>
+    <col min="17" max="29" width="55.2818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -17457,7 +17357,7 @@
         <v>677</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:29">
+    <row r="3" ht="29" spans="1:29">
       <c r="A3" s="2" t="s">
         <v>339</v>
       </c>
@@ -18985,7 +18885,7 @@
         <v>171</v>
       </c>
     </row>
-    <row customFormat="1" r="25" s="1" spans="1:29">
+    <row r="25" s="1" customFormat="1" spans="1:29">
       <c r="A25" s="11" t="s">
         <v>614</v>
       </c>
@@ -19109,11 +19009,11 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17 C17 D17 E17 F17 G17 H17 I17 J17 K17 L17 M17 N17 O17 P17 Q17 R17 S17 T17 U17 V17 W17 X17 Y17 Z17 AA17 AB17 AC17 B19 C19 D19 E19 F19 G19 H19 I19 J19 K19 L19 M19 N19 O19 P19 Q19 R19 S19 T19 U19 V19 W19 X19 Y19 Z19 AA19 AB19 AC19 B21 C21 D21 E21 F21 G21 H21 I21 J21 K21 L21 M21 N21 O21 P21 Q21 R21 S21 T21 U21 V21 W21 X21 Y21 Z21 AA21 AB21 AC21 B23 C23 D23 E23 F23 G23 H23 I23 J23 K23 L23 M23 N23 O23 P23 Q23 R23 S23 T23 U23 V23 W23 X23 Y23 Z23 AA23 AB23 AC23 B24 C24 D24 E24 F24 G24 H24 I24 J24 K24 L24 M24 N24 O24 P24 Q24 R24 S24 T24 U24 V24 W24 X24 Y24 Z24 AA24 AB24 AC24" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 C17 D17 E17 F17 G17 H17 I17 J17 K17 L17 M17 N17 O17 P17 Q17 R17 S17 T17 U17 V17 W17 X17 Y17 Z17 AA17 AB17 AC17 B19 C19 D19 E19 F19 G19 H19 I19 J19 K19 L19 M19 N19 O19 P19 Q19 R19 S19 T19 U19 V19 W19 X19 Y19 Z19 AA19 AB19 AC19 B21 C21 D21 E21 F21 G21 H21 I21 J21 K21 L21 M21 N21 O21 P21 Q21 R21 S21 T21 U21 V21 W21 X21 Y21 Z21 AA21 AB21 AC21 B23 C23 D23 E23 F23 G23 H23 I23 J23 K23 L23 M23 N23 O23 P23 Q23 R23 S23 T23 U23 V23 W23 X23 Y23 Z23 AA23 AB23 AC23 B24 C24 D24 E24 F24 G24 H24 I24 J24 K24 L24 M24 N24 O24 P24 Q24 R24 S24 T24 U24 V24 W24 X24 Y24 Z24 AA24 AB24 AC24">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/2.1 Esign - Full API Services.xlsx
+++ b/Excel/2.1 Esign - Full API Services.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="7" firstSheet="6" windowHeight="7065" windowWidth="18525" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="6" firstSheet="4" windowHeight="7065" windowWidth="18525" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="API Registrasi" r:id="rId1" sheetId="17"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3915" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3982" uniqueCount="764">
   <si>
     <t>Status</t>
   </si>
@@ -893,21 +893,6 @@
     <t>"0000003"</t>
   </si>
   <si>
-    <t>Document dengan ID 00163E01-4CB0-A3C3-11EC-722E4995AA10 tidak ditemukan</t>
-  </si>
-  <si>
-    <t>Document dengan ID DOC-0001-0004 tidak ditemukan</t>
-  </si>
-  <si>
-    <t>Fail download object from OSS, key=signing_document/2023/4/00155D0B-7502-81A3-11ED-E24833ED5D30.pdf</t>
-  </si>
-  <si>
-    <t>Fail download object from OSS, key=signing_document/2023/3/00155D0B-7502-8C17-11ED-CC86678AB160.pdf</t>
-  </si>
-  <si>
-    <t>Email USER@AD-INS.COM tidak ditemukan di sistem</t>
-  </si>
-  <si>
     <t>Request dengan document exist tapi milik tenant lain</t>
   </si>
   <si>
@@ -1292,16 +1277,10 @@
     <t>"dokumen yang dikirim per 36"</t>
   </si>
   <si>
-    <t>"dokumen yang dikirim per 37"</t>
-  </si>
-  <si>
     <t>"dokumen yang dikirim per 38"</t>
   </si>
   <si>
     <t>"dokumen yang dikirim per 39"</t>
-  </si>
-  <si>
-    <t>"dokumen yang dikirim per 40"</t>
   </si>
   <si>
     <t>"dokumen yang dikirim per 41"</t>
@@ -1824,12 +1803,6 @@
     <t>Request dengan genset diset true</t>
   </si>
   <si>
-    <t>94329</t>
-  </si>
-  <si>
-    <t>94330</t>
-  </si>
-  <si>
     <t>Parameter Service</t>
   </si>
   <si>
@@ -2106,10 +2079,151 @@
     <t>Use Correct ipAddress</t>
   </si>
   <si>
-    <t>00155D0B-7502-9DD7-11ED-EEDB5C762AD0</t>
-  </si>
-  <si>
-    <t>94710</t>
+    <t>;|;||</t>
+  </si>
+  <si>
+    <t>;|3;4||</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>["00155D0B-7502-9DD7-11ED-EEDBB1E38580"]</t>
+  </si>
+  <si>
+    <t>["00155D0B-7502-9DD7-11ED-EEDBC0627580"]</t>
+  </si>
+  <si>
+    <t>["00155D0B-7502-B9A9-11ED-EEDF96C453C0"]</t>
+  </si>
+  <si>
+    <t>IP Address tidak boleh kosong / null</t>
+  </si>
+  <si>
+    <t>Browser tidak boleh kosong / null</t>
+  </si>
+  <si>
+    <t>Document dengan Id 00155D0B-7502-9DD7-11ED-EEDBB1E38580 sudah selesai di tanda tangan.</t>
+  </si>
+  <si>
+    <t>Image resolution too small</t>
+  </si>
+  <si>
+    <t>94732</t>
+  </si>
+  <si>
+    <t>Verifikasi user gagal. Foto Diri tidak sesuai.</t>
+  </si>
+  <si>
+    <t>Kode OTP salah</t>
+  </si>
+  <si>
+    <t>["00155D0B-7502-9DD7-11ED-EEDBF3F8A2C0"]</t>
+  </si>
+  <si>
+    <t>94738</t>
+  </si>
+  <si>
+    <t>-;Tanda Tangan Gagal</t>
+  </si>
+  <si>
+    <t>User dengan nomor handphone 08123344440300 tidak ditemukan</t>
+  </si>
+  <si>
+    <t>User dengan email USERCIIE@AD-INS.CO.INS.ID tidak ditemukan</t>
+  </si>
+  <si>
+    <t>User dengan nomor handphone 082283949900 tidak terdaftar dengan email USERCIIE@AD-INS.COM</t>
+  </si>
+  <si>
+    <t>User dengan nomor handphone 0822839490000 tidak ditemukan</t>
+  </si>
+  <si>
+    <t>User dengan email USERSIAISAISA@GMAIL.COM tidak ditemukan</t>
+  </si>
+  <si>
+    <t>94745</t>
+  </si>
+  <si>
+    <t>415942</t>
+  </si>
+  <si>
+    <t>User dengan email TESTDYLAN@GMAIL.COM belum aktivasi</t>
+  </si>
+  <si>
+    <t>Dokumen dengan No Kontrak : 000000555555555 tidak ditemukan di tenant WOMF</t>
+  </si>
+  <si>
+    <t>94746</t>
+  </si>
+  <si>
+    <t>691390</t>
+  </si>
+  <si>
+    <t>94747</t>
+  </si>
+  <si>
+    <t>311375</t>
+  </si>
+  <si>
+    <t>Dokumen dengan No Kontrak : 559 sudah selesai ditanda tangan</t>
+  </si>
+  <si>
+    <t>Document dengan ID 00163E01-4CB0-A3C3-11EC-722E4995AA10 tidak ditemukan</t>
+  </si>
+  <si>
+    <t>Document dengan ID DOC-0001-0004 tidak ditemukan</t>
+  </si>
+  <si>
+    <t>Email USER@AD-INS.COM tidak ditemukan di sistem</t>
+  </si>
+  <si>
+    <t>file tidak ditemukan</t>
+  </si>
+  <si>
+    <t>"dokumen yang dikirim per 37";"dokumen yang dikirim per 38"</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B9F5-11ED-EFA92E18EB90</t>
+  </si>
+  <si>
+    <t>94780</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B9F5-11ED-EFA93A888390</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B9F5-11ED-EFA947C77980</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B9F5-11ED-EFA9523267E0</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B9F5-11ED-EFA96EBA5490</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B9F5-11ED-EFA971E99B80</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B9F5-11ED-EFA9822AFC00</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B9F5-11ED-EFA985324890</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B9F5-11ED-EFA988380E80</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B9F5-11ED-EFA98AF2C1B0</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B9F5-11ED-EFA997BAB2E0</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B45E-11ED-EFAC47C9E320</t>
+  </si>
+  <si>
+    <t>94781</t>
   </si>
   <si>
     <t>;String Base64 Document File tidak valid</t>
@@ -2121,7 +2235,7 @@
     <t>;Tenant tidak ditemukan</t>
   </si>
   <si>
-    <t>00155D0B-7502-9DD7-11ED-EEDBB1E38580</t>
+    <t>00155D0B-7502-B45E-11ED-EFAC544959A0</t>
   </si>
   <si>
     <t>;Penandatangan dengan Tipe Customer dan No HP 089654990200 belum melakukan aktivasi</t>
@@ -2139,12 +2253,18 @@
     <t>;1BM1CUST1SPSWS tidak tercatat di sistem</t>
   </si>
   <si>
-    <t>00155D0B-7502-9DD7-11ED-EEDBC0627580</t>
+    <t>00155D0B-7502-B45E-11ED-EFAC6325ABE0</t>
   </si>
   <si>
     <t>;Pastikan lokasi tanda tangan dan meterai sudah lengkap</t>
   </si>
   <si>
+    <t>;Mohon sediakan parameter wajib : documentTemplateCode</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B45E-11ED-EFAC6F6D7090</t>
+  </si>
+  <si>
     <t>;User 3511000101802884 tidak bisa melakukan autosign. Mohon kirim ulang dokumen.</t>
   </si>
   <si>
@@ -2166,22 +2286,25 @@
     <t>;NIK sudah terdaftar dengan email USERCIIE@AD-INS.COM, berbeda dengan email yang direquest yaitu USERCJAH@AD-INS.COM</t>
   </si>
   <si>
-    <t>00155D0B-7502-9DD7-11ED-EEDBF0418E30</t>
-  </si>
-  <si>
-    <t>00155D0B-7502-9DD7-11ED-EEDBF3F8A2C0</t>
+    <t>00155D0B-7502-B45E-11ED-EFAC8BDA5B30</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B45E-11ED-EFAC8F084290</t>
   </si>
   <si>
     <t>;Data untuk signer type MF harus dikirimkan unuk templat dokumen 1BM1CUST</t>
   </si>
   <si>
-    <t>00155D0B-7502-9DD7-11ED-EEDBFC7F8EE0</t>
-  </si>
-  <si>
-    <t>00155D0B-7502-9DD7-11ED-EEDBFFA4C3B0</t>
-  </si>
-  <si>
-    <t>00155D0B-7502-9DD7-11ED-EEDC02FB41B0</t>
+    <t>00155D0B-7502-B45E-11ED-EFAC93B5EC20</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B45E-11ED-EFAC96C48BB0</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B45E-11ED-EFAC99F4BD00</t>
+  </si>
+  <si>
+    <t>00155D0B-7502-B45E-11ED-EFAC9CE09250</t>
   </si>
   <si>
     <t>;Tenant dari dokumen berbeda dengan tenant dari x-api-key</t>
@@ -2190,112 +2313,13 @@
     <t>;Kosongkan parameter email untuk NIK 3511000101802929 karena sudah terdaftar dengan email dari sistem</t>
   </si>
   <si>
-    <t>00155D0B-7502-9DD7-11ED-EEDC115F2FA0</t>
+    <t>00155D0B-7502-B45E-11ED-EFACB66921B0</t>
   </si>
   <si>
     <t>;Email harus diisi untuk NIK 3511000101802805</t>
   </si>
   <si>
     <t>;Nomor Telepon terdaftar dengan NIK 3511000101802929, berbeda dengan NIK yang direquest yaitu 3511000101802333</t>
-  </si>
-  <si>
-    <t>;|;||</t>
-  </si>
-  <si>
-    <t>;|3;4||</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>;Mohon sediakan parameter wajib : documentTemplateCode</t>
-  </si>
-  <si>
-    <t>00155D0B-7502-B9A9-11ED-EEDF96C453C0</t>
-  </si>
-  <si>
-    <t>00155D0B-7502-B9A9-11ED-EEE1E92016C0</t>
-  </si>
-  <si>
-    <t>["00155D0B-7502-9DD7-11ED-EEDBB1E38580"]</t>
-  </si>
-  <si>
-    <t>["00155D0B-7502-9DD7-11ED-EEDBC0627580"]</t>
-  </si>
-  <si>
-    <t>["00155D0B-7502-B9A9-11ED-EEDF96C453C0"]</t>
-  </si>
-  <si>
-    <t>IP Address tidak boleh kosong / null</t>
-  </si>
-  <si>
-    <t>Browser tidak boleh kosong / null</t>
-  </si>
-  <si>
-    <t>Document dengan Id 00155D0B-7502-9DD7-11ED-EEDBB1E38580 sudah selesai di tanda tangan.</t>
-  </si>
-  <si>
-    <t>Image resolution too small</t>
-  </si>
-  <si>
-    <t>94732</t>
-  </si>
-  <si>
-    <t>Verifikasi user gagal. Foto Diri tidak sesuai.</t>
-  </si>
-  <si>
-    <t>Kode OTP salah</t>
-  </si>
-  <si>
-    <t>["00155D0B-7502-9DD7-11ED-EEDBF3F8A2C0"]</t>
-  </si>
-  <si>
-    <t>94738</t>
-  </si>
-  <si>
-    <t>-;Tanda Tangan Gagal</t>
-  </si>
-  <si>
-    <t>User dengan nomor handphone 08123344440300 tidak ditemukan</t>
-  </si>
-  <si>
-    <t>User dengan email USERCIIE@AD-INS.CO.INS.ID tidak ditemukan</t>
-  </si>
-  <si>
-    <t>User dengan nomor handphone 082283949900 tidak terdaftar dengan email USERCIIE@AD-INS.COM</t>
-  </si>
-  <si>
-    <t>User dengan nomor handphone 0822839490000 tidak ditemukan</t>
-  </si>
-  <si>
-    <t>User dengan email USERSIAISAISA@GMAIL.COM tidak ditemukan</t>
-  </si>
-  <si>
-    <t>94745</t>
-  </si>
-  <si>
-    <t>415942</t>
-  </si>
-  <si>
-    <t>User dengan email TESTDYLAN@GMAIL.COM belum aktivasi</t>
-  </si>
-  <si>
-    <t>Dokumen dengan No Kontrak : 000000555555555 tidak ditemukan di tenant WOMF</t>
-  </si>
-  <si>
-    <t>94746</t>
-  </si>
-  <si>
-    <t>691390</t>
-  </si>
-  <si>
-    <t>94747</t>
-  </si>
-  <si>
-    <t>311375</t>
-  </si>
-  <si>
-    <t>Dokumen dengan No Kontrak : 559 sudah selesai ditanda tangan</t>
   </si>
 </sst>
 </file>
@@ -9929,7 +9953,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9951,34 +9975,34 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
       <c r="L1" t="s">
@@ -9989,37 +10013,37 @@
       <c r="A2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="F2" t="s">
-        <v>290</v>
+      <c r="C2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D2" t="s">
+        <v>713</v>
+      </c>
+      <c r="E2" t="s">
+        <v>714</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="H2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="H2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="K2" s="35" t="s">
+      <c r="I2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="J2" t="s">
+        <v>715</v>
+      </c>
+      <c r="K2" t="s">
+        <v>716</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10034,31 +10058,31 @@
         <v>271</v>
       </c>
       <c r="D3" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="I3" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="J3" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="K3" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="L3" s="35" t="s">
         <v>296</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -10224,40 +10248,40 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="I11" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="J11" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="K11" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="K11" s="42" t="s">
-        <v>311</v>
-      </c>
       <c r="L11" s="10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -10390,7 +10414,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="40" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>171</v>
@@ -10428,7 +10452,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -10441,7 +10465,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -10478,8 +10502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT49"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="AF5" sqref="AF5"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="AS1" sqref="B1:AS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -10599,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="AH1" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="AI1" t="s">
         <v>178</v>
@@ -10643,88 +10667,88 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>694</v>
+        <v>732</v>
       </c>
       <c r="D2" t="s">
-        <v>695</v>
+        <v>733</v>
       </c>
       <c r="E2" t="s">
-        <v>696</v>
+        <v>734</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>698</v>
+        <v>736</v>
       </c>
       <c r="H2" t="s">
-        <v>699</v>
+        <v>737</v>
       </c>
       <c r="I2" t="s">
-        <v>700</v>
+        <v>738</v>
       </c>
       <c r="J2" t="s">
-        <v>701</v>
+        <v>739</v>
       </c>
       <c r="K2" t="s">
-        <v>702</v>
+        <v>740</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>704</v>
+        <v>742</v>
       </c>
       <c r="N2" t="s">
-        <v>704</v>
+        <v>742</v>
       </c>
       <c r="O2" t="s">
-        <v>704</v>
+        <v>742</v>
       </c>
       <c r="P2" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>704</v>
+        <v>742</v>
       </c>
       <c r="S2" t="s">
-        <v>704</v>
+        <v>742</v>
       </c>
       <c r="T2" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
       <c r="U2" t="s">
-        <v>705</v>
+        <v>745</v>
       </c>
       <c r="V2" t="s">
-        <v>695</v>
+        <v>733</v>
       </c>
       <c r="W2" t="s">
-        <v>695</v>
+        <v>733</v>
       </c>
       <c r="X2" t="s">
-        <v>706</v>
+        <v>746</v>
       </c>
       <c r="Y2" t="s">
-        <v>706</v>
+        <v>746</v>
       </c>
       <c r="Z2" t="s">
-        <v>707</v>
+        <v>747</v>
       </c>
       <c r="AA2" t="s">
-        <v>708</v>
+        <v>748</v>
       </c>
       <c r="AB2" t="s">
-        <v>709</v>
+        <v>749</v>
       </c>
       <c r="AC2" t="s">
-        <v>710</v>
+        <v>750</v>
       </c>
       <c r="AD2" t="s">
-        <v>711</v>
+        <v>751</v>
       </c>
       <c r="AE2" t="s">
         <v>31</v>
@@ -10733,10 +10757,10 @@
         <v>31</v>
       </c>
       <c r="AG2" t="s">
-        <v>714</v>
+        <v>754</v>
       </c>
       <c r="AH2" t="s">
-        <v>315</v>
+        <v>31</v>
       </c>
       <c r="AI2" t="s">
         <v>31</v>
@@ -10748,165 +10772,165 @@
         <v>31</v>
       </c>
       <c r="AL2" t="s">
-        <v>718</v>
+        <v>759</v>
       </c>
       <c r="AM2" t="s">
-        <v>695</v>
+        <v>733</v>
       </c>
       <c r="AN2" t="s">
-        <v>695</v>
+        <v>733</v>
       </c>
       <c r="AO2" t="s">
-        <v>695</v>
+        <v>733</v>
       </c>
       <c r="AP2" t="s">
-        <v>719</v>
+        <v>760</v>
       </c>
       <c r="AQ2" t="s">
         <v>31</v>
       </c>
       <c r="AR2" t="s">
-        <v>721</v>
+        <v>762</v>
       </c>
       <c r="AS2" t="s">
-        <v>722</v>
+        <v>763</v>
       </c>
     </row>
     <row ht="90" r="3" spans="1:45">
       <c r="A3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="L3" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="M3" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="P3" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="Q3" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="R3" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="S3" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="T3" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="U3" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="V3" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="W3" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="X3" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="Y3" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="Z3" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="AA3" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="AB3" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="AC3" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="AD3" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="AE3" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AF3" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AG3" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="AC3" s="17" t="s">
+      <c r="AH3" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="AD3" s="17" t="s">
+      <c r="AI3" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="AE3" s="17" t="s">
+      <c r="AJ3" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="AF3" s="17" t="s">
+      <c r="AK3" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="AG3" s="17" t="s">
+      <c r="AL3" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="AH3" s="17" t="s">
+      <c r="AM3" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="AI3" s="17" t="s">
+      <c r="AN3" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="AJ3" s="17" t="s">
+      <c r="AO3" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="AK3" s="17" t="s">
+      <c r="AP3" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="AL3" s="17" t="s">
+      <c r="AQ3" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="AM3" s="17" t="s">
+      <c r="AR3" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="AN3" s="17" t="s">
+      <c r="AS3" s="17" t="s">
         <v>355</v>
-      </c>
-      <c r="AO3" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="AP3" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="AQ3" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="AR3" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="AS3" s="17" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -11092,16 +11116,16 @@
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
-        <v>692</v>
+        <v>730</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>697</v>
+        <v>735</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -11109,14 +11133,14 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>703</v>
+        <v>741</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="R5"/>
       <c r="S5"/>
@@ -11132,23 +11156,23 @@
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5" t="s">
-        <v>712</v>
+        <v>752</v>
       </c>
       <c r="AF5" t="s">
-        <v>713</v>
+        <v>753</v>
       </c>
       <c r="AG5"/>
       <c r="AH5" t="s">
-        <v>728</v>
+        <v>755</v>
       </c>
       <c r="AI5" t="s">
-        <v>715</v>
+        <v>756</v>
       </c>
       <c r="AJ5" t="s">
-        <v>716</v>
+        <v>757</v>
       </c>
       <c r="AK5" t="s">
-        <v>717</v>
+        <v>758</v>
       </c>
       <c r="AL5"/>
       <c r="AM5"/>
@@ -11156,23 +11180,23 @@
       <c r="AO5"/>
       <c r="AP5"/>
       <c r="AQ5" t="s">
-        <v>720</v>
+        <v>761</v>
       </c>
       <c r="AR5"/>
       <c r="AS5"/>
     </row>
     <row r="6" spans="1:45">
       <c r="A6" s="9" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
-        <v>693</v>
+        <v>731</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -11180,20 +11204,20 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="R6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="S6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="T6"/>
       <c r="U6"/>
@@ -11207,23 +11231,23 @@
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AF6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AG6"/>
       <c r="AH6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AI6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AJ6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AK6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AL6"/>
       <c r="AM6"/>
@@ -11231,13 +11255,13 @@
       <c r="AO6"/>
       <c r="AP6"/>
       <c r="AQ6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AR6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AS6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -11336,144 +11360,144 @@
     </row>
     <row r="9" spans="1:45">
       <c r="A9" s="21" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="V9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="W9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="X9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Y9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Z9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AA9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AB9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AC9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AD9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AE9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AF9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AG9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AH9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AI9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AJ9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AK9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AL9" s="21" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AM9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AN9" s="21" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AO9" s="21" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AP9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AQ9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AR9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AS9" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="22" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -11522,174 +11546,174 @@
     </row>
     <row r="11" spans="1:45">
       <c r="A11" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="T11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="U11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="V11" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="W11" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="X11" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="AC11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD11" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE11" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF11" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="AG11" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="AH11" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="AI11" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ11" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="AK11" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="AL11" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="AM11" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="AN11" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="AO11" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="N11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="O11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="P11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="R11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="T11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="U11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="V11" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="W11" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="X11" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="Z11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="AA11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD11" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE11" s="21" t="s">
+      <c r="AP11" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="AF11" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG11" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="AH11" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="AI11" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="AJ11" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="AK11" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="AL11" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="AM11" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="AN11" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="AO11" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="AP11" s="21" t="s">
-        <v>377</v>
-      </c>
       <c r="AQ11" s="21" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="AR11" s="21" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="AS11" s="21" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:45">
       <c r="A12" s="21" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L12" s="24" t="s">
         <v>91</v>
@@ -11722,1177 +11746,1177 @@
         <v>91</v>
       </c>
       <c r="V12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="W12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="X12" s="24" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Y12" s="24" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Z12" s="24" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AA12" s="24" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AB12" s="24" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AC12" s="24" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AD12" s="24" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AE12" s="24" t="s">
         <v>91</v>
       </c>
       <c r="AF12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AG12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AH12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AI12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AJ12" s="24" t="s">
         <v>91</v>
       </c>
       <c r="AK12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AL12" s="24" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="AM12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AN12" s="24" t="s">
         <v>91</v>
       </c>
       <c r="AO12" s="24" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AP12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AQ12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AR12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AS12" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:45">
       <c r="A13" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="G13" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="H13" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="I13" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="J13" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="K13" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="L13" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="M13" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="N13" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="O13" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="P13" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="Q13" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="R13" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="S13" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="T13" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="U13" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="V13" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="R13" s="21" t="s">
+      <c r="W13" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="S13" s="21" t="s">
+      <c r="X13" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="T13" s="21" t="s">
+      <c r="Y13" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="U13" s="21" t="s">
+      <c r="Z13" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="V13" s="21" t="s">
+      <c r="AA13" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="W13" s="21" t="s">
+      <c r="AB13" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="X13" s="21" t="s">
+      <c r="AC13" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="Y13" s="21" t="s">
+      <c r="AD13" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="Z13" s="21" t="s">
+      <c r="AE13" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="AA13" s="21" t="s">
+      <c r="AF13" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="AB13" s="21" t="s">
+      <c r="AG13" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="AC13" s="21" t="s">
+      <c r="AH13" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="AD13" s="21" t="s">
+      <c r="AI13" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="AE13" s="21" t="s">
+      <c r="AJ13" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AF13" s="21" t="s">
+      <c r="AK13" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="AG13" s="21" t="s">
+      <c r="AL13" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="AM13" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="AH13" s="21" t="s">
+      <c r="AN13" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="AI13" s="21" t="s">
+      <c r="AO13" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="AP13" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="AJ13" s="21" t="s">
+      <c r="AQ13" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="AK13" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="AL13" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="AM13" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="AN13" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="AO13" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="AP13" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="AQ13" s="21" t="s">
-        <v>426</v>
-      </c>
       <c r="AR13" s="21" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AS13" s="21" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:45">
       <c r="A14" s="21" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="U14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="V14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="W14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="X14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="Y14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="Z14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AA14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AB14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AC14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AD14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AE14" s="21" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="AF14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AG14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AH14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AI14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AJ14" s="21" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AK14" s="21" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AL14" s="21" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AM14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AN14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AO14" s="21" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AP14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AQ14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AR14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AS14" s="21" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:45">
       <c r="A15" s="21" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="V15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="W15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="X15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="Y15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="Z15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AA15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AB15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AC15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AD15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AE15" s="21" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="AF15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AG15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AH15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AI15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AJ15" s="21" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AK15" s="21" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AL15" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AM15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AN15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AO15" s="21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AP15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AQ15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AR15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AS15" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:45">
       <c r="A16" s="21" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="P16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="V16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="W16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="X16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="Y16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="Z16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AA16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AB16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AC16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AD16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AE16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AF16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AG16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AH16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AI16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AJ16" s="21" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AK16" s="21" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="AL16" s="21" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AM16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AN16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AO16" s="21" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AP16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AQ16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AR16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AS16" s="21" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:45">
       <c r="A17" s="21" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="V17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="W17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="X17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="Y17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="Z17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AA17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AB17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AC17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AD17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AE17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AF17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AG17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AH17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AI17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AJ17" s="21" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AK17" s="21" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="AL17" s="21" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="AM17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AN17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AO17" s="21" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="AP17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AQ17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AR17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AS17" s="21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:45">
       <c r="A18" s="21" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="P18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="R18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="T18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="V18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="W18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="X18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="Y18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="Z18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AA18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AB18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AC18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AD18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AE18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AF18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AG18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AH18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AI18" s="21" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="AJ18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AK18" s="21" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AL18" s="21" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="AM18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AN18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AO18" s="21" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="AP18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AQ18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AR18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AS18" s="21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:45">
       <c r="A19" s="21" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="U19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="V19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="W19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="X19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="Y19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="Z19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AA19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AB19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AC19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AD19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AE19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AF19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AG19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AH19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AI19" s="21" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="AJ19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AK19" s="21" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AL19" s="21" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="AM19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AN19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AO19" s="21" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="AP19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AQ19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AR19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AS19" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:45">
       <c r="A20" s="21" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="V20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="W20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="X20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AA20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AC20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AD20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AE20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AF20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AG20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AH20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AI20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AJ20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AK20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AL20" s="9" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AM20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AN20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AO20" s="9" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AP20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AQ20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AR20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AS20" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:45">
       <c r="A21" s="25" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -12941,672 +12965,672 @@
     </row>
     <row r="22" spans="1:45">
       <c r="A22" s="21" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="Q22" s="21"/>
       <c r="R22" s="21" t="s">
-        <v>725</v>
+        <v>685</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="T22" s="21"/>
       <c r="U22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="V22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="W22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="X22" s="21" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="Y22" s="21" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="Z22" s="21" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AA22" s="21" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AB22" s="21" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AC22" s="21" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AD22" s="21" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AE22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AF22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AG22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AH22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AI22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AJ22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AK22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AL22" s="21" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="AM22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AN22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AO22" s="21" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="AP22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AQ22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AR22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AS22" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:45">
       <c r="A23" s="21" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="P23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="Q23" s="21"/>
       <c r="R23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="T23" s="21"/>
       <c r="U23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="V23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="W23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="X23" s="21" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="Y23" s="21" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="Z23" s="21" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AA23" s="21" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AB23" s="21" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AC23" s="21" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AD23" s="21" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AE23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AF23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AG23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AH23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AI23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AJ23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AK23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AL23" s="21" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AM23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AN23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AO23" s="21" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AP23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AQ23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AR23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AS23" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:45">
       <c r="A24" s="21" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="Q24" s="21"/>
       <c r="R24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="T24" s="21"/>
       <c r="U24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="V24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="W24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="X24" s="21" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="Y24" s="21" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="Z24" s="21" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AA24" s="21" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AB24" s="21" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AC24" s="21" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AD24" s="21" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AE24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AF24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AG24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AH24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AI24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AJ24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AK24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AL24" s="21" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AM24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AN24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AO24" s="21" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AP24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AQ24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AR24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AS24" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:45">
       <c r="A25" s="21" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="Q25" s="21"/>
       <c r="R25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="T25" s="21"/>
       <c r="U25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="W25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="X25" s="21" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="Y25" s="21" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="Z25" s="21" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="AA25" s="21" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="AB25" s="21" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="AC25" s="21" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="AD25" s="21" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="AE25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AF25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AG25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AH25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AI25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AJ25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AK25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AL25" s="21" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AM25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AN25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AO25" s="21" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AP25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AQ25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AR25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AS25" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:45">
       <c r="A26" s="21" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="O26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="P26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Q26" s="21"/>
       <c r="R26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="T26" s="21"/>
       <c r="U26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="X26" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="Y26" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="Z26" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="AA26" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="AB26" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="AC26" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="AD26" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="AE26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AF26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AG26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AI26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AJ26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AK26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AL26" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="AM26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AN26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AO26" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="AP26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AQ26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AR26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AS26" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:45">
       <c r="A27" s="22" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -13655,692 +13679,692 @@
     </row>
     <row r="28" spans="1:45">
       <c r="A28" s="21" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="P28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="Q28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="R28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="U28" s="21" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="V28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="W28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="X28" s="21" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="Y28" s="21" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="Z28" s="21" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AA28" s="21" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AB28" s="21" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AC28" s="21" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AD28" s="21" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AE28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF28" s="21" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AG28" s="21" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="AH28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AI28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AJ28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AK28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AL28" s="21" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AM28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AN28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AO28" s="21" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AP28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AQ28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AR28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AS28" s="21" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:45">
       <c r="A29" s="21" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="K29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="P29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="Q29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="R29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="U29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="V29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="W29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="X29" s="21" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="Y29" s="21" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="Z29" s="21" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AA29" s="21" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AB29" s="21" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AC29" s="21" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AD29" s="21" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AE29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AF29" s="21" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AG29" s="21" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AH29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AI29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AJ29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AK29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AL29" s="21" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AM29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AN29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AO29" s="21" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="AP29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AQ29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AR29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AS29" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:45">
       <c r="A30" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="N30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="P30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="R30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="S30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="T30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="U30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="V30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="W30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="X30" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="Y30" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z30" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA30" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="AB30" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="AC30" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="AD30" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="AF30" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="E30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="G30" s="21" t="s">
+      <c r="AG30" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="AH30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="AI30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="AJ30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="AK30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="AL30" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="AM30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="AN30" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="AO30" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="AP30" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="J30" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="L30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="M30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="N30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="O30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="P30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="R30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="S30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="T30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="U30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="V30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="W30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="X30" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="Y30" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z30" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="AA30" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="AB30" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="AC30" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="AD30" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="AE30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="AF30" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="AG30" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="AH30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="AI30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="AJ30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="AK30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="AL30" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="AM30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="AN30" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="AO30" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="AP30" s="21" t="s">
-        <v>509</v>
-      </c>
       <c r="AQ30" s="21" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AR30" s="21" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AS30" s="21" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:45">
       <c r="A31" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="P31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="R31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="S31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="T31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="U31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="V31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="W31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="X31" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="Y31" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="Z31" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="AA31" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="AB31" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="AC31" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="AD31" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="AE31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="AF31" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="G31" s="21" t="s">
+      <c r="AG31" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="AH31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="AI31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="AJ31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="AK31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="AL31" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="AM31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="AN31" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="AO31" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="AP31" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="J31" s="21" t="s">
+      <c r="AQ31" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="AR31" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="K31" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="L31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="M31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="N31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="O31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="P31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="R31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="S31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="T31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="U31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="V31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="W31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="X31" s="21" t="s">
+      <c r="AS31" s="21" t="s">
         <v>517</v>
-      </c>
-      <c r="Y31" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="Z31" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="AA31" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="AB31" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="AC31" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="AD31" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="AE31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="AF31" s="21" t="s">
-        <v>519</v>
-      </c>
-      <c r="AG31" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="AH31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="AI31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="AJ31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="AK31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="AL31" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="AM31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="AN31" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="AO31" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="AP31" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="AQ31" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="AR31" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="AS31" s="21" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:45">
       <c r="A32" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="M32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="N32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="O32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="R32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="S32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="T32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="U32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="V32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="W32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="X32" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="Y32" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z32" s="28" t="s">
         <v>526</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="AA32" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="AB32" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="AC32" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD32" s="28" t="s">
         <v>527</v>
       </c>
-      <c r="D32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="G32" s="28" t="s">
+      <c r="AE32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="AF32" s="28" t="s">
         <v>528</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="AG32" s="28" t="s">
         <v>529</v>
       </c>
-      <c r="I32" s="28" t="s">
+      <c r="AH32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="AJ32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="AK32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="AL32" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="J32" s="28" t="s">
+      <c r="AM32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="AN32" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="AO32" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="AP32" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="K32" s="28" t="s">
-        <v>531</v>
-      </c>
-      <c r="L32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="M32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="N32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="O32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="P32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="R32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="S32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="T32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="U32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="V32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="W32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="X32" s="28" t="s">
+      <c r="AQ32" s="28" t="s">
         <v>532</v>
       </c>
-      <c r="Y32" s="28" t="s">
+      <c r="AR32" s="28" t="s">
         <v>532</v>
       </c>
-      <c r="Z32" s="28" t="s">
-        <v>533</v>
-      </c>
-      <c r="AA32" s="28" t="s">
+      <c r="AS32" s="28" t="s">
         <v>532</v>
-      </c>
-      <c r="AB32" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="AC32" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="AD32" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="AE32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="AF32" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="AG32" s="28" t="s">
-        <v>536</v>
-      </c>
-      <c r="AH32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="AI32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="AJ32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="AK32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="AL32" s="28" t="s">
-        <v>537</v>
-      </c>
-      <c r="AM32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="AN32" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="AO32" s="28" t="s">
-        <v>537</v>
-      </c>
-      <c r="AP32" s="28" t="s">
-        <v>538</v>
-      </c>
-      <c r="AQ32" s="28" t="s">
-        <v>539</v>
-      </c>
-      <c r="AR32" s="28" t="s">
-        <v>539</v>
-      </c>
-      <c r="AS32" s="28" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="33" spans="1:45">
       <c r="A33" s="25" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -14389,672 +14413,672 @@
     </row>
     <row r="34" spans="1:45">
       <c r="A34" s="21" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="L34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="M34" s="21" t="s">
-        <v>723</v>
+        <v>683</v>
       </c>
       <c r="N34" s="21" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>724</v>
+        <v>684</v>
       </c>
       <c r="P34" s="21"/>
       <c r="Q34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="R34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="S34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="T34" s="21"/>
       <c r="U34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="V34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="W34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="X34" s="21" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="Y34" s="21" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="Z34" s="21" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="AA34" s="21" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="AB34" s="21" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="AC34" s="21" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="AD34" s="21" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="AE34" s="21" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="AF34" s="21" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="AG34" s="21" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="AH34" s="21" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="AI34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="AJ34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="AK34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="AL34" s="21" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="AM34" s="21" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="AN34" s="21" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="AO34" s="21" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="AP34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="AQ34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="AR34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="AS34" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="1:45">
       <c r="A35" s="21" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="M35" s="21" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="N35" s="21" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="O35" s="21" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="P35" s="21"/>
       <c r="Q35" s="21" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="R35" s="21" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="S35" s="21" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="T35" s="21"/>
       <c r="U35" s="21" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="V35" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="W35" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="X35" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y35" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z35" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA35" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="AB35" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="AC35" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD35" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="AE35" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF35" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="AG35" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH35" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="AI35" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="AJ35" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="AK35" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="AL35" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="W35" s="21" t="s">
+      <c r="AM35" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="AN35" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="AO35" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="X35" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="Y35" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z35" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="AA35" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="AB35" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="AC35" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="AD35" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="AE35" s="21" t="s">
-        <v>552</v>
-      </c>
-      <c r="AF35" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="AG35" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="AH35" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI35" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="AJ35" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="AK35" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="AL35" s="21" t="s">
-        <v>554</v>
-      </c>
-      <c r="AM35" s="21" t="s">
-        <v>549</v>
-      </c>
-      <c r="AN35" s="21" t="s">
-        <v>549</v>
-      </c>
-      <c r="AO35" s="21" t="s">
-        <v>554</v>
-      </c>
       <c r="AP35" s="21" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="AQ35" s="21" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="AR35" s="21" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="AS35" s="21" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="1:45">
       <c r="A36" s="21" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="M36" s="21" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="N36" s="21" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="P36" s="21"/>
       <c r="Q36" s="21" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="R36" s="21" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="S36" s="21" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="T36" s="21"/>
       <c r="U36" s="21" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="V36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="W36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="X36" s="21" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="Y36" s="21" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="Z36" s="21" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AA36" s="21" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AB36" s="21" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AC36" s="21" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AD36" s="21" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AE36" s="21" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="AF36" s="21" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AG36" s="21" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="AH36" s="21" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AI36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AJ36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AK36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AL36" s="21" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="AM36" s="21" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="AN36" s="21" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="AO36" s="21" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="AP36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AQ36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AR36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AS36" s="21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="37" spans="1:45">
       <c r="A37" s="21" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="L37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="M37" s="21" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="P37" s="21"/>
       <c r="Q37" s="21" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="R37" s="21" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="S37" s="21" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="T37" s="21"/>
       <c r="U37" s="21" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="V37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="W37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="X37" s="21" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="Y37" s="21" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="Z37" s="21" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AA37" s="21" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AB37" s="21" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AC37" s="21" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AD37" s="21" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AE37" s="21" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="AF37" s="21" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AG37" s="21" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="AH37" s="21" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AI37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="AJ37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="AK37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="AL37" s="21" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="AM37" s="21" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="AN37" s="21" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="AO37" s="21" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="AP37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="AQ37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="AR37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="AS37" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:45">
       <c r="A38" s="21" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="J38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="L38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="N38" s="21" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="P38" s="21"/>
       <c r="Q38" s="21" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="R38" s="21" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="S38" s="21" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="T38" s="21"/>
       <c r="U38" s="21" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="V38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="W38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="X38" s="21" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="Y38" s="21" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="Z38" s="21" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="AA38" s="21" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="AB38" s="21" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="AC38" s="21" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="AD38" s="21" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="AE38" s="21" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="AF38" s="21" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="AG38" s="21" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="AH38" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="AI38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="AJ38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="AK38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="AL38" s="21" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="AM38" s="21" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="AN38" s="21" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="AO38" s="21" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="AP38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="AQ38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="AR38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="AS38" s="21" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:45">
       <c r="A39" s="25" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
@@ -15106,136 +15130,136 @@
         <v>85</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="M40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="N40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="P40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="Q40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="R40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="S40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="T40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="U40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="V40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="W40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="X40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="Y40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="Z40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AA40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AB40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AC40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AD40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AE40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AF40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AG40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AH40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AI40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AJ40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AK40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AL40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AM40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AN40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AO40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AP40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AQ40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AR40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AS40" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41" spans="1:45">
@@ -15470,13 +15494,13 @@
       <c r="AK43" s="10"/>
       <c r="AL43" s="10"/>
       <c r="AM43" s="10" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AN43" s="10" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AO43" s="10" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AP43" s="10"/>
       <c r="AQ43" s="10"/>
@@ -15662,13 +15686,13 @@
       <c r="AK45" s="8"/>
       <c r="AL45" s="8"/>
       <c r="AM45" s="8" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AN45" s="8" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AO45" s="8" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AP45" s="8"/>
       <c r="AQ45" s="8"/>
@@ -15677,7 +15701,7 @@
     </row>
     <row r="46" spans="1:45">
       <c r="A46" s="10" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>171</v>
@@ -15814,15 +15838,15 @@
     </row>
     <row ht="75" r="48" spans="1:45">
       <c r="A48" s="16" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="16" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -15886,7 +15910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:Q2"/>
     </sheetView>
   </sheetViews>
@@ -15968,34 +15992,34 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="D2" t="s">
-        <v>742</v>
+        <v>699</v>
       </c>
       <c r="E2" t="s">
-        <v>743</v>
+        <v>700</v>
       </c>
       <c r="F2" t="s">
-        <v>744</v>
+        <v>701</v>
       </c>
       <c r="G2" t="s">
-        <v>745</v>
+        <v>702</v>
       </c>
       <c r="H2" t="s">
-        <v>746</v>
+        <v>703</v>
       </c>
       <c r="I2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="J2" t="s">
-        <v>749</v>
+        <v>706</v>
       </c>
       <c r="K2" t="s">
-        <v>749</v>
+        <v>706</v>
       </c>
       <c r="L2" t="s">
-        <v>750</v>
+        <v>707</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>31</v>
@@ -16004,14 +16028,12 @@
         <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>755</v>
-      </c>
-      <c r="P2"/>
-      <c r="Q2"/>
+        <v>712</v>
+      </c>
     </row>
     <row ht="60" r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>270</v>
@@ -16020,46 +16042,46 @@
         <v>271</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -16117,7 +16139,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -16127,16 +16149,16 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" t="s">
-        <v>747</v>
+        <v>704</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" t="s">
-        <v>751</v>
+        <v>708</v>
       </c>
       <c r="N5" t="s">
-        <v>753</v>
+        <v>710</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -16152,16 +16174,16 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" t="s">
-        <v>748</v>
+        <v>705</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" t="s">
-        <v>752</v>
+        <v>709</v>
       </c>
       <c r="N6" t="s">
-        <v>754</v>
+        <v>711</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -16188,7 +16210,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -16209,102 +16231,102 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -16314,46 +16336,46 @@
         <v>97</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -16363,10 +16385,10 @@
         <v>250</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>91</v>
@@ -16387,22 +16409,22 @@
         <v>91</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>256</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>91</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -16563,7 +16585,7 @@
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -16735,67 +16757,67 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>732</v>
+        <v>689</v>
       </c>
       <c r="D2" t="s">
-        <v>733</v>
+        <v>690</v>
       </c>
       <c r="E2" t="s">
-        <v>734</v>
+        <v>691</v>
       </c>
       <c r="F2" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G2" t="s">
         <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>735</v>
+        <v>692</v>
       </c>
       <c r="I2" t="s">
-        <v>737</v>
+        <v>694</v>
       </c>
       <c r="J2" t="s">
-        <v>741</v>
+        <v>698</v>
       </c>
       <c r="K2" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="L2" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="M2" t="s">
-        <v>738</v>
+        <v>695</v>
       </c>
       <c r="N2" t="s">
-        <v>738</v>
+        <v>695</v>
       </c>
       <c r="O2" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="P2" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="S2" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="T2" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="U2" t="s">
         <v>31</v>
       </c>
       <c r="V2" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="W2" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="X2" t="s">
         <v>183</v>
@@ -16804,105 +16826,105 @@
         <v>4</v>
       </c>
       <c r="Z2" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="AA2" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="AB2" t="s">
         <v>31</v>
       </c>
       <c r="AC2" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row ht="45" r="3" spans="1:29">
       <c r="A3" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="U3" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>649</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>191</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -16996,7 +17018,7 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -17006,10 +17028,10 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" t="s">
-        <v>736</v>
+        <v>693</v>
       </c>
       <c r="J5" t="s">
-        <v>740</v>
+        <v>697</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -17062,7 +17084,7 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="4" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -17095,96 +17117,96 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="2" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="4" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -17217,91 +17239,91 @@
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="R10" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="S10" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>730</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="T10" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="U10" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="V10" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="W10" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="X10" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y10" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="Z10" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="AA10" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="AC10" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="Z10" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA10" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="AB10" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="AC10" s="7" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -17309,49 +17331,49 @@
         <v>97</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="Q11" s="8" t="s">
         <v>210</v>
@@ -17360,34 +17382,34 @@
         <v>209</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="U11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="X11" s="8" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="Y11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="Z11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AA11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AB11" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AC11" s="8" t="s">
         <v>210</v>
@@ -17446,7 +17468,7 @@
         <v>165</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="S12" s="8" t="s">
         <v>165</v>
@@ -17484,269 +17506,269 @@
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="2" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="2" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="2" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="AB15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="AC15" s="9" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -18024,7 +18046,7 @@
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
@@ -18032,7 +18054,7 @@
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="10" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>171</v>
@@ -18121,7 +18143,7 @@
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="10" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -18145,10 +18167,10 @@
         <v>91</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
@@ -18170,7 +18192,7 @@
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="10" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>170</v>
@@ -18259,7 +18281,7 @@
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="10" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>171</v>
@@ -18348,7 +18370,7 @@
     </row>
     <row customFormat="1" r="25" s="1" spans="1:29">
       <c r="A25" s="11" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -18384,88 +18406,88 @@
         <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="C26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="E26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="F26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="H26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="I26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="J26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="K26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="L26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="M26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="N26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="O26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="P26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="Q26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="R26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="S26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="T26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="U26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="V26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="W26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="X26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="Y26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="Z26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="AA26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="AB26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="AC26" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/2.1 Esign - Full API Services.xlsx
+++ b/Excel/2.1 Esign - Full API Services.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="API Generate Invitation Link" sheetId="26" r:id="rId1"/>
@@ -62,8 +62,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Fendy Tio</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fendy Tio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Jika tidak sesuai Expected Result maka akan warna merah</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5730" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5730" uniqueCount="866">
   <si>
     <t>Status</t>
   </si>
@@ -2672,18 +2706,6 @@
     <t>Sukses dengan Tenant TAFS</t>
   </si>
   <si>
-    <t>Tidak sukses</t>
-  </si>
-  <si>
-    <t>Sukses dengan hasilnya 0</t>
-  </si>
-  <si>
-    <t>Sukses, resultnya berbeda dengan tenant TAFS</t>
-  </si>
-  <si>
-    <t>Sukses, resultnya berbeda dengan tenant WOMF</t>
-  </si>
-  <si>
     <t>Total Unsigned Documents</t>
   </si>
   <si>
@@ -2759,7 +2781,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2886,6 +2908,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3018,7 +3046,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3124,6 +3152,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3133,7 +3164,7 @@
     <cellStyle name="Normal 2 2" xfId="5"/>
     <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="332">
     <dxf>
       <fill>
         <patternFill patternType="darkGray">
@@ -3220,6 +3251,174 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="darkGray">
           <bgColor theme="6"/>
         </patternFill>
@@ -3248,6 +3447,34 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="darkGray">
           <bgColor theme="6"/>
         </patternFill>
@@ -3276,6 +3503,34 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="darkGray">
           <bgColor theme="6"/>
         </patternFill>
@@ -3360,6 +3615,34 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="darkGray">
           <bgColor theme="6"/>
         </patternFill>
@@ -3388,6 +3671,34 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="darkGray">
           <bgColor theme="6"/>
         </patternFill>
@@ -3416,6 +3727,34 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="darkGray">
           <bgColor theme="6"/>
         </patternFill>
@@ -3444,6 +3783,34 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="darkGray">
           <bgColor theme="6"/>
         </patternFill>
@@ -3458,6 +3825,41 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="darkGray">
           <bgColor theme="6"/>
         </patternFill>
@@ -3542,8 +3944,1380 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="darkGray">
           <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor theme="6"/>
+        </patternFill>
+    